--- a/BackTest/2020-01-11 BackTest XLM.xlsx
+++ b/BackTest/2020-01-11 BackTest XLM.xlsx
@@ -6611,225 +6611,195 @@
         <v>52.53333333333332</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="n">
-        <v>52.38</v>
-      </c>
+      <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr">
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>52.33</v>
+      </c>
+      <c r="C179" t="n">
+        <v>52.2</v>
+      </c>
+      <c r="D179" t="n">
+        <v>52.33</v>
+      </c>
+      <c r="E179" t="n">
+        <v>52.2</v>
+      </c>
+      <c r="F179" t="n">
+        <v>1370.8149</v>
+      </c>
+      <c r="G179" t="n">
+        <v>52.52533333333331</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>52.21</v>
+      </c>
+      <c r="C180" t="n">
+        <v>52.13</v>
+      </c>
+      <c r="D180" t="n">
+        <v>52.24</v>
+      </c>
+      <c r="E180" t="n">
+        <v>52.11</v>
+      </c>
+      <c r="F180" t="n">
+        <v>19754.2831</v>
+      </c>
+      <c r="G180" t="n">
+        <v>52.51683333333332</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>52.11</v>
+      </c>
+      <c r="C181" t="n">
+        <v>52.11</v>
+      </c>
+      <c r="D181" t="n">
+        <v>52.11</v>
+      </c>
+      <c r="E181" t="n">
+        <v>52.11</v>
+      </c>
+      <c r="F181" t="n">
+        <v>1340.9399</v>
+      </c>
+      <c r="G181" t="n">
+        <v>52.50699999999999</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>52.14</v>
+      </c>
+      <c r="C182" t="n">
+        <v>52.07</v>
+      </c>
+      <c r="D182" t="n">
+        <v>52.14</v>
+      </c>
+      <c r="E182" t="n">
+        <v>52.07</v>
+      </c>
+      <c r="F182" t="n">
+        <v>16652.9405</v>
+      </c>
+      <c r="G182" t="n">
+        <v>52.49566666666666</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>52.13</v>
+      </c>
+      <c r="C183" t="n">
+        <v>52.11</v>
+      </c>
+      <c r="D183" t="n">
+        <v>52.13</v>
+      </c>
+      <c r="E183" t="n">
+        <v>52.03</v>
+      </c>
+      <c r="F183" t="n">
+        <v>3471.3327</v>
+      </c>
+      <c r="G183" t="n">
+        <v>52.4835</v>
+      </c>
+      <c r="H183" t="n">
+        <v>1</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="n">
+        <v>52.07</v>
+      </c>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>52.33</v>
-      </c>
-      <c r="C179" t="n">
-        <v>52.2</v>
-      </c>
-      <c r="D179" t="n">
-        <v>52.33</v>
-      </c>
-      <c r="E179" t="n">
-        <v>52.2</v>
-      </c>
-      <c r="F179" t="n">
-        <v>1370.8149</v>
-      </c>
-      <c r="G179" t="n">
-        <v>52.52533333333331</v>
-      </c>
-      <c r="H179" t="n">
-        <v>1</v>
-      </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="n">
-        <v>52.33</v>
-      </c>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>52.21</v>
-      </c>
-      <c r="C180" t="n">
-        <v>52.13</v>
-      </c>
-      <c r="D180" t="n">
-        <v>52.24</v>
-      </c>
-      <c r="E180" t="n">
-        <v>52.11</v>
-      </c>
-      <c r="F180" t="n">
-        <v>19754.2831</v>
-      </c>
-      <c r="G180" t="n">
-        <v>52.51683333333332</v>
-      </c>
-      <c r="H180" t="n">
-        <v>1</v>
-      </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" t="n">
-        <v>52.21</v>
-      </c>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>52.11</v>
-      </c>
-      <c r="C181" t="n">
-        <v>52.11</v>
-      </c>
-      <c r="D181" t="n">
-        <v>52.11</v>
-      </c>
-      <c r="E181" t="n">
-        <v>52.11</v>
-      </c>
-      <c r="F181" t="n">
-        <v>1340.9399</v>
-      </c>
-      <c r="G181" t="n">
-        <v>52.50699999999999</v>
-      </c>
-      <c r="H181" t="n">
-        <v>1</v>
-      </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="n">
-        <v>52.11</v>
-      </c>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>52.14</v>
-      </c>
-      <c r="C182" t="n">
-        <v>52.07</v>
-      </c>
-      <c r="D182" t="n">
-        <v>52.14</v>
-      </c>
-      <c r="E182" t="n">
-        <v>52.07</v>
-      </c>
-      <c r="F182" t="n">
-        <v>16652.9405</v>
-      </c>
-      <c r="G182" t="n">
-        <v>52.49566666666666</v>
-      </c>
-      <c r="H182" t="n">
-        <v>1</v>
-      </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" t="n">
-        <v>52.14</v>
-      </c>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>52.13</v>
-      </c>
-      <c r="C183" t="n">
-        <v>52.11</v>
-      </c>
-      <c r="D183" t="n">
-        <v>52.13</v>
-      </c>
-      <c r="E183" t="n">
-        <v>52.03</v>
-      </c>
-      <c r="F183" t="n">
-        <v>3471.3327</v>
-      </c>
-      <c r="G183" t="n">
-        <v>52.4835</v>
-      </c>
-      <c r="H183" t="n">
-        <v>1</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="n">
-        <v>52.13</v>
-      </c>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -6863,7 +6833,7 @@
         <v>0</v>
       </c>
       <c r="J184" t="n">
-        <v>52.05</v>
+        <v>52.11</v>
       </c>
       <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr">
@@ -6904,7 +6874,7 @@
         <v>0</v>
       </c>
       <c r="J185" t="n">
-        <v>52.01</v>
+        <v>52</v>
       </c>
       <c r="K185" t="inlineStr"/>
       <c r="L185" t="inlineStr">
@@ -6945,7 +6915,7 @@
         <v>0</v>
       </c>
       <c r="J186" t="n">
-        <v>52</v>
+        <v>52.18</v>
       </c>
       <c r="K186" t="inlineStr"/>
       <c r="L186" t="inlineStr">
@@ -7027,7 +6997,7 @@
         <v>0</v>
       </c>
       <c r="J188" t="n">
-        <v>52.2</v>
+        <v>52</v>
       </c>
       <c r="K188" t="inlineStr"/>
       <c r="L188" t="inlineStr">
@@ -7068,7 +7038,7 @@
         <v>0</v>
       </c>
       <c r="J189" t="n">
-        <v>52.06</v>
+        <v>52.2</v>
       </c>
       <c r="K189" t="inlineStr"/>
       <c r="L189" t="inlineStr">
@@ -7109,7 +7079,7 @@
         <v>0</v>
       </c>
       <c r="J190" t="n">
-        <v>52.2</v>
+        <v>52.06</v>
       </c>
       <c r="K190" t="inlineStr"/>
       <c r="L190" t="inlineStr">
@@ -7144,14 +7114,12 @@
         <v>52.41783333333332</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="n">
-        <v>52.3</v>
-      </c>
+      <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
       <c r="L191" t="inlineStr">
         <is>
@@ -7185,14 +7153,12 @@
         <v>52.41233333333332</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="n">
-        <v>52.31</v>
-      </c>
+      <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
       <c r="L192" t="inlineStr">
         <is>
@@ -7226,14 +7192,12 @@
         <v>52.40633333333333</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="n">
-        <v>52.31</v>
-      </c>
+      <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
       <c r="L193" t="inlineStr">
         <is>
@@ -7267,14 +7231,12 @@
         <v>52.40333333333332</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="n">
-        <v>52.41</v>
-      </c>
+      <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
       <c r="L194" t="inlineStr">
         <is>
@@ -7308,14 +7270,12 @@
         <v>52.40016666666666</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="n">
-        <v>52.43</v>
-      </c>
+      <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
       <c r="L195" t="inlineStr">
         <is>
@@ -7349,14 +7309,12 @@
         <v>52.39649999999998</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="n">
-        <v>52.43</v>
-      </c>
+      <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
       <c r="L196" t="inlineStr">
         <is>
@@ -7390,14 +7348,12 @@
         <v>52.39316666666665</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="n">
-        <v>52.45</v>
-      </c>
+      <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
       <c r="L197" t="inlineStr">
         <is>
@@ -7431,14 +7387,12 @@
         <v>52.39133333333333</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="n">
-        <v>52.5</v>
-      </c>
+      <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
       <c r="L198" t="inlineStr">
         <is>
@@ -7472,14 +7426,12 @@
         <v>52.39166666666666</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="n">
-        <v>52.64</v>
-      </c>
+      <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
       <c r="L199" t="inlineStr">
         <is>
@@ -7513,14 +7465,12 @@
         <v>52.39016666666667</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="n">
-        <v>52.53</v>
-      </c>
+      <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
       <c r="L200" t="inlineStr">
         <is>
@@ -7983,14 +7933,12 @@
         <v>52.364</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="n">
-        <v>52.4</v>
-      </c>
+      <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
       <c r="L212" t="inlineStr">
         <is>
@@ -8024,14 +7972,12 @@
         <v>52.3615</v>
       </c>
       <c r="H213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
       </c>
-      <c r="J213" t="n">
-        <v>52.41</v>
-      </c>
+      <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
       <c r="L213" t="inlineStr">
         <is>
@@ -8065,14 +8011,12 @@
         <v>52.35783333333334</v>
       </c>
       <c r="H214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
-      <c r="J214" t="n">
-        <v>52.27</v>
-      </c>
+      <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
       <c r="L214" t="inlineStr">
         <is>
@@ -8145,14 +8089,12 @@
         <v>52.36516666666667</v>
       </c>
       <c r="H216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
       </c>
-      <c r="J216" t="n">
-        <v>52.83</v>
-      </c>
+      <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
       <c r="L216" t="inlineStr">
         <is>
@@ -8735,18 +8677,16 @@
         <v>0</v>
       </c>
       <c r="I231" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
       <c r="L231" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8774,15 +8714,11 @@
         <v>0</v>
       </c>
       <c r="I232" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L232" t="inlineStr"/>
       <c r="M232" t="n">
         <v>1</v>
       </c>
@@ -8817,11 +8753,7 @@
       </c>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L233" t="inlineStr"/>
       <c r="M233" t="n">
         <v>1</v>
       </c>
@@ -8856,11 +8788,7 @@
       </c>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L234" t="inlineStr"/>
       <c r="M234" t="n">
         <v>1</v>
       </c>
@@ -8895,11 +8823,7 @@
       </c>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L235" t="inlineStr"/>
       <c r="M235" t="n">
         <v>1</v>
       </c>
@@ -8934,11 +8858,7 @@
       </c>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L236" t="inlineStr"/>
       <c r="M236" t="n">
         <v>1</v>
       </c>
@@ -8973,11 +8893,7 @@
       </c>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L237" t="inlineStr"/>
       <c r="M237" t="n">
         <v>1</v>
       </c>
@@ -9012,11 +8928,7 @@
       </c>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L238" t="inlineStr"/>
       <c r="M238" t="n">
         <v>1</v>
       </c>
@@ -9051,11 +8963,7 @@
       </c>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L239" t="inlineStr"/>
       <c r="M239" t="n">
         <v>1</v>
       </c>
@@ -9090,11 +8998,7 @@
       </c>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L240" t="inlineStr"/>
       <c r="M240" t="n">
         <v>1</v>
       </c>
@@ -9129,11 +9033,7 @@
       </c>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L241" t="inlineStr"/>
       <c r="M241" t="n">
         <v>1</v>
       </c>
@@ -9168,11 +9068,7 @@
       </c>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L242" t="inlineStr"/>
       <c r="M242" t="n">
         <v>1</v>
       </c>
@@ -9207,11 +9103,7 @@
       </c>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L243" t="inlineStr"/>
       <c r="M243" t="n">
         <v>1</v>
       </c>
@@ -9246,11 +9138,7 @@
       </c>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L244" t="inlineStr"/>
       <c r="M244" t="n">
         <v>1</v>
       </c>
@@ -9285,11 +9173,7 @@
       </c>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L245" t="inlineStr"/>
       <c r="M245" t="n">
         <v>1</v>
       </c>
@@ -9324,11 +9208,7 @@
       </c>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L246" t="inlineStr"/>
       <c r="M246" t="n">
         <v>1</v>
       </c>
@@ -9363,11 +9243,7 @@
       </c>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L247" t="inlineStr"/>
       <c r="M247" t="n">
         <v>1</v>
       </c>
@@ -9402,11 +9278,7 @@
       </c>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L248" t="inlineStr"/>
       <c r="M248" t="n">
         <v>1</v>
       </c>
@@ -9441,11 +9313,7 @@
       </c>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L249" t="inlineStr"/>
       <c r="M249" t="n">
         <v>1</v>
       </c>
@@ -9480,11 +9348,7 @@
       </c>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L250" t="inlineStr"/>
       <c r="M250" t="n">
         <v>1</v>
       </c>
@@ -9519,11 +9383,7 @@
       </c>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L251" t="inlineStr"/>
       <c r="M251" t="n">
         <v>1</v>
       </c>
@@ -9554,15 +9414,11 @@
         <v>0</v>
       </c>
       <c r="I252" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L252" t="inlineStr"/>
       <c r="M252" t="n">
         <v>1</v>
       </c>
@@ -9597,11 +9453,7 @@
       </c>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L253" t="inlineStr"/>
       <c r="M253" t="n">
         <v>1</v>
       </c>
@@ -9636,11 +9488,7 @@
       </c>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L254" t="inlineStr"/>
       <c r="M254" t="n">
         <v>1</v>
       </c>
@@ -9675,11 +9523,7 @@
       </c>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L255" t="inlineStr"/>
       <c r="M255" t="n">
         <v>1</v>
       </c>
@@ -9714,11 +9558,7 @@
       </c>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L256" t="inlineStr"/>
       <c r="M256" t="n">
         <v>1</v>
       </c>
@@ -9753,11 +9593,7 @@
       </c>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L257" t="inlineStr"/>
       <c r="M257" t="n">
         <v>1</v>
       </c>
@@ -9792,11 +9628,7 @@
       </c>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L258" t="inlineStr"/>
       <c r="M258" t="n">
         <v>1</v>
       </c>
@@ -9831,11 +9663,7 @@
       </c>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L259" t="inlineStr"/>
       <c r="M259" t="n">
         <v>1</v>
       </c>
@@ -9870,11 +9698,7 @@
       </c>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L260" t="inlineStr"/>
       <c r="M260" t="n">
         <v>1</v>
       </c>
@@ -9909,11 +9733,7 @@
       </c>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L261" t="inlineStr"/>
       <c r="M261" t="n">
         <v>1</v>
       </c>
@@ -9948,11 +9768,7 @@
       </c>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L262" t="inlineStr"/>
       <c r="M262" t="n">
         <v>1</v>
       </c>
@@ -9983,16 +9799,14 @@
         <v>0</v>
       </c>
       <c r="I263" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M263" t="inlineStr"/>
+      <c r="L263" t="inlineStr"/>
+      <c r="M263" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">

--- a/BackTest/2020-01-11 BackTest XLM.xlsx
+++ b/BackTest/2020-01-11 BackTest XLM.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M306"/>
+  <dimension ref="A1:M307"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>54.03</v>
+        <v>53.97</v>
       </c>
       <c r="C2" t="n">
-        <v>54.11</v>
+        <v>53.97</v>
       </c>
       <c r="D2" t="n">
-        <v>54.11</v>
+        <v>53.97</v>
       </c>
       <c r="E2" t="n">
-        <v>54.03</v>
+        <v>53.97</v>
       </c>
       <c r="F2" t="n">
-        <v>4046.103</v>
+        <v>4677.2441</v>
       </c>
       <c r="G2" t="n">
-        <v>54.0198333333333</v>
+        <v>54.02366666666664</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>54.15</v>
+        <v>54.03</v>
       </c>
       <c r="C3" t="n">
-        <v>54.15</v>
+        <v>54.11</v>
       </c>
       <c r="D3" t="n">
-        <v>54.15</v>
+        <v>54.11</v>
       </c>
       <c r="E3" t="n">
-        <v>54.15</v>
+        <v>54.03</v>
       </c>
       <c r="F3" t="n">
-        <v>18042.686</v>
+        <v>4046.103</v>
       </c>
       <c r="G3" t="n">
-        <v>54.01483333333331</v>
+        <v>54.0198333333333</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>54.1</v>
+        <v>54.15</v>
       </c>
       <c r="C4" t="n">
-        <v>54.1</v>
+        <v>54.15</v>
       </c>
       <c r="D4" t="n">
-        <v>54.1</v>
+        <v>54.15</v>
       </c>
       <c r="E4" t="n">
-        <v>54.1</v>
+        <v>54.15</v>
       </c>
       <c r="F4" t="n">
-        <v>10216</v>
+        <v>18042.686</v>
       </c>
       <c r="G4" t="n">
-        <v>54.00916666666664</v>
+        <v>54.01483333333331</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -550,10 +550,10 @@
         <v>54.1</v>
       </c>
       <c r="F5" t="n">
-        <v>39859.5025</v>
+        <v>10216</v>
       </c>
       <c r="G5" t="n">
-        <v>54.00616666666664</v>
+        <v>54.00916666666664</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>54.19</v>
+        <v>54.1</v>
       </c>
       <c r="C6" t="n">
-        <v>54.19</v>
+        <v>54.1</v>
       </c>
       <c r="D6" t="n">
-        <v>54.19</v>
+        <v>54.1</v>
       </c>
       <c r="E6" t="n">
         <v>54.1</v>
       </c>
       <c r="F6" t="n">
-        <v>1314.2477</v>
+        <v>39859.5025</v>
       </c>
       <c r="G6" t="n">
-        <v>54.00466666666663</v>
+        <v>54.00616666666664</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>54.1</v>
+        <v>54.19</v>
       </c>
       <c r="C7" t="n">
-        <v>54.1</v>
+        <v>54.19</v>
       </c>
       <c r="D7" t="n">
-        <v>54.1</v>
+        <v>54.19</v>
       </c>
       <c r="E7" t="n">
         <v>54.1</v>
       </c>
       <c r="F7" t="n">
-        <v>1493.4061</v>
+        <v>1314.2477</v>
       </c>
       <c r="G7" t="n">
-        <v>54.0008333333333</v>
+        <v>54.00466666666663</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>54.1</v>
       </c>
       <c r="F8" t="n">
-        <v>16645.1063</v>
+        <v>1493.4061</v>
       </c>
       <c r="G8" t="n">
-        <v>53.99549999999996</v>
+        <v>54.0008333333333</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,10 +690,10 @@
         <v>54.1</v>
       </c>
       <c r="F9" t="n">
-        <v>31626.3489</v>
+        <v>16645.1063</v>
       </c>
       <c r="G9" t="n">
-        <v>53.99016666666662</v>
+        <v>53.99549999999996</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -725,10 +725,10 @@
         <v>54.1</v>
       </c>
       <c r="F10" t="n">
-        <v>924.2145</v>
+        <v>31626.3489</v>
       </c>
       <c r="G10" t="n">
-        <v>53.9843333333333</v>
+        <v>53.99016666666662</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -751,19 +751,19 @@
         <v>54.1</v>
       </c>
       <c r="C11" t="n">
-        <v>54</v>
+        <v>54.1</v>
       </c>
       <c r="D11" t="n">
         <v>54.1</v>
       </c>
       <c r="E11" t="n">
-        <v>54</v>
+        <v>54.1</v>
       </c>
       <c r="F11" t="n">
-        <v>25000</v>
+        <v>924.2145</v>
       </c>
       <c r="G11" t="n">
-        <v>53.97666666666662</v>
+        <v>53.9843333333333</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>54</v>
+        <v>54.1</v>
       </c>
       <c r="C12" t="n">
         <v>54</v>
       </c>
       <c r="D12" t="n">
-        <v>54</v>
+        <v>54.1</v>
       </c>
       <c r="E12" t="n">
         <v>54</v>
       </c>
       <c r="F12" t="n">
-        <v>36000</v>
+        <v>25000</v>
       </c>
       <c r="G12" t="n">
-        <v>53.97183333333329</v>
+        <v>53.97666666666662</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>54</v>
       </c>
       <c r="F13" t="n">
-        <v>39500</v>
+        <v>36000</v>
       </c>
       <c r="G13" t="n">
-        <v>53.96766666666663</v>
+        <v>53.97183333333329</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>54.03</v>
+        <v>54</v>
       </c>
       <c r="C14" t="n">
-        <v>54.03</v>
+        <v>54</v>
       </c>
       <c r="D14" t="n">
-        <v>54.03</v>
+        <v>54</v>
       </c>
       <c r="E14" t="n">
-        <v>54.03</v>
+        <v>54</v>
       </c>
       <c r="F14" t="n">
-        <v>924</v>
+        <v>39500</v>
       </c>
       <c r="G14" t="n">
-        <v>53.9613333333333</v>
+        <v>53.96766666666663</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>54.03</v>
       </c>
       <c r="C15" t="n">
-        <v>53.87</v>
+        <v>54.03</v>
       </c>
       <c r="D15" t="n">
         <v>54.03</v>
       </c>
       <c r="E15" t="n">
-        <v>53.87</v>
+        <v>54.03</v>
       </c>
       <c r="F15" t="n">
-        <v>10000</v>
+        <v>924</v>
       </c>
       <c r="G15" t="n">
-        <v>53.95749999999997</v>
+        <v>53.9613333333333</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>53.8</v>
+        <v>54.03</v>
       </c>
       <c r="C16" t="n">
-        <v>53.79</v>
+        <v>53.87</v>
       </c>
       <c r="D16" t="n">
-        <v>53.8</v>
+        <v>54.03</v>
       </c>
       <c r="E16" t="n">
-        <v>53.79</v>
+        <v>53.87</v>
       </c>
       <c r="F16" t="n">
-        <v>18869.519</v>
+        <v>10000</v>
       </c>
       <c r="G16" t="n">
-        <v>53.95516666666663</v>
+        <v>53.95749999999997</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -961,19 +961,19 @@
         <v>53.8</v>
       </c>
       <c r="C17" t="n">
-        <v>53.8</v>
+        <v>53.79</v>
       </c>
       <c r="D17" t="n">
         <v>53.8</v>
       </c>
       <c r="E17" t="n">
-        <v>53.8</v>
+        <v>53.79</v>
       </c>
       <c r="F17" t="n">
-        <v>519.1049</v>
+        <v>18869.519</v>
       </c>
       <c r="G17" t="n">
-        <v>53.94799999999997</v>
+        <v>53.95516666666663</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>53.84</v>
+        <v>53.8</v>
       </c>
       <c r="C18" t="n">
-        <v>53.84</v>
+        <v>53.8</v>
       </c>
       <c r="D18" t="n">
-        <v>53.84</v>
+        <v>53.8</v>
       </c>
       <c r="E18" t="n">
-        <v>53.84</v>
+        <v>53.8</v>
       </c>
       <c r="F18" t="n">
-        <v>924</v>
+        <v>519.1049</v>
       </c>
       <c r="G18" t="n">
-        <v>53.94533333333331</v>
+        <v>53.94799999999997</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>53.8</v>
+        <v>53.84</v>
       </c>
       <c r="C19" t="n">
-        <v>53.79</v>
+        <v>53.84</v>
       </c>
       <c r="D19" t="n">
-        <v>53.8</v>
+        <v>53.84</v>
       </c>
       <c r="E19" t="n">
-        <v>53.79</v>
+        <v>53.84</v>
       </c>
       <c r="F19" t="n">
-        <v>11076.374</v>
+        <v>924</v>
       </c>
       <c r="G19" t="n">
-        <v>53.94116666666664</v>
+        <v>53.94533333333331</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>53.9</v>
+        <v>53.8</v>
       </c>
       <c r="C20" t="n">
-        <v>53.9</v>
+        <v>53.79</v>
       </c>
       <c r="D20" t="n">
-        <v>53.9</v>
+        <v>53.8</v>
       </c>
       <c r="E20" t="n">
-        <v>53.9</v>
+        <v>53.79</v>
       </c>
       <c r="F20" t="n">
-        <v>1649.5702</v>
+        <v>11076.374</v>
       </c>
       <c r="G20" t="n">
-        <v>53.94233333333331</v>
+        <v>53.94116666666664</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>53.99</v>
+        <v>53.9</v>
       </c>
       <c r="C21" t="n">
-        <v>53.99</v>
+        <v>53.9</v>
       </c>
       <c r="D21" t="n">
-        <v>53.99</v>
+        <v>53.9</v>
       </c>
       <c r="E21" t="n">
-        <v>53.99</v>
+        <v>53.9</v>
       </c>
       <c r="F21" t="n">
-        <v>9026.932000000001</v>
+        <v>1649.5702</v>
       </c>
       <c r="G21" t="n">
-        <v>53.94499999999997</v>
+        <v>53.94233333333331</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1145,10 +1145,10 @@
         <v>53.99</v>
       </c>
       <c r="F22" t="n">
-        <v>9707.8577</v>
+        <v>9026.932000000001</v>
       </c>
       <c r="G22" t="n">
-        <v>53.94599999999998</v>
+        <v>53.94499999999997</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>54</v>
+        <v>53.99</v>
       </c>
       <c r="C23" t="n">
-        <v>54</v>
+        <v>53.99</v>
       </c>
       <c r="D23" t="n">
-        <v>54</v>
+        <v>53.99</v>
       </c>
       <c r="E23" t="n">
-        <v>54</v>
+        <v>53.99</v>
       </c>
       <c r="F23" t="n">
-        <v>10</v>
+        <v>9707.8577</v>
       </c>
       <c r="G23" t="n">
-        <v>53.94749999999998</v>
+        <v>53.94599999999998</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>53.79</v>
+        <v>54</v>
       </c>
       <c r="C24" t="n">
-        <v>53.96</v>
+        <v>54</v>
       </c>
       <c r="D24" t="n">
-        <v>53.96</v>
+        <v>54</v>
       </c>
       <c r="E24" t="n">
-        <v>53.79</v>
+        <v>54</v>
       </c>
       <c r="F24" t="n">
-        <v>5983.84133246</v>
+        <v>10</v>
       </c>
       <c r="G24" t="n">
-        <v>53.94949999999997</v>
+        <v>53.94749999999998</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1241,19 +1241,19 @@
         <v>53.79</v>
       </c>
       <c r="C25" t="n">
-        <v>53.79</v>
+        <v>53.96</v>
       </c>
       <c r="D25" t="n">
-        <v>53.79</v>
+        <v>53.96</v>
       </c>
       <c r="E25" t="n">
         <v>53.79</v>
       </c>
       <c r="F25" t="n">
-        <v>803.7303000000001</v>
+        <v>5983.84133246</v>
       </c>
       <c r="G25" t="n">
-        <v>53.9488333333333</v>
+        <v>53.94949999999997</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1285,10 +1285,10 @@
         <v>53.79</v>
       </c>
       <c r="F26" t="n">
-        <v>17944.8771</v>
+        <v>803.7303000000001</v>
       </c>
       <c r="G26" t="n">
-        <v>53.94533333333331</v>
+        <v>53.9488333333333</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>53.77</v>
+        <v>53.79</v>
       </c>
       <c r="C27" t="n">
-        <v>53.67</v>
+        <v>53.79</v>
       </c>
       <c r="D27" t="n">
-        <v>53.77</v>
+        <v>53.79</v>
       </c>
       <c r="E27" t="n">
-        <v>53.67</v>
+        <v>53.79</v>
       </c>
       <c r="F27" t="n">
-        <v>5000</v>
+        <v>17944.8771</v>
       </c>
       <c r="G27" t="n">
-        <v>53.93983333333331</v>
+        <v>53.94533333333331</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>53.67</v>
+        <v>53.77</v>
       </c>
       <c r="C28" t="n">
         <v>53.67</v>
       </c>
       <c r="D28" t="n">
-        <v>53.67</v>
+        <v>53.77</v>
       </c>
       <c r="E28" t="n">
         <v>53.67</v>
       </c>
       <c r="F28" t="n">
-        <v>5854.9673</v>
+        <v>5000</v>
       </c>
       <c r="G28" t="n">
-        <v>53.93433333333331</v>
+        <v>53.93983333333331</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1381,19 +1381,19 @@
         <v>53.67</v>
       </c>
       <c r="C29" t="n">
-        <v>53.65</v>
+        <v>53.67</v>
       </c>
       <c r="D29" t="n">
         <v>53.67</v>
       </c>
       <c r="E29" t="n">
-        <v>53.64</v>
+        <v>53.67</v>
       </c>
       <c r="F29" t="n">
-        <v>12606.172</v>
+        <v>5854.9673</v>
       </c>
       <c r="G29" t="n">
-        <v>53.92849999999998</v>
+        <v>53.93433333333331</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>53.64</v>
+        <v>53.67</v>
       </c>
       <c r="C30" t="n">
-        <v>53.64</v>
+        <v>53.65</v>
       </c>
       <c r="D30" t="n">
-        <v>53.64</v>
+        <v>53.67</v>
       </c>
       <c r="E30" t="n">
         <v>53.64</v>
       </c>
       <c r="F30" t="n">
-        <v>403.171</v>
+        <v>12606.172</v>
       </c>
       <c r="G30" t="n">
-        <v>53.92266666666664</v>
+        <v>53.92849999999998</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1451,19 +1451,19 @@
         <v>53.64</v>
       </c>
       <c r="C31" t="n">
-        <v>53.63</v>
+        <v>53.64</v>
       </c>
       <c r="D31" t="n">
         <v>53.64</v>
       </c>
       <c r="E31" t="n">
-        <v>53.63</v>
+        <v>53.64</v>
       </c>
       <c r="F31" t="n">
-        <v>6527.8284</v>
+        <v>403.171</v>
       </c>
       <c r="G31" t="n">
-        <v>53.91666666666665</v>
+        <v>53.92266666666664</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>53.63</v>
+        <v>53.64</v>
       </c>
       <c r="C32" t="n">
         <v>53.63</v>
       </c>
       <c r="D32" t="n">
-        <v>53.63</v>
+        <v>53.64</v>
       </c>
       <c r="E32" t="n">
         <v>53.63</v>
       </c>
       <c r="F32" t="n">
-        <v>4514.0254</v>
+        <v>6527.8284</v>
       </c>
       <c r="G32" t="n">
-        <v>53.91216666666665</v>
+        <v>53.91666666666665</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1530,10 +1530,10 @@
         <v>53.63</v>
       </c>
       <c r="F33" t="n">
-        <v>2580.2799</v>
+        <v>4514.0254</v>
       </c>
       <c r="G33" t="n">
-        <v>53.90549999999998</v>
+        <v>53.91216666666665</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1556,19 +1556,19 @@
         <v>53.63</v>
       </c>
       <c r="C34" t="n">
-        <v>53.6</v>
+        <v>53.63</v>
       </c>
       <c r="D34" t="n">
         <v>53.63</v>
       </c>
       <c r="E34" t="n">
-        <v>53.6</v>
+        <v>53.63</v>
       </c>
       <c r="F34" t="n">
-        <v>18860.9243</v>
+        <v>2580.2799</v>
       </c>
       <c r="G34" t="n">
-        <v>53.90066666666665</v>
+        <v>53.90549999999998</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,22 +1588,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>53.6</v>
+        <v>53.63</v>
       </c>
       <c r="C35" t="n">
         <v>53.6</v>
       </c>
       <c r="D35" t="n">
-        <v>53.6</v>
+        <v>53.63</v>
       </c>
       <c r="E35" t="n">
         <v>53.6</v>
       </c>
       <c r="F35" t="n">
-        <v>387.6528</v>
+        <v>18860.9243</v>
       </c>
       <c r="G35" t="n">
-        <v>53.89066666666665</v>
+        <v>53.90066666666665</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1635,10 +1635,10 @@
         <v>53.6</v>
       </c>
       <c r="F36" t="n">
-        <v>375.5583</v>
+        <v>387.6528</v>
       </c>
       <c r="G36" t="n">
-        <v>53.88249999999998</v>
+        <v>53.89066666666665</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1661,19 +1661,19 @@
         <v>53.6</v>
       </c>
       <c r="C37" t="n">
-        <v>53.46</v>
+        <v>53.6</v>
       </c>
       <c r="D37" t="n">
         <v>53.6</v>
       </c>
       <c r="E37" t="n">
-        <v>53.46</v>
+        <v>53.6</v>
       </c>
       <c r="F37" t="n">
-        <v>10000</v>
+        <v>375.5583</v>
       </c>
       <c r="G37" t="n">
-        <v>53.87216666666665</v>
+        <v>53.88249999999998</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,22 +1693,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
+        <v>53.6</v>
+      </c>
+      <c r="C38" t="n">
         <v>53.46</v>
       </c>
-      <c r="C38" t="n">
-        <v>53.4</v>
-      </c>
       <c r="D38" t="n">
-        <v>53.5</v>
+        <v>53.6</v>
       </c>
       <c r="E38" t="n">
-        <v>53.4</v>
+        <v>53.46</v>
       </c>
       <c r="F38" t="n">
-        <v>14500.8556</v>
+        <v>10000</v>
       </c>
       <c r="G38" t="n">
-        <v>53.86399999999999</v>
+        <v>53.87216666666665</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,22 +1728,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
+        <v>53.46</v>
+      </c>
+      <c r="C39" t="n">
         <v>53.4</v>
       </c>
-      <c r="C39" t="n">
-        <v>53.39</v>
-      </c>
       <c r="D39" t="n">
+        <v>53.5</v>
+      </c>
+      <c r="E39" t="n">
         <v>53.4</v>
       </c>
-      <c r="E39" t="n">
-        <v>53.39</v>
-      </c>
       <c r="F39" t="n">
-        <v>4927.0513</v>
+        <v>14500.8556</v>
       </c>
       <c r="G39" t="n">
-        <v>53.85233333333331</v>
+        <v>53.86399999999999</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,22 +1763,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>53.44</v>
+        <v>53.4</v>
       </c>
       <c r="C40" t="n">
         <v>53.39</v>
       </c>
       <c r="D40" t="n">
-        <v>53.44</v>
+        <v>53.4</v>
       </c>
       <c r="E40" t="n">
         <v>53.39</v>
       </c>
       <c r="F40" t="n">
-        <v>19944.3506</v>
+        <v>4927.0513</v>
       </c>
       <c r="G40" t="n">
-        <v>53.84233333333331</v>
+        <v>53.85233333333331</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>53.39</v>
+        <v>53.44</v>
       </c>
       <c r="C41" t="n">
         <v>53.39</v>
       </c>
       <c r="D41" t="n">
-        <v>53.39</v>
+        <v>53.44</v>
       </c>
       <c r="E41" t="n">
         <v>53.39</v>
       </c>
       <c r="F41" t="n">
-        <v>2091.1741</v>
+        <v>19944.3506</v>
       </c>
       <c r="G41" t="n">
-        <v>53.83233333333332</v>
+        <v>53.84233333333331</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,22 +1833,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>53.4</v>
+        <v>53.39</v>
       </c>
       <c r="C42" t="n">
-        <v>53.4</v>
+        <v>53.39</v>
       </c>
       <c r="D42" t="n">
-        <v>53.4</v>
+        <v>53.39</v>
       </c>
       <c r="E42" t="n">
-        <v>53.4</v>
+        <v>53.39</v>
       </c>
       <c r="F42" t="n">
-        <v>89.1742</v>
+        <v>2091.1741</v>
       </c>
       <c r="G42" t="n">
-        <v>53.82249999999999</v>
+        <v>53.83233333333332</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1871,19 +1871,19 @@
         <v>53.4</v>
       </c>
       <c r="C43" t="n">
-        <v>53.39</v>
+        <v>53.4</v>
       </c>
       <c r="D43" t="n">
         <v>53.4</v>
       </c>
       <c r="E43" t="n">
-        <v>53.39</v>
+        <v>53.4</v>
       </c>
       <c r="F43" t="n">
-        <v>859.8289</v>
+        <v>89.1742</v>
       </c>
       <c r="G43" t="n">
-        <v>53.81566666666665</v>
+        <v>53.82249999999999</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,22 +1903,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>53.39</v>
+        <v>53.4</v>
       </c>
       <c r="C44" t="n">
         <v>53.39</v>
       </c>
       <c r="D44" t="n">
-        <v>53.39</v>
+        <v>53.4</v>
       </c>
       <c r="E44" t="n">
         <v>53.39</v>
       </c>
       <c r="F44" t="n">
-        <v>743.7196</v>
+        <v>859.8289</v>
       </c>
       <c r="G44" t="n">
-        <v>53.81049999999998</v>
+        <v>53.81566666666665</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1938,22 +1938,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>53.42</v>
+        <v>53.39</v>
       </c>
       <c r="C45" t="n">
-        <v>53.42</v>
+        <v>53.39</v>
       </c>
       <c r="D45" t="n">
-        <v>53.42</v>
+        <v>53.39</v>
       </c>
       <c r="E45" t="n">
-        <v>53.42</v>
+        <v>53.39</v>
       </c>
       <c r="F45" t="n">
-        <v>28.8765</v>
+        <v>743.7196</v>
       </c>
       <c r="G45" t="n">
-        <v>53.80516666666666</v>
+        <v>53.81049999999998</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,22 +1973,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>53.43</v>
+        <v>53.42</v>
       </c>
       <c r="C46" t="n">
-        <v>53.43</v>
+        <v>53.42</v>
       </c>
       <c r="D46" t="n">
-        <v>53.43</v>
+        <v>53.42</v>
       </c>
       <c r="E46" t="n">
-        <v>53.43</v>
+        <v>53.42</v>
       </c>
       <c r="F46" t="n">
-        <v>403.2903</v>
+        <v>28.8765</v>
       </c>
       <c r="G46" t="n">
-        <v>53.79666666666665</v>
+        <v>53.80516666666666</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2020,10 +2020,10 @@
         <v>53.43</v>
       </c>
       <c r="F47" t="n">
-        <v>1440</v>
+        <v>403.2903</v>
       </c>
       <c r="G47" t="n">
-        <v>53.78849999999998</v>
+        <v>53.79666666666665</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2046,19 +2046,19 @@
         <v>53.43</v>
       </c>
       <c r="C48" t="n">
-        <v>53.03</v>
+        <v>53.43</v>
       </c>
       <c r="D48" t="n">
         <v>53.43</v>
       </c>
       <c r="E48" t="n">
-        <v>53.03</v>
+        <v>53.43</v>
       </c>
       <c r="F48" t="n">
-        <v>461223.5683</v>
+        <v>1440</v>
       </c>
       <c r="G48" t="n">
-        <v>53.77583333333332</v>
+        <v>53.78849999999998</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2078,22 +2078,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>53.02</v>
+        <v>53.43</v>
       </c>
       <c r="C49" t="n">
-        <v>53</v>
+        <v>53.03</v>
       </c>
       <c r="D49" t="n">
+        <v>53.43</v>
+      </c>
+      <c r="E49" t="n">
         <v>53.03</v>
       </c>
-      <c r="E49" t="n">
-        <v>53</v>
-      </c>
       <c r="F49" t="n">
-        <v>34253.0107</v>
+        <v>461223.5683</v>
       </c>
       <c r="G49" t="n">
-        <v>53.76266666666665</v>
+        <v>53.77583333333332</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,22 +2113,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
+        <v>53.02</v>
+      </c>
+      <c r="C50" t="n">
         <v>53</v>
       </c>
-      <c r="C50" t="n">
-        <v>52.95</v>
-      </c>
       <c r="D50" t="n">
+        <v>53.03</v>
+      </c>
+      <c r="E50" t="n">
         <v>53</v>
       </c>
-      <c r="E50" t="n">
-        <v>52.95</v>
-      </c>
       <c r="F50" t="n">
-        <v>6473.6926</v>
+        <v>34253.0107</v>
       </c>
       <c r="G50" t="n">
-        <v>53.75033333333332</v>
+        <v>53.76266666666665</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2148,22 +2148,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
+        <v>53</v>
+      </c>
+      <c r="C51" t="n">
         <v>52.95</v>
       </c>
-      <c r="C51" t="n">
-        <v>52.93</v>
-      </c>
       <c r="D51" t="n">
+        <v>53</v>
+      </c>
+      <c r="E51" t="n">
         <v>52.95</v>
       </c>
-      <c r="E51" t="n">
-        <v>52.93</v>
-      </c>
       <c r="F51" t="n">
-        <v>1185.6099</v>
+        <v>6473.6926</v>
       </c>
       <c r="G51" t="n">
-        <v>53.73599999999998</v>
+        <v>53.75033333333332</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2183,22 +2183,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>53.09</v>
+        <v>52.95</v>
       </c>
       <c r="C52" t="n">
-        <v>53.09</v>
+        <v>52.93</v>
       </c>
       <c r="D52" t="n">
-        <v>53.09</v>
+        <v>52.95</v>
       </c>
       <c r="E52" t="n">
-        <v>53.09</v>
+        <v>52.93</v>
       </c>
       <c r="F52" t="n">
-        <v>9677.513000000001</v>
+        <v>1185.6099</v>
       </c>
       <c r="G52" t="n">
-        <v>53.72433333333332</v>
+        <v>53.73599999999998</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,7 +2218,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>53.08</v>
+        <v>53.09</v>
       </c>
       <c r="C53" t="n">
         <v>53.09</v>
@@ -2227,13 +2227,13 @@
         <v>53.09</v>
       </c>
       <c r="E53" t="n">
-        <v>53.08</v>
+        <v>53.09</v>
       </c>
       <c r="F53" t="n">
-        <v>47597.799</v>
+        <v>9677.513000000001</v>
       </c>
       <c r="G53" t="n">
-        <v>53.71366666666665</v>
+        <v>53.72433333333332</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2256,19 +2256,19 @@
         <v>53.08</v>
       </c>
       <c r="C54" t="n">
-        <v>53.08</v>
+        <v>53.09</v>
       </c>
       <c r="D54" t="n">
-        <v>53.08</v>
+        <v>53.09</v>
       </c>
       <c r="E54" t="n">
         <v>53.08</v>
       </c>
       <c r="F54" t="n">
-        <v>6402.201</v>
+        <v>47597.799</v>
       </c>
       <c r="G54" t="n">
-        <v>53.69916666666666</v>
+        <v>53.71366666666665</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2288,22 +2288,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>53.07</v>
+        <v>53.08</v>
       </c>
       <c r="C55" t="n">
-        <v>53.07</v>
+        <v>53.08</v>
       </c>
       <c r="D55" t="n">
-        <v>53.07</v>
+        <v>53.08</v>
       </c>
       <c r="E55" t="n">
-        <v>53.07</v>
+        <v>53.08</v>
       </c>
       <c r="F55" t="n">
-        <v>90</v>
+        <v>6402.201</v>
       </c>
       <c r="G55" t="n">
-        <v>53.68433333333333</v>
+        <v>53.69916666666666</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2323,22 +2323,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>53.08</v>
+        <v>53.07</v>
       </c>
       <c r="C56" t="n">
-        <v>53.08</v>
+        <v>53.07</v>
       </c>
       <c r="D56" t="n">
-        <v>53.08</v>
+        <v>53.07</v>
       </c>
       <c r="E56" t="n">
-        <v>53.08</v>
+        <v>53.07</v>
       </c>
       <c r="F56" t="n">
-        <v>750</v>
+        <v>90</v>
       </c>
       <c r="G56" t="n">
-        <v>53.66966666666666</v>
+        <v>53.68433333333333</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2358,22 +2358,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>53.1</v>
+        <v>53.08</v>
       </c>
       <c r="C57" t="n">
-        <v>52.95</v>
+        <v>53.08</v>
       </c>
       <c r="D57" t="n">
-        <v>53.1</v>
+        <v>53.08</v>
       </c>
       <c r="E57" t="n">
-        <v>52.95</v>
+        <v>53.08</v>
       </c>
       <c r="F57" t="n">
-        <v>1543.7997</v>
+        <v>750</v>
       </c>
       <c r="G57" t="n">
-        <v>53.65316666666665</v>
+        <v>53.66966666666666</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2393,22 +2393,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>53.01</v>
+        <v>53.1</v>
       </c>
       <c r="C58" t="n">
-        <v>53.01</v>
+        <v>52.95</v>
       </c>
       <c r="D58" t="n">
-        <v>53.01</v>
+        <v>53.1</v>
       </c>
       <c r="E58" t="n">
-        <v>53.01</v>
+        <v>52.95</v>
       </c>
       <c r="F58" t="n">
-        <v>5150.3926</v>
+        <v>1543.7997</v>
       </c>
       <c r="G58" t="n">
-        <v>53.64216666666665</v>
+        <v>53.65316666666665</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2428,22 +2428,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>53</v>
+        <v>53.01</v>
       </c>
       <c r="C59" t="n">
-        <v>52.96</v>
+        <v>53.01</v>
       </c>
       <c r="D59" t="n">
-        <v>53</v>
+        <v>53.01</v>
       </c>
       <c r="E59" t="n">
-        <v>52.96</v>
+        <v>53.01</v>
       </c>
       <c r="F59" t="n">
-        <v>15586.3096</v>
+        <v>5150.3926</v>
       </c>
       <c r="G59" t="n">
-        <v>53.62599999999999</v>
+        <v>53.64216666666665</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2466,19 +2466,19 @@
         <v>53</v>
       </c>
       <c r="C60" t="n">
-        <v>53</v>
+        <v>52.96</v>
       </c>
       <c r="D60" t="n">
         <v>53</v>
       </c>
       <c r="E60" t="n">
-        <v>53</v>
+        <v>52.96</v>
       </c>
       <c r="F60" t="n">
-        <v>1087</v>
+        <v>15586.3096</v>
       </c>
       <c r="G60" t="n">
-        <v>53.61016666666666</v>
+        <v>53.62599999999999</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2498,22 +2498,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>53.1</v>
+        <v>53</v>
       </c>
       <c r="C61" t="n">
-        <v>53.1</v>
+        <v>53</v>
       </c>
       <c r="D61" t="n">
-        <v>53.1</v>
+        <v>53</v>
       </c>
       <c r="E61" t="n">
-        <v>53.1</v>
+        <v>53</v>
       </c>
       <c r="F61" t="n">
-        <v>1788.6223</v>
+        <v>1087</v>
       </c>
       <c r="G61" t="n">
-        <v>53.59566666666667</v>
+        <v>53.61016666666666</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2533,22 +2533,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>53.35</v>
+        <v>53.1</v>
       </c>
       <c r="C62" t="n">
-        <v>53.35</v>
+        <v>53.1</v>
       </c>
       <c r="D62" t="n">
-        <v>53.35</v>
+        <v>53.1</v>
       </c>
       <c r="E62" t="n">
-        <v>53.35</v>
+        <v>53.1</v>
       </c>
       <c r="F62" t="n">
-        <v>1915.999</v>
+        <v>1788.6223</v>
       </c>
       <c r="G62" t="n">
-        <v>53.58299999999999</v>
+        <v>53.59566666666667</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2568,22 +2568,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>53.11</v>
+        <v>53.35</v>
       </c>
       <c r="C63" t="n">
-        <v>53.11</v>
+        <v>53.35</v>
       </c>
       <c r="D63" t="n">
-        <v>53.11</v>
+        <v>53.35</v>
       </c>
       <c r="E63" t="n">
-        <v>53.11</v>
+        <v>53.35</v>
       </c>
       <c r="F63" t="n">
-        <v>4000</v>
+        <v>1915.999</v>
       </c>
       <c r="G63" t="n">
-        <v>53.56566666666666</v>
+        <v>53.58299999999999</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2603,22 +2603,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>53.27</v>
+        <v>53.11</v>
       </c>
       <c r="C64" t="n">
-        <v>53.27</v>
+        <v>53.11</v>
       </c>
       <c r="D64" t="n">
-        <v>53.27</v>
+        <v>53.11</v>
       </c>
       <c r="E64" t="n">
-        <v>53.27</v>
+        <v>53.11</v>
       </c>
       <c r="F64" t="n">
-        <v>5631.68762905</v>
+        <v>4000</v>
       </c>
       <c r="G64" t="n">
-        <v>53.55183333333333</v>
+        <v>53.56566666666666</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2638,22 +2638,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>53.24</v>
+        <v>53.27</v>
       </c>
       <c r="C65" t="n">
-        <v>53.1</v>
+        <v>53.27</v>
       </c>
       <c r="D65" t="n">
-        <v>53.24</v>
+        <v>53.27</v>
       </c>
       <c r="E65" t="n">
-        <v>53.1</v>
+        <v>53.27</v>
       </c>
       <c r="F65" t="n">
-        <v>1404.3005</v>
+        <v>5631.68762905</v>
       </c>
       <c r="G65" t="n">
-        <v>53.53516666666666</v>
+        <v>53.55183333333333</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2673,22 +2673,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>53.03</v>
+        <v>53.24</v>
       </c>
       <c r="C66" t="n">
-        <v>53.03</v>
+        <v>53.1</v>
       </c>
       <c r="D66" t="n">
-        <v>53.03</v>
+        <v>53.24</v>
       </c>
       <c r="E66" t="n">
-        <v>53.03</v>
+        <v>53.1</v>
       </c>
       <c r="F66" t="n">
-        <v>35</v>
+        <v>1404.3005</v>
       </c>
       <c r="G66" t="n">
-        <v>53.51583333333333</v>
+        <v>53.53516666666666</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2708,22 +2708,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>53.22</v>
+        <v>53.03</v>
       </c>
       <c r="C67" t="n">
-        <v>53.22</v>
+        <v>53.03</v>
       </c>
       <c r="D67" t="n">
-        <v>53.22</v>
+        <v>53.03</v>
       </c>
       <c r="E67" t="n">
-        <v>53.22</v>
+        <v>53.03</v>
       </c>
       <c r="F67" t="n">
-        <v>1874.3072</v>
+        <v>35</v>
       </c>
       <c r="G67" t="n">
-        <v>53.50116666666666</v>
+        <v>53.51583333333333</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2743,22 +2743,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>53.12</v>
+        <v>53.22</v>
       </c>
       <c r="C68" t="n">
-        <v>53.12</v>
+        <v>53.22</v>
       </c>
       <c r="D68" t="n">
-        <v>53.12</v>
+        <v>53.22</v>
       </c>
       <c r="E68" t="n">
-        <v>53.12</v>
+        <v>53.22</v>
       </c>
       <c r="F68" t="n">
-        <v>312.757</v>
+        <v>1874.3072</v>
       </c>
       <c r="G68" t="n">
-        <v>53.48483333333333</v>
+        <v>53.50116666666666</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2778,22 +2778,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>53.2</v>
+        <v>53.12</v>
       </c>
       <c r="C69" t="n">
-        <v>53.2</v>
+        <v>53.12</v>
       </c>
       <c r="D69" t="n">
-        <v>53.2</v>
+        <v>53.12</v>
       </c>
       <c r="E69" t="n">
-        <v>53.2</v>
+        <v>53.12</v>
       </c>
       <c r="F69" t="n">
-        <v>2656.2229</v>
+        <v>312.757</v>
       </c>
       <c r="G69" t="n">
-        <v>53.46983333333333</v>
+        <v>53.48483333333333</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2813,22 +2813,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>53.16</v>
+        <v>53.2</v>
       </c>
       <c r="C70" t="n">
-        <v>53.04</v>
+        <v>53.2</v>
       </c>
       <c r="D70" t="n">
-        <v>53.16</v>
+        <v>53.2</v>
       </c>
       <c r="E70" t="n">
-        <v>53.04</v>
+        <v>53.2</v>
       </c>
       <c r="F70" t="n">
-        <v>21819.5845</v>
+        <v>2656.2229</v>
       </c>
       <c r="G70" t="n">
-        <v>53.45216666666666</v>
+        <v>53.46983333333333</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2848,22 +2848,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>53.05</v>
+        <v>53.16</v>
       </c>
       <c r="C71" t="n">
-        <v>53.05</v>
+        <v>53.04</v>
       </c>
       <c r="D71" t="n">
-        <v>53.05</v>
+        <v>53.16</v>
       </c>
       <c r="E71" t="n">
-        <v>53.05</v>
+        <v>53.04</v>
       </c>
       <c r="F71" t="n">
-        <v>1275</v>
+        <v>21819.5845</v>
       </c>
       <c r="G71" t="n">
-        <v>53.43633333333333</v>
+        <v>53.45216666666666</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2883,22 +2883,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>53.09</v>
+        <v>53.05</v>
       </c>
       <c r="C72" t="n">
-        <v>53.08</v>
+        <v>53.05</v>
       </c>
       <c r="D72" t="n">
-        <v>53.09</v>
+        <v>53.05</v>
       </c>
       <c r="E72" t="n">
-        <v>53.08</v>
+        <v>53.05</v>
       </c>
       <c r="F72" t="n">
-        <v>12500</v>
+        <v>1275</v>
       </c>
       <c r="G72" t="n">
-        <v>53.421</v>
+        <v>53.43633333333333</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2918,22 +2918,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>53.15</v>
+        <v>53.09</v>
       </c>
       <c r="C73" t="n">
-        <v>53.15</v>
+        <v>53.08</v>
       </c>
       <c r="D73" t="n">
-        <v>53.15</v>
+        <v>53.09</v>
       </c>
       <c r="E73" t="n">
-        <v>53.15</v>
+        <v>53.08</v>
       </c>
       <c r="F73" t="n">
-        <v>1000</v>
+        <v>12500</v>
       </c>
       <c r="G73" t="n">
-        <v>53.40683333333333</v>
+        <v>53.421</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2953,22 +2953,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>53.12</v>
+        <v>53.15</v>
       </c>
       <c r="C74" t="n">
-        <v>53.12</v>
+        <v>53.15</v>
       </c>
       <c r="D74" t="n">
-        <v>53.12</v>
+        <v>53.15</v>
       </c>
       <c r="E74" t="n">
-        <v>53.12</v>
+        <v>53.15</v>
       </c>
       <c r="F74" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G74" t="n">
-        <v>53.39166666666666</v>
+        <v>53.40683333333333</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2988,22 +2988,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>53.15</v>
+        <v>53.12</v>
       </c>
       <c r="C75" t="n">
-        <v>53.15</v>
+        <v>53.12</v>
       </c>
       <c r="D75" t="n">
-        <v>53.15</v>
+        <v>53.12</v>
       </c>
       <c r="E75" t="n">
-        <v>53.15</v>
+        <v>53.12</v>
       </c>
       <c r="F75" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G75" t="n">
-        <v>53.37966666666667</v>
+        <v>53.39166666666666</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3038,7 +3038,7 @@
         <v>10</v>
       </c>
       <c r="G76" t="n">
-        <v>53.369</v>
+        <v>53.37966666666667</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3058,22 +3058,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>53.13</v>
+        <v>53.15</v>
       </c>
       <c r="C77" t="n">
-        <v>53.04</v>
+        <v>53.15</v>
       </c>
       <c r="D77" t="n">
-        <v>53.13</v>
+        <v>53.15</v>
       </c>
       <c r="E77" t="n">
-        <v>53.04</v>
+        <v>53.15</v>
       </c>
       <c r="F77" t="n">
-        <v>3639.3424</v>
+        <v>10</v>
       </c>
       <c r="G77" t="n">
-        <v>53.35633333333332</v>
+        <v>53.369</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3093,22 +3093,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
+        <v>53.13</v>
+      </c>
+      <c r="C78" t="n">
         <v>53.04</v>
       </c>
-      <c r="C78" t="n">
-        <v>53.14</v>
-      </c>
       <c r="D78" t="n">
-        <v>53.14</v>
+        <v>53.13</v>
       </c>
       <c r="E78" t="n">
         <v>53.04</v>
       </c>
       <c r="F78" t="n">
-        <v>20619.857</v>
+        <v>3639.3424</v>
       </c>
       <c r="G78" t="n">
-        <v>53.34466666666665</v>
+        <v>53.35633333333332</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3128,22 +3128,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>53.15</v>
+        <v>53.04</v>
       </c>
       <c r="C79" t="n">
-        <v>53.15</v>
+        <v>53.14</v>
       </c>
       <c r="D79" t="n">
-        <v>53.21</v>
+        <v>53.14</v>
       </c>
       <c r="E79" t="n">
-        <v>53.15</v>
+        <v>53.04</v>
       </c>
       <c r="F79" t="n">
-        <v>38379.4946</v>
+        <v>20619.857</v>
       </c>
       <c r="G79" t="n">
-        <v>53.33399999999999</v>
+        <v>53.34466666666665</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3169,16 +3169,16 @@
         <v>53.15</v>
       </c>
       <c r="D80" t="n">
-        <v>53.15</v>
+        <v>53.21</v>
       </c>
       <c r="E80" t="n">
         <v>53.15</v>
       </c>
       <c r="F80" t="n">
-        <v>41348.9574</v>
+        <v>38379.4946</v>
       </c>
       <c r="G80" t="n">
-        <v>53.32149999999999</v>
+        <v>53.33399999999999</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3201,19 +3201,19 @@
         <v>53.15</v>
       </c>
       <c r="C81" t="n">
-        <v>52.92</v>
+        <v>53.15</v>
       </c>
       <c r="D81" t="n">
         <v>53.15</v>
       </c>
       <c r="E81" t="n">
-        <v>52.92</v>
+        <v>53.15</v>
       </c>
       <c r="F81" t="n">
-        <v>45576.3827</v>
+        <v>41348.9574</v>
       </c>
       <c r="G81" t="n">
-        <v>53.30366666666666</v>
+        <v>53.32149999999999</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3233,22 +3233,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
+        <v>53.15</v>
+      </c>
+      <c r="C82" t="n">
         <v>52.92</v>
       </c>
-      <c r="C82" t="n">
-        <v>52.73</v>
-      </c>
       <c r="D82" t="n">
+        <v>53.15</v>
+      </c>
+      <c r="E82" t="n">
         <v>52.92</v>
       </c>
-      <c r="E82" t="n">
-        <v>52.73</v>
-      </c>
       <c r="F82" t="n">
-        <v>10169.2658</v>
+        <v>45576.3827</v>
       </c>
       <c r="G82" t="n">
-        <v>53.28266666666666</v>
+        <v>53.30366666666666</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3268,22 +3268,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>52.74</v>
+        <v>52.92</v>
       </c>
       <c r="C83" t="n">
-        <v>52.74</v>
+        <v>52.73</v>
       </c>
       <c r="D83" t="n">
-        <v>52.74</v>
+        <v>52.92</v>
       </c>
       <c r="E83" t="n">
-        <v>52.74</v>
+        <v>52.73</v>
       </c>
       <c r="F83" t="n">
-        <v>3832</v>
+        <v>10169.2658</v>
       </c>
       <c r="G83" t="n">
-        <v>53.26166666666666</v>
+        <v>53.28266666666666</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3315,10 +3315,10 @@
         <v>52.74</v>
       </c>
       <c r="F84" t="n">
-        <v>11102.004</v>
+        <v>3832</v>
       </c>
       <c r="G84" t="n">
-        <v>53.24133333333332</v>
+        <v>53.26166666666666</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3338,22 +3338,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>52.73</v>
+        <v>52.74</v>
       </c>
       <c r="C85" t="n">
-        <v>52.73</v>
+        <v>52.74</v>
       </c>
       <c r="D85" t="n">
-        <v>52.73</v>
+        <v>52.74</v>
       </c>
       <c r="E85" t="n">
-        <v>52.73</v>
+        <v>52.74</v>
       </c>
       <c r="F85" t="n">
-        <v>12266.8649</v>
+        <v>11102.004</v>
       </c>
       <c r="G85" t="n">
-        <v>53.22366666666666</v>
+        <v>53.24133333333332</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3373,22 +3373,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>52.74</v>
+        <v>52.73</v>
       </c>
       <c r="C86" t="n">
         <v>52.73</v>
       </c>
       <c r="D86" t="n">
-        <v>52.74</v>
+        <v>52.73</v>
       </c>
       <c r="E86" t="n">
         <v>52.73</v>
       </c>
       <c r="F86" t="n">
-        <v>735.0646</v>
+        <v>12266.8649</v>
       </c>
       <c r="G86" t="n">
-        <v>53.206</v>
+        <v>53.22366666666666</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3408,22 +3408,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>52.75</v>
+        <v>52.74</v>
       </c>
       <c r="C87" t="n">
-        <v>52.75</v>
+        <v>52.73</v>
       </c>
       <c r="D87" t="n">
-        <v>52.75</v>
+        <v>52.74</v>
       </c>
       <c r="E87" t="n">
-        <v>52.75</v>
+        <v>52.73</v>
       </c>
       <c r="F87" t="n">
-        <v>782.1549</v>
+        <v>735.0646</v>
       </c>
       <c r="G87" t="n">
-        <v>53.19066666666666</v>
+        <v>53.206</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3443,22 +3443,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>52.84</v>
+        <v>52.75</v>
       </c>
       <c r="C88" t="n">
-        <v>52.84</v>
+        <v>52.75</v>
       </c>
       <c r="D88" t="n">
-        <v>52.84</v>
+        <v>52.75</v>
       </c>
       <c r="E88" t="n">
-        <v>52.77</v>
+        <v>52.75</v>
       </c>
       <c r="F88" t="n">
-        <v>40967.4387</v>
+        <v>782.1549</v>
       </c>
       <c r="G88" t="n">
-        <v>53.17683333333333</v>
+        <v>53.19066666666666</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3487,13 +3487,13 @@
         <v>52.84</v>
       </c>
       <c r="E89" t="n">
-        <v>52.84</v>
+        <v>52.77</v>
       </c>
       <c r="F89" t="n">
-        <v>23919.8426</v>
+        <v>40967.4387</v>
       </c>
       <c r="G89" t="n">
-        <v>53.16333333333333</v>
+        <v>53.17683333333333</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3513,22 +3513,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>52.79</v>
+        <v>52.84</v>
       </c>
       <c r="C90" t="n">
-        <v>52.73</v>
+        <v>52.84</v>
       </c>
       <c r="D90" t="n">
-        <v>52.83</v>
+        <v>52.84</v>
       </c>
       <c r="E90" t="n">
-        <v>52.73</v>
+        <v>52.84</v>
       </c>
       <c r="F90" t="n">
-        <v>58887.3738</v>
+        <v>23919.8426</v>
       </c>
       <c r="G90" t="n">
-        <v>53.14816666666666</v>
+        <v>53.16333333333333</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3548,22 +3548,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>52.73</v>
+        <v>52.79</v>
       </c>
       <c r="C91" t="n">
         <v>52.73</v>
       </c>
       <c r="D91" t="n">
-        <v>52.73</v>
+        <v>52.83</v>
       </c>
       <c r="E91" t="n">
         <v>52.73</v>
       </c>
       <c r="F91" t="n">
-        <v>2006.1</v>
+        <v>58887.3738</v>
       </c>
       <c r="G91" t="n">
-        <v>53.13316666666666</v>
+        <v>53.14816666666666</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3595,10 +3595,10 @@
         <v>52.73</v>
       </c>
       <c r="F92" t="n">
-        <v>321.668</v>
+        <v>2006.1</v>
       </c>
       <c r="G92" t="n">
-        <v>53.11816666666666</v>
+        <v>53.13316666666666</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3630,10 +3630,10 @@
         <v>52.73</v>
       </c>
       <c r="F93" t="n">
-        <v>573.6006</v>
+        <v>321.668</v>
       </c>
       <c r="G93" t="n">
-        <v>53.10316666666666</v>
+        <v>53.11816666666666</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3665,10 +3665,10 @@
         <v>52.73</v>
       </c>
       <c r="F94" t="n">
-        <v>411.1692</v>
+        <v>573.6006</v>
       </c>
       <c r="G94" t="n">
-        <v>53.08866666666666</v>
+        <v>53.10316666666666</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3691,19 +3691,19 @@
         <v>52.73</v>
       </c>
       <c r="C95" t="n">
-        <v>52.71</v>
+        <v>52.73</v>
       </c>
       <c r="D95" t="n">
         <v>52.73</v>
       </c>
       <c r="E95" t="n">
-        <v>52.71</v>
+        <v>52.73</v>
       </c>
       <c r="F95" t="n">
-        <v>514.8</v>
+        <v>411.1692</v>
       </c>
       <c r="G95" t="n">
-        <v>53.07383333333333</v>
+        <v>53.08866666666666</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3723,22 +3723,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>52.72</v>
+        <v>52.73</v>
       </c>
       <c r="C96" t="n">
-        <v>52.7</v>
+        <v>52.71</v>
       </c>
       <c r="D96" t="n">
-        <v>52.72</v>
+        <v>52.73</v>
       </c>
       <c r="E96" t="n">
-        <v>52.7</v>
+        <v>52.71</v>
       </c>
       <c r="F96" t="n">
-        <v>1905.7859</v>
+        <v>514.8</v>
       </c>
       <c r="G96" t="n">
-        <v>53.05883333333333</v>
+        <v>53.07383333333333</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3758,22 +3758,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
+        <v>52.72</v>
+      </c>
+      <c r="C97" t="n">
         <v>52.7</v>
       </c>
-      <c r="C97" t="n">
-        <v>52.61</v>
-      </c>
       <c r="D97" t="n">
+        <v>52.72</v>
+      </c>
+      <c r="E97" t="n">
         <v>52.7</v>
       </c>
-      <c r="E97" t="n">
-        <v>52.61</v>
-      </c>
       <c r="F97" t="n">
-        <v>12045.8883</v>
+        <v>1905.7859</v>
       </c>
       <c r="G97" t="n">
-        <v>53.04466666666666</v>
+        <v>53.05883333333333</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3793,22 +3793,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>52.81</v>
+        <v>52.7</v>
       </c>
       <c r="C98" t="n">
-        <v>52.8</v>
+        <v>52.61</v>
       </c>
       <c r="D98" t="n">
-        <v>52.84</v>
+        <v>52.7</v>
       </c>
       <c r="E98" t="n">
-        <v>52.8</v>
+        <v>52.61</v>
       </c>
       <c r="F98" t="n">
-        <v>74134.3294</v>
+        <v>12045.8883</v>
       </c>
       <c r="G98" t="n">
-        <v>53.03466666666667</v>
+        <v>53.04466666666666</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3828,22 +3828,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>52.79</v>
+        <v>52.81</v>
       </c>
       <c r="C99" t="n">
-        <v>52.79</v>
+        <v>52.8</v>
       </c>
       <c r="D99" t="n">
-        <v>52.79</v>
+        <v>52.84</v>
       </c>
       <c r="E99" t="n">
-        <v>52.79</v>
+        <v>52.8</v>
       </c>
       <c r="F99" t="n">
-        <v>989</v>
+        <v>74134.3294</v>
       </c>
       <c r="G99" t="n">
-        <v>53.02466666666667</v>
+        <v>53.03466666666667</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3863,22 +3863,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>52.84</v>
+        <v>52.79</v>
       </c>
       <c r="C100" t="n">
-        <v>52.73</v>
+        <v>52.79</v>
       </c>
       <c r="D100" t="n">
-        <v>52.85</v>
+        <v>52.79</v>
       </c>
       <c r="E100" t="n">
-        <v>52.73</v>
+        <v>52.79</v>
       </c>
       <c r="F100" t="n">
-        <v>2197</v>
+        <v>989</v>
       </c>
       <c r="G100" t="n">
-        <v>53.01366666666667</v>
+        <v>53.02466666666667</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3898,22 +3898,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>52.73</v>
+        <v>52.84</v>
       </c>
       <c r="C101" t="n">
         <v>52.73</v>
       </c>
       <c r="D101" t="n">
-        <v>52.73</v>
+        <v>52.85</v>
       </c>
       <c r="E101" t="n">
         <v>52.73</v>
       </c>
       <c r="F101" t="n">
-        <v>7717</v>
+        <v>2197</v>
       </c>
       <c r="G101" t="n">
-        <v>53.00266666666667</v>
+        <v>53.01366666666667</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3933,22 +3933,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>52.83</v>
+        <v>52.73</v>
       </c>
       <c r="C102" t="n">
-        <v>52.83</v>
+        <v>52.73</v>
       </c>
       <c r="D102" t="n">
-        <v>52.83</v>
+        <v>52.73</v>
       </c>
       <c r="E102" t="n">
-        <v>52.83</v>
+        <v>52.73</v>
       </c>
       <c r="F102" t="n">
-        <v>10617.819</v>
+        <v>7717</v>
       </c>
       <c r="G102" t="n">
-        <v>52.99316666666667</v>
+        <v>53.00266666666667</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3980,10 +3980,10 @@
         <v>52.83</v>
       </c>
       <c r="F103" t="n">
-        <v>18881.4352</v>
+        <v>10617.819</v>
       </c>
       <c r="G103" t="n">
-        <v>52.98383333333334</v>
+        <v>52.99316666666667</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4015,10 +4015,10 @@
         <v>52.83</v>
       </c>
       <c r="F104" t="n">
-        <v>1916</v>
+        <v>18881.4352</v>
       </c>
       <c r="G104" t="n">
-        <v>52.97450000000001</v>
+        <v>52.98383333333334</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4050,10 +4050,10 @@
         <v>52.83</v>
       </c>
       <c r="F105" t="n">
-        <v>1160.2821</v>
+        <v>1916</v>
       </c>
       <c r="G105" t="n">
-        <v>52.96466666666667</v>
+        <v>52.97450000000001</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4085,10 +4085,10 @@
         <v>52.83</v>
       </c>
       <c r="F106" t="n">
-        <v>1713.779</v>
+        <v>1160.2821</v>
       </c>
       <c r="G106" t="n">
-        <v>52.95466666666667</v>
+        <v>52.96466666666667</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4111,19 +4111,19 @@
         <v>52.83</v>
       </c>
       <c r="C107" t="n">
-        <v>52.8</v>
+        <v>52.83</v>
       </c>
       <c r="D107" t="n">
         <v>52.83</v>
       </c>
       <c r="E107" t="n">
-        <v>52.8</v>
+        <v>52.83</v>
       </c>
       <c r="F107" t="n">
-        <v>22370.5</v>
+        <v>1713.779</v>
       </c>
       <c r="G107" t="n">
-        <v>52.94416666666667</v>
+        <v>52.95466666666667</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4143,22 +4143,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
+        <v>52.83</v>
+      </c>
+      <c r="C108" t="n">
         <v>52.8</v>
       </c>
-      <c r="C108" t="n">
-        <v>52.74</v>
-      </c>
       <c r="D108" t="n">
+        <v>52.83</v>
+      </c>
+      <c r="E108" t="n">
         <v>52.8</v>
       </c>
-      <c r="E108" t="n">
-        <v>52.74</v>
-      </c>
       <c r="F108" t="n">
-        <v>16284.1413</v>
+        <v>22370.5</v>
       </c>
       <c r="G108" t="n">
-        <v>52.93933333333334</v>
+        <v>52.94416666666667</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4178,22 +4178,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>52.75</v>
+        <v>52.8</v>
       </c>
       <c r="C109" t="n">
-        <v>52.75</v>
+        <v>52.74</v>
       </c>
       <c r="D109" t="n">
-        <v>52.75</v>
+        <v>52.8</v>
       </c>
       <c r="E109" t="n">
-        <v>52.75</v>
+        <v>52.74</v>
       </c>
       <c r="F109" t="n">
-        <v>3821.2532</v>
+        <v>16284.1413</v>
       </c>
       <c r="G109" t="n">
-        <v>52.93516666666667</v>
+        <v>52.93933333333334</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4213,22 +4213,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>52.76</v>
+        <v>52.75</v>
       </c>
       <c r="C110" t="n">
-        <v>52.76</v>
+        <v>52.75</v>
       </c>
       <c r="D110" t="n">
-        <v>52.76</v>
+        <v>52.75</v>
       </c>
       <c r="E110" t="n">
-        <v>52.76</v>
+        <v>52.75</v>
       </c>
       <c r="F110" t="n">
-        <v>1087</v>
+        <v>3821.2532</v>
       </c>
       <c r="G110" t="n">
-        <v>52.93200000000001</v>
+        <v>52.93516666666667</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4248,22 +4248,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>52.87</v>
+        <v>52.76</v>
       </c>
       <c r="C111" t="n">
-        <v>52.87</v>
+        <v>52.76</v>
       </c>
       <c r="D111" t="n">
-        <v>52.87</v>
+        <v>52.76</v>
       </c>
       <c r="E111" t="n">
-        <v>52.87</v>
+        <v>52.76</v>
       </c>
       <c r="F111" t="n">
-        <v>201</v>
+        <v>1087</v>
       </c>
       <c r="G111" t="n">
-        <v>52.93100000000001</v>
+        <v>52.93200000000001</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4283,22 +4283,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>52.76</v>
+        <v>52.87</v>
       </c>
       <c r="C112" t="n">
-        <v>52.75</v>
+        <v>52.87</v>
       </c>
       <c r="D112" t="n">
-        <v>52.76</v>
+        <v>52.87</v>
       </c>
       <c r="E112" t="n">
-        <v>52.75</v>
+        <v>52.87</v>
       </c>
       <c r="F112" t="n">
-        <v>7467.355</v>
+        <v>201</v>
       </c>
       <c r="G112" t="n">
-        <v>52.92533333333334</v>
+        <v>52.93100000000001</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4318,22 +4318,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>52.75</v>
+        <v>52.76</v>
       </c>
       <c r="C113" t="n">
         <v>52.75</v>
       </c>
       <c r="D113" t="n">
-        <v>52.75</v>
+        <v>52.76</v>
       </c>
       <c r="E113" t="n">
         <v>52.75</v>
       </c>
       <c r="F113" t="n">
-        <v>1892.0869</v>
+        <v>7467.355</v>
       </c>
       <c r="G113" t="n">
-        <v>52.91966666666667</v>
+        <v>52.92533333333334</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4356,19 +4356,19 @@
         <v>52.75</v>
       </c>
       <c r="C114" t="n">
-        <v>52.74</v>
+        <v>52.75</v>
       </c>
       <c r="D114" t="n">
         <v>52.75</v>
       </c>
       <c r="E114" t="n">
-        <v>52.74</v>
+        <v>52.75</v>
       </c>
       <c r="F114" t="n">
-        <v>11098.7337</v>
+        <v>1892.0869</v>
       </c>
       <c r="G114" t="n">
-        <v>52.914</v>
+        <v>52.91966666666667</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4388,22 +4388,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>52.73</v>
+        <v>52.75</v>
       </c>
       <c r="C115" t="n">
-        <v>52.64</v>
+        <v>52.74</v>
       </c>
       <c r="D115" t="n">
-        <v>52.77</v>
+        <v>52.75</v>
       </c>
       <c r="E115" t="n">
-        <v>52.64</v>
+        <v>52.74</v>
       </c>
       <c r="F115" t="n">
-        <v>34899.8681</v>
+        <v>11098.7337</v>
       </c>
       <c r="G115" t="n">
-        <v>52.90683333333333</v>
+        <v>52.914</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4423,22 +4423,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>52.7</v>
+        <v>52.73</v>
       </c>
       <c r="C116" t="n">
-        <v>52.71</v>
+        <v>52.64</v>
       </c>
       <c r="D116" t="n">
-        <v>52.71</v>
+        <v>52.77</v>
       </c>
       <c r="E116" t="n">
-        <v>52.7</v>
+        <v>52.64</v>
       </c>
       <c r="F116" t="n">
-        <v>674.9853000000001</v>
+        <v>34899.8681</v>
       </c>
       <c r="G116" t="n">
-        <v>52.90066666666667</v>
+        <v>52.90683333333333</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4458,7 +4458,7 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>52.71</v>
+        <v>52.7</v>
       </c>
       <c r="C117" t="n">
         <v>52.71</v>
@@ -4467,13 +4467,13 @@
         <v>52.71</v>
       </c>
       <c r="E117" t="n">
-        <v>52.71</v>
+        <v>52.7</v>
       </c>
       <c r="F117" t="n">
-        <v>948.58660595</v>
+        <v>674.9853000000001</v>
       </c>
       <c r="G117" t="n">
-        <v>52.89666666666667</v>
+        <v>52.90066666666667</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4505,10 +4505,10 @@
         <v>52.71</v>
       </c>
       <c r="F118" t="n">
-        <v>761.0874</v>
+        <v>948.58660595</v>
       </c>
       <c r="G118" t="n">
-        <v>52.89166666666667</v>
+        <v>52.89666666666667</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4528,22 +4528,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>52.68</v>
+        <v>52.71</v>
       </c>
       <c r="C119" t="n">
-        <v>52.68</v>
+        <v>52.71</v>
       </c>
       <c r="D119" t="n">
-        <v>52.68</v>
+        <v>52.71</v>
       </c>
       <c r="E119" t="n">
-        <v>52.68</v>
+        <v>52.71</v>
       </c>
       <c r="F119" t="n">
-        <v>1226</v>
+        <v>761.0874</v>
       </c>
       <c r="G119" t="n">
-        <v>52.88699999999999</v>
+        <v>52.89166666666667</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4563,22 +4563,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>52.64</v>
+        <v>52.68</v>
       </c>
       <c r="C120" t="n">
-        <v>52.64</v>
+        <v>52.68</v>
       </c>
       <c r="D120" t="n">
-        <v>52.64</v>
+        <v>52.68</v>
       </c>
       <c r="E120" t="n">
-        <v>52.64</v>
+        <v>52.68</v>
       </c>
       <c r="F120" t="n">
-        <v>277.562</v>
+        <v>1226</v>
       </c>
       <c r="G120" t="n">
-        <v>52.88099999999999</v>
+        <v>52.88699999999999</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4598,22 +4598,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>52.74</v>
+        <v>52.64</v>
       </c>
       <c r="C121" t="n">
-        <v>52.7</v>
+        <v>52.64</v>
       </c>
       <c r="D121" t="n">
-        <v>52.86</v>
+        <v>52.64</v>
       </c>
       <c r="E121" t="n">
-        <v>52.7</v>
+        <v>52.64</v>
       </c>
       <c r="F121" t="n">
-        <v>31987.8183</v>
+        <v>277.562</v>
       </c>
       <c r="G121" t="n">
-        <v>52.87433333333333</v>
+        <v>52.88099999999999</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4633,22 +4633,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>52.75</v>
+        <v>52.74</v>
       </c>
       <c r="C122" t="n">
-        <v>52.75</v>
+        <v>52.7</v>
       </c>
       <c r="D122" t="n">
-        <v>52.75</v>
+        <v>52.86</v>
       </c>
       <c r="E122" t="n">
-        <v>52.75</v>
+        <v>52.7</v>
       </c>
       <c r="F122" t="n">
-        <v>613</v>
+        <v>31987.8183</v>
       </c>
       <c r="G122" t="n">
-        <v>52.86433333333333</v>
+        <v>52.87433333333333</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4668,22 +4668,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>52.76</v>
+        <v>52.75</v>
       </c>
       <c r="C123" t="n">
-        <v>52.84</v>
+        <v>52.75</v>
       </c>
       <c r="D123" t="n">
-        <v>52.84</v>
+        <v>52.75</v>
       </c>
       <c r="E123" t="n">
-        <v>52.76</v>
+        <v>52.75</v>
       </c>
       <c r="F123" t="n">
-        <v>5678.86449659</v>
+        <v>613</v>
       </c>
       <c r="G123" t="n">
-        <v>52.85983333333333</v>
+        <v>52.86433333333333</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4703,22 +4703,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>52.72</v>
+        <v>52.76</v>
       </c>
       <c r="C124" t="n">
-        <v>52.79</v>
+        <v>52.84</v>
       </c>
       <c r="D124" t="n">
-        <v>52.79</v>
+        <v>52.84</v>
       </c>
       <c r="E124" t="n">
-        <v>52.72</v>
+        <v>52.76</v>
       </c>
       <c r="F124" t="n">
-        <v>20902.4747</v>
+        <v>5678.86449659</v>
       </c>
       <c r="G124" t="n">
-        <v>52.85183333333332</v>
+        <v>52.85983333333333</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4741,19 +4741,19 @@
         <v>52.72</v>
       </c>
       <c r="C125" t="n">
-        <v>52.58</v>
+        <v>52.79</v>
       </c>
       <c r="D125" t="n">
+        <v>52.79</v>
+      </c>
+      <c r="E125" t="n">
         <v>52.72</v>
       </c>
-      <c r="E125" t="n">
-        <v>52.58</v>
-      </c>
       <c r="F125" t="n">
-        <v>2574.1858</v>
+        <v>20902.4747</v>
       </c>
       <c r="G125" t="n">
-        <v>52.84316666666666</v>
+        <v>52.85183333333332</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4773,22 +4773,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>52.56</v>
+        <v>52.72</v>
       </c>
       <c r="C126" t="n">
-        <v>52.56</v>
+        <v>52.58</v>
       </c>
       <c r="D126" t="n">
-        <v>52.56</v>
+        <v>52.72</v>
       </c>
       <c r="E126" t="n">
-        <v>52.56</v>
+        <v>52.58</v>
       </c>
       <c r="F126" t="n">
-        <v>573.5798</v>
+        <v>2574.1858</v>
       </c>
       <c r="G126" t="n">
-        <v>52.83533333333332</v>
+        <v>52.84316666666666</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4811,19 +4811,19 @@
         <v>52.56</v>
       </c>
       <c r="C127" t="n">
-        <v>52.55</v>
+        <v>52.56</v>
       </c>
       <c r="D127" t="n">
         <v>52.56</v>
       </c>
       <c r="E127" t="n">
-        <v>52.55</v>
+        <v>52.56</v>
       </c>
       <c r="F127" t="n">
-        <v>2319.9179</v>
+        <v>573.5798</v>
       </c>
       <c r="G127" t="n">
-        <v>52.82416666666666</v>
+        <v>52.83533333333332</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4843,22 +4843,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>52.55</v>
+        <v>52.56</v>
       </c>
       <c r="C128" t="n">
         <v>52.55</v>
       </c>
       <c r="D128" t="n">
-        <v>52.55</v>
+        <v>52.56</v>
       </c>
       <c r="E128" t="n">
         <v>52.55</v>
       </c>
       <c r="F128" t="n">
-        <v>72073.5527</v>
+        <v>2319.9179</v>
       </c>
       <c r="G128" t="n">
-        <v>52.81466666666667</v>
+        <v>52.82416666666666</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4878,22 +4878,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>52.52</v>
+        <v>52.55</v>
       </c>
       <c r="C129" t="n">
-        <v>52.52</v>
+        <v>52.55</v>
       </c>
       <c r="D129" t="n">
-        <v>52.52</v>
+        <v>52.55</v>
       </c>
       <c r="E129" t="n">
-        <v>52.52</v>
+        <v>52.55</v>
       </c>
       <c r="F129" t="n">
-        <v>14840.4745</v>
+        <v>72073.5527</v>
       </c>
       <c r="G129" t="n">
-        <v>52.80333333333333</v>
+        <v>52.81466666666667</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4913,22 +4913,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>52.59</v>
+        <v>52.52</v>
       </c>
       <c r="C130" t="n">
-        <v>52.66</v>
+        <v>52.52</v>
       </c>
       <c r="D130" t="n">
-        <v>52.66</v>
+        <v>52.52</v>
       </c>
       <c r="E130" t="n">
-        <v>52.59</v>
+        <v>52.52</v>
       </c>
       <c r="F130" t="n">
-        <v>18604.6289</v>
+        <v>14840.4745</v>
       </c>
       <c r="G130" t="n">
-        <v>52.797</v>
+        <v>52.80333333333333</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4948,22 +4948,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>52.7</v>
+        <v>52.59</v>
       </c>
       <c r="C131" t="n">
-        <v>52.69</v>
+        <v>52.66</v>
       </c>
       <c r="D131" t="n">
-        <v>52.76</v>
+        <v>52.66</v>
       </c>
       <c r="E131" t="n">
-        <v>52.69</v>
+        <v>52.59</v>
       </c>
       <c r="F131" t="n">
-        <v>13567.8615</v>
+        <v>18604.6289</v>
       </c>
       <c r="G131" t="n">
-        <v>52.791</v>
+        <v>52.797</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -4983,22 +4983,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>52.64</v>
+        <v>52.7</v>
       </c>
       <c r="C132" t="n">
-        <v>52.64</v>
+        <v>52.69</v>
       </c>
       <c r="D132" t="n">
-        <v>52.64</v>
+        <v>52.76</v>
       </c>
       <c r="E132" t="n">
-        <v>52.64</v>
+        <v>52.69</v>
       </c>
       <c r="F132" t="n">
-        <v>1000.4704</v>
+        <v>13567.8615</v>
       </c>
       <c r="G132" t="n">
-        <v>52.78366666666667</v>
+        <v>52.791</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5030,10 +5030,10 @@
         <v>52.64</v>
       </c>
       <c r="F133" t="n">
-        <v>2664.7373</v>
+        <v>1000.4704</v>
       </c>
       <c r="G133" t="n">
-        <v>52.77516666666666</v>
+        <v>52.78366666666667</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5053,22 +5053,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>52.59</v>
+        <v>52.64</v>
       </c>
       <c r="C134" t="n">
-        <v>52.59</v>
+        <v>52.64</v>
       </c>
       <c r="D134" t="n">
-        <v>52.59</v>
+        <v>52.64</v>
       </c>
       <c r="E134" t="n">
-        <v>52.59</v>
+        <v>52.64</v>
       </c>
       <c r="F134" t="n">
-        <v>569</v>
+        <v>2664.7373</v>
       </c>
       <c r="G134" t="n">
-        <v>52.76633333333334</v>
+        <v>52.77516666666666</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5088,22 +5088,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>52.74</v>
+        <v>52.59</v>
       </c>
       <c r="C135" t="n">
-        <v>52.62</v>
+        <v>52.59</v>
       </c>
       <c r="D135" t="n">
-        <v>52.74</v>
+        <v>52.59</v>
       </c>
       <c r="E135" t="n">
-        <v>52.62</v>
+        <v>52.59</v>
       </c>
       <c r="F135" t="n">
-        <v>11506.7</v>
+        <v>569</v>
       </c>
       <c r="G135" t="n">
-        <v>52.7575</v>
+        <v>52.76633333333334</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5123,22 +5123,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>52.73</v>
+        <v>52.74</v>
       </c>
       <c r="C136" t="n">
-        <v>52.65</v>
+        <v>52.62</v>
       </c>
       <c r="D136" t="n">
-        <v>52.73</v>
+        <v>52.74</v>
       </c>
       <c r="E136" t="n">
-        <v>52.65</v>
+        <v>52.62</v>
       </c>
       <c r="F136" t="n">
-        <v>13523.825</v>
+        <v>11506.7</v>
       </c>
       <c r="G136" t="n">
-        <v>52.74916666666666</v>
+        <v>52.7575</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5158,22 +5158,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
+        <v>52.73</v>
+      </c>
+      <c r="C137" t="n">
         <v>52.65</v>
       </c>
-      <c r="C137" t="n">
-        <v>52.62</v>
-      </c>
       <c r="D137" t="n">
-        <v>52.74</v>
+        <v>52.73</v>
       </c>
       <c r="E137" t="n">
-        <v>52.62</v>
+        <v>52.65</v>
       </c>
       <c r="F137" t="n">
-        <v>8937.474700000001</v>
+        <v>13523.825</v>
       </c>
       <c r="G137" t="n">
-        <v>52.74216666666666</v>
+        <v>52.74916666666666</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5193,22 +5193,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>52.62</v>
+        <v>52.65</v>
       </c>
       <c r="C138" t="n">
         <v>52.62</v>
       </c>
       <c r="D138" t="n">
-        <v>52.62</v>
+        <v>52.74</v>
       </c>
       <c r="E138" t="n">
         <v>52.62</v>
       </c>
       <c r="F138" t="n">
-        <v>15195.3119</v>
+        <v>8937.474700000001</v>
       </c>
       <c r="G138" t="n">
-        <v>52.7335</v>
+        <v>52.74216666666666</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5240,10 +5240,10 @@
         <v>52.62</v>
       </c>
       <c r="F139" t="n">
-        <v>230.203</v>
+        <v>15195.3119</v>
       </c>
       <c r="G139" t="n">
-        <v>52.72466666666666</v>
+        <v>52.7335</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5275,10 +5275,10 @@
         <v>52.62</v>
       </c>
       <c r="F140" t="n">
-        <v>2185.248</v>
+        <v>230.203</v>
       </c>
       <c r="G140" t="n">
-        <v>52.71583333333332</v>
+        <v>52.72466666666666</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5310,10 +5310,10 @@
         <v>52.62</v>
       </c>
       <c r="F141" t="n">
-        <v>84394.9182</v>
+        <v>2185.248</v>
       </c>
       <c r="G141" t="n">
-        <v>52.71083333333332</v>
+        <v>52.71583333333332</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5345,10 +5345,10 @@
         <v>52.62</v>
       </c>
       <c r="F142" t="n">
-        <v>774.5092</v>
+        <v>84394.9182</v>
       </c>
       <c r="G142" t="n">
-        <v>52.70899999999998</v>
+        <v>52.71083333333332</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5380,10 +5380,10 @@
         <v>52.62</v>
       </c>
       <c r="F143" t="n">
-        <v>19800.3704</v>
+        <v>774.5092</v>
       </c>
       <c r="G143" t="n">
-        <v>52.70699999999999</v>
+        <v>52.70899999999998</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5403,22 +5403,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>52.59</v>
+        <v>52.62</v>
       </c>
       <c r="C144" t="n">
-        <v>52.59</v>
+        <v>52.62</v>
       </c>
       <c r="D144" t="n">
-        <v>52.59</v>
+        <v>52.62</v>
       </c>
       <c r="E144" t="n">
-        <v>52.59</v>
+        <v>52.62</v>
       </c>
       <c r="F144" t="n">
-        <v>16900</v>
+        <v>19800.3704</v>
       </c>
       <c r="G144" t="n">
-        <v>52.70449999999999</v>
+        <v>52.70699999999999</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5441,19 +5441,19 @@
         <v>52.59</v>
       </c>
       <c r="C145" t="n">
-        <v>52.52</v>
+        <v>52.59</v>
       </c>
       <c r="D145" t="n">
         <v>52.59</v>
       </c>
       <c r="E145" t="n">
-        <v>52.52</v>
+        <v>52.59</v>
       </c>
       <c r="F145" t="n">
-        <v>4623.2865</v>
+        <v>16900</v>
       </c>
       <c r="G145" t="n">
-        <v>52.70099999999999</v>
+        <v>52.70449999999999</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5473,22 +5473,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>52.64</v>
+        <v>52.59</v>
       </c>
       <c r="C146" t="n">
-        <v>52.64</v>
+        <v>52.52</v>
       </c>
       <c r="D146" t="n">
-        <v>52.64</v>
+        <v>52.59</v>
       </c>
       <c r="E146" t="n">
-        <v>52.64</v>
+        <v>52.52</v>
       </c>
       <c r="F146" t="n">
-        <v>500</v>
+        <v>4623.2865</v>
       </c>
       <c r="G146" t="n">
-        <v>52.69949999999999</v>
+        <v>52.70099999999999</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5508,22 +5508,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>52.62</v>
+        <v>52.64</v>
       </c>
       <c r="C147" t="n">
-        <v>52.62</v>
+        <v>52.64</v>
       </c>
       <c r="D147" t="n">
-        <v>52.62</v>
+        <v>52.64</v>
       </c>
       <c r="E147" t="n">
-        <v>52.62</v>
+        <v>52.64</v>
       </c>
       <c r="F147" t="n">
-        <v>424.8794</v>
+        <v>500</v>
       </c>
       <c r="G147" t="n">
-        <v>52.69733333333332</v>
+        <v>52.69949999999999</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5543,22 +5543,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>52.64</v>
+        <v>52.62</v>
       </c>
       <c r="C148" t="n">
-        <v>52.61</v>
+        <v>52.62</v>
       </c>
       <c r="D148" t="n">
-        <v>52.64</v>
+        <v>52.62</v>
       </c>
       <c r="E148" t="n">
-        <v>52.61</v>
+        <v>52.62</v>
       </c>
       <c r="F148" t="n">
-        <v>2359.1495</v>
+        <v>424.8794</v>
       </c>
       <c r="G148" t="n">
-        <v>52.69349999999999</v>
+        <v>52.69733333333332</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5578,22 +5578,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>52.55</v>
+        <v>52.64</v>
       </c>
       <c r="C149" t="n">
-        <v>52.41</v>
+        <v>52.61</v>
       </c>
       <c r="D149" t="n">
-        <v>52.55</v>
+        <v>52.64</v>
       </c>
       <c r="E149" t="n">
-        <v>52.41</v>
+        <v>52.61</v>
       </c>
       <c r="F149" t="n">
-        <v>33723.0232</v>
+        <v>2359.1495</v>
       </c>
       <c r="G149" t="n">
-        <v>52.68633333333332</v>
+        <v>52.69349999999999</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5613,22 +5613,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>52.49</v>
+        <v>52.55</v>
       </c>
       <c r="C150" t="n">
-        <v>52.49</v>
+        <v>52.41</v>
       </c>
       <c r="D150" t="n">
-        <v>52.49</v>
+        <v>52.55</v>
       </c>
       <c r="E150" t="n">
-        <v>52.49</v>
+        <v>52.41</v>
       </c>
       <c r="F150" t="n">
-        <v>200</v>
+        <v>33723.0232</v>
       </c>
       <c r="G150" t="n">
-        <v>52.68233333333331</v>
+        <v>52.68633333333332</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5660,10 +5660,10 @@
         <v>52.49</v>
       </c>
       <c r="F151" t="n">
-        <v>491.3295</v>
+        <v>200</v>
       </c>
       <c r="G151" t="n">
-        <v>52.67833333333331</v>
+        <v>52.68233333333331</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5683,22 +5683,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>52.51</v>
+        <v>52.49</v>
       </c>
       <c r="C152" t="n">
-        <v>52.51</v>
+        <v>52.49</v>
       </c>
       <c r="D152" t="n">
-        <v>52.51</v>
+        <v>52.49</v>
       </c>
       <c r="E152" t="n">
-        <v>52.51</v>
+        <v>52.49</v>
       </c>
       <c r="F152" t="n">
-        <v>29.004</v>
+        <v>491.3295</v>
       </c>
       <c r="G152" t="n">
-        <v>52.67466666666665</v>
+        <v>52.67833333333331</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5721,19 +5721,19 @@
         <v>52.51</v>
       </c>
       <c r="C153" t="n">
-        <v>52.61</v>
+        <v>52.51</v>
       </c>
       <c r="D153" t="n">
-        <v>52.61</v>
+        <v>52.51</v>
       </c>
       <c r="E153" t="n">
         <v>52.51</v>
       </c>
       <c r="F153" t="n">
-        <v>448.4394</v>
+        <v>29.004</v>
       </c>
       <c r="G153" t="n">
-        <v>52.67266666666664</v>
+        <v>52.67466666666665</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5753,22 +5753,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>52.52</v>
+        <v>52.51</v>
       </c>
       <c r="C154" t="n">
-        <v>52.49</v>
+        <v>52.61</v>
       </c>
       <c r="D154" t="n">
-        <v>52.52</v>
+        <v>52.61</v>
       </c>
       <c r="E154" t="n">
-        <v>52.49</v>
+        <v>52.51</v>
       </c>
       <c r="F154" t="n">
-        <v>7496.0688</v>
+        <v>448.4394</v>
       </c>
       <c r="G154" t="n">
-        <v>52.66866666666665</v>
+        <v>52.67266666666664</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5788,22 +5788,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>52.49</v>
+        <v>52.52</v>
       </c>
       <c r="C155" t="n">
         <v>52.49</v>
       </c>
       <c r="D155" t="n">
-        <v>52.49</v>
+        <v>52.52</v>
       </c>
       <c r="E155" t="n">
         <v>52.49</v>
       </c>
       <c r="F155" t="n">
-        <v>2570.2454</v>
+        <v>7496.0688</v>
       </c>
       <c r="G155" t="n">
-        <v>52.66499999999997</v>
+        <v>52.66866666666665</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5823,22 +5823,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>52.55</v>
+        <v>52.49</v>
       </c>
       <c r="C156" t="n">
-        <v>52.55</v>
+        <v>52.49</v>
       </c>
       <c r="D156" t="n">
-        <v>52.55</v>
+        <v>52.49</v>
       </c>
       <c r="E156" t="n">
-        <v>52.55</v>
+        <v>52.49</v>
       </c>
       <c r="F156" t="n">
-        <v>999.9999</v>
+        <v>2570.2454</v>
       </c>
       <c r="G156" t="n">
-        <v>52.66249999999998</v>
+        <v>52.66499999999997</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5861,19 +5861,19 @@
         <v>52.55</v>
       </c>
       <c r="C157" t="n">
-        <v>52.49</v>
+        <v>52.55</v>
       </c>
       <c r="D157" t="n">
         <v>52.55</v>
       </c>
       <c r="E157" t="n">
-        <v>52.49</v>
+        <v>52.55</v>
       </c>
       <c r="F157" t="n">
-        <v>11470.4172</v>
+        <v>999.9999</v>
       </c>
       <c r="G157" t="n">
-        <v>52.66049999999997</v>
+        <v>52.66249999999998</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5893,22 +5893,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>52.5</v>
+        <v>52.55</v>
       </c>
       <c r="C158" t="n">
-        <v>52.5</v>
+        <v>52.49</v>
       </c>
       <c r="D158" t="n">
-        <v>52.5</v>
+        <v>52.55</v>
       </c>
       <c r="E158" t="n">
-        <v>52.5</v>
+        <v>52.49</v>
       </c>
       <c r="F158" t="n">
-        <v>44.9064</v>
+        <v>11470.4172</v>
       </c>
       <c r="G158" t="n">
-        <v>52.65549999999997</v>
+        <v>52.66049999999997</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -5931,19 +5931,19 @@
         <v>52.5</v>
       </c>
       <c r="C159" t="n">
-        <v>52.49</v>
+        <v>52.5</v>
       </c>
       <c r="D159" t="n">
         <v>52.5</v>
       </c>
       <c r="E159" t="n">
-        <v>52.49</v>
+        <v>52.5</v>
       </c>
       <c r="F159" t="n">
-        <v>35728.1028</v>
+        <v>44.9064</v>
       </c>
       <c r="G159" t="n">
-        <v>52.65049999999997</v>
+        <v>52.65549999999997</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -5963,22 +5963,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>52.49</v>
+        <v>52.5</v>
       </c>
       <c r="C160" t="n">
         <v>52.49</v>
       </c>
       <c r="D160" t="n">
-        <v>52.49</v>
+        <v>52.5</v>
       </c>
       <c r="E160" t="n">
         <v>52.49</v>
       </c>
       <c r="F160" t="n">
-        <v>6164.36</v>
+        <v>35728.1028</v>
       </c>
       <c r="G160" t="n">
-        <v>52.64649999999996</v>
+        <v>52.65049999999997</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6010,10 +6010,10 @@
         <v>52.49</v>
       </c>
       <c r="F161" t="n">
-        <v>6384.9151</v>
+        <v>6164.36</v>
       </c>
       <c r="G161" t="n">
-        <v>52.64249999999996</v>
+        <v>52.64649999999996</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6033,22 +6033,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>52.54</v>
+        <v>52.49</v>
       </c>
       <c r="C162" t="n">
-        <v>52.54</v>
+        <v>52.49</v>
       </c>
       <c r="D162" t="n">
-        <v>52.54</v>
+        <v>52.49</v>
       </c>
       <c r="E162" t="n">
-        <v>52.54</v>
+        <v>52.49</v>
       </c>
       <c r="F162" t="n">
-        <v>1087</v>
+        <v>6384.9151</v>
       </c>
       <c r="G162" t="n">
-        <v>52.63766666666663</v>
+        <v>52.64249999999996</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6080,10 +6080,10 @@
         <v>52.54</v>
       </c>
       <c r="F163" t="n">
-        <v>104.6133</v>
+        <v>1087</v>
       </c>
       <c r="G163" t="n">
-        <v>52.63283333333329</v>
+        <v>52.63766666666663</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6103,22 +6103,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>52.49</v>
+        <v>52.54</v>
       </c>
       <c r="C164" t="n">
-        <v>52.42</v>
+        <v>52.54</v>
       </c>
       <c r="D164" t="n">
-        <v>52.49</v>
+        <v>52.54</v>
       </c>
       <c r="E164" t="n">
-        <v>52.42</v>
+        <v>52.54</v>
       </c>
       <c r="F164" t="n">
-        <v>4943.548</v>
+        <v>104.6133</v>
       </c>
       <c r="G164" t="n">
-        <v>52.62599999999996</v>
+        <v>52.63283333333329</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6138,22 +6138,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>52.46</v>
+        <v>52.49</v>
       </c>
       <c r="C165" t="n">
         <v>52.42</v>
       </c>
       <c r="D165" t="n">
-        <v>52.46</v>
+        <v>52.49</v>
       </c>
       <c r="E165" t="n">
         <v>52.42</v>
       </c>
       <c r="F165" t="n">
-        <v>14500</v>
+        <v>4943.548</v>
       </c>
       <c r="G165" t="n">
-        <v>52.61916666666663</v>
+        <v>52.62599999999996</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6173,22 +6173,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>52.42</v>
+        <v>52.46</v>
       </c>
       <c r="C166" t="n">
         <v>52.42</v>
       </c>
       <c r="D166" t="n">
-        <v>52.42</v>
+        <v>52.46</v>
       </c>
       <c r="E166" t="n">
         <v>52.42</v>
       </c>
       <c r="F166" t="n">
-        <v>6386.9</v>
+        <v>14500</v>
       </c>
       <c r="G166" t="n">
-        <v>52.6123333333333</v>
+        <v>52.61916666666663</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6220,10 +6220,10 @@
         <v>52.42</v>
       </c>
       <c r="F167" t="n">
-        <v>29913.4999</v>
+        <v>6386.9</v>
       </c>
       <c r="G167" t="n">
-        <v>52.60599999999997</v>
+        <v>52.6123333333333</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6255,10 +6255,10 @@
         <v>52.42</v>
       </c>
       <c r="F168" t="n">
-        <v>26326.2167</v>
+        <v>29913.4999</v>
       </c>
       <c r="G168" t="n">
-        <v>52.60066666666663</v>
+        <v>52.60599999999997</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6290,10 +6290,10 @@
         <v>52.42</v>
       </c>
       <c r="F169" t="n">
-        <v>465.1994</v>
+        <v>26326.2167</v>
       </c>
       <c r="G169" t="n">
-        <v>52.59516666666664</v>
+        <v>52.60066666666663</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6316,19 +6316,19 @@
         <v>52.42</v>
       </c>
       <c r="C170" t="n">
-        <v>52.41</v>
+        <v>52.42</v>
       </c>
       <c r="D170" t="n">
         <v>52.42</v>
       </c>
       <c r="E170" t="n">
-        <v>52.41</v>
+        <v>52.42</v>
       </c>
       <c r="F170" t="n">
-        <v>91423.24400000001</v>
+        <v>465.1994</v>
       </c>
       <c r="G170" t="n">
-        <v>52.5893333333333</v>
+        <v>52.59516666666664</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6348,22 +6348,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
+        <v>52.42</v>
+      </c>
+      <c r="C171" t="n">
         <v>52.41</v>
       </c>
-      <c r="C171" t="n">
-        <v>52.4</v>
-      </c>
       <c r="D171" t="n">
+        <v>52.42</v>
+      </c>
+      <c r="E171" t="n">
         <v>52.41</v>
       </c>
-      <c r="E171" t="n">
-        <v>52.4</v>
-      </c>
       <c r="F171" t="n">
-        <v>13653.1017</v>
+        <v>91423.24400000001</v>
       </c>
       <c r="G171" t="n">
-        <v>52.58149999999997</v>
+        <v>52.5893333333333</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6395,10 +6395,10 @@
         <v>52.4</v>
       </c>
       <c r="F172" t="n">
-        <v>20658.4404</v>
+        <v>13653.1017</v>
       </c>
       <c r="G172" t="n">
-        <v>52.57566666666663</v>
+        <v>52.58149999999997</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6418,22 +6418,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>52.32</v>
+        <v>52.41</v>
       </c>
       <c r="C173" t="n">
-        <v>52.3</v>
+        <v>52.4</v>
       </c>
       <c r="D173" t="n">
-        <v>52.32</v>
+        <v>52.41</v>
       </c>
       <c r="E173" t="n">
-        <v>52.3</v>
+        <v>52.4</v>
       </c>
       <c r="F173" t="n">
-        <v>69526.13649999999</v>
+        <v>20658.4404</v>
       </c>
       <c r="G173" t="n">
-        <v>52.56816666666664</v>
+        <v>52.57566666666663</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6453,22 +6453,22 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
+        <v>52.32</v>
+      </c>
+      <c r="C174" t="n">
         <v>52.3</v>
       </c>
-      <c r="C174" t="n">
-        <v>52.23</v>
-      </c>
       <c r="D174" t="n">
+        <v>52.32</v>
+      </c>
+      <c r="E174" t="n">
         <v>52.3</v>
       </c>
-      <c r="E174" t="n">
-        <v>52.23</v>
-      </c>
       <c r="F174" t="n">
-        <v>4253.4716</v>
+        <v>69526.13649999999</v>
       </c>
       <c r="G174" t="n">
-        <v>52.55966666666664</v>
+        <v>52.56816666666664</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6488,22 +6488,22 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>52.28</v>
+        <v>52.3</v>
       </c>
       <c r="C175" t="n">
         <v>52.23</v>
       </c>
       <c r="D175" t="n">
-        <v>52.28</v>
+        <v>52.3</v>
       </c>
       <c r="E175" t="n">
-        <v>52.21</v>
+        <v>52.23</v>
       </c>
       <c r="F175" t="n">
-        <v>4187.286</v>
+        <v>4253.4716</v>
       </c>
       <c r="G175" t="n">
-        <v>52.55283333333331</v>
+        <v>52.55966666666664</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6523,22 +6523,22 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>52.3</v>
+        <v>52.28</v>
       </c>
       <c r="C176" t="n">
-        <v>52.32</v>
+        <v>52.23</v>
       </c>
       <c r="D176" t="n">
-        <v>52.32</v>
+        <v>52.28</v>
       </c>
       <c r="E176" t="n">
-        <v>52.3</v>
+        <v>52.21</v>
       </c>
       <c r="F176" t="n">
-        <v>3691.441</v>
+        <v>4187.286</v>
       </c>
       <c r="G176" t="n">
-        <v>52.54633333333332</v>
+        <v>52.55283333333331</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6558,22 +6558,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>52.21</v>
+        <v>52.3</v>
       </c>
       <c r="C177" t="n">
-        <v>52.34</v>
+        <v>52.32</v>
       </c>
       <c r="D177" t="n">
-        <v>52.34</v>
+        <v>52.32</v>
       </c>
       <c r="E177" t="n">
-        <v>52.21</v>
+        <v>52.3</v>
       </c>
       <c r="F177" t="n">
-        <v>11260.7396</v>
+        <v>3691.441</v>
       </c>
       <c r="G177" t="n">
-        <v>52.54016666666665</v>
+        <v>52.54633333333332</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6593,22 +6593,22 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>52.38</v>
+        <v>52.21</v>
       </c>
       <c r="C178" t="n">
-        <v>52.3</v>
+        <v>52.34</v>
       </c>
       <c r="D178" t="n">
-        <v>52.38</v>
+        <v>52.34</v>
       </c>
       <c r="E178" t="n">
-        <v>52.3</v>
+        <v>52.21</v>
       </c>
       <c r="F178" t="n">
-        <v>23352.7279</v>
+        <v>11260.7396</v>
       </c>
       <c r="G178" t="n">
-        <v>52.53333333333332</v>
+        <v>52.54016666666665</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6628,22 +6628,22 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>52.33</v>
+        <v>52.38</v>
       </c>
       <c r="C179" t="n">
-        <v>52.2</v>
+        <v>52.3</v>
       </c>
       <c r="D179" t="n">
-        <v>52.33</v>
+        <v>52.38</v>
       </c>
       <c r="E179" t="n">
-        <v>52.2</v>
+        <v>52.3</v>
       </c>
       <c r="F179" t="n">
-        <v>1370.8149</v>
+        <v>23352.7279</v>
       </c>
       <c r="G179" t="n">
-        <v>52.52533333333331</v>
+        <v>52.53333333333332</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6663,22 +6663,22 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>52.21</v>
+        <v>52.33</v>
       </c>
       <c r="C180" t="n">
-        <v>52.13</v>
+        <v>52.2</v>
       </c>
       <c r="D180" t="n">
-        <v>52.24</v>
+        <v>52.33</v>
       </c>
       <c r="E180" t="n">
-        <v>52.11</v>
+        <v>52.2</v>
       </c>
       <c r="F180" t="n">
-        <v>19754.2831</v>
+        <v>1370.8149</v>
       </c>
       <c r="G180" t="n">
-        <v>52.51683333333332</v>
+        <v>52.52533333333331</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6698,22 +6698,22 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>52.11</v>
+        <v>52.21</v>
       </c>
       <c r="C181" t="n">
-        <v>52.11</v>
+        <v>52.13</v>
       </c>
       <c r="D181" t="n">
-        <v>52.11</v>
+        <v>52.24</v>
       </c>
       <c r="E181" t="n">
         <v>52.11</v>
       </c>
       <c r="F181" t="n">
-        <v>1340.9399</v>
+        <v>19754.2831</v>
       </c>
       <c r="G181" t="n">
-        <v>52.50699999999999</v>
+        <v>52.51683333333332</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -6733,22 +6733,22 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>52.14</v>
+        <v>52.11</v>
       </c>
       <c r="C182" t="n">
-        <v>52.07</v>
+        <v>52.11</v>
       </c>
       <c r="D182" t="n">
-        <v>52.14</v>
+        <v>52.11</v>
       </c>
       <c r="E182" t="n">
-        <v>52.07</v>
+        <v>52.11</v>
       </c>
       <c r="F182" t="n">
-        <v>16652.9405</v>
+        <v>1340.9399</v>
       </c>
       <c r="G182" t="n">
-        <v>52.49566666666666</v>
+        <v>52.50699999999999</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -6768,38 +6768,32 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>52.13</v>
+        <v>52.14</v>
       </c>
       <c r="C183" t="n">
-        <v>52.11</v>
+        <v>52.07</v>
       </c>
       <c r="D183" t="n">
-        <v>52.13</v>
+        <v>52.14</v>
       </c>
       <c r="E183" t="n">
-        <v>52.03</v>
+        <v>52.07</v>
       </c>
       <c r="F183" t="n">
-        <v>3471.3327</v>
+        <v>16652.9405</v>
       </c>
       <c r="G183" t="n">
-        <v>52.4835</v>
+        <v>52.49566666666666</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="n">
-        <v>52.07</v>
-      </c>
+      <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L183" t="inlineStr"/>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -6809,38 +6803,32 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>52.05</v>
+        <v>52.13</v>
       </c>
       <c r="C184" t="n">
-        <v>52</v>
+        <v>52.11</v>
       </c>
       <c r="D184" t="n">
-        <v>52.1</v>
+        <v>52.13</v>
       </c>
       <c r="E184" t="n">
-        <v>52</v>
+        <v>52.03</v>
       </c>
       <c r="F184" t="n">
-        <v>26469.9</v>
+        <v>3471.3327</v>
       </c>
       <c r="G184" t="n">
-        <v>52.47033333333333</v>
+        <v>52.4835</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="n">
-        <v>52.11</v>
-      </c>
+      <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L184" t="inlineStr"/>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -6850,38 +6838,32 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>52.01</v>
+        <v>52.05</v>
       </c>
       <c r="C185" t="n">
-        <v>52.18</v>
+        <v>52</v>
       </c>
       <c r="D185" t="n">
-        <v>52.18</v>
+        <v>52.1</v>
       </c>
       <c r="E185" t="n">
-        <v>52.01</v>
+        <v>52</v>
       </c>
       <c r="F185" t="n">
-        <v>18245.5416</v>
+        <v>26469.9</v>
       </c>
       <c r="G185" t="n">
-        <v>52.46366666666666</v>
+        <v>52.47033333333333</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="n">
-        <v>52</v>
-      </c>
+      <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L185" t="inlineStr"/>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -6891,38 +6873,36 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
+        <v>52.01</v>
+      </c>
+      <c r="C186" t="n">
+        <v>52.18</v>
+      </c>
+      <c r="D186" t="n">
+        <v>52.18</v>
+      </c>
+      <c r="E186" t="n">
+        <v>52.01</v>
+      </c>
+      <c r="F186" t="n">
+        <v>18245.5416</v>
+      </c>
+      <c r="G186" t="n">
+        <v>52.46366666666666</v>
+      </c>
+      <c r="H186" t="n">
+        <v>1</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="n">
         <v>52</v>
       </c>
-      <c r="C186" t="n">
+      <c r="K186" t="n">
         <v>52</v>
       </c>
-      <c r="D186" t="n">
-        <v>52</v>
-      </c>
-      <c r="E186" t="n">
-        <v>52</v>
-      </c>
-      <c r="F186" t="n">
-        <v>11506.594</v>
-      </c>
-      <c r="G186" t="n">
-        <v>52.45433333333333</v>
-      </c>
-      <c r="H186" t="n">
-        <v>1</v>
-      </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J186" t="n">
-        <v>52.18</v>
-      </c>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L186" t="inlineStr"/>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -6944,10 +6924,10 @@
         <v>52</v>
       </c>
       <c r="F187" t="n">
-        <v>117401.2399</v>
+        <v>11506.594</v>
       </c>
       <c r="G187" t="n">
-        <v>52.44516666666666</v>
+        <v>52.45433333333333</v>
       </c>
       <c r="H187" t="n">
         <v>1</v>
@@ -6956,12 +6936,14 @@
         <v>0</v>
       </c>
       <c r="J187" t="n">
+        <v>52.18</v>
+      </c>
+      <c r="K187" t="n">
         <v>52</v>
       </c>
-      <c r="K187" t="inlineStr"/>
       <c r="L187" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M187" t="n">
@@ -6973,22 +6955,22 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>52.2</v>
+        <v>52</v>
       </c>
       <c r="C188" t="n">
-        <v>52.2</v>
+        <v>52</v>
       </c>
       <c r="D188" t="n">
-        <v>52.2</v>
+        <v>52</v>
       </c>
       <c r="E188" t="n">
-        <v>52.2</v>
+        <v>52</v>
       </c>
       <c r="F188" t="n">
-        <v>95.7855</v>
+        <v>117401.2399</v>
       </c>
       <c r="G188" t="n">
-        <v>52.43933333333332</v>
+        <v>52.44516666666666</v>
       </c>
       <c r="H188" t="n">
         <v>1</v>
@@ -6999,10 +6981,12 @@
       <c r="J188" t="n">
         <v>52</v>
       </c>
-      <c r="K188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>52</v>
+      </c>
       <c r="L188" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M188" t="n">
@@ -7014,38 +6998,32 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>52.06</v>
+        <v>52.2</v>
       </c>
       <c r="C189" t="n">
-        <v>52.06</v>
+        <v>52.2</v>
       </c>
       <c r="D189" t="n">
-        <v>52.06</v>
+        <v>52.2</v>
       </c>
       <c r="E189" t="n">
-        <v>52.06</v>
+        <v>52.2</v>
       </c>
       <c r="F189" t="n">
-        <v>6435.7348</v>
+        <v>95.7855</v>
       </c>
       <c r="G189" t="n">
-        <v>52.43166666666665</v>
+        <v>52.43933333333332</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="n">
-        <v>52.2</v>
-      </c>
+      <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L189" t="inlineStr"/>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7055,38 +7033,32 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>52.2</v>
+        <v>52.06</v>
       </c>
       <c r="C190" t="n">
-        <v>52.22</v>
+        <v>52.06</v>
       </c>
       <c r="D190" t="n">
-        <v>52.22</v>
+        <v>52.06</v>
       </c>
       <c r="E190" t="n">
-        <v>52.2</v>
+        <v>52.06</v>
       </c>
       <c r="F190" t="n">
-        <v>10014.9758</v>
+        <v>6435.7348</v>
       </c>
       <c r="G190" t="n">
-        <v>52.42433333333332</v>
+        <v>52.43166666666665</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="n">
-        <v>52.06</v>
-      </c>
+      <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L190" t="inlineStr"/>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -7096,22 +7068,22 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>52.3</v>
+        <v>52.2</v>
       </c>
       <c r="C191" t="n">
-        <v>52.3</v>
+        <v>52.22</v>
       </c>
       <c r="D191" t="n">
-        <v>52.3</v>
+        <v>52.22</v>
       </c>
       <c r="E191" t="n">
-        <v>52.3</v>
+        <v>52.2</v>
       </c>
       <c r="F191" t="n">
-        <v>989.7</v>
+        <v>10014.9758</v>
       </c>
       <c r="G191" t="n">
-        <v>52.41783333333332</v>
+        <v>52.42433333333332</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7121,11 +7093,7 @@
       </c>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L191" t="inlineStr"/>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -7135,22 +7103,22 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>52.31</v>
+        <v>52.3</v>
       </c>
       <c r="C192" t="n">
-        <v>52.31</v>
+        <v>52.3</v>
       </c>
       <c r="D192" t="n">
-        <v>52.31</v>
+        <v>52.3</v>
       </c>
       <c r="E192" t="n">
-        <v>52.31</v>
+        <v>52.3</v>
       </c>
       <c r="F192" t="n">
-        <v>28183.7552</v>
+        <v>989.7</v>
       </c>
       <c r="G192" t="n">
-        <v>52.41233333333332</v>
+        <v>52.41783333333332</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7160,11 +7128,7 @@
       </c>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L192" t="inlineStr"/>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -7177,19 +7141,19 @@
         <v>52.31</v>
       </c>
       <c r="C193" t="n">
-        <v>52.28</v>
+        <v>52.31</v>
       </c>
       <c r="D193" t="n">
         <v>52.31</v>
       </c>
       <c r="E193" t="n">
-        <v>52.28</v>
+        <v>52.31</v>
       </c>
       <c r="F193" t="n">
-        <v>50062.4595</v>
+        <v>28183.7552</v>
       </c>
       <c r="G193" t="n">
-        <v>52.40633333333333</v>
+        <v>52.41233333333332</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7199,11 +7163,7 @@
       </c>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L193" t="inlineStr"/>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -7213,22 +7173,22 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>52.41</v>
+        <v>52.31</v>
       </c>
       <c r="C194" t="n">
-        <v>52.41</v>
+        <v>52.28</v>
       </c>
       <c r="D194" t="n">
-        <v>52.41</v>
+        <v>52.31</v>
       </c>
       <c r="E194" t="n">
-        <v>52.41</v>
+        <v>52.28</v>
       </c>
       <c r="F194" t="n">
-        <v>43415.4094</v>
+        <v>50062.4595</v>
       </c>
       <c r="G194" t="n">
-        <v>52.40333333333332</v>
+        <v>52.40633333333333</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7238,11 +7198,7 @@
       </c>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L194" t="inlineStr"/>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -7252,22 +7208,22 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>52.43</v>
+        <v>52.41</v>
       </c>
       <c r="C195" t="n">
-        <v>52.43</v>
+        <v>52.41</v>
       </c>
       <c r="D195" t="n">
-        <v>52.43</v>
+        <v>52.41</v>
       </c>
       <c r="E195" t="n">
-        <v>52.43</v>
+        <v>52.41</v>
       </c>
       <c r="F195" t="n">
-        <v>20920.7414</v>
+        <v>43415.4094</v>
       </c>
       <c r="G195" t="n">
-        <v>52.40016666666666</v>
+        <v>52.40333333333332</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7277,11 +7233,7 @@
       </c>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L195" t="inlineStr"/>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -7303,10 +7255,10 @@
         <v>52.43</v>
       </c>
       <c r="F196" t="n">
-        <v>12835.0054</v>
+        <v>20920.7414</v>
       </c>
       <c r="G196" t="n">
-        <v>52.39649999999998</v>
+        <v>52.40016666666666</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7316,11 +7268,7 @@
       </c>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L196" t="inlineStr"/>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -7330,22 +7278,22 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>52.45</v>
+        <v>52.43</v>
       </c>
       <c r="C197" t="n">
-        <v>52.42</v>
+        <v>52.43</v>
       </c>
       <c r="D197" t="n">
-        <v>52.45</v>
+        <v>52.43</v>
       </c>
       <c r="E197" t="n">
-        <v>52.42</v>
+        <v>52.43</v>
       </c>
       <c r="F197" t="n">
-        <v>6249.999</v>
+        <v>12835.0054</v>
       </c>
       <c r="G197" t="n">
-        <v>52.39316666666665</v>
+        <v>52.39649999999998</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7355,11 +7303,7 @@
       </c>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L197" t="inlineStr"/>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -7369,22 +7313,22 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>52.5</v>
+        <v>52.45</v>
       </c>
       <c r="C198" t="n">
-        <v>52.51</v>
+        <v>52.42</v>
       </c>
       <c r="D198" t="n">
-        <v>52.51</v>
+        <v>52.45</v>
       </c>
       <c r="E198" t="n">
-        <v>52.5</v>
+        <v>52.42</v>
       </c>
       <c r="F198" t="n">
-        <v>5652.6423</v>
+        <v>6249.999</v>
       </c>
       <c r="G198" t="n">
-        <v>52.39133333333333</v>
+        <v>52.39316666666665</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7394,11 +7338,7 @@
       </c>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L198" t="inlineStr"/>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -7408,22 +7348,22 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>52.64</v>
+        <v>52.5</v>
       </c>
       <c r="C199" t="n">
-        <v>52.64</v>
+        <v>52.51</v>
       </c>
       <c r="D199" t="n">
-        <v>52.64</v>
+        <v>52.51</v>
       </c>
       <c r="E199" t="n">
-        <v>52.64</v>
+        <v>52.5</v>
       </c>
       <c r="F199" t="n">
-        <v>20</v>
+        <v>5652.6423</v>
       </c>
       <c r="G199" t="n">
-        <v>52.39166666666666</v>
+        <v>52.39133333333333</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7433,11 +7373,7 @@
       </c>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L199" t="inlineStr"/>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -7447,22 +7383,22 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>52.53</v>
+        <v>52.64</v>
       </c>
       <c r="C200" t="n">
-        <v>52.53</v>
+        <v>52.64</v>
       </c>
       <c r="D200" t="n">
-        <v>52.53</v>
+        <v>52.64</v>
       </c>
       <c r="E200" t="n">
-        <v>52.53</v>
+        <v>52.64</v>
       </c>
       <c r="F200" t="n">
-        <v>749</v>
+        <v>20</v>
       </c>
       <c r="G200" t="n">
-        <v>52.39016666666667</v>
+        <v>52.39166666666666</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7472,11 +7408,7 @@
       </c>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L200" t="inlineStr"/>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -7486,22 +7418,22 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>52.57</v>
+        <v>52.53</v>
       </c>
       <c r="C201" t="n">
-        <v>52.6</v>
+        <v>52.53</v>
       </c>
       <c r="D201" t="n">
-        <v>52.6</v>
+        <v>52.53</v>
       </c>
       <c r="E201" t="n">
-        <v>52.57</v>
+        <v>52.53</v>
       </c>
       <c r="F201" t="n">
-        <v>7395.9589</v>
+        <v>749</v>
       </c>
       <c r="G201" t="n">
-        <v>52.38983333333333</v>
+        <v>52.39016666666667</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7511,11 +7443,7 @@
       </c>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L201" t="inlineStr"/>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -7525,22 +7453,22 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>52.51</v>
+        <v>52.57</v>
       </c>
       <c r="C202" t="n">
-        <v>52.74</v>
+        <v>52.6</v>
       </c>
       <c r="D202" t="n">
-        <v>52.74</v>
+        <v>52.6</v>
       </c>
       <c r="E202" t="n">
-        <v>52.5</v>
+        <v>52.57</v>
       </c>
       <c r="F202" t="n">
-        <v>4068.6906</v>
+        <v>7395.9589</v>
       </c>
       <c r="G202" t="n">
-        <v>52.39183333333333</v>
+        <v>52.38983333333333</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -7550,11 +7478,7 @@
       </c>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L202" t="inlineStr"/>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -7564,7 +7488,7 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>52.74</v>
+        <v>52.51</v>
       </c>
       <c r="C203" t="n">
         <v>52.74</v>
@@ -7573,13 +7497,13 @@
         <v>52.74</v>
       </c>
       <c r="E203" t="n">
-        <v>52.74</v>
+        <v>52.5</v>
       </c>
       <c r="F203" t="n">
-        <v>406.53</v>
+        <v>4068.6906</v>
       </c>
       <c r="G203" t="n">
-        <v>52.39383333333333</v>
+        <v>52.39183333333333</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -7589,11 +7513,7 @@
       </c>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L203" t="inlineStr"/>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -7603,22 +7523,22 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>52.64</v>
+        <v>52.74</v>
       </c>
       <c r="C204" t="n">
-        <v>52.64</v>
+        <v>52.74</v>
       </c>
       <c r="D204" t="n">
-        <v>52.64</v>
+        <v>52.74</v>
       </c>
       <c r="E204" t="n">
-        <v>52.64</v>
+        <v>52.74</v>
       </c>
       <c r="F204" t="n">
-        <v>1954.8221</v>
+        <v>406.53</v>
       </c>
       <c r="G204" t="n">
-        <v>52.39466666666666</v>
+        <v>52.39383333333333</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -7628,11 +7548,7 @@
       </c>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L204" t="inlineStr"/>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -7642,22 +7558,22 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>52.41</v>
+        <v>52.64</v>
       </c>
       <c r="C205" t="n">
-        <v>52.39</v>
+        <v>52.64</v>
       </c>
       <c r="D205" t="n">
-        <v>52.41</v>
+        <v>52.64</v>
       </c>
       <c r="E205" t="n">
-        <v>52.39</v>
+        <v>52.64</v>
       </c>
       <c r="F205" t="n">
-        <v>1185.6</v>
+        <v>1954.8221</v>
       </c>
       <c r="G205" t="n">
-        <v>52.39249999999999</v>
+        <v>52.39466666666666</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -7667,11 +7583,7 @@
       </c>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L205" t="inlineStr"/>
       <c r="M205" t="n">
         <v>1</v>
       </c>
@@ -7681,22 +7593,22 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>52.37</v>
+        <v>52.41</v>
       </c>
       <c r="C206" t="n">
-        <v>52.28</v>
+        <v>52.39</v>
       </c>
       <c r="D206" t="n">
-        <v>52.37</v>
+        <v>52.41</v>
       </c>
       <c r="E206" t="n">
-        <v>52.28</v>
+        <v>52.39</v>
       </c>
       <c r="F206" t="n">
-        <v>23983.1026</v>
+        <v>1185.6</v>
       </c>
       <c r="G206" t="n">
-        <v>52.38649999999999</v>
+        <v>52.39249999999999</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -7706,11 +7618,7 @@
       </c>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L206" t="inlineStr"/>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -7720,22 +7628,22 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>52.31</v>
+        <v>52.37</v>
       </c>
       <c r="C207" t="n">
-        <v>52.31</v>
+        <v>52.28</v>
       </c>
       <c r="D207" t="n">
-        <v>52.31</v>
+        <v>52.37</v>
       </c>
       <c r="E207" t="n">
-        <v>52.31</v>
+        <v>52.28</v>
       </c>
       <c r="F207" t="n">
-        <v>846</v>
+        <v>23983.1026</v>
       </c>
       <c r="G207" t="n">
-        <v>52.38133333333333</v>
+        <v>52.38649999999999</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -7745,11 +7653,7 @@
       </c>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L207" t="inlineStr"/>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -7759,22 +7663,22 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>52.28</v>
+        <v>52.31</v>
       </c>
       <c r="C208" t="n">
-        <v>52.35</v>
+        <v>52.31</v>
       </c>
       <c r="D208" t="n">
-        <v>52.36</v>
+        <v>52.31</v>
       </c>
       <c r="E208" t="n">
-        <v>52.28</v>
+        <v>52.31</v>
       </c>
       <c r="F208" t="n">
-        <v>14237.7617</v>
+        <v>846</v>
       </c>
       <c r="G208" t="n">
-        <v>52.37699999999999</v>
+        <v>52.38133333333333</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -7784,11 +7688,7 @@
       </c>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L208" t="inlineStr"/>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -7798,22 +7698,22 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>52.32</v>
+        <v>52.28</v>
       </c>
       <c r="C209" t="n">
-        <v>52.23</v>
+        <v>52.35</v>
       </c>
       <c r="D209" t="n">
-        <v>52.32</v>
+        <v>52.36</v>
       </c>
       <c r="E209" t="n">
-        <v>52.17</v>
+        <v>52.28</v>
       </c>
       <c r="F209" t="n">
-        <v>36017.7302</v>
+        <v>14237.7617</v>
       </c>
       <c r="G209" t="n">
-        <v>52.374</v>
+        <v>52.37699999999999</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -7823,11 +7723,7 @@
       </c>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L209" t="inlineStr"/>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -7837,22 +7733,22 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>52.13</v>
+        <v>52.32</v>
       </c>
       <c r="C210" t="n">
-        <v>52.13</v>
+        <v>52.23</v>
       </c>
       <c r="D210" t="n">
-        <v>52.13</v>
+        <v>52.32</v>
       </c>
       <c r="E210" t="n">
-        <v>52.13</v>
+        <v>52.17</v>
       </c>
       <c r="F210" t="n">
-        <v>4048.9836</v>
+        <v>36017.7302</v>
       </c>
       <c r="G210" t="n">
-        <v>52.368</v>
+        <v>52.374</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -7862,11 +7758,7 @@
       </c>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L210" t="inlineStr"/>
       <c r="M210" t="n">
         <v>1</v>
       </c>
@@ -7879,19 +7771,19 @@
         <v>52.13</v>
       </c>
       <c r="C211" t="n">
-        <v>52.36</v>
+        <v>52.13</v>
       </c>
       <c r="D211" t="n">
-        <v>52.36</v>
+        <v>52.13</v>
       </c>
       <c r="E211" t="n">
         <v>52.13</v>
       </c>
       <c r="F211" t="n">
-        <v>85726.1923</v>
+        <v>4048.9836</v>
       </c>
       <c r="G211" t="n">
-        <v>52.36583333333333</v>
+        <v>52.368</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -7901,11 +7793,7 @@
       </c>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L211" t="inlineStr"/>
       <c r="M211" t="n">
         <v>1</v>
       </c>
@@ -7915,22 +7803,22 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>52.4</v>
+        <v>52.13</v>
       </c>
       <c r="C212" t="n">
-        <v>52.4</v>
+        <v>52.36</v>
       </c>
       <c r="D212" t="n">
-        <v>52.4</v>
+        <v>52.36</v>
       </c>
       <c r="E212" t="n">
-        <v>52.4</v>
+        <v>52.13</v>
       </c>
       <c r="F212" t="n">
-        <v>5582.8384</v>
+        <v>85726.1923</v>
       </c>
       <c r="G212" t="n">
-        <v>52.364</v>
+        <v>52.36583333333333</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -7940,11 +7828,7 @@
       </c>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L212" t="inlineStr"/>
       <c r="M212" t="n">
         <v>1</v>
       </c>
@@ -7954,22 +7838,22 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>52.41</v>
+        <v>52.4</v>
       </c>
       <c r="C213" t="n">
-        <v>52.46</v>
+        <v>52.4</v>
       </c>
       <c r="D213" t="n">
-        <v>52.46</v>
+        <v>52.4</v>
       </c>
       <c r="E213" t="n">
-        <v>52.41</v>
+        <v>52.4</v>
       </c>
       <c r="F213" t="n">
-        <v>923.4645</v>
+        <v>5582.8384</v>
       </c>
       <c r="G213" t="n">
-        <v>52.3615</v>
+        <v>52.364</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -7979,11 +7863,7 @@
       </c>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L213" t="inlineStr"/>
       <c r="M213" t="n">
         <v>1</v>
       </c>
@@ -7993,22 +7873,22 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>52.27</v>
+        <v>52.41</v>
       </c>
       <c r="C214" t="n">
-        <v>52.27</v>
+        <v>52.46</v>
       </c>
       <c r="D214" t="n">
-        <v>52.27</v>
+        <v>52.46</v>
       </c>
       <c r="E214" t="n">
-        <v>52.27</v>
+        <v>52.41</v>
       </c>
       <c r="F214" t="n">
-        <v>200</v>
+        <v>923.4645</v>
       </c>
       <c r="G214" t="n">
-        <v>52.35783333333334</v>
+        <v>52.3615</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -8018,11 +7898,7 @@
       </c>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L214" t="inlineStr"/>
       <c r="M214" t="n">
         <v>1</v>
       </c>
@@ -8032,22 +7908,22 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>52.51</v>
+        <v>52.27</v>
       </c>
       <c r="C215" t="n">
-        <v>52.65</v>
+        <v>52.27</v>
       </c>
       <c r="D215" t="n">
-        <v>52.65</v>
+        <v>52.27</v>
       </c>
       <c r="E215" t="n">
-        <v>52.51</v>
+        <v>52.27</v>
       </c>
       <c r="F215" t="n">
-        <v>5698.82199642</v>
+        <v>200</v>
       </c>
       <c r="G215" t="n">
-        <v>52.36050000000001</v>
+        <v>52.35783333333334</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -8057,11 +7933,7 @@
       </c>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L215" t="inlineStr"/>
       <c r="M215" t="n">
         <v>1</v>
       </c>
@@ -8071,22 +7943,22 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>52.83</v>
+        <v>52.51</v>
       </c>
       <c r="C216" t="n">
-        <v>52.83</v>
+        <v>52.65</v>
       </c>
       <c r="D216" t="n">
-        <v>52.83</v>
+        <v>52.65</v>
       </c>
       <c r="E216" t="n">
-        <v>52.83</v>
+        <v>52.51</v>
       </c>
       <c r="F216" t="n">
-        <v>73468.1477</v>
+        <v>5698.82199642</v>
       </c>
       <c r="G216" t="n">
-        <v>52.36516666666667</v>
+        <v>52.36050000000001</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -8096,11 +7968,7 @@
       </c>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L216" t="inlineStr"/>
       <c r="M216" t="n">
         <v>1</v>
       </c>
@@ -8110,22 +7978,22 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>52.59</v>
+        <v>52.83</v>
       </c>
       <c r="C217" t="n">
-        <v>52.59</v>
+        <v>52.83</v>
       </c>
       <c r="D217" t="n">
-        <v>52.59</v>
+        <v>52.83</v>
       </c>
       <c r="E217" t="n">
-        <v>52.59</v>
+        <v>52.83</v>
       </c>
       <c r="F217" t="n">
-        <v>1005</v>
+        <v>73468.1477</v>
       </c>
       <c r="G217" t="n">
-        <v>52.36683333333335</v>
+        <v>52.36516666666667</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -8135,11 +8003,7 @@
       </c>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L217" t="inlineStr"/>
       <c r="M217" t="n">
         <v>1</v>
       </c>
@@ -8149,22 +8013,22 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>52.7</v>
+        <v>52.59</v>
       </c>
       <c r="C218" t="n">
-        <v>52.7</v>
+        <v>52.59</v>
       </c>
       <c r="D218" t="n">
-        <v>52.7</v>
+        <v>52.59</v>
       </c>
       <c r="E218" t="n">
-        <v>52.7</v>
+        <v>52.59</v>
       </c>
       <c r="F218" t="n">
         <v>1005</v>
       </c>
       <c r="G218" t="n">
-        <v>52.37016666666668</v>
+        <v>52.36683333333335</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -8174,11 +8038,7 @@
       </c>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L218" t="inlineStr"/>
       <c r="M218" t="n">
         <v>1</v>
       </c>
@@ -8188,22 +8048,22 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>52.82</v>
+        <v>52.7</v>
       </c>
       <c r="C219" t="n">
-        <v>52.81</v>
+        <v>52.7</v>
       </c>
       <c r="D219" t="n">
-        <v>52.83</v>
+        <v>52.7</v>
       </c>
       <c r="E219" t="n">
-        <v>52.75</v>
+        <v>52.7</v>
       </c>
       <c r="F219" t="n">
-        <v>31026.4114</v>
+        <v>1005</v>
       </c>
       <c r="G219" t="n">
-        <v>52.37550000000001</v>
+        <v>52.37016666666668</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -8213,11 +8073,7 @@
       </c>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L219" t="inlineStr"/>
       <c r="M219" t="n">
         <v>1</v>
       </c>
@@ -8227,22 +8083,22 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
+        <v>52.82</v>
+      </c>
+      <c r="C220" t="n">
         <v>52.81</v>
       </c>
-      <c r="C220" t="n">
-        <v>53</v>
-      </c>
       <c r="D220" t="n">
-        <v>53</v>
+        <v>52.83</v>
       </c>
       <c r="E220" t="n">
-        <v>52.81</v>
+        <v>52.75</v>
       </c>
       <c r="F220" t="n">
-        <v>424.531</v>
+        <v>31026.4114</v>
       </c>
       <c r="G220" t="n">
-        <v>52.38400000000001</v>
+        <v>52.37550000000001</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -8252,11 +8108,7 @@
       </c>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L220" t="inlineStr"/>
       <c r="M220" t="n">
         <v>1</v>
       </c>
@@ -8266,22 +8118,22 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>52.99</v>
+        <v>52.81</v>
       </c>
       <c r="C221" t="n">
-        <v>52.82</v>
+        <v>53</v>
       </c>
       <c r="D221" t="n">
-        <v>52.99</v>
+        <v>53</v>
       </c>
       <c r="E221" t="n">
-        <v>52.82</v>
+        <v>52.81</v>
       </c>
       <c r="F221" t="n">
-        <v>52706.9993</v>
+        <v>424.531</v>
       </c>
       <c r="G221" t="n">
-        <v>52.38950000000002</v>
+        <v>52.38400000000001</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -8291,11 +8143,7 @@
       </c>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L221" t="inlineStr"/>
       <c r="M221" t="n">
         <v>1</v>
       </c>
@@ -8305,22 +8153,22 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>52.8</v>
+        <v>52.99</v>
       </c>
       <c r="C222" t="n">
-        <v>52.8</v>
+        <v>52.82</v>
       </c>
       <c r="D222" t="n">
-        <v>52.8</v>
+        <v>52.99</v>
       </c>
       <c r="E222" t="n">
-        <v>52.8</v>
+        <v>52.82</v>
       </c>
       <c r="F222" t="n">
-        <v>23.6743</v>
+        <v>52706.9993</v>
       </c>
       <c r="G222" t="n">
-        <v>52.39383333333335</v>
+        <v>52.38950000000002</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -8330,11 +8178,7 @@
       </c>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L222" t="inlineStr"/>
       <c r="M222" t="n">
         <v>1</v>
       </c>
@@ -8344,22 +8188,22 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>52.86</v>
+        <v>52.8</v>
       </c>
       <c r="C223" t="n">
-        <v>52.87</v>
+        <v>52.8</v>
       </c>
       <c r="D223" t="n">
-        <v>52.87</v>
+        <v>52.8</v>
       </c>
       <c r="E223" t="n">
-        <v>52.86</v>
+        <v>52.8</v>
       </c>
       <c r="F223" t="n">
-        <v>2921</v>
+        <v>23.6743</v>
       </c>
       <c r="G223" t="n">
-        <v>52.39933333333336</v>
+        <v>52.39383333333335</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -8369,11 +8213,7 @@
       </c>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L223" t="inlineStr"/>
       <c r="M223" t="n">
         <v>1</v>
       </c>
@@ -8383,22 +8223,22 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>53.1</v>
+        <v>52.86</v>
       </c>
       <c r="C224" t="n">
-        <v>53.1</v>
+        <v>52.87</v>
       </c>
       <c r="D224" t="n">
-        <v>53.1</v>
+        <v>52.87</v>
       </c>
       <c r="E224" t="n">
-        <v>53.1</v>
+        <v>52.86</v>
       </c>
       <c r="F224" t="n">
-        <v>518.4417</v>
+        <v>2921</v>
       </c>
       <c r="G224" t="n">
-        <v>52.41066666666669</v>
+        <v>52.39933333333336</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -8408,11 +8248,7 @@
       </c>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L224" t="inlineStr"/>
       <c r="M224" t="n">
         <v>1</v>
       </c>
@@ -8434,10 +8270,10 @@
         <v>53.1</v>
       </c>
       <c r="F225" t="n">
-        <v>50</v>
+        <v>518.4417</v>
       </c>
       <c r="G225" t="n">
-        <v>52.42200000000002</v>
+        <v>52.41066666666669</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -8447,11 +8283,7 @@
       </c>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L225" t="inlineStr"/>
       <c r="M225" t="n">
         <v>1</v>
       </c>
@@ -8461,22 +8293,22 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>53</v>
+        <v>53.1</v>
       </c>
       <c r="C226" t="n">
-        <v>53</v>
+        <v>53.1</v>
       </c>
       <c r="D226" t="n">
-        <v>53</v>
+        <v>53.1</v>
       </c>
       <c r="E226" t="n">
-        <v>53</v>
+        <v>53.1</v>
       </c>
       <c r="F226" t="n">
-        <v>769.5922</v>
+        <v>50</v>
       </c>
       <c r="G226" t="n">
-        <v>52.43166666666669</v>
+        <v>52.42200000000002</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -8486,11 +8318,7 @@
       </c>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L226" t="inlineStr"/>
       <c r="M226" t="n">
         <v>1</v>
       </c>
@@ -8512,10 +8340,10 @@
         <v>53</v>
       </c>
       <c r="F227" t="n">
-        <v>23.4078</v>
+        <v>769.5922</v>
       </c>
       <c r="G227" t="n">
-        <v>52.44133333333335</v>
+        <v>52.43166666666669</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -8525,11 +8353,7 @@
       </c>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L227" t="inlineStr"/>
       <c r="M227" t="n">
         <v>1</v>
       </c>
@@ -8539,22 +8363,22 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>53.1</v>
+        <v>53</v>
       </c>
       <c r="C228" t="n">
-        <v>53.4</v>
+        <v>53</v>
       </c>
       <c r="D228" t="n">
-        <v>53.4</v>
+        <v>53</v>
       </c>
       <c r="E228" t="n">
-        <v>53.1</v>
+        <v>53</v>
       </c>
       <c r="F228" t="n">
-        <v>20155.9805</v>
+        <v>23.4078</v>
       </c>
       <c r="G228" t="n">
-        <v>52.45766666666668</v>
+        <v>52.44133333333335</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -8564,11 +8388,7 @@
       </c>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L228" t="inlineStr"/>
       <c r="M228" t="n">
         <v>1</v>
       </c>
@@ -8578,22 +8398,22 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>53.41</v>
+        <v>53.1</v>
       </c>
       <c r="C229" t="n">
-        <v>53.5</v>
+        <v>53.4</v>
       </c>
       <c r="D229" t="n">
-        <v>53.56</v>
+        <v>53.4</v>
       </c>
       <c r="E229" t="n">
-        <v>53.4</v>
+        <v>53.1</v>
       </c>
       <c r="F229" t="n">
-        <v>30776.122</v>
+        <v>20155.9805</v>
       </c>
       <c r="G229" t="n">
-        <v>52.47566666666668</v>
+        <v>52.45766666666668</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -8603,11 +8423,7 @@
       </c>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L229" t="inlineStr"/>
       <c r="M229" t="n">
         <v>1</v>
       </c>
@@ -8617,22 +8433,22 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>53.5</v>
+        <v>53.41</v>
       </c>
       <c r="C230" t="n">
         <v>53.5</v>
       </c>
       <c r="D230" t="n">
-        <v>53.5</v>
+        <v>53.56</v>
       </c>
       <c r="E230" t="n">
-        <v>53.5</v>
+        <v>53.4</v>
       </c>
       <c r="F230" t="n">
-        <v>36761.784</v>
+        <v>30776.122</v>
       </c>
       <c r="G230" t="n">
-        <v>52.49383333333335</v>
+        <v>52.47566666666668</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -8642,11 +8458,7 @@
       </c>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L230" t="inlineStr"/>
       <c r="M230" t="n">
         <v>1</v>
       </c>
@@ -8668,53 +8480,51 @@
         <v>53.5</v>
       </c>
       <c r="F231" t="n">
-        <v>16906.2112</v>
+        <v>36761.784</v>
       </c>
       <c r="G231" t="n">
-        <v>52.51216666666668</v>
+        <v>52.49383333333335</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
       </c>
       <c r="I231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M231" t="inlineStr"/>
+      <c r="L231" t="inlineStr"/>
+      <c r="M231" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>53.4</v>
+        <v>53.5</v>
       </c>
       <c r="C232" t="n">
-        <v>53.23</v>
+        <v>53.5</v>
       </c>
       <c r="D232" t="n">
-        <v>53.4</v>
+        <v>53.5</v>
       </c>
       <c r="E232" t="n">
-        <v>53.23</v>
+        <v>53.5</v>
       </c>
       <c r="F232" t="n">
-        <v>45000</v>
+        <v>16906.2112</v>
       </c>
       <c r="G232" t="n">
-        <v>52.52600000000002</v>
+        <v>52.51216666666668</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
       </c>
       <c r="I232" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
@@ -8728,28 +8538,28 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>53.2</v>
+        <v>53.4</v>
       </c>
       <c r="C233" t="n">
-        <v>53.2</v>
+        <v>53.23</v>
       </c>
       <c r="D233" t="n">
-        <v>53.2</v>
+        <v>53.4</v>
       </c>
       <c r="E233" t="n">
-        <v>53.1</v>
+        <v>53.23</v>
       </c>
       <c r="F233" t="n">
-        <v>44314.2822</v>
+        <v>45000</v>
       </c>
       <c r="G233" t="n">
-        <v>52.54100000000001</v>
+        <v>52.52600000000002</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
       </c>
       <c r="I233" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
@@ -8772,19 +8582,19 @@
         <v>53.2</v>
       </c>
       <c r="E234" t="n">
-        <v>53.2</v>
+        <v>53.1</v>
       </c>
       <c r="F234" t="n">
-        <v>12058.3296</v>
+        <v>44314.2822</v>
       </c>
       <c r="G234" t="n">
-        <v>52.55716666666667</v>
+        <v>52.54100000000001</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
       </c>
       <c r="I234" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
@@ -8810,16 +8620,16 @@
         <v>53.2</v>
       </c>
       <c r="F235" t="n">
-        <v>7474.9203</v>
+        <v>12058.3296</v>
       </c>
       <c r="G235" t="n">
-        <v>52.57333333333334</v>
+        <v>52.55716666666667</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
       </c>
       <c r="I235" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
@@ -8836,19 +8646,19 @@
         <v>53.2</v>
       </c>
       <c r="C236" t="n">
-        <v>53.39</v>
+        <v>53.2</v>
       </c>
       <c r="D236" t="n">
-        <v>53.39</v>
+        <v>53.2</v>
       </c>
       <c r="E236" t="n">
         <v>53.2</v>
       </c>
       <c r="F236" t="n">
-        <v>35525.6065</v>
+        <v>7474.9203</v>
       </c>
       <c r="G236" t="n">
-        <v>52.59116666666667</v>
+        <v>52.57333333333334</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -8868,22 +8678,22 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>53.28</v>
+        <v>53.2</v>
       </c>
       <c r="C237" t="n">
-        <v>53.33</v>
+        <v>53.39</v>
       </c>
       <c r="D237" t="n">
-        <v>53.33</v>
+        <v>53.39</v>
       </c>
       <c r="E237" t="n">
-        <v>53.28</v>
+        <v>53.2</v>
       </c>
       <c r="F237" t="n">
-        <v>4694.7509</v>
+        <v>35525.6065</v>
       </c>
       <c r="G237" t="n">
-        <v>52.60766666666666</v>
+        <v>52.59116666666667</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -8903,22 +8713,22 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>53.5</v>
+        <v>53.28</v>
       </c>
       <c r="C238" t="n">
-        <v>53.46</v>
+        <v>53.33</v>
       </c>
       <c r="D238" t="n">
-        <v>53.5</v>
+        <v>53.33</v>
       </c>
       <c r="E238" t="n">
-        <v>53.46</v>
+        <v>53.28</v>
       </c>
       <c r="F238" t="n">
-        <v>16761.0306</v>
+        <v>4694.7509</v>
       </c>
       <c r="G238" t="n">
-        <v>52.62699999999999</v>
+        <v>52.60766666666666</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -8938,22 +8748,22 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>53.49</v>
+        <v>53.5</v>
       </c>
       <c r="C239" t="n">
-        <v>53.5</v>
+        <v>53.46</v>
       </c>
       <c r="D239" t="n">
         <v>53.5</v>
       </c>
       <c r="E239" t="n">
-        <v>53.49</v>
+        <v>53.46</v>
       </c>
       <c r="F239" t="n">
-        <v>1232.3472</v>
+        <v>16761.0306</v>
       </c>
       <c r="G239" t="n">
-        <v>52.64866666666666</v>
+        <v>52.62699999999999</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -8973,22 +8783,22 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
+        <v>53.49</v>
+      </c>
+      <c r="C240" t="n">
         <v>53.5</v>
       </c>
-      <c r="C240" t="n">
-        <v>53.53</v>
-      </c>
       <c r="D240" t="n">
-        <v>53.53</v>
+        <v>53.5</v>
       </c>
       <c r="E240" t="n">
-        <v>53.5</v>
+        <v>53.49</v>
       </c>
       <c r="F240" t="n">
-        <v>11164.9449</v>
+        <v>1232.3472</v>
       </c>
       <c r="G240" t="n">
-        <v>52.672</v>
+        <v>52.64866666666666</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -9008,22 +8818,22 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
+        <v>53.5</v>
+      </c>
+      <c r="C241" t="n">
         <v>53.53</v>
       </c>
-      <c r="C241" t="n">
-        <v>53.55</v>
-      </c>
       <c r="D241" t="n">
-        <v>53.55</v>
+        <v>53.53</v>
       </c>
       <c r="E241" t="n">
-        <v>53.53</v>
+        <v>53.5</v>
       </c>
       <c r="F241" t="n">
-        <v>7378.8768</v>
+        <v>11164.9449</v>
       </c>
       <c r="G241" t="n">
-        <v>52.696</v>
+        <v>52.672</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -9043,22 +8853,22 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
+        <v>53.53</v>
+      </c>
+      <c r="C242" t="n">
         <v>53.55</v>
-      </c>
-      <c r="C242" t="n">
-        <v>53.49</v>
       </c>
       <c r="D242" t="n">
         <v>53.55</v>
       </c>
       <c r="E242" t="n">
-        <v>53.49</v>
+        <v>53.53</v>
       </c>
       <c r="F242" t="n">
-        <v>50500</v>
+        <v>7378.8768</v>
       </c>
       <c r="G242" t="n">
-        <v>52.71966666666665</v>
+        <v>52.696</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -9078,22 +8888,22 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>53.49</v>
+        <v>53.55</v>
       </c>
       <c r="C243" t="n">
         <v>53.49</v>
       </c>
       <c r="D243" t="n">
-        <v>53.49</v>
+        <v>53.55</v>
       </c>
       <c r="E243" t="n">
         <v>53.49</v>
       </c>
       <c r="F243" t="n">
-        <v>300</v>
+        <v>50500</v>
       </c>
       <c r="G243" t="n">
-        <v>52.74266666666665</v>
+        <v>52.71966666666665</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -9128,7 +8938,7 @@
         <v>300</v>
       </c>
       <c r="G244" t="n">
-        <v>52.76749999999998</v>
+        <v>52.74266666666665</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -9160,10 +8970,10 @@
         <v>53.49</v>
       </c>
       <c r="F245" t="n">
-        <v>4126.7494</v>
+        <v>300</v>
       </c>
       <c r="G245" t="n">
-        <v>52.78933333333331</v>
+        <v>52.76749999999998</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -9183,22 +8993,22 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>53.37</v>
+        <v>53.49</v>
       </c>
       <c r="C246" t="n">
-        <v>53.37</v>
+        <v>53.49</v>
       </c>
       <c r="D246" t="n">
-        <v>53.37</v>
+        <v>53.49</v>
       </c>
       <c r="E246" t="n">
-        <v>53.37</v>
+        <v>53.49</v>
       </c>
       <c r="F246" t="n">
-        <v>623.2793</v>
+        <v>4126.7494</v>
       </c>
       <c r="G246" t="n">
-        <v>52.81216666666664</v>
+        <v>52.78933333333331</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -9230,10 +9040,10 @@
         <v>53.37</v>
       </c>
       <c r="F247" t="n">
-        <v>52827.3498</v>
+        <v>623.2793</v>
       </c>
       <c r="G247" t="n">
-        <v>52.83499999999997</v>
+        <v>52.81216666666664</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -9253,22 +9063,22 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>53.38</v>
+        <v>53.37</v>
       </c>
       <c r="C248" t="n">
-        <v>53.38</v>
+        <v>53.37</v>
       </c>
       <c r="D248" t="n">
-        <v>53.38</v>
+        <v>53.37</v>
       </c>
       <c r="E248" t="n">
-        <v>53.38</v>
+        <v>53.37</v>
       </c>
       <c r="F248" t="n">
-        <v>258</v>
+        <v>52827.3498</v>
       </c>
       <c r="G248" t="n">
-        <v>52.85466666666665</v>
+        <v>52.83499999999997</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -9288,22 +9098,22 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>53.56</v>
+        <v>53.38</v>
       </c>
       <c r="C249" t="n">
-        <v>53.61</v>
+        <v>53.38</v>
       </c>
       <c r="D249" t="n">
-        <v>53.61</v>
+        <v>53.38</v>
       </c>
       <c r="E249" t="n">
-        <v>53.56</v>
+        <v>53.38</v>
       </c>
       <c r="F249" t="n">
-        <v>248017.2889</v>
+        <v>258</v>
       </c>
       <c r="G249" t="n">
-        <v>52.88049999999998</v>
+        <v>52.85466666666665</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -9323,22 +9133,22 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>53.63</v>
+        <v>53.56</v>
       </c>
       <c r="C250" t="n">
-        <v>53.63</v>
+        <v>53.61</v>
       </c>
       <c r="D250" t="n">
-        <v>53.63</v>
+        <v>53.61</v>
       </c>
       <c r="E250" t="n">
-        <v>53.63</v>
+        <v>53.56</v>
       </c>
       <c r="F250" t="n">
-        <v>10000</v>
+        <v>248017.2889</v>
       </c>
       <c r="G250" t="n">
-        <v>52.90399999999999</v>
+        <v>52.88049999999998</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -9358,22 +9168,22 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>53.79</v>
+        <v>53.63</v>
       </c>
       <c r="C251" t="n">
-        <v>53.79</v>
+        <v>53.63</v>
       </c>
       <c r="D251" t="n">
-        <v>53.9</v>
+        <v>53.63</v>
       </c>
       <c r="E251" t="n">
-        <v>53.79</v>
+        <v>53.63</v>
       </c>
       <c r="F251" t="n">
-        <v>27381.10426159</v>
+        <v>10000</v>
       </c>
       <c r="G251" t="n">
-        <v>52.92883333333332</v>
+        <v>52.90399999999999</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -9396,25 +9206,25 @@
         <v>53.79</v>
       </c>
       <c r="C252" t="n">
-        <v>53.59</v>
+        <v>53.79</v>
       </c>
       <c r="D252" t="n">
+        <v>53.9</v>
+      </c>
+      <c r="E252" t="n">
         <v>53.79</v>
       </c>
-      <c r="E252" t="n">
-        <v>53.59</v>
-      </c>
       <c r="F252" t="n">
-        <v>29499.2049</v>
+        <v>27381.10426159</v>
       </c>
       <c r="G252" t="n">
-        <v>52.95016666666665</v>
+        <v>52.92883333333332</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
       </c>
       <c r="I252" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
@@ -9428,22 +9238,22 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>53.39</v>
+        <v>53.79</v>
       </c>
       <c r="C253" t="n">
-        <v>53.39</v>
+        <v>53.59</v>
       </c>
       <c r="D253" t="n">
-        <v>53.39</v>
+        <v>53.79</v>
       </c>
       <c r="E253" t="n">
-        <v>53.39</v>
+        <v>53.59</v>
       </c>
       <c r="F253" t="n">
-        <v>50340.5124</v>
+        <v>29499.2049</v>
       </c>
       <c r="G253" t="n">
-        <v>52.96866666666665</v>
+        <v>52.95016666666665</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -9463,22 +9273,22 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>53.63</v>
+        <v>53.39</v>
       </c>
       <c r="C254" t="n">
-        <v>53.59</v>
+        <v>53.39</v>
       </c>
       <c r="D254" t="n">
-        <v>53.63</v>
+        <v>53.39</v>
       </c>
       <c r="E254" t="n">
-        <v>53.59</v>
+        <v>53.39</v>
       </c>
       <c r="F254" t="n">
-        <v>1229.8544</v>
+        <v>50340.5124</v>
       </c>
       <c r="G254" t="n">
-        <v>52.98833333333332</v>
+        <v>52.96866666666665</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -9498,22 +9308,22 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>53.59</v>
+        <v>53.63</v>
       </c>
       <c r="C255" t="n">
         <v>53.59</v>
       </c>
       <c r="D255" t="n">
-        <v>53.59</v>
+        <v>53.63</v>
       </c>
       <c r="E255" t="n">
         <v>53.59</v>
       </c>
       <c r="F255" t="n">
-        <v>100.1456</v>
+        <v>1229.8544</v>
       </c>
       <c r="G255" t="n">
-        <v>53.00766666666666</v>
+        <v>52.98833333333332</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -9545,10 +9355,10 @@
         <v>53.59</v>
       </c>
       <c r="F256" t="n">
-        <v>900</v>
+        <v>100.1456</v>
       </c>
       <c r="G256" t="n">
-        <v>53.027</v>
+        <v>53.00766666666666</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -9568,22 +9378,22 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>53.67</v>
+        <v>53.59</v>
       </c>
       <c r="C257" t="n">
-        <v>53.67</v>
+        <v>53.59</v>
       </c>
       <c r="D257" t="n">
-        <v>53.67</v>
+        <v>53.59</v>
       </c>
       <c r="E257" t="n">
-        <v>53.67</v>
+        <v>53.59</v>
       </c>
       <c r="F257" t="n">
-        <v>3989.156</v>
+        <v>900</v>
       </c>
       <c r="G257" t="n">
-        <v>53.04783333333333</v>
+        <v>53.027</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -9603,22 +9413,22 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>53.59</v>
+        <v>53.67</v>
       </c>
       <c r="C258" t="n">
-        <v>53.59</v>
+        <v>53.67</v>
       </c>
       <c r="D258" t="n">
-        <v>53.59</v>
+        <v>53.67</v>
       </c>
       <c r="E258" t="n">
-        <v>53.59</v>
+        <v>53.67</v>
       </c>
       <c r="F258" t="n">
-        <v>499.8544</v>
+        <v>3989.156</v>
       </c>
       <c r="G258" t="n">
-        <v>53.06583333333333</v>
+        <v>53.04783333333333</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -9638,22 +9448,22 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>53.52</v>
+        <v>53.59</v>
       </c>
       <c r="C259" t="n">
-        <v>53.5</v>
+        <v>53.59</v>
       </c>
       <c r="D259" t="n">
-        <v>53.52</v>
+        <v>53.59</v>
       </c>
       <c r="E259" t="n">
-        <v>53.5</v>
+        <v>53.59</v>
       </c>
       <c r="F259" t="n">
-        <v>1745</v>
+        <v>499.8544</v>
       </c>
       <c r="G259" t="n">
-        <v>53.08016666666666</v>
+        <v>53.06583333333333</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -9673,22 +9483,22 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
+        <v>53.52</v>
+      </c>
+      <c r="C260" t="n">
         <v>53.5</v>
       </c>
-      <c r="C260" t="n">
-        <v>53.49</v>
-      </c>
       <c r="D260" t="n">
+        <v>53.52</v>
+      </c>
+      <c r="E260" t="n">
         <v>53.5</v>
       </c>
-      <c r="E260" t="n">
-        <v>53.49</v>
-      </c>
       <c r="F260" t="n">
-        <v>700</v>
+        <v>1745</v>
       </c>
       <c r="G260" t="n">
-        <v>53.09616666666666</v>
+        <v>53.08016666666666</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -9708,22 +9518,22 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>53.49</v>
+        <v>53.5</v>
       </c>
       <c r="C261" t="n">
         <v>53.49</v>
       </c>
       <c r="D261" t="n">
-        <v>53.49</v>
+        <v>53.5</v>
       </c>
       <c r="E261" t="n">
         <v>53.49</v>
       </c>
       <c r="F261" t="n">
-        <v>130</v>
+        <v>700</v>
       </c>
       <c r="G261" t="n">
-        <v>53.11099999999999</v>
+        <v>53.09616666666666</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -9743,22 +9553,22 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>53.4</v>
+        <v>53.49</v>
       </c>
       <c r="C262" t="n">
-        <v>53.39</v>
+        <v>53.49</v>
       </c>
       <c r="D262" t="n">
-        <v>53.4</v>
+        <v>53.49</v>
       </c>
       <c r="E262" t="n">
-        <v>53.39</v>
+        <v>53.49</v>
       </c>
       <c r="F262" t="n">
-        <v>23615.1903</v>
+        <v>130</v>
       </c>
       <c r="G262" t="n">
-        <v>53.12183333333333</v>
+        <v>53.11099999999999</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -9778,22 +9588,22 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
+        <v>53.4</v>
+      </c>
+      <c r="C263" t="n">
         <v>53.39</v>
       </c>
-      <c r="C263" t="n">
-        <v>53.53</v>
-      </c>
       <c r="D263" t="n">
-        <v>53.53</v>
+        <v>53.4</v>
       </c>
       <c r="E263" t="n">
         <v>53.39</v>
       </c>
       <c r="F263" t="n">
-        <v>30962.4578</v>
+        <v>23615.1903</v>
       </c>
       <c r="G263" t="n">
-        <v>53.135</v>
+        <v>53.12183333333333</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -9813,22 +9623,22 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
+        <v>53.39</v>
+      </c>
+      <c r="C264" t="n">
         <v>53.53</v>
       </c>
-      <c r="C264" t="n">
-        <v>53.65</v>
-      </c>
       <c r="D264" t="n">
-        <v>53.65</v>
+        <v>53.53</v>
       </c>
       <c r="E264" t="n">
-        <v>53.53</v>
+        <v>53.39</v>
       </c>
       <c r="F264" t="n">
-        <v>520.5812</v>
+        <v>30962.4578</v>
       </c>
       <c r="G264" t="n">
-        <v>53.15183333333334</v>
+        <v>53.135</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -9848,22 +9658,22 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>53.69</v>
+        <v>53.53</v>
       </c>
       <c r="C265" t="n">
-        <v>53.51</v>
+        <v>53.65</v>
       </c>
       <c r="D265" t="n">
-        <v>53.69</v>
+        <v>53.65</v>
       </c>
       <c r="E265" t="n">
-        <v>53.51</v>
+        <v>53.53</v>
       </c>
       <c r="F265" t="n">
-        <v>30472.9809</v>
+        <v>520.5812</v>
       </c>
       <c r="G265" t="n">
-        <v>53.17050000000001</v>
+        <v>53.15183333333334</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -9883,22 +9693,22 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>53.52</v>
+        <v>53.69</v>
       </c>
       <c r="C266" t="n">
-        <v>53.74</v>
+        <v>53.51</v>
       </c>
       <c r="D266" t="n">
-        <v>53.74</v>
+        <v>53.69</v>
       </c>
       <c r="E266" t="n">
-        <v>53.52</v>
+        <v>53.51</v>
       </c>
       <c r="F266" t="n">
-        <v>6889.8658</v>
+        <v>30472.9809</v>
       </c>
       <c r="G266" t="n">
-        <v>53.19483333333334</v>
+        <v>53.17050000000001</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -9918,22 +9728,22 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>53.6</v>
+        <v>53.52</v>
       </c>
       <c r="C267" t="n">
-        <v>53.6</v>
+        <v>53.74</v>
       </c>
       <c r="D267" t="n">
-        <v>53.6</v>
+        <v>53.74</v>
       </c>
       <c r="E267" t="n">
-        <v>53.6</v>
+        <v>53.52</v>
       </c>
       <c r="F267" t="n">
-        <v>101167.3269</v>
+        <v>6889.8658</v>
       </c>
       <c r="G267" t="n">
-        <v>53.21633333333333</v>
+        <v>53.19483333333334</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -9953,22 +9763,22 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>53.72</v>
+        <v>53.6</v>
       </c>
       <c r="C268" t="n">
-        <v>53.73</v>
+        <v>53.6</v>
       </c>
       <c r="D268" t="n">
-        <v>53.73</v>
+        <v>53.6</v>
       </c>
       <c r="E268" t="n">
-        <v>53.72</v>
+        <v>53.6</v>
       </c>
       <c r="F268" t="n">
-        <v>15272.2146</v>
+        <v>101167.3269</v>
       </c>
       <c r="G268" t="n">
-        <v>53.23933333333333</v>
+        <v>53.21633333333333</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -9988,7 +9798,7 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>53.73</v>
+        <v>53.72</v>
       </c>
       <c r="C269" t="n">
         <v>53.73</v>
@@ -9997,13 +9807,13 @@
         <v>53.73</v>
       </c>
       <c r="E269" t="n">
-        <v>53.73</v>
+        <v>53.72</v>
       </c>
       <c r="F269" t="n">
-        <v>14100.0863</v>
+        <v>15272.2146</v>
       </c>
       <c r="G269" t="n">
-        <v>53.26433333333333</v>
+        <v>53.23933333333333</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -10023,22 +9833,22 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>53.94</v>
+        <v>53.73</v>
       </c>
       <c r="C270" t="n">
         <v>53.73</v>
       </c>
       <c r="D270" t="n">
-        <v>53.94</v>
+        <v>53.73</v>
       </c>
       <c r="E270" t="n">
         <v>53.73</v>
       </c>
       <c r="F270" t="n">
-        <v>134.5</v>
+        <v>14100.0863</v>
       </c>
       <c r="G270" t="n">
-        <v>53.291</v>
+        <v>53.26433333333333</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -10058,22 +9868,22 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>53.73</v>
+        <v>53.94</v>
       </c>
       <c r="C271" t="n">
         <v>53.73</v>
       </c>
       <c r="D271" t="n">
-        <v>53.73</v>
+        <v>53.94</v>
       </c>
       <c r="E271" t="n">
         <v>53.73</v>
       </c>
       <c r="F271" t="n">
-        <v>1527.5</v>
+        <v>134.5</v>
       </c>
       <c r="G271" t="n">
-        <v>53.31383333333333</v>
+        <v>53.291</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -10093,22 +9903,22 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>54</v>
+        <v>53.73</v>
       </c>
       <c r="C272" t="n">
-        <v>54.08</v>
+        <v>53.73</v>
       </c>
       <c r="D272" t="n">
-        <v>54.08</v>
+        <v>53.73</v>
       </c>
       <c r="E272" t="n">
-        <v>54</v>
+        <v>53.73</v>
       </c>
       <c r="F272" t="n">
-        <v>6345.137</v>
+        <v>1527.5</v>
       </c>
       <c r="G272" t="n">
-        <v>53.34183333333333</v>
+        <v>53.31383333333333</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -10128,22 +9938,22 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>54.18</v>
+        <v>54</v>
       </c>
       <c r="C273" t="n">
-        <v>54.04</v>
+        <v>54.08</v>
       </c>
       <c r="D273" t="n">
-        <v>54.18</v>
+        <v>54.08</v>
       </c>
       <c r="E273" t="n">
-        <v>54.04</v>
+        <v>54</v>
       </c>
       <c r="F273" t="n">
-        <v>38426.3906</v>
+        <v>6345.137</v>
       </c>
       <c r="G273" t="n">
-        <v>53.36816666666666</v>
+        <v>53.34183333333333</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -10163,22 +9973,22 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>53.95</v>
+        <v>54.18</v>
       </c>
       <c r="C274" t="n">
-        <v>53.92</v>
+        <v>54.04</v>
       </c>
       <c r="D274" t="n">
-        <v>53.95</v>
+        <v>54.18</v>
       </c>
       <c r="E274" t="n">
-        <v>53.91</v>
+        <v>54.04</v>
       </c>
       <c r="F274" t="n">
-        <v>28646.2257</v>
+        <v>38426.3906</v>
       </c>
       <c r="G274" t="n">
-        <v>53.39566666666666</v>
+        <v>53.36816666666666</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -10198,28 +10008,28 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>53.93</v>
+        <v>53.95</v>
       </c>
       <c r="C275" t="n">
-        <v>54</v>
+        <v>53.92</v>
       </c>
       <c r="D275" t="n">
-        <v>54</v>
+        <v>53.95</v>
       </c>
       <c r="E275" t="n">
-        <v>53.93</v>
+        <v>53.91</v>
       </c>
       <c r="F275" t="n">
-        <v>14280.5682</v>
+        <v>28646.2257</v>
       </c>
       <c r="G275" t="n">
-        <v>53.41816666666666</v>
+        <v>53.39566666666666</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
       </c>
       <c r="I275" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr"/>
@@ -10233,22 +10043,22 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>53.92</v>
+        <v>53.93</v>
       </c>
       <c r="C276" t="n">
-        <v>53.92</v>
+        <v>54</v>
       </c>
       <c r="D276" t="n">
-        <v>53.92</v>
+        <v>54</v>
       </c>
       <c r="E276" t="n">
-        <v>53.92</v>
+        <v>53.93</v>
       </c>
       <c r="F276" t="n">
-        <v>956.5649</v>
+        <v>14280.5682</v>
       </c>
       <c r="G276" t="n">
-        <v>53.43633333333333</v>
+        <v>53.41816666666666</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -10271,19 +10081,19 @@
         <v>53.92</v>
       </c>
       <c r="C277" t="n">
-        <v>54</v>
+        <v>53.92</v>
       </c>
       <c r="D277" t="n">
-        <v>54</v>
+        <v>53.92</v>
       </c>
       <c r="E277" t="n">
         <v>53.92</v>
       </c>
       <c r="F277" t="n">
-        <v>45831.6166</v>
+        <v>956.5649</v>
       </c>
       <c r="G277" t="n">
-        <v>53.45983333333333</v>
+        <v>53.43633333333333</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -10303,7 +10113,7 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>54</v>
+        <v>53.92</v>
       </c>
       <c r="C278" t="n">
         <v>54</v>
@@ -10312,13 +10122,13 @@
         <v>54</v>
       </c>
       <c r="E278" t="n">
-        <v>54</v>
+        <v>53.92</v>
       </c>
       <c r="F278" t="n">
-        <v>1704.7625</v>
+        <v>45831.6166</v>
       </c>
       <c r="G278" t="n">
-        <v>53.4815</v>
+        <v>53.45983333333333</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -10338,22 +10148,22 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>53.96</v>
+        <v>54</v>
       </c>
       <c r="C279" t="n">
-        <v>54.17</v>
+        <v>54</v>
       </c>
       <c r="D279" t="n">
-        <v>54.18</v>
+        <v>54</v>
       </c>
       <c r="E279" t="n">
-        <v>53.96</v>
+        <v>54</v>
       </c>
       <c r="F279" t="n">
-        <v>39866.72441712</v>
+        <v>1704.7625</v>
       </c>
       <c r="G279" t="n">
-        <v>53.50416666666667</v>
+        <v>53.4815</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -10373,22 +10183,22 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>54.07</v>
+        <v>53.96</v>
       </c>
       <c r="C280" t="n">
-        <v>54.14</v>
+        <v>54.17</v>
       </c>
       <c r="D280" t="n">
-        <v>54.14</v>
+        <v>54.18</v>
       </c>
       <c r="E280" t="n">
-        <v>54.07</v>
+        <v>53.96</v>
       </c>
       <c r="F280" t="n">
-        <v>10946.2295</v>
+        <v>39866.72441712</v>
       </c>
       <c r="G280" t="n">
-        <v>53.52316666666666</v>
+        <v>53.50416666666667</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -10408,22 +10218,22 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
+        <v>54.07</v>
+      </c>
+      <c r="C281" t="n">
         <v>54.14</v>
-      </c>
-      <c r="C281" t="n">
-        <v>54.08</v>
       </c>
       <c r="D281" t="n">
         <v>54.14</v>
       </c>
       <c r="E281" t="n">
-        <v>54.08</v>
+        <v>54.07</v>
       </c>
       <c r="F281" t="n">
-        <v>9121.9555</v>
+        <v>10946.2295</v>
       </c>
       <c r="G281" t="n">
-        <v>53.54416666666666</v>
+        <v>53.52316666666666</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -10443,22 +10253,22 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
+        <v>54.14</v>
+      </c>
+      <c r="C282" t="n">
         <v>54.08</v>
       </c>
-      <c r="C282" t="n">
-        <v>54.07</v>
-      </c>
       <c r="D282" t="n">
+        <v>54.14</v>
+      </c>
+      <c r="E282" t="n">
         <v>54.08</v>
       </c>
-      <c r="E282" t="n">
-        <v>54.07</v>
-      </c>
       <c r="F282" t="n">
-        <v>18986.625</v>
+        <v>9121.9555</v>
       </c>
       <c r="G282" t="n">
-        <v>53.56533333333333</v>
+        <v>53.54416666666666</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -10478,22 +10288,22 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
+        <v>54.08</v>
+      </c>
+      <c r="C283" t="n">
         <v>54.07</v>
       </c>
-      <c r="C283" t="n">
-        <v>54.04</v>
-      </c>
       <c r="D283" t="n">
+        <v>54.08</v>
+      </c>
+      <c r="E283" t="n">
         <v>54.07</v>
       </c>
-      <c r="E283" t="n">
-        <v>53.96</v>
-      </c>
       <c r="F283" t="n">
-        <v>35004.7482</v>
+        <v>18986.625</v>
       </c>
       <c r="G283" t="n">
-        <v>53.58483333333333</v>
+        <v>53.56533333333333</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -10516,19 +10326,19 @@
         <v>54.07</v>
       </c>
       <c r="C284" t="n">
-        <v>54.14</v>
+        <v>54.04</v>
       </c>
       <c r="D284" t="n">
-        <v>54.14</v>
+        <v>54.07</v>
       </c>
       <c r="E284" t="n">
-        <v>54.07</v>
+        <v>53.96</v>
       </c>
       <c r="F284" t="n">
-        <v>2432.725</v>
+        <v>35004.7482</v>
       </c>
       <c r="G284" t="n">
-        <v>53.60216666666666</v>
+        <v>53.58483333333333</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -10548,22 +10358,22 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
-        <v>54.06</v>
+        <v>54.07</v>
       </c>
       <c r="C285" t="n">
-        <v>54.04</v>
+        <v>54.14</v>
       </c>
       <c r="D285" t="n">
-        <v>54.06</v>
+        <v>54.14</v>
       </c>
       <c r="E285" t="n">
-        <v>54.04</v>
+        <v>54.07</v>
       </c>
       <c r="F285" t="n">
-        <v>20817.5724</v>
+        <v>2432.725</v>
       </c>
       <c r="G285" t="n">
-        <v>53.61783333333333</v>
+        <v>53.60216666666666</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -10583,22 +10393,22 @@
         <v>284</v>
       </c>
       <c r="B286" t="n">
-        <v>54.07</v>
+        <v>54.06</v>
       </c>
       <c r="C286" t="n">
-        <v>54.07</v>
+        <v>54.04</v>
       </c>
       <c r="D286" t="n">
-        <v>54.07</v>
+        <v>54.06</v>
       </c>
       <c r="E286" t="n">
-        <v>54.07</v>
+        <v>54.04</v>
       </c>
       <c r="F286" t="n">
-        <v>44879.1296</v>
+        <v>20817.5724</v>
       </c>
       <c r="G286" t="n">
-        <v>53.63566666666667</v>
+        <v>53.61783333333333</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -10618,22 +10428,22 @@
         <v>285</v>
       </c>
       <c r="B287" t="n">
-        <v>54.14</v>
+        <v>54.07</v>
       </c>
       <c r="C287" t="n">
-        <v>54.14</v>
+        <v>54.07</v>
       </c>
       <c r="D287" t="n">
-        <v>54.14</v>
+        <v>54.07</v>
       </c>
       <c r="E287" t="n">
-        <v>54.14</v>
+        <v>54.07</v>
       </c>
       <c r="F287" t="n">
-        <v>6249.999</v>
+        <v>44879.1296</v>
       </c>
       <c r="G287" t="n">
-        <v>53.65466666666666</v>
+        <v>53.63566666666667</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
@@ -10653,22 +10463,22 @@
         <v>286</v>
       </c>
       <c r="B288" t="n">
-        <v>54.07</v>
+        <v>54.14</v>
       </c>
       <c r="C288" t="n">
-        <v>54.04</v>
+        <v>54.14</v>
       </c>
       <c r="D288" t="n">
-        <v>54.07</v>
+        <v>54.14</v>
       </c>
       <c r="E288" t="n">
-        <v>54.04</v>
+        <v>54.14</v>
       </c>
       <c r="F288" t="n">
-        <v>13806.9383</v>
+        <v>6249.999</v>
       </c>
       <c r="G288" t="n">
-        <v>53.66533333333333</v>
+        <v>53.65466666666666</v>
       </c>
       <c r="H288" t="n">
         <v>0</v>
@@ -10688,22 +10498,22 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>54.04</v>
+        <v>54.07</v>
       </c>
       <c r="C289" t="n">
         <v>54.04</v>
       </c>
       <c r="D289" t="n">
-        <v>54.04</v>
+        <v>54.07</v>
       </c>
       <c r="E289" t="n">
         <v>54.04</v>
       </c>
       <c r="F289" t="n">
-        <v>8696.3549</v>
+        <v>13806.9383</v>
       </c>
       <c r="G289" t="n">
-        <v>53.67433333333333</v>
+        <v>53.66533333333333</v>
       </c>
       <c r="H289" t="n">
         <v>0</v>
@@ -10726,19 +10536,19 @@
         <v>54.04</v>
       </c>
       <c r="C290" t="n">
-        <v>54</v>
+        <v>54.04</v>
       </c>
       <c r="D290" t="n">
         <v>54.04</v>
       </c>
       <c r="E290" t="n">
-        <v>54</v>
+        <v>54.04</v>
       </c>
       <c r="F290" t="n">
-        <v>112304.8003</v>
+        <v>8696.3549</v>
       </c>
       <c r="G290" t="n">
-        <v>53.68266666666666</v>
+        <v>53.67433333333333</v>
       </c>
       <c r="H290" t="n">
         <v>0</v>
@@ -10758,22 +10568,22 @@
         <v>289</v>
       </c>
       <c r="B291" t="n">
+        <v>54.04</v>
+      </c>
+      <c r="C291" t="n">
         <v>54</v>
       </c>
-      <c r="C291" t="n">
-        <v>53.99</v>
-      </c>
       <c r="D291" t="n">
+        <v>54.04</v>
+      </c>
+      <c r="E291" t="n">
         <v>54</v>
       </c>
-      <c r="E291" t="n">
-        <v>53.99</v>
-      </c>
       <c r="F291" t="n">
-        <v>16022.3867</v>
+        <v>112304.8003</v>
       </c>
       <c r="G291" t="n">
-        <v>53.69083333333332</v>
+        <v>53.68266666666666</v>
       </c>
       <c r="H291" t="n">
         <v>0</v>
@@ -10793,22 +10603,22 @@
         <v>290</v>
       </c>
       <c r="B292" t="n">
-        <v>53.98</v>
+        <v>54</v>
       </c>
       <c r="C292" t="n">
-        <v>53.96</v>
+        <v>53.99</v>
       </c>
       <c r="D292" t="n">
-        <v>53.98</v>
+        <v>54</v>
       </c>
       <c r="E292" t="n">
-        <v>53.96</v>
+        <v>53.99</v>
       </c>
       <c r="F292" t="n">
-        <v>10034.1825</v>
+        <v>16022.3867</v>
       </c>
       <c r="G292" t="n">
-        <v>53.70299999999999</v>
+        <v>53.69083333333332</v>
       </c>
       <c r="H292" t="n">
         <v>0</v>
@@ -10828,22 +10638,22 @@
         <v>291</v>
       </c>
       <c r="B293" t="n">
-        <v>53.96</v>
+        <v>53.98</v>
       </c>
       <c r="C293" t="n">
         <v>53.96</v>
       </c>
       <c r="D293" t="n">
-        <v>53.96</v>
+        <v>53.98</v>
       </c>
       <c r="E293" t="n">
         <v>53.96</v>
       </c>
       <c r="F293" t="n">
-        <v>10882.2337</v>
+        <v>10034.1825</v>
       </c>
       <c r="G293" t="n">
-        <v>53.71566666666666</v>
+        <v>53.70299999999999</v>
       </c>
       <c r="H293" t="n">
         <v>0</v>
@@ -10866,19 +10676,19 @@
         <v>53.96</v>
       </c>
       <c r="C294" t="n">
-        <v>53.91</v>
+        <v>53.96</v>
       </c>
       <c r="D294" t="n">
         <v>53.96</v>
       </c>
       <c r="E294" t="n">
-        <v>53.91</v>
+        <v>53.96</v>
       </c>
       <c r="F294" t="n">
-        <v>8882.765799999999</v>
+        <v>10882.2337</v>
       </c>
       <c r="G294" t="n">
-        <v>53.72749999999999</v>
+        <v>53.71566666666666</v>
       </c>
       <c r="H294" t="n">
         <v>0</v>
@@ -10898,22 +10708,22 @@
         <v>293</v>
       </c>
       <c r="B295" t="n">
-        <v>53.91</v>
+        <v>53.96</v>
       </c>
       <c r="C295" t="n">
         <v>53.91</v>
       </c>
       <c r="D295" t="n">
-        <v>53.91</v>
+        <v>53.96</v>
       </c>
       <c r="E295" t="n">
         <v>53.91</v>
       </c>
       <c r="F295" t="n">
-        <v>21225.5488</v>
+        <v>8882.765799999999</v>
       </c>
       <c r="G295" t="n">
-        <v>53.73933333333333</v>
+        <v>53.72749999999999</v>
       </c>
       <c r="H295" t="n">
         <v>0</v>
@@ -10936,19 +10746,19 @@
         <v>53.91</v>
       </c>
       <c r="C296" t="n">
-        <v>53.73</v>
+        <v>53.91</v>
       </c>
       <c r="D296" t="n">
         <v>53.91</v>
       </c>
       <c r="E296" t="n">
-        <v>53.73</v>
+        <v>53.91</v>
       </c>
       <c r="F296" t="n">
-        <v>117026.8823</v>
+        <v>21225.5488</v>
       </c>
       <c r="G296" t="n">
-        <v>53.745</v>
+        <v>53.73933333333333</v>
       </c>
       <c r="H296" t="n">
         <v>0</v>
@@ -10968,22 +10778,22 @@
         <v>295</v>
       </c>
       <c r="B297" t="n">
-        <v>53.74</v>
+        <v>53.91</v>
       </c>
       <c r="C297" t="n">
-        <v>53.95</v>
+        <v>53.73</v>
       </c>
       <c r="D297" t="n">
-        <v>53.95</v>
+        <v>53.91</v>
       </c>
       <c r="E297" t="n">
-        <v>53.74</v>
+        <v>53.73</v>
       </c>
       <c r="F297" t="n">
-        <v>38521.6418</v>
+        <v>117026.8823</v>
       </c>
       <c r="G297" t="n">
-        <v>53.75533333333333</v>
+        <v>53.745</v>
       </c>
       <c r="H297" t="n">
         <v>0</v>
@@ -11003,22 +10813,22 @@
         <v>296</v>
       </c>
       <c r="B298" t="n">
+        <v>53.74</v>
+      </c>
+      <c r="C298" t="n">
         <v>53.95</v>
-      </c>
-      <c r="C298" t="n">
-        <v>53.85</v>
       </c>
       <c r="D298" t="n">
         <v>53.95</v>
       </c>
       <c r="E298" t="n">
-        <v>53.85</v>
+        <v>53.74</v>
       </c>
       <c r="F298" t="n">
-        <v>1884.159</v>
+        <v>38521.6418</v>
       </c>
       <c r="G298" t="n">
-        <v>53.76183333333333</v>
+        <v>53.75533333333333</v>
       </c>
       <c r="H298" t="n">
         <v>0</v>
@@ -11038,22 +10848,22 @@
         <v>297</v>
       </c>
       <c r="B299" t="n">
+        <v>53.95</v>
+      </c>
+      <c r="C299" t="n">
         <v>53.85</v>
       </c>
-      <c r="C299" t="n">
-        <v>53.98</v>
-      </c>
       <c r="D299" t="n">
-        <v>53.98</v>
+        <v>53.95</v>
       </c>
       <c r="E299" t="n">
         <v>53.85</v>
       </c>
       <c r="F299" t="n">
-        <v>20000</v>
+        <v>1884.159</v>
       </c>
       <c r="G299" t="n">
-        <v>53.76983333333332</v>
+        <v>53.76183333333333</v>
       </c>
       <c r="H299" t="n">
         <v>0</v>
@@ -11073,22 +10883,22 @@
         <v>298</v>
       </c>
       <c r="B300" t="n">
-        <v>54</v>
+        <v>53.85</v>
       </c>
       <c r="C300" t="n">
-        <v>54.11</v>
+        <v>53.98</v>
       </c>
       <c r="D300" t="n">
-        <v>54.11</v>
+        <v>53.98</v>
       </c>
       <c r="E300" t="n">
-        <v>54</v>
+        <v>53.85</v>
       </c>
       <c r="F300" t="n">
-        <v>50000</v>
+        <v>20000</v>
       </c>
       <c r="G300" t="n">
-        <v>53.77949999999999</v>
+        <v>53.76983333333332</v>
       </c>
       <c r="H300" t="n">
         <v>0</v>
@@ -11108,22 +10918,22 @@
         <v>299</v>
       </c>
       <c r="B301" t="n">
-        <v>54.04</v>
+        <v>54</v>
       </c>
       <c r="C301" t="n">
-        <v>54.04</v>
+        <v>54.11</v>
       </c>
       <c r="D301" t="n">
-        <v>54.04</v>
+        <v>54.11</v>
       </c>
       <c r="E301" t="n">
-        <v>54.04</v>
+        <v>54</v>
       </c>
       <c r="F301" t="n">
-        <v>4122.0192</v>
+        <v>50000</v>
       </c>
       <c r="G301" t="n">
-        <v>53.78766666666665</v>
+        <v>53.77949999999999</v>
       </c>
       <c r="H301" t="n">
         <v>0</v>
@@ -11143,22 +10953,22 @@
         <v>300</v>
       </c>
       <c r="B302" t="n">
-        <v>54.03</v>
+        <v>54.04</v>
       </c>
       <c r="C302" t="n">
-        <v>54.03</v>
+        <v>54.04</v>
       </c>
       <c r="D302" t="n">
-        <v>54.03</v>
+        <v>54.04</v>
       </c>
       <c r="E302" t="n">
-        <v>54.03</v>
+        <v>54.04</v>
       </c>
       <c r="F302" t="n">
-        <v>1392</v>
+        <v>4122.0192</v>
       </c>
       <c r="G302" t="n">
-        <v>53.79666666666666</v>
+        <v>53.78766666666665</v>
       </c>
       <c r="H302" t="n">
         <v>0</v>
@@ -11178,22 +10988,22 @@
         <v>301</v>
       </c>
       <c r="B303" t="n">
-        <v>54.04</v>
+        <v>54.03</v>
       </c>
       <c r="C303" t="n">
-        <v>54.04</v>
+        <v>54.03</v>
       </c>
       <c r="D303" t="n">
-        <v>54.04</v>
+        <v>54.03</v>
       </c>
       <c r="E303" t="n">
-        <v>54.04</v>
+        <v>54.03</v>
       </c>
       <c r="F303" t="n">
-        <v>3009.65</v>
+        <v>1392</v>
       </c>
       <c r="G303" t="n">
-        <v>53.80583333333333</v>
+        <v>53.79666666666666</v>
       </c>
       <c r="H303" t="n">
         <v>0</v>
@@ -11213,22 +11023,22 @@
         <v>302</v>
       </c>
       <c r="B304" t="n">
-        <v>54.13</v>
+        <v>54.04</v>
       </c>
       <c r="C304" t="n">
-        <v>54.13</v>
+        <v>54.04</v>
       </c>
       <c r="D304" t="n">
-        <v>54.13</v>
+        <v>54.04</v>
       </c>
       <c r="E304" t="n">
-        <v>54.13</v>
+        <v>54.04</v>
       </c>
       <c r="F304" t="n">
-        <v>1100</v>
+        <v>3009.65</v>
       </c>
       <c r="G304" t="n">
-        <v>53.8165</v>
+        <v>53.80583333333333</v>
       </c>
       <c r="H304" t="n">
         <v>0</v>
@@ -11248,22 +11058,22 @@
         <v>303</v>
       </c>
       <c r="B305" t="n">
-        <v>54.04</v>
+        <v>54.13</v>
       </c>
       <c r="C305" t="n">
-        <v>54.04</v>
+        <v>54.13</v>
       </c>
       <c r="D305" t="n">
-        <v>54.04</v>
+        <v>54.13</v>
       </c>
       <c r="E305" t="n">
-        <v>54.04</v>
+        <v>54.13</v>
       </c>
       <c r="F305" t="n">
-        <v>1916</v>
+        <v>1100</v>
       </c>
       <c r="G305" t="n">
-        <v>53.82566666666667</v>
+        <v>53.8165</v>
       </c>
       <c r="H305" t="n">
         <v>0</v>
@@ -11295,10 +11105,10 @@
         <v>54.04</v>
       </c>
       <c r="F306" t="n">
-        <v>4645.3886</v>
+        <v>1916</v>
       </c>
       <c r="G306" t="n">
-        <v>53.83683333333334</v>
+        <v>53.82566666666667</v>
       </c>
       <c r="H306" t="n">
         <v>0</v>
@@ -11313,6 +11123,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="307">
+      <c r="A307" s="1" t="n">
+        <v>305</v>
+      </c>
+      <c r="B307" t="n">
+        <v>54.04</v>
+      </c>
+      <c r="C307" t="n">
+        <v>54.04</v>
+      </c>
+      <c r="D307" t="n">
+        <v>54.04</v>
+      </c>
+      <c r="E307" t="n">
+        <v>54.04</v>
+      </c>
+      <c r="F307" t="n">
+        <v>4645.3886</v>
+      </c>
+      <c r="G307" t="n">
+        <v>53.83683333333334</v>
+      </c>
+      <c r="H307" t="n">
+        <v>0</v>
+      </c>
+      <c r="I307" t="n">
+        <v>0</v>
+      </c>
+      <c r="J307" t="inlineStr"/>
+      <c r="K307" t="inlineStr"/>
+      <c r="L307" t="inlineStr"/>
+      <c r="M307" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2020-01-11 BackTest XLM.xlsx
+++ b/BackTest/2020-01-11 BackTest XLM.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M307"/>
+  <dimension ref="A1:N317"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>4677.2441</v>
       </c>
       <c r="G2" t="n">
+        <v>53.85533333333334</v>
+      </c>
+      <c r="H2" t="n">
         <v>54.02366666666664</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>4046.103</v>
       </c>
       <c r="G3" t="n">
+        <v>53.86800000000002</v>
+      </c>
+      <c r="H3" t="n">
         <v>54.0198333333333</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>18042.686</v>
       </c>
       <c r="G4" t="n">
+        <v>53.89200000000002</v>
+      </c>
+      <c r="H4" t="n">
         <v>54.01483333333331</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>10216</v>
       </c>
       <c r="G5" t="n">
+        <v>53.91266666666669</v>
+      </c>
+      <c r="H5" t="n">
         <v>54.00916666666664</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>39859.5025</v>
       </c>
       <c r="G6" t="n">
+        <v>53.94000000000003</v>
+      </c>
+      <c r="H6" t="n">
         <v>54.00616666666664</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>1314.2477</v>
       </c>
       <c r="G7" t="n">
+        <v>53.9666666666667</v>
+      </c>
+      <c r="H7" t="n">
         <v>54.00466666666663</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>1493.4061</v>
       </c>
       <c r="G8" t="n">
+        <v>53.98733333333337</v>
+      </c>
+      <c r="H8" t="n">
         <v>54.0008333333333</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>16645.1063</v>
       </c>
       <c r="G9" t="n">
+        <v>54.01200000000004</v>
+      </c>
+      <c r="H9" t="n">
         <v>53.99549999999996</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>31626.3489</v>
       </c>
       <c r="G10" t="n">
+        <v>54.02200000000003</v>
+      </c>
+      <c r="H10" t="n">
         <v>53.99016666666662</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>924.2145</v>
       </c>
       <c r="G11" t="n">
+        <v>54.03133333333336</v>
+      </c>
+      <c r="H11" t="n">
         <v>53.9843333333333</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>25000</v>
       </c>
       <c r="G12" t="n">
+        <v>54.03400000000003</v>
+      </c>
+      <c r="H12" t="n">
         <v>53.97666666666662</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>36000</v>
       </c>
       <c r="G13" t="n">
+        <v>54.03800000000003</v>
+      </c>
+      <c r="H13" t="n">
         <v>53.97183333333329</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>39500</v>
       </c>
       <c r="G14" t="n">
+        <v>54.06000000000003</v>
+      </c>
+      <c r="H14" t="n">
         <v>53.96766666666663</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>924</v>
       </c>
       <c r="G15" t="n">
+        <v>54.0666666666667</v>
+      </c>
+      <c r="H15" t="n">
         <v>53.9613333333333</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>10000</v>
       </c>
       <c r="G16" t="n">
+        <v>54.06133333333336</v>
+      </c>
+      <c r="H16" t="n">
         <v>53.95749999999997</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>1</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>18869.519</v>
       </c>
       <c r="G17" t="n">
+        <v>54.04933333333336</v>
+      </c>
+      <c r="H17" t="n">
         <v>53.95516666666663</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>1</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>519.1049</v>
       </c>
       <c r="G18" t="n">
+        <v>54.02866666666669</v>
+      </c>
+      <c r="H18" t="n">
         <v>53.94799999999997</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>1</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>924</v>
       </c>
       <c r="G19" t="n">
+        <v>54.00800000000002</v>
+      </c>
+      <c r="H19" t="n">
         <v>53.94533333333331</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>1</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>11076.374</v>
       </c>
       <c r="G20" t="n">
+        <v>53.98733333333335</v>
+      </c>
+      <c r="H20" t="n">
         <v>53.94116666666664</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>1</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>1649.5702</v>
       </c>
       <c r="G21" t="n">
+        <v>53.97400000000002</v>
+      </c>
+      <c r="H21" t="n">
         <v>53.94233333333331</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>1</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,21 @@
         <v>9026.932000000001</v>
       </c>
       <c r="G22" t="n">
+        <v>53.96066666666669</v>
+      </c>
+      <c r="H22" t="n">
         <v>53.94499999999997</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>1</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1251,21 @@
         <v>9707.8577</v>
       </c>
       <c r="G23" t="n">
+        <v>53.95333333333335</v>
+      </c>
+      <c r="H23" t="n">
         <v>53.94599999999998</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>1</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1289,21 @@
         <v>10</v>
       </c>
       <c r="G24" t="n">
+        <v>53.94666666666669</v>
+      </c>
+      <c r="H24" t="n">
         <v>53.94749999999998</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>1</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1327,21 @@
         <v>5983.84133246</v>
       </c>
       <c r="G25" t="n">
+        <v>53.93733333333335</v>
+      </c>
+      <c r="H25" t="n">
         <v>53.94949999999997</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>1</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1365,21 @@
         <v>803.7303000000001</v>
       </c>
       <c r="G26" t="n">
+        <v>53.91666666666668</v>
+      </c>
+      <c r="H26" t="n">
         <v>53.9488333333333</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>1</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1403,21 @@
         <v>17944.8771</v>
       </c>
       <c r="G27" t="n">
+        <v>53.90266666666668</v>
+      </c>
+      <c r="H27" t="n">
         <v>53.94533333333331</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>1</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1441,21 @@
         <v>5000</v>
       </c>
       <c r="G28" t="n">
+        <v>53.88066666666668</v>
+      </c>
+      <c r="H28" t="n">
         <v>53.93983333333331</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>1</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1479,21 @@
         <v>5854.9673</v>
       </c>
       <c r="G29" t="n">
+        <v>53.85866666666667</v>
+      </c>
+      <c r="H29" t="n">
         <v>53.93433333333331</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>1</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1517,21 @@
         <v>12606.172</v>
       </c>
       <c r="G30" t="n">
+        <v>53.83333333333334</v>
+      </c>
+      <c r="H30" t="n">
         <v>53.92849999999998</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>1</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1555,21 @@
         <v>403.171</v>
       </c>
       <c r="G31" t="n">
+        <v>53.818</v>
+      </c>
+      <c r="H31" t="n">
         <v>53.92266666666664</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1593,21 @@
         <v>6527.8284</v>
       </c>
       <c r="G32" t="n">
+        <v>53.80733333333334</v>
+      </c>
+      <c r="H32" t="n">
         <v>53.91666666666665</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>1</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1631,21 @@
         <v>4514.0254</v>
       </c>
       <c r="G33" t="n">
+        <v>53.79600000000001</v>
+      </c>
+      <c r="H33" t="n">
         <v>53.91216666666665</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>1</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1669,21 @@
         <v>2580.2799</v>
       </c>
       <c r="G34" t="n">
+        <v>53.78200000000001</v>
+      </c>
+      <c r="H34" t="n">
         <v>53.90549999999998</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1707,21 @@
         <v>18860.9243</v>
       </c>
       <c r="G35" t="n">
+        <v>53.76933333333334</v>
+      </c>
+      <c r="H35" t="n">
         <v>53.90066666666665</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1745,21 @@
         <v>387.6528</v>
       </c>
       <c r="G36" t="n">
+        <v>53.74933333333335</v>
+      </c>
+      <c r="H36" t="n">
         <v>53.89066666666665</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1783,21 @@
         <v>375.5583</v>
       </c>
       <c r="G37" t="n">
+        <v>53.72333333333335</v>
+      </c>
+      <c r="H37" t="n">
         <v>53.88249999999998</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1821,21 @@
         <v>10000</v>
       </c>
       <c r="G38" t="n">
+        <v>53.68800000000002</v>
+      </c>
+      <c r="H38" t="n">
         <v>53.87216666666665</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1859,21 @@
         <v>14500.8556</v>
       </c>
       <c r="G39" t="n">
+        <v>53.64800000000002</v>
+      </c>
+      <c r="H39" t="n">
         <v>53.86399999999999</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +1897,21 @@
         <v>4927.0513</v>
       </c>
       <c r="G40" t="n">
+        <v>53.61000000000001</v>
+      </c>
+      <c r="H40" t="n">
         <v>53.85233333333331</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +1935,21 @@
         <v>19944.3506</v>
       </c>
       <c r="G41" t="n">
+        <v>53.58333333333335</v>
+      </c>
+      <c r="H41" t="n">
         <v>53.84233333333331</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +1973,21 @@
         <v>2091.1741</v>
       </c>
       <c r="G42" t="n">
+        <v>53.55666666666669</v>
+      </c>
+      <c r="H42" t="n">
         <v>53.83233333333332</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2011,21 @@
         <v>89.1742</v>
       </c>
       <c r="G43" t="n">
+        <v>53.53866666666669</v>
+      </c>
+      <c r="H43" t="n">
         <v>53.82249999999999</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2049,21 @@
         <v>859.8289</v>
       </c>
       <c r="G44" t="n">
+        <v>53.52000000000002</v>
+      </c>
+      <c r="H44" t="n">
         <v>53.81566666666665</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2087,21 @@
         <v>743.7196</v>
       </c>
       <c r="G45" t="n">
+        <v>53.50266666666668</v>
+      </c>
+      <c r="H45" t="n">
         <v>53.81049999999998</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2125,21 @@
         <v>28.8765</v>
       </c>
       <c r="G46" t="n">
+        <v>53.48800000000002</v>
+      </c>
+      <c r="H46" t="n">
         <v>53.80516666666666</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2163,21 @@
         <v>403.2903</v>
       </c>
       <c r="G47" t="n">
+        <v>53.47466666666669</v>
+      </c>
+      <c r="H47" t="n">
         <v>53.79666666666665</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2201,21 @@
         <v>1440</v>
       </c>
       <c r="G48" t="n">
+        <v>53.46133333333334</v>
+      </c>
+      <c r="H48" t="n">
         <v>53.78849999999998</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2239,21 @@
         <v>461223.5683</v>
       </c>
       <c r="G49" t="n">
+        <v>53.42133333333334</v>
+      </c>
+      <c r="H49" t="n">
         <v>53.77583333333332</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2277,21 @@
         <v>34253.0107</v>
       </c>
       <c r="G50" t="n">
+        <v>53.38133333333334</v>
+      </c>
+      <c r="H50" t="n">
         <v>53.76266666666665</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2315,21 @@
         <v>6473.6926</v>
       </c>
       <c r="G51" t="n">
+        <v>53.33800000000001</v>
+      </c>
+      <c r="H51" t="n">
         <v>53.75033333333332</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2353,21 @@
         <v>1185.6099</v>
       </c>
       <c r="G52" t="n">
+        <v>53.29333333333334</v>
+      </c>
+      <c r="H52" t="n">
         <v>53.73599999999998</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2391,21 @@
         <v>9677.513000000001</v>
       </c>
       <c r="G53" t="n">
+        <v>53.26866666666668</v>
+      </c>
+      <c r="H53" t="n">
         <v>53.72433333333332</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2429,21 @@
         <v>47597.799</v>
       </c>
       <c r="G54" t="n">
+        <v>53.24800000000001</v>
+      </c>
+      <c r="H54" t="n">
         <v>53.71366666666665</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2467,21 @@
         <v>6402.201</v>
       </c>
       <c r="G55" t="n">
+        <v>53.22733333333335</v>
+      </c>
+      <c r="H55" t="n">
         <v>53.69916666666666</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2505,21 @@
         <v>90</v>
       </c>
       <c r="G56" t="n">
+        <v>53.20600000000002</v>
+      </c>
+      <c r="H56" t="n">
         <v>53.68433333333333</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2543,21 @@
         <v>750</v>
       </c>
       <c r="G57" t="n">
+        <v>53.18533333333335</v>
+      </c>
+      <c r="H57" t="n">
         <v>53.66966666666666</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2581,21 @@
         <v>1543.7997</v>
       </c>
       <c r="G58" t="n">
+        <v>53.15533333333336</v>
+      </c>
+      <c r="H58" t="n">
         <v>53.65316666666665</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2619,21 @@
         <v>5150.3926</v>
       </c>
       <c r="G59" t="n">
+        <v>53.13000000000002</v>
+      </c>
+      <c r="H59" t="n">
         <v>53.64216666666665</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2657,21 @@
         <v>15586.3096</v>
       </c>
       <c r="G60" t="n">
+        <v>53.10133333333336</v>
+      </c>
+      <c r="H60" t="n">
         <v>53.62599999999999</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +2695,21 @@
         <v>1087</v>
       </c>
       <c r="G61" t="n">
+        <v>53.07333333333337</v>
+      </c>
+      <c r="H61" t="n">
         <v>53.61016666666666</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +2733,21 @@
         <v>1788.6223</v>
       </c>
       <c r="G62" t="n">
+        <v>53.05133333333337</v>
+      </c>
+      <c r="H62" t="n">
         <v>53.59566666666667</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +2771,21 @@
         <v>1915.999</v>
       </c>
       <c r="G63" t="n">
+        <v>53.04600000000004</v>
+      </c>
+      <c r="H63" t="n">
         <v>53.58299999999999</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +2809,21 @@
         <v>4000</v>
       </c>
       <c r="G64" t="n">
+        <v>53.05133333333337</v>
+      </c>
+      <c r="H64" t="n">
         <v>53.56566666666666</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,18 +2847,21 @@
         <v>5631.68762905</v>
       </c>
       <c r="G65" t="n">
+        <v>53.06933333333338</v>
+      </c>
+      <c r="H65" t="n">
         <v>53.55183333333333</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,18 +2885,21 @@
         <v>1404.3005</v>
       </c>
       <c r="G66" t="n">
+        <v>53.07933333333337</v>
+      </c>
+      <c r="H66" t="n">
         <v>53.53516666666666</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2723,18 +2923,21 @@
         <v>35</v>
       </c>
       <c r="G67" t="n">
+        <v>53.08600000000004</v>
+      </c>
+      <c r="H67" t="n">
         <v>53.51583333333333</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,18 +2961,21 @@
         <v>1874.3072</v>
       </c>
       <c r="G68" t="n">
+        <v>53.09466666666671</v>
+      </c>
+      <c r="H68" t="n">
         <v>53.50116666666666</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2793,18 +2999,21 @@
         <v>312.757</v>
       </c>
       <c r="G69" t="n">
+        <v>53.09666666666671</v>
+      </c>
+      <c r="H69" t="n">
         <v>53.48483333333333</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,18 +3037,21 @@
         <v>2656.2229</v>
       </c>
       <c r="G70" t="n">
+        <v>53.10466666666671</v>
+      </c>
+      <c r="H70" t="n">
         <v>53.46983333333333</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2863,18 +3075,21 @@
         <v>21819.5845</v>
       </c>
       <c r="G71" t="n">
+        <v>53.1026666666667</v>
+      </c>
+      <c r="H71" t="n">
         <v>53.45216666666666</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2898,18 +3113,21 @@
         <v>1275</v>
       </c>
       <c r="G72" t="n">
+        <v>53.1006666666667</v>
+      </c>
+      <c r="H72" t="n">
         <v>53.43633333333333</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2933,18 +3151,21 @@
         <v>12500</v>
       </c>
       <c r="G73" t="n">
+        <v>53.10933333333336</v>
+      </c>
+      <c r="H73" t="n">
         <v>53.421</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2968,18 +3189,21 @@
         <v>1000</v>
       </c>
       <c r="G74" t="n">
+        <v>53.1186666666667</v>
+      </c>
+      <c r="H74" t="n">
         <v>53.40683333333333</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3003,18 +3227,21 @@
         <v>100</v>
       </c>
       <c r="G75" t="n">
+        <v>53.12933333333336</v>
+      </c>
+      <c r="H75" t="n">
         <v>53.39166666666666</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3038,18 +3265,21 @@
         <v>10</v>
       </c>
       <c r="G76" t="n">
+        <v>53.13933333333336</v>
+      </c>
+      <c r="H76" t="n">
         <v>53.37966666666667</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3073,18 +3303,21 @@
         <v>10</v>
       </c>
       <c r="G77" t="n">
+        <v>53.14266666666669</v>
+      </c>
+      <c r="H77" t="n">
         <v>53.369</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3108,18 +3341,21 @@
         <v>3639.3424</v>
       </c>
       <c r="G78" t="n">
+        <v>53.12200000000002</v>
+      </c>
+      <c r="H78" t="n">
         <v>53.35633333333332</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3143,18 +3379,21 @@
         <v>20619.857</v>
       </c>
       <c r="G79" t="n">
+        <v>53.12400000000002</v>
+      </c>
+      <c r="H79" t="n">
         <v>53.34466666666665</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3178,18 +3417,21 @@
         <v>38379.4946</v>
       </c>
       <c r="G80" t="n">
+        <v>53.11600000000001</v>
+      </c>
+      <c r="H80" t="n">
         <v>53.33399999999999</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3213,18 +3455,21 @@
         <v>41348.9574</v>
       </c>
       <c r="G81" t="n">
+        <v>53.11933333333334</v>
+      </c>
+      <c r="H81" t="n">
         <v>53.32149999999999</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3248,18 +3493,21 @@
         <v>45576.3827</v>
       </c>
       <c r="G82" t="n">
+        <v>53.11200000000001</v>
+      </c>
+      <c r="H82" t="n">
         <v>53.30366666666666</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3283,18 +3531,21 @@
         <v>10169.2658</v>
       </c>
       <c r="G83" t="n">
+        <v>53.07933333333335</v>
+      </c>
+      <c r="H83" t="n">
         <v>53.28266666666666</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3318,18 +3569,21 @@
         <v>3832</v>
       </c>
       <c r="G84" t="n">
+        <v>53.05400000000001</v>
+      </c>
+      <c r="H84" t="n">
         <v>53.26166666666666</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3353,18 +3607,21 @@
         <v>11102.004</v>
       </c>
       <c r="G85" t="n">
+        <v>53.02333333333334</v>
+      </c>
+      <c r="H85" t="n">
         <v>53.24133333333332</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3388,18 +3645,21 @@
         <v>12266.8649</v>
       </c>
       <c r="G86" t="n">
+        <v>53.00266666666668</v>
+      </c>
+      <c r="H86" t="n">
         <v>53.22366666666666</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3423,18 +3683,21 @@
         <v>735.0646</v>
       </c>
       <c r="G87" t="n">
+        <v>52.98133333333335</v>
+      </c>
+      <c r="H87" t="n">
         <v>53.206</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3458,18 +3721,21 @@
         <v>782.1549</v>
       </c>
       <c r="G88" t="n">
+        <v>52.95933333333335</v>
+      </c>
+      <c r="H88" t="n">
         <v>53.19066666666666</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3493,18 +3759,21 @@
         <v>40967.4387</v>
       </c>
       <c r="G89" t="n">
+        <v>52.93866666666668</v>
+      </c>
+      <c r="H89" t="n">
         <v>53.17683333333333</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3528,18 +3797,21 @@
         <v>23919.8426</v>
       </c>
       <c r="G90" t="n">
+        <v>52.92000000000002</v>
+      </c>
+      <c r="H90" t="n">
         <v>53.16333333333333</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3563,18 +3835,21 @@
         <v>58887.3738</v>
       </c>
       <c r="G91" t="n">
+        <v>52.89200000000002</v>
+      </c>
+      <c r="H91" t="n">
         <v>53.14816666666666</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3598,18 +3873,21 @@
         <v>2006.1</v>
       </c>
       <c r="G92" t="n">
+        <v>52.86400000000003</v>
+      </c>
+      <c r="H92" t="n">
         <v>53.13316666666666</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3633,18 +3911,21 @@
         <v>321.668</v>
       </c>
       <c r="G93" t="n">
+        <v>52.84333333333336</v>
+      </c>
+      <c r="H93" t="n">
         <v>53.11816666666666</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3668,18 +3949,21 @@
         <v>573.6006</v>
       </c>
       <c r="G94" t="n">
+        <v>52.81600000000003</v>
+      </c>
+      <c r="H94" t="n">
         <v>53.10316666666666</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3703,18 +3987,21 @@
         <v>411.1692</v>
       </c>
       <c r="G95" t="n">
+        <v>52.78800000000003</v>
+      </c>
+      <c r="H95" t="n">
         <v>53.08866666666666</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3738,18 +4025,21 @@
         <v>514.8</v>
       </c>
       <c r="G96" t="n">
+        <v>52.75866666666671</v>
+      </c>
+      <c r="H96" t="n">
         <v>53.07383333333333</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3773,18 +4063,21 @@
         <v>1905.7859</v>
       </c>
       <c r="G97" t="n">
+        <v>52.74400000000004</v>
+      </c>
+      <c r="H97" t="n">
         <v>53.05883333333333</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3808,18 +4101,21 @@
         <v>12045.8883</v>
       </c>
       <c r="G98" t="n">
+        <v>52.73600000000004</v>
+      </c>
+      <c r="H98" t="n">
         <v>53.04466666666666</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3843,18 +4139,21 @@
         <v>74134.3294</v>
       </c>
       <c r="G99" t="n">
+        <v>52.74000000000004</v>
+      </c>
+      <c r="H99" t="n">
         <v>53.03466666666667</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3878,18 +4177,21 @@
         <v>989</v>
       </c>
       <c r="G100" t="n">
+        <v>52.74333333333337</v>
+      </c>
+      <c r="H100" t="n">
         <v>53.02466666666667</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3913,18 +4215,21 @@
         <v>2197</v>
       </c>
       <c r="G101" t="n">
+        <v>52.74333333333337</v>
+      </c>
+      <c r="H101" t="n">
         <v>53.01366666666667</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3948,18 +4253,21 @@
         <v>7717</v>
       </c>
       <c r="G102" t="n">
+        <v>52.74333333333337</v>
+      </c>
+      <c r="H102" t="n">
         <v>53.00266666666667</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3983,18 +4291,21 @@
         <v>10617.819</v>
       </c>
       <c r="G103" t="n">
+        <v>52.74866666666671</v>
+      </c>
+      <c r="H103" t="n">
         <v>52.99316666666667</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4018,18 +4329,21 @@
         <v>18881.4352</v>
       </c>
       <c r="G104" t="n">
+        <v>52.74800000000004</v>
+      </c>
+      <c r="H104" t="n">
         <v>52.98383333333334</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4053,18 +4367,21 @@
         <v>1916</v>
       </c>
       <c r="G105" t="n">
+        <v>52.74733333333337</v>
+      </c>
+      <c r="H105" t="n">
         <v>52.97450000000001</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4088,18 +4405,21 @@
         <v>1160.2821</v>
       </c>
       <c r="G106" t="n">
+        <v>52.75400000000004</v>
+      </c>
+      <c r="H106" t="n">
         <v>52.96466666666667</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4123,18 +4443,21 @@
         <v>1713.779</v>
       </c>
       <c r="G107" t="n">
+        <v>52.76066666666671</v>
+      </c>
+      <c r="H107" t="n">
         <v>52.95466666666667</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4158,18 +4481,21 @@
         <v>22370.5</v>
       </c>
       <c r="G108" t="n">
+        <v>52.76533333333337</v>
+      </c>
+      <c r="H108" t="n">
         <v>52.94416666666667</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4193,18 +4519,21 @@
         <v>16284.1413</v>
       </c>
       <c r="G109" t="n">
+        <v>52.76600000000004</v>
+      </c>
+      <c r="H109" t="n">
         <v>52.93933333333334</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4228,18 +4557,21 @@
         <v>3821.2532</v>
       </c>
       <c r="G110" t="n">
+        <v>52.76733333333337</v>
+      </c>
+      <c r="H110" t="n">
         <v>52.93516666666667</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4263,18 +4595,21 @@
         <v>1087</v>
       </c>
       <c r="G111" t="n">
+        <v>52.7706666666667</v>
+      </c>
+      <c r="H111" t="n">
         <v>52.93200000000001</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4298,18 +4633,21 @@
         <v>201</v>
       </c>
       <c r="G112" t="n">
+        <v>52.78200000000003</v>
+      </c>
+      <c r="H112" t="n">
         <v>52.93100000000001</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4333,18 +4671,21 @@
         <v>7467.355</v>
       </c>
       <c r="G113" t="n">
+        <v>52.79133333333336</v>
+      </c>
+      <c r="H113" t="n">
         <v>52.92533333333334</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4368,18 +4709,21 @@
         <v>1892.0869</v>
       </c>
       <c r="G114" t="n">
+        <v>52.78800000000003</v>
+      </c>
+      <c r="H114" t="n">
         <v>52.91966666666667</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4403,18 +4747,21 @@
         <v>11098.7337</v>
       </c>
       <c r="G115" t="n">
+        <v>52.7846666666667</v>
+      </c>
+      <c r="H115" t="n">
         <v>52.914</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4438,18 +4785,21 @@
         <v>34899.8681</v>
       </c>
       <c r="G116" t="n">
+        <v>52.7786666666667</v>
+      </c>
+      <c r="H116" t="n">
         <v>52.90683333333333</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4473,18 +4823,21 @@
         <v>674.9853000000001</v>
       </c>
       <c r="G117" t="n">
+        <v>52.77733333333337</v>
+      </c>
+      <c r="H117" t="n">
         <v>52.90066666666667</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4508,18 +4861,21 @@
         <v>948.58660595</v>
       </c>
       <c r="G118" t="n">
+        <v>52.76933333333337</v>
+      </c>
+      <c r="H118" t="n">
         <v>52.89666666666667</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4543,18 +4899,21 @@
         <v>761.0874</v>
       </c>
       <c r="G119" t="n">
+        <v>52.76133333333337</v>
+      </c>
+      <c r="H119" t="n">
         <v>52.89166666666667</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4578,18 +4937,21 @@
         <v>1226</v>
       </c>
       <c r="G120" t="n">
+        <v>52.75133333333336</v>
+      </c>
+      <c r="H120" t="n">
         <v>52.88699999999999</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4613,18 +4975,21 @@
         <v>277.562</v>
       </c>
       <c r="G121" t="n">
+        <v>52.7386666666667</v>
+      </c>
+      <c r="H121" t="n">
         <v>52.88099999999999</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4648,18 +5013,21 @@
         <v>31987.8183</v>
       </c>
       <c r="G122" t="n">
+        <v>52.73000000000003</v>
+      </c>
+      <c r="H122" t="n">
         <v>52.87433333333333</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4683,18 +5051,21 @@
         <v>613</v>
       </c>
       <c r="G123" t="n">
+        <v>52.72666666666669</v>
+      </c>
+      <c r="H123" t="n">
         <v>52.86433333333333</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4718,18 +5089,21 @@
         <v>5678.86449659</v>
       </c>
       <c r="G124" t="n">
+        <v>52.73333333333336</v>
+      </c>
+      <c r="H124" t="n">
         <v>52.85983333333333</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4753,18 +5127,21 @@
         <v>20902.4747</v>
       </c>
       <c r="G125" t="n">
+        <v>52.73600000000003</v>
+      </c>
+      <c r="H125" t="n">
         <v>52.85183333333332</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4788,18 +5165,21 @@
         <v>2574.1858</v>
       </c>
       <c r="G126" t="n">
+        <v>52.72400000000003</v>
+      </c>
+      <c r="H126" t="n">
         <v>52.84316666666666</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4823,18 +5203,21 @@
         <v>573.5798</v>
       </c>
       <c r="G127" t="n">
+        <v>52.70333333333337</v>
+      </c>
+      <c r="H127" t="n">
         <v>52.83533333333332</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4858,18 +5241,21 @@
         <v>2319.9179</v>
       </c>
       <c r="G128" t="n">
+        <v>52.69000000000003</v>
+      </c>
+      <c r="H128" t="n">
         <v>52.82416666666666</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4893,18 +5279,21 @@
         <v>72073.5527</v>
       </c>
       <c r="G129" t="n">
+        <v>52.6766666666667</v>
+      </c>
+      <c r="H129" t="n">
         <v>52.81466666666667</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4928,18 +5317,21 @@
         <v>14840.4745</v>
       </c>
       <c r="G130" t="n">
+        <v>52.66200000000003</v>
+      </c>
+      <c r="H130" t="n">
         <v>52.80333333333333</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4963,18 +5355,21 @@
         <v>18604.6289</v>
       </c>
       <c r="G131" t="n">
+        <v>52.66333333333336</v>
+      </c>
+      <c r="H131" t="n">
         <v>52.797</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4998,18 +5393,21 @@
         <v>13567.8615</v>
       </c>
       <c r="G132" t="n">
+        <v>52.66200000000002</v>
+      </c>
+      <c r="H132" t="n">
         <v>52.791</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5033,18 +5431,21 @@
         <v>1000.4704</v>
       </c>
       <c r="G133" t="n">
+        <v>52.65733333333335</v>
+      </c>
+      <c r="H133" t="n">
         <v>52.78366666666667</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5068,18 +5469,21 @@
         <v>2664.7373</v>
       </c>
       <c r="G134" t="n">
+        <v>52.65266666666668</v>
+      </c>
+      <c r="H134" t="n">
         <v>52.77516666666666</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5103,18 +5507,21 @@
         <v>569</v>
       </c>
       <c r="G135" t="n">
+        <v>52.64666666666668</v>
+      </c>
+      <c r="H135" t="n">
         <v>52.76633333333334</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5138,18 +5545,21 @@
         <v>11506.7</v>
       </c>
       <c r="G136" t="n">
+        <v>52.64533333333335</v>
+      </c>
+      <c r="H136" t="n">
         <v>52.7575</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5173,18 +5583,21 @@
         <v>13523.825</v>
       </c>
       <c r="G137" t="n">
+        <v>52.64200000000002</v>
+      </c>
+      <c r="H137" t="n">
         <v>52.74916666666666</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5208,18 +5621,21 @@
         <v>8937.474700000001</v>
       </c>
       <c r="G138" t="n">
+        <v>52.63333333333335</v>
+      </c>
+      <c r="H138" t="n">
         <v>52.74216666666666</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5243,18 +5659,21 @@
         <v>15195.3119</v>
       </c>
       <c r="G139" t="n">
+        <v>52.61866666666668</v>
+      </c>
+      <c r="H139" t="n">
         <v>52.7335</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5278,18 +5697,21 @@
         <v>230.203</v>
       </c>
       <c r="G140" t="n">
+        <v>52.60733333333335</v>
+      </c>
+      <c r="H140" t="n">
         <v>52.72466666666666</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5313,18 +5735,21 @@
         <v>2185.248</v>
       </c>
       <c r="G141" t="n">
+        <v>52.61000000000001</v>
+      </c>
+      <c r="H141" t="n">
         <v>52.71583333333332</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5348,18 +5773,21 @@
         <v>84394.9182</v>
       </c>
       <c r="G142" t="n">
+        <v>52.61400000000002</v>
+      </c>
+      <c r="H142" t="n">
         <v>52.71083333333332</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5383,18 +5811,21 @@
         <v>774.5092</v>
       </c>
       <c r="G143" t="n">
+        <v>52.61866666666669</v>
+      </c>
+      <c r="H143" t="n">
         <v>52.70899999999998</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5418,18 +5849,21 @@
         <v>19800.3704</v>
       </c>
       <c r="G144" t="n">
+        <v>52.62333333333336</v>
+      </c>
+      <c r="H144" t="n">
         <v>52.70699999999999</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5453,18 +5887,21 @@
         <v>16900</v>
       </c>
       <c r="G145" t="n">
+        <v>52.62800000000003</v>
+      </c>
+      <c r="H145" t="n">
         <v>52.70449999999999</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5488,18 +5925,21 @@
         <v>4623.2865</v>
       </c>
       <c r="G146" t="n">
+        <v>52.6186666666667</v>
+      </c>
+      <c r="H146" t="n">
         <v>52.70099999999999</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5523,18 +5963,21 @@
         <v>500</v>
       </c>
       <c r="G147" t="n">
+        <v>52.61533333333337</v>
+      </c>
+      <c r="H147" t="n">
         <v>52.69949999999999</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5558,18 +6001,21 @@
         <v>424.8794</v>
       </c>
       <c r="G148" t="n">
+        <v>52.61400000000003</v>
+      </c>
+      <c r="H148" t="n">
         <v>52.69733333333332</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5593,18 +6039,21 @@
         <v>2359.1495</v>
       </c>
       <c r="G149" t="n">
+        <v>52.61200000000004</v>
+      </c>
+      <c r="H149" t="n">
         <v>52.69349999999999</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5628,18 +6077,21 @@
         <v>33723.0232</v>
       </c>
       <c r="G150" t="n">
+        <v>52.60000000000003</v>
+      </c>
+      <c r="H150" t="n">
         <v>52.68633333333332</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5663,18 +6115,21 @@
         <v>200</v>
       </c>
       <c r="G151" t="n">
+        <v>52.59133333333337</v>
+      </c>
+      <c r="H151" t="n">
         <v>52.68233333333331</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5698,18 +6153,21 @@
         <v>491.3295</v>
       </c>
       <c r="G152" t="n">
+        <v>52.5806666666667</v>
+      </c>
+      <c r="H152" t="n">
         <v>52.67833333333331</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5733,18 +6191,21 @@
         <v>29.004</v>
       </c>
       <c r="G153" t="n">
+        <v>52.57333333333337</v>
+      </c>
+      <c r="H153" t="n">
         <v>52.67466666666665</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5768,18 +6229,21 @@
         <v>448.4394</v>
       </c>
       <c r="G154" t="n">
+        <v>52.5726666666667</v>
+      </c>
+      <c r="H154" t="n">
         <v>52.67266666666664</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5803,18 +6267,21 @@
         <v>7496.0688</v>
       </c>
       <c r="G155" t="n">
+        <v>52.56400000000004</v>
+      </c>
+      <c r="H155" t="n">
         <v>52.66866666666665</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
+      <c r="M155" t="inlineStr"/>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5838,18 +6305,21 @@
         <v>2570.2454</v>
       </c>
       <c r="G156" t="n">
+        <v>52.55533333333337</v>
+      </c>
+      <c r="H156" t="n">
         <v>52.66499999999997</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5873,18 +6343,21 @@
         <v>999.9999</v>
       </c>
       <c r="G157" t="n">
+        <v>52.55066666666669</v>
+      </c>
+      <c r="H157" t="n">
         <v>52.66249999999998</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5908,18 +6381,21 @@
         <v>11470.4172</v>
       </c>
       <c r="G158" t="n">
+        <v>52.54200000000003</v>
+      </c>
+      <c r="H158" t="n">
         <v>52.66049999999997</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5943,18 +6419,21 @@
         <v>44.9064</v>
       </c>
       <c r="G159" t="n">
+        <v>52.53400000000003</v>
+      </c>
+      <c r="H159" t="n">
         <v>52.65549999999997</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
+      <c r="M159" t="inlineStr"/>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5978,18 +6457,21 @@
         <v>35728.1028</v>
       </c>
       <c r="G160" t="n">
+        <v>52.52733333333336</v>
+      </c>
+      <c r="H160" t="n">
         <v>52.65049999999997</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
+      <c r="M160" t="inlineStr"/>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6013,18 +6495,21 @@
         <v>6164.36</v>
       </c>
       <c r="G161" t="n">
+        <v>52.52533333333336</v>
+      </c>
+      <c r="H161" t="n">
         <v>52.64649999999996</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
+      <c r="M161" t="inlineStr"/>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6048,18 +6533,21 @@
         <v>6384.9151</v>
       </c>
       <c r="G162" t="n">
+        <v>52.51533333333337</v>
+      </c>
+      <c r="H162" t="n">
         <v>52.64249999999996</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
+      <c r="M162" t="inlineStr"/>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6083,18 +6571,21 @@
         <v>1087</v>
       </c>
       <c r="G163" t="n">
+        <v>52.51000000000003</v>
+      </c>
+      <c r="H163" t="n">
         <v>52.63766666666663</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
+      <c r="M163" t="inlineStr"/>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6118,18 +6609,21 @@
         <v>104.6133</v>
       </c>
       <c r="G164" t="n">
+        <v>52.50533333333336</v>
+      </c>
+      <c r="H164" t="n">
         <v>52.63283333333329</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
+      <c r="M164" t="inlineStr"/>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6153,18 +6647,21 @@
         <v>4943.548</v>
       </c>
       <c r="G165" t="n">
+        <v>52.50600000000002</v>
+      </c>
+      <c r="H165" t="n">
         <v>52.62599999999996</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
+      <c r="M165" t="inlineStr"/>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6188,18 +6685,21 @@
         <v>14500</v>
       </c>
       <c r="G166" t="n">
+        <v>52.50133333333336</v>
+      </c>
+      <c r="H166" t="n">
         <v>52.61916666666663</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
+      <c r="M166" t="inlineStr"/>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6223,18 +6723,21 @@
         <v>6386.9</v>
       </c>
       <c r="G167" t="n">
+        <v>52.49666666666668</v>
+      </c>
+      <c r="H167" t="n">
         <v>52.6123333333333</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
+      <c r="M167" t="inlineStr"/>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6258,18 +6761,21 @@
         <v>29913.4999</v>
       </c>
       <c r="G168" t="n">
+        <v>52.49066666666668</v>
+      </c>
+      <c r="H168" t="n">
         <v>52.60599999999997</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
+      <c r="M168" t="inlineStr"/>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6293,18 +6799,21 @@
         <v>26326.2167</v>
       </c>
       <c r="G169" t="n">
+        <v>52.47800000000002</v>
+      </c>
+      <c r="H169" t="n">
         <v>52.60066666666663</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
+      <c r="M169" t="inlineStr"/>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6328,18 +6837,21 @@
         <v>465.1994</v>
       </c>
       <c r="G170" t="n">
+        <v>52.47333333333334</v>
+      </c>
+      <c r="H170" t="n">
         <v>52.59516666666664</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
       <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
+      <c r="M170" t="inlineStr"/>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6363,18 +6875,21 @@
         <v>91423.24400000001</v>
       </c>
       <c r="G171" t="n">
+        <v>52.468</v>
+      </c>
+      <c r="H171" t="n">
         <v>52.5893333333333</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
       <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
+      <c r="M171" t="inlineStr"/>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6398,18 +6913,21 @@
         <v>13653.1017</v>
       </c>
       <c r="G172" t="n">
+        <v>52.45800000000001</v>
+      </c>
+      <c r="H172" t="n">
         <v>52.58149999999997</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
       <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
+      <c r="M172" t="inlineStr"/>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6433,18 +6951,21 @@
         <v>20658.4404</v>
       </c>
       <c r="G173" t="n">
+        <v>52.45200000000001</v>
+      </c>
+      <c r="H173" t="n">
         <v>52.57566666666663</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
       <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
+      <c r="M173" t="inlineStr"/>
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6468,18 +6989,21 @@
         <v>69526.13649999999</v>
       </c>
       <c r="G174" t="n">
+        <v>52.43866666666667</v>
+      </c>
+      <c r="H174" t="n">
         <v>52.56816666666664</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
       <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
+      <c r="M174" t="inlineStr"/>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6503,18 +7027,21 @@
         <v>4253.4716</v>
       </c>
       <c r="G175" t="n">
+        <v>52.42133333333334</v>
+      </c>
+      <c r="H175" t="n">
         <v>52.55966666666664</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
       <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
+      <c r="M175" t="inlineStr"/>
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6538,18 +7065,21 @@
         <v>4187.286</v>
       </c>
       <c r="G176" t="n">
+        <v>52.404</v>
+      </c>
+      <c r="H176" t="n">
         <v>52.55283333333331</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
       <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
+      <c r="M176" t="inlineStr"/>
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6573,18 +7103,21 @@
         <v>3691.441</v>
       </c>
       <c r="G177" t="n">
+        <v>52.39266666666667</v>
+      </c>
+      <c r="H177" t="n">
         <v>52.54633333333332</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
       <c r="K177" t="inlineStr"/>
       <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
+      <c r="M177" t="inlineStr"/>
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6608,18 +7141,21 @@
         <v>11260.7396</v>
       </c>
       <c r="G178" t="n">
+        <v>52.37933333333334</v>
+      </c>
+      <c r="H178" t="n">
         <v>52.54016666666665</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
       <c r="K178" t="inlineStr"/>
       <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
+      <c r="M178" t="inlineStr"/>
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6643,18 +7179,21 @@
         <v>23352.7279</v>
       </c>
       <c r="G179" t="n">
+        <v>52.36333333333334</v>
+      </c>
+      <c r="H179" t="n">
         <v>52.53333333333332</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
       <c r="K179" t="inlineStr"/>
       <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
+      <c r="M179" t="inlineStr"/>
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6678,18 +7217,21 @@
         <v>1370.8149</v>
       </c>
       <c r="G180" t="n">
+        <v>52.34866666666668</v>
+      </c>
+      <c r="H180" t="n">
         <v>52.52533333333331</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
       <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
+      <c r="M180" t="inlineStr"/>
+      <c r="N180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6713,18 +7255,21 @@
         <v>19754.2831</v>
       </c>
       <c r="G181" t="n">
+        <v>52.32933333333335</v>
+      </c>
+      <c r="H181" t="n">
         <v>52.51683333333332</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
       <c r="K181" t="inlineStr"/>
       <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
+      <c r="M181" t="inlineStr"/>
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6748,18 +7293,21 @@
         <v>1340.9399</v>
       </c>
       <c r="G182" t="n">
+        <v>52.30866666666669</v>
+      </c>
+      <c r="H182" t="n">
         <v>52.50699999999999</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
       <c r="K182" t="inlineStr"/>
       <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
+      <c r="M182" t="inlineStr"/>
+      <c r="N182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6783,18 +7331,21 @@
         <v>16652.9405</v>
       </c>
       <c r="G183" t="n">
+        <v>52.28533333333336</v>
+      </c>
+      <c r="H183" t="n">
         <v>52.49566666666666</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
       <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
+      <c r="M183" t="inlineStr"/>
+      <c r="N183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6818,18 +7369,21 @@
         <v>3471.3327</v>
       </c>
       <c r="G184" t="n">
+        <v>52.2646666666667</v>
+      </c>
+      <c r="H184" t="n">
         <v>52.4835</v>
       </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
       <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
+      <c r="M184" t="inlineStr"/>
+      <c r="N184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6853,18 +7407,21 @@
         <v>26469.9</v>
       </c>
       <c r="G185" t="n">
+        <v>52.2366666666667</v>
+      </c>
+      <c r="H185" t="n">
         <v>52.47033333333333</v>
       </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
       <c r="K185" t="inlineStr"/>
       <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
+      <c r="M185" t="inlineStr"/>
+      <c r="N185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6888,22 +7445,21 @@
         <v>18245.5416</v>
       </c>
       <c r="G186" t="n">
+        <v>52.22133333333337</v>
+      </c>
+      <c r="H186" t="n">
         <v>52.46366666666666</v>
       </c>
-      <c r="H186" t="n">
-        <v>1</v>
-      </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
       <c r="J186" t="n">
-        <v>52</v>
-      </c>
-      <c r="K186" t="n">
-        <v>52</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
+      <c r="M186" t="inlineStr"/>
+      <c r="N186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6927,139 +7483,155 @@
         <v>11506.594</v>
       </c>
       <c r="G187" t="n">
+        <v>52.1946666666667</v>
+      </c>
+      <c r="H187" t="n">
         <v>52.45433333333333</v>
       </c>
-      <c r="H187" t="n">
-        <v>1</v>
-      </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
       <c r="J187" t="n">
-        <v>52.18</v>
-      </c>
-      <c r="K187" t="n">
+        <v>0</v>
+      </c>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="inlineStr"/>
+      <c r="N187" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
         <v>52</v>
       </c>
-      <c r="L187" t="inlineStr">
+      <c r="C188" t="n">
+        <v>52</v>
+      </c>
+      <c r="D188" t="n">
+        <v>52</v>
+      </c>
+      <c r="E188" t="n">
+        <v>52</v>
+      </c>
+      <c r="F188" t="n">
+        <v>117401.2399</v>
+      </c>
+      <c r="G188" t="n">
+        <v>52.16800000000003</v>
+      </c>
+      <c r="H188" t="n">
+        <v>52.44516666666666</v>
+      </c>
+      <c r="I188" t="n">
+        <v>1</v>
+      </c>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
+      <c r="K188" t="n">
+        <v>52</v>
+      </c>
+      <c r="L188" t="n">
+        <v>52</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
+      <c r="N188" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>52.2</v>
+      </c>
+      <c r="C189" t="n">
+        <v>52.2</v>
+      </c>
+      <c r="D189" t="n">
+        <v>52.2</v>
+      </c>
+      <c r="E189" t="n">
+        <v>52.2</v>
+      </c>
+      <c r="F189" t="n">
+        <v>95.7855</v>
+      </c>
+      <c r="G189" t="n">
+        <v>52.16133333333337</v>
+      </c>
+      <c r="H189" t="n">
+        <v>52.43933333333332</v>
+      </c>
+      <c r="I189" t="n">
+        <v>1</v>
+      </c>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
+      <c r="K189" t="n">
+        <v>52</v>
+      </c>
+      <c r="L189" t="n">
+        <v>52</v>
+      </c>
+      <c r="M189" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
+      <c r="N189" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>52.06</v>
+      </c>
+      <c r="C190" t="n">
+        <v>52.06</v>
+      </c>
+      <c r="D190" t="n">
+        <v>52.06</v>
+      </c>
+      <c r="E190" t="n">
+        <v>52.06</v>
+      </c>
+      <c r="F190" t="n">
+        <v>6435.7348</v>
+      </c>
+      <c r="G190" t="n">
+        <v>52.15000000000005</v>
+      </c>
+      <c r="H190" t="n">
+        <v>52.43166666666665</v>
+      </c>
+      <c r="I190" t="n">
+        <v>1</v>
+      </c>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
+      <c r="K190" t="n">
+        <v>52.2</v>
+      </c>
+      <c r="L190" t="n">
         <v>52</v>
       </c>
-      <c r="C188" t="n">
-        <v>52</v>
-      </c>
-      <c r="D188" t="n">
-        <v>52</v>
-      </c>
-      <c r="E188" t="n">
-        <v>52</v>
-      </c>
-      <c r="F188" t="n">
-        <v>117401.2399</v>
-      </c>
-      <c r="G188" t="n">
-        <v>52.44516666666666</v>
-      </c>
-      <c r="H188" t="n">
-        <v>1</v>
-      </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
-      <c r="J188" t="n">
-        <v>52</v>
-      </c>
-      <c r="K188" t="n">
-        <v>52</v>
-      </c>
-      <c r="L188" t="inlineStr">
+      <c r="M190" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>52.2</v>
-      </c>
-      <c r="C189" t="n">
-        <v>52.2</v>
-      </c>
-      <c r="D189" t="n">
-        <v>52.2</v>
-      </c>
-      <c r="E189" t="n">
-        <v>52.2</v>
-      </c>
-      <c r="F189" t="n">
-        <v>95.7855</v>
-      </c>
-      <c r="G189" t="n">
-        <v>52.43933333333332</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>52.06</v>
-      </c>
-      <c r="C190" t="n">
-        <v>52.06</v>
-      </c>
-      <c r="D190" t="n">
-        <v>52.06</v>
-      </c>
-      <c r="E190" t="n">
-        <v>52.06</v>
-      </c>
-      <c r="F190" t="n">
-        <v>6435.7348</v>
-      </c>
-      <c r="G190" t="n">
-        <v>52.43166666666665</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
+      <c r="N190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7083,18 +7655,25 @@
         <v>10014.9758</v>
       </c>
       <c r="G191" t="n">
+        <v>52.14933333333338</v>
+      </c>
+      <c r="H191" t="n">
         <v>52.42433333333332</v>
       </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
       <c r="I191" t="n">
-        <v>0</v>
-      </c>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
+      <c r="K191" t="n">
+        <v>52.06</v>
+      </c>
+      <c r="L191" t="n">
+        <v>52.06</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
+      <c r="N191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7118,18 +7697,29 @@
         <v>989.7</v>
       </c>
       <c r="G192" t="n">
+        <v>52.14800000000004</v>
+      </c>
+      <c r="H192" t="n">
         <v>52.41783333333332</v>
       </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
       <c r="I192" t="n">
-        <v>0</v>
-      </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
+        <v>1</v>
+      </c>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
+      <c r="K192" t="n">
+        <v>52.22</v>
+      </c>
+      <c r="L192" t="n">
+        <v>52.06</v>
+      </c>
+      <c r="M192" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7153,18 +7743,29 @@
         <v>28183.7552</v>
       </c>
       <c r="G193" t="n">
+        <v>52.14600000000004</v>
+      </c>
+      <c r="H193" t="n">
         <v>52.41233333333332</v>
       </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
       <c r="I193" t="n">
-        <v>0</v>
-      </c>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
+        <v>1</v>
+      </c>
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
+      <c r="K193" t="n">
+        <v>52.3</v>
+      </c>
+      <c r="L193" t="n">
+        <v>52.06</v>
+      </c>
+      <c r="M193" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7188,18 +7789,29 @@
         <v>50062.4595</v>
       </c>
       <c r="G194" t="n">
+        <v>52.14466666666671</v>
+      </c>
+      <c r="H194" t="n">
         <v>52.40633333333333</v>
       </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
       <c r="I194" t="n">
-        <v>0</v>
-      </c>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
+        <v>1</v>
+      </c>
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
+      <c r="K194" t="n">
+        <v>52.31</v>
+      </c>
+      <c r="L194" t="n">
+        <v>52.06</v>
+      </c>
+      <c r="M194" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N194" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7223,18 +7835,29 @@
         <v>43415.4094</v>
       </c>
       <c r="G195" t="n">
+        <v>52.1586666666667</v>
+      </c>
+      <c r="H195" t="n">
         <v>52.40333333333332</v>
       </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
       <c r="I195" t="n">
-        <v>0</v>
-      </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
+        <v>1</v>
+      </c>
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
+      <c r="K195" t="n">
+        <v>52.28</v>
+      </c>
+      <c r="L195" t="n">
+        <v>52.06</v>
+      </c>
+      <c r="M195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N195" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7258,18 +7881,29 @@
         <v>20920.7414</v>
       </c>
       <c r="G196" t="n">
+        <v>52.1786666666667</v>
+      </c>
+      <c r="H196" t="n">
         <v>52.40016666666666</v>
       </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
       <c r="I196" t="n">
-        <v>0</v>
-      </c>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
+      <c r="K196" t="n">
+        <v>52.41</v>
+      </c>
+      <c r="L196" t="n">
+        <v>52.06</v>
+      </c>
+      <c r="M196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N196" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7293,18 +7927,29 @@
         <v>12835.0054</v>
       </c>
       <c r="G197" t="n">
+        <v>52.20000000000003</v>
+      </c>
+      <c r="H197" t="n">
         <v>52.39649999999998</v>
       </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
       <c r="I197" t="n">
-        <v>0</v>
-      </c>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
+        <v>1</v>
+      </c>
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
+      <c r="K197" t="n">
+        <v>52.43</v>
+      </c>
+      <c r="L197" t="n">
+        <v>52.06</v>
+      </c>
+      <c r="M197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N197" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7328,18 +7973,29 @@
         <v>6249.999</v>
       </c>
       <c r="G198" t="n">
+        <v>52.22333333333336</v>
+      </c>
+      <c r="H198" t="n">
         <v>52.39316666666665</v>
       </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
       <c r="I198" t="n">
-        <v>0</v>
-      </c>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
+        <v>1</v>
+      </c>
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
+      <c r="K198" t="n">
+        <v>52.43</v>
+      </c>
+      <c r="L198" t="n">
+        <v>52.06</v>
+      </c>
+      <c r="M198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N198" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7363,18 +8019,29 @@
         <v>5652.6423</v>
       </c>
       <c r="G199" t="n">
+        <v>52.25000000000002</v>
+      </c>
+      <c r="H199" t="n">
         <v>52.39133333333333</v>
       </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
       <c r="I199" t="n">
-        <v>0</v>
-      </c>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
+        <v>1</v>
+      </c>
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
+      <c r="K199" t="n">
+        <v>52.42</v>
+      </c>
+      <c r="L199" t="n">
+        <v>52.06</v>
+      </c>
+      <c r="M199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N199" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7398,18 +8065,27 @@
         <v>20</v>
       </c>
       <c r="G200" t="n">
+        <v>52.29266666666669</v>
+      </c>
+      <c r="H200" t="n">
         <v>52.39166666666666</v>
       </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
+      <c r="L200" t="n">
+        <v>52.06</v>
+      </c>
+      <c r="M200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N200" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7433,18 +8109,27 @@
         <v>749</v>
       </c>
       <c r="G201" t="n">
+        <v>52.31600000000002</v>
+      </c>
+      <c r="H201" t="n">
         <v>52.39016666666667</v>
       </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
+      <c r="L201" t="n">
+        <v>52.06</v>
+      </c>
+      <c r="M201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N201" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7468,18 +8153,27 @@
         <v>7395.9589</v>
       </c>
       <c r="G202" t="n">
+        <v>52.35600000000002</v>
+      </c>
+      <c r="H202" t="n">
         <v>52.38983333333333</v>
       </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
+      <c r="L202" t="n">
+        <v>52.06</v>
+      </c>
+      <c r="M202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N202" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7503,18 +8197,27 @@
         <v>4068.6906</v>
       </c>
       <c r="G203" t="n">
+        <v>52.40533333333336</v>
+      </c>
+      <c r="H203" t="n">
         <v>52.39183333333333</v>
       </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
+      <c r="L203" t="n">
+        <v>52.06</v>
+      </c>
+      <c r="M203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N203" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7538,18 +8241,27 @@
         <v>406.53</v>
       </c>
       <c r="G204" t="n">
+        <v>52.44133333333335</v>
+      </c>
+      <c r="H204" t="n">
         <v>52.39383333333333</v>
       </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
+      <c r="L204" t="n">
+        <v>52.06</v>
+      </c>
+      <c r="M204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N204" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7573,18 +8285,27 @@
         <v>1954.8221</v>
       </c>
       <c r="G205" t="n">
+        <v>52.48000000000002</v>
+      </c>
+      <c r="H205" t="n">
         <v>52.39466666666666</v>
       </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
+      <c r="L205" t="n">
+        <v>52.06</v>
+      </c>
+      <c r="M205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N205" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7608,18 +8329,27 @@
         <v>1185.6</v>
       </c>
       <c r="G206" t="n">
+        <v>52.49133333333335</v>
+      </c>
+      <c r="H206" t="n">
         <v>52.39249999999999</v>
       </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
+      <c r="L206" t="n">
+        <v>52.06</v>
+      </c>
+      <c r="M206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N206" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7643,18 +8373,29 @@
         <v>23983.1026</v>
       </c>
       <c r="G207" t="n">
+        <v>52.49000000000002</v>
+      </c>
+      <c r="H207" t="n">
         <v>52.38649999999999</v>
       </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
       <c r="I207" t="n">
-        <v>0</v>
-      </c>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
+        <v>1</v>
+      </c>
+      <c r="J207" t="n">
+        <v>0</v>
+      </c>
+      <c r="K207" t="n">
+        <v>52.39</v>
+      </c>
+      <c r="L207" t="n">
+        <v>52.06</v>
+      </c>
+      <c r="M207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N207" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7678,18 +8419,29 @@
         <v>846</v>
       </c>
       <c r="G208" t="n">
+        <v>52.49000000000002</v>
+      </c>
+      <c r="H208" t="n">
         <v>52.38133333333333</v>
       </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
       <c r="I208" t="n">
-        <v>0</v>
-      </c>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
+        <v>1</v>
+      </c>
+      <c r="J208" t="n">
+        <v>0</v>
+      </c>
+      <c r="K208" t="n">
+        <v>52.28</v>
+      </c>
+      <c r="L208" t="n">
+        <v>52.06</v>
+      </c>
+      <c r="M208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N208" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7713,18 +8465,29 @@
         <v>14237.7617</v>
       </c>
       <c r="G209" t="n">
+        <v>52.4946666666667</v>
+      </c>
+      <c r="H209" t="n">
         <v>52.37699999999999</v>
       </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
       <c r="I209" t="n">
-        <v>0</v>
-      </c>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
+        <v>1</v>
+      </c>
+      <c r="J209" t="n">
+        <v>0</v>
+      </c>
+      <c r="K209" t="n">
+        <v>52.31</v>
+      </c>
+      <c r="L209" t="n">
+        <v>52.06</v>
+      </c>
+      <c r="M209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N209" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7748,18 +8511,29 @@
         <v>36017.7302</v>
       </c>
       <c r="G210" t="n">
+        <v>52.4826666666667</v>
+      </c>
+      <c r="H210" t="n">
         <v>52.374</v>
       </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
       <c r="I210" t="n">
-        <v>0</v>
-      </c>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
+        <v>1</v>
+      </c>
+      <c r="J210" t="n">
+        <v>0</v>
+      </c>
+      <c r="K210" t="n">
+        <v>52.35</v>
+      </c>
+      <c r="L210" t="n">
+        <v>52.06</v>
+      </c>
+      <c r="M210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N210" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7783,18 +8557,29 @@
         <v>4048.9836</v>
       </c>
       <c r="G211" t="n">
+        <v>52.4626666666667</v>
+      </c>
+      <c r="H211" t="n">
         <v>52.368</v>
       </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
       <c r="I211" t="n">
-        <v>0</v>
-      </c>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
+        <v>1</v>
+      </c>
+      <c r="J211" t="n">
+        <v>0</v>
+      </c>
+      <c r="K211" t="n">
+        <v>52.23</v>
+      </c>
+      <c r="L211" t="n">
+        <v>52.06</v>
+      </c>
+      <c r="M211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N211" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7818,18 +8603,29 @@
         <v>85726.1923</v>
       </c>
       <c r="G212" t="n">
+        <v>52.45800000000004</v>
+      </c>
+      <c r="H212" t="n">
         <v>52.36583333333333</v>
       </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
       <c r="I212" t="n">
-        <v>0</v>
-      </c>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
+        <v>1</v>
+      </c>
+      <c r="J212" t="n">
+        <v>0</v>
+      </c>
+      <c r="K212" t="n">
+        <v>52.13</v>
+      </c>
+      <c r="L212" t="n">
+        <v>52.06</v>
+      </c>
+      <c r="M212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N212" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7853,18 +8649,29 @@
         <v>5582.8384</v>
       </c>
       <c r="G213" t="n">
+        <v>52.45666666666671</v>
+      </c>
+      <c r="H213" t="n">
         <v>52.364</v>
       </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
       <c r="I213" t="n">
-        <v>0</v>
-      </c>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
+        <v>1</v>
+      </c>
+      <c r="J213" t="n">
+        <v>0</v>
+      </c>
+      <c r="K213" t="n">
+        <v>52.36</v>
+      </c>
+      <c r="L213" t="n">
+        <v>52.06</v>
+      </c>
+      <c r="M213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N213" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7888,18 +8695,29 @@
         <v>923.4645</v>
       </c>
       <c r="G214" t="n">
+        <v>52.45333333333338</v>
+      </c>
+      <c r="H214" t="n">
         <v>52.3615</v>
       </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
       <c r="I214" t="n">
-        <v>0</v>
-      </c>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
+        <v>1</v>
+      </c>
+      <c r="J214" t="n">
+        <v>0</v>
+      </c>
+      <c r="K214" t="n">
+        <v>52.4</v>
+      </c>
+      <c r="L214" t="n">
+        <v>52.06</v>
+      </c>
+      <c r="M214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N214" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7923,18 +8741,27 @@
         <v>200</v>
       </c>
       <c r="G215" t="n">
+        <v>52.42866666666671</v>
+      </c>
+      <c r="H215" t="n">
         <v>52.35783333333334</v>
       </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
-      <c r="J215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>0</v>
+      </c>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
+      <c r="L215" t="n">
+        <v>52.06</v>
+      </c>
+      <c r="M215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N215" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7958,18 +8785,27 @@
         <v>5698.82199642</v>
       </c>
       <c r="G216" t="n">
+        <v>52.43666666666671</v>
+      </c>
+      <c r="H216" t="n">
         <v>52.36050000000001</v>
       </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
       <c r="I216" t="n">
         <v>0</v>
       </c>
-      <c r="J216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>0</v>
+      </c>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
+      <c r="L216" t="n">
+        <v>52.06</v>
+      </c>
+      <c r="M216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N216" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7993,18 +8829,27 @@
         <v>73468.1477</v>
       </c>
       <c r="G217" t="n">
+        <v>52.45200000000004</v>
+      </c>
+      <c r="H217" t="n">
         <v>52.36516666666667</v>
       </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
       <c r="I217" t="n">
         <v>0</v>
       </c>
-      <c r="J217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>0</v>
+      </c>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
+      <c r="L217" t="n">
+        <v>52.06</v>
+      </c>
+      <c r="M217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N217" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8028,18 +8873,27 @@
         <v>1005</v>
       </c>
       <c r="G218" t="n">
+        <v>52.44200000000004</v>
+      </c>
+      <c r="H218" t="n">
         <v>52.36683333333335</v>
       </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
       <c r="I218" t="n">
         <v>0</v>
       </c>
-      <c r="J218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>0</v>
+      </c>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
+      <c r="L218" t="n">
+        <v>52.06</v>
+      </c>
+      <c r="M218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N218" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8063,18 +8917,27 @@
         <v>1005</v>
       </c>
       <c r="G219" t="n">
+        <v>52.43933333333338</v>
+      </c>
+      <c r="H219" t="n">
         <v>52.37016666666668</v>
       </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
-      <c r="J219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>0</v>
+      </c>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
+      <c r="L219" t="n">
+        <v>52.06</v>
+      </c>
+      <c r="M219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N219" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8098,18 +8961,27 @@
         <v>31026.4114</v>
       </c>
       <c r="G220" t="n">
+        <v>52.45066666666672</v>
+      </c>
+      <c r="H220" t="n">
         <v>52.37550000000001</v>
       </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
       <c r="I220" t="n">
         <v>0</v>
       </c>
-      <c r="J220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>0</v>
+      </c>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
+      <c r="L220" t="n">
+        <v>52.06</v>
+      </c>
+      <c r="M220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N220" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8133,18 +9005,27 @@
         <v>424.531</v>
       </c>
       <c r="G221" t="n">
+        <v>52.49133333333339</v>
+      </c>
+      <c r="H221" t="n">
         <v>52.38400000000001</v>
       </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
       <c r="I221" t="n">
         <v>0</v>
       </c>
-      <c r="J221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>0</v>
+      </c>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
+      <c r="L221" t="n">
+        <v>52.06</v>
+      </c>
+      <c r="M221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N221" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8168,18 +9049,27 @@
         <v>52706.9993</v>
       </c>
       <c r="G222" t="n">
+        <v>52.5273333333334</v>
+      </c>
+      <c r="H222" t="n">
         <v>52.38950000000002</v>
       </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
       <c r="I222" t="n">
         <v>0</v>
       </c>
-      <c r="J222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>0</v>
+      </c>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
+      <c r="L222" t="n">
+        <v>52.06</v>
+      </c>
+      <c r="M222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N222" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8203,18 +9093,27 @@
         <v>23.6743</v>
       </c>
       <c r="G223" t="n">
+        <v>52.56000000000005</v>
+      </c>
+      <c r="H223" t="n">
         <v>52.39383333333335</v>
       </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
       <c r="I223" t="n">
         <v>0</v>
       </c>
-      <c r="J223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>0</v>
+      </c>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
+      <c r="L223" t="n">
+        <v>52.06</v>
+      </c>
+      <c r="M223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N223" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8238,18 +9137,27 @@
         <v>2921</v>
       </c>
       <c r="G224" t="n">
+        <v>52.59466666666672</v>
+      </c>
+      <c r="H224" t="n">
         <v>52.39933333333336</v>
       </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
       <c r="I224" t="n">
         <v>0</v>
       </c>
-      <c r="J224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>0</v>
+      </c>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
+      <c r="L224" t="n">
+        <v>52.06</v>
+      </c>
+      <c r="M224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N224" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8273,18 +9181,27 @@
         <v>518.4417</v>
       </c>
       <c r="G225" t="n">
+        <v>52.65266666666672</v>
+      </c>
+      <c r="H225" t="n">
         <v>52.41066666666669</v>
       </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
       <c r="I225" t="n">
         <v>0</v>
       </c>
-      <c r="J225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>0</v>
+      </c>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
+      <c r="L225" t="n">
+        <v>52.06</v>
+      </c>
+      <c r="M225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N225" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8308,18 +9225,27 @@
         <v>50</v>
       </c>
       <c r="G226" t="n">
+        <v>52.71733333333339</v>
+      </c>
+      <c r="H226" t="n">
         <v>52.42200000000002</v>
       </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
       <c r="I226" t="n">
         <v>0</v>
       </c>
-      <c r="J226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>0</v>
+      </c>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
+      <c r="L226" t="n">
+        <v>52.06</v>
+      </c>
+      <c r="M226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N226" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8343,18 +9269,27 @@
         <v>769.5922</v>
       </c>
       <c r="G227" t="n">
+        <v>52.76000000000005</v>
+      </c>
+      <c r="H227" t="n">
         <v>52.43166666666669</v>
       </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
       <c r="I227" t="n">
         <v>0</v>
       </c>
-      <c r="J227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>0</v>
+      </c>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
+      <c r="L227" t="n">
+        <v>52.06</v>
+      </c>
+      <c r="M227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N227" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8378,18 +9313,27 @@
         <v>23.4078</v>
       </c>
       <c r="G228" t="n">
+        <v>52.80000000000005</v>
+      </c>
+      <c r="H228" t="n">
         <v>52.44133333333335</v>
       </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
       <c r="I228" t="n">
         <v>0</v>
       </c>
-      <c r="J228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>0</v>
+      </c>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
+      <c r="L228" t="n">
+        <v>52.06</v>
+      </c>
+      <c r="M228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N228" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8413,18 +9357,27 @@
         <v>20155.9805</v>
       </c>
       <c r="G229" t="n">
+        <v>52.86266666666672</v>
+      </c>
+      <c r="H229" t="n">
         <v>52.45766666666668</v>
       </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
       <c r="I229" t="n">
         <v>0</v>
       </c>
-      <c r="J229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>0</v>
+      </c>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
+      <c r="L229" t="n">
+        <v>52.06</v>
+      </c>
+      <c r="M229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N229" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8448,18 +9401,27 @@
         <v>30776.122</v>
       </c>
       <c r="G230" t="n">
+        <v>52.94466666666672</v>
+      </c>
+      <c r="H230" t="n">
         <v>52.47566666666668</v>
       </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
       <c r="I230" t="n">
         <v>0</v>
       </c>
-      <c r="J230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>0</v>
+      </c>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
+      <c r="L230" t="n">
+        <v>52.06</v>
+      </c>
+      <c r="M230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N230" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8483,18 +9445,27 @@
         <v>36761.784</v>
       </c>
       <c r="G231" t="n">
+        <v>53.00133333333338</v>
+      </c>
+      <c r="H231" t="n">
         <v>52.49383333333335</v>
       </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
       <c r="I231" t="n">
         <v>0</v>
       </c>
-      <c r="J231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>0</v>
+      </c>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
+      <c r="L231" t="n">
+        <v>52.06</v>
+      </c>
+      <c r="M231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N231" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8518,18 +9489,27 @@
         <v>16906.2112</v>
       </c>
       <c r="G232" t="n">
+        <v>53.04600000000005</v>
+      </c>
+      <c r="H232" t="n">
         <v>52.51216666666668</v>
       </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
       <c r="I232" t="n">
         <v>0</v>
       </c>
-      <c r="J232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>0</v>
+      </c>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
+      <c r="L232" t="n">
+        <v>52.06</v>
+      </c>
+      <c r="M232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N232" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8553,18 +9533,27 @@
         <v>45000</v>
       </c>
       <c r="G233" t="n">
+        <v>53.08866666666672</v>
+      </c>
+      <c r="H233" t="n">
         <v>52.52600000000002</v>
       </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
       <c r="I233" t="n">
-        <v>1</v>
-      </c>
-      <c r="J233" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J233" t="n">
+        <v>0</v>
+      </c>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
+      <c r="L233" t="n">
+        <v>52.06</v>
+      </c>
+      <c r="M233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N233" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8588,18 +9577,27 @@
         <v>44314.2822</v>
       </c>
       <c r="G234" t="n">
+        <v>53.12200000000005</v>
+      </c>
+      <c r="H234" t="n">
         <v>52.54100000000001</v>
       </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
       <c r="I234" t="n">
-        <v>1</v>
-      </c>
-      <c r="J234" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J234" t="n">
+        <v>0</v>
+      </c>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
+      <c r="L234" t="n">
+        <v>52.06</v>
+      </c>
+      <c r="M234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N234" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8623,18 +9621,27 @@
         <v>12058.3296</v>
       </c>
       <c r="G235" t="n">
+        <v>53.14800000000005</v>
+      </c>
+      <c r="H235" t="n">
         <v>52.55716666666667</v>
       </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
       <c r="I235" t="n">
-        <v>1</v>
-      </c>
-      <c r="J235" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J235" t="n">
+        <v>0</v>
+      </c>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
+      <c r="L235" t="n">
+        <v>52.06</v>
+      </c>
+      <c r="M235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N235" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8658,18 +9665,27 @@
         <v>7474.9203</v>
       </c>
       <c r="G236" t="n">
+        <v>53.16133333333338</v>
+      </c>
+      <c r="H236" t="n">
         <v>52.57333333333334</v>
       </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
       <c r="I236" t="n">
         <v>0</v>
       </c>
-      <c r="J236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>0</v>
+      </c>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
+      <c r="L236" t="n">
+        <v>52.06</v>
+      </c>
+      <c r="M236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N236" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8693,18 +9709,27 @@
         <v>35525.6065</v>
       </c>
       <c r="G237" t="n">
+        <v>53.19933333333338</v>
+      </c>
+      <c r="H237" t="n">
         <v>52.59116666666667</v>
       </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
       <c r="I237" t="n">
         <v>0</v>
       </c>
-      <c r="J237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>0</v>
+      </c>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
+      <c r="L237" t="n">
+        <v>52.06</v>
+      </c>
+      <c r="M237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N237" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8728,18 +9753,27 @@
         <v>4694.7509</v>
       </c>
       <c r="G238" t="n">
+        <v>53.23466666666672</v>
+      </c>
+      <c r="H238" t="n">
         <v>52.60766666666666</v>
       </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
       <c r="I238" t="n">
         <v>0</v>
       </c>
-      <c r="J238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>0</v>
+      </c>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
+      <c r="L238" t="n">
+        <v>52.06</v>
+      </c>
+      <c r="M238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N238" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8763,18 +9797,27 @@
         <v>16761.0306</v>
       </c>
       <c r="G239" t="n">
+        <v>53.27400000000005</v>
+      </c>
+      <c r="H239" t="n">
         <v>52.62699999999999</v>
       </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
       <c r="I239" t="n">
         <v>0</v>
       </c>
-      <c r="J239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>0</v>
+      </c>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
+      <c r="L239" t="n">
+        <v>52.06</v>
+      </c>
+      <c r="M239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N239" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8798,18 +9841,27 @@
         <v>1232.3472</v>
       </c>
       <c r="G240" t="n">
+        <v>53.30066666666672</v>
+      </c>
+      <c r="H240" t="n">
         <v>52.64866666666666</v>
       </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
       <c r="I240" t="n">
         <v>0</v>
       </c>
-      <c r="J240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>0</v>
+      </c>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
+      <c r="L240" t="n">
+        <v>52.06</v>
+      </c>
+      <c r="M240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N240" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8833,18 +9885,27 @@
         <v>11164.9449</v>
       </c>
       <c r="G241" t="n">
+        <v>53.32933333333338</v>
+      </c>
+      <c r="H241" t="n">
         <v>52.672</v>
       </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
       <c r="I241" t="n">
         <v>0</v>
       </c>
-      <c r="J241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>0</v>
+      </c>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
+      <c r="L241" t="n">
+        <v>52.06</v>
+      </c>
+      <c r="M241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N241" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8868,18 +9929,27 @@
         <v>7378.8768</v>
       </c>
       <c r="G242" t="n">
+        <v>53.36600000000005</v>
+      </c>
+      <c r="H242" t="n">
         <v>52.696</v>
       </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
       <c r="I242" t="n">
         <v>0</v>
       </c>
-      <c r="J242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>0</v>
+      </c>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
+      <c r="L242" t="n">
+        <v>52.06</v>
+      </c>
+      <c r="M242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N242" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8903,18 +9973,27 @@
         <v>50500</v>
       </c>
       <c r="G243" t="n">
+        <v>53.39866666666671</v>
+      </c>
+      <c r="H243" t="n">
         <v>52.71966666666665</v>
       </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
       <c r="I243" t="n">
         <v>0</v>
       </c>
-      <c r="J243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>0</v>
+      </c>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
+      <c r="L243" t="n">
+        <v>52.06</v>
+      </c>
+      <c r="M243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N243" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8938,18 +10017,27 @@
         <v>300</v>
       </c>
       <c r="G244" t="n">
+        <v>53.40466666666671</v>
+      </c>
+      <c r="H244" t="n">
         <v>52.74266666666665</v>
       </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
       <c r="I244" t="n">
         <v>0</v>
       </c>
-      <c r="J244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>0</v>
+      </c>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
+      <c r="L244" t="n">
+        <v>52.06</v>
+      </c>
+      <c r="M244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N244" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8973,18 +10061,27 @@
         <v>300</v>
       </c>
       <c r="G245" t="n">
+        <v>53.40400000000005</v>
+      </c>
+      <c r="H245" t="n">
         <v>52.76749999999998</v>
       </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
       <c r="I245" t="n">
         <v>0</v>
       </c>
-      <c r="J245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>0</v>
+      </c>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
+      <c r="L245" t="n">
+        <v>52.06</v>
+      </c>
+      <c r="M245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N245" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9008,18 +10105,27 @@
         <v>4126.7494</v>
       </c>
       <c r="G246" t="n">
+        <v>53.40333333333339</v>
+      </c>
+      <c r="H246" t="n">
         <v>52.78933333333331</v>
       </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
       <c r="I246" t="n">
         <v>0</v>
       </c>
-      <c r="J246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>0</v>
+      </c>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
-      <c r="M246" t="n">
+      <c r="L246" t="n">
+        <v>52.06</v>
+      </c>
+      <c r="M246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N246" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9043,18 +10149,27 @@
         <v>623.2793</v>
       </c>
       <c r="G247" t="n">
+        <v>53.39466666666672</v>
+      </c>
+      <c r="H247" t="n">
         <v>52.81216666666664</v>
       </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
       <c r="I247" t="n">
         <v>0</v>
       </c>
-      <c r="J247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>0</v>
+      </c>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
-      <c r="M247" t="n">
+      <c r="L247" t="n">
+        <v>52.06</v>
+      </c>
+      <c r="M247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N247" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9078,18 +10193,27 @@
         <v>52827.3498</v>
       </c>
       <c r="G248" t="n">
+        <v>53.40400000000005</v>
+      </c>
+      <c r="H248" t="n">
         <v>52.83499999999997</v>
       </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
       <c r="I248" t="n">
         <v>0</v>
       </c>
-      <c r="J248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>0</v>
+      </c>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
-      <c r="M248" t="n">
+      <c r="L248" t="n">
+        <v>52.06</v>
+      </c>
+      <c r="M248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N248" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9113,18 +10237,27 @@
         <v>258</v>
       </c>
       <c r="G249" t="n">
+        <v>53.41600000000005</v>
+      </c>
+      <c r="H249" t="n">
         <v>52.85466666666665</v>
       </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
       <c r="I249" t="n">
         <v>0</v>
       </c>
-      <c r="J249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>0</v>
+      </c>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
-      <c r="M249" t="n">
+      <c r="L249" t="n">
+        <v>52.06</v>
+      </c>
+      <c r="M249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N249" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9148,18 +10281,27 @@
         <v>248017.2889</v>
       </c>
       <c r="G250" t="n">
+        <v>53.44333333333338</v>
+      </c>
+      <c r="H250" t="n">
         <v>52.88049999999998</v>
       </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
       <c r="I250" t="n">
         <v>0</v>
       </c>
-      <c r="J250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>0</v>
+      </c>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
-      <c r="M250" t="n">
+      <c r="L250" t="n">
+        <v>52.06</v>
+      </c>
+      <c r="M250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N250" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9183,18 +10325,27 @@
         <v>10000</v>
       </c>
       <c r="G251" t="n">
+        <v>53.47200000000004</v>
+      </c>
+      <c r="H251" t="n">
         <v>52.90399999999999</v>
       </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
       <c r="I251" t="n">
         <v>0</v>
       </c>
-      <c r="J251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>0</v>
+      </c>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
-      <c r="M251" t="n">
+      <c r="L251" t="n">
+        <v>52.06</v>
+      </c>
+      <c r="M251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N251" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9218,18 +10369,27 @@
         <v>27381.10426159</v>
       </c>
       <c r="G252" t="n">
+        <v>53.49866666666671</v>
+      </c>
+      <c r="H252" t="n">
         <v>52.92883333333332</v>
       </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
       <c r="I252" t="n">
         <v>0</v>
       </c>
-      <c r="J252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>0</v>
+      </c>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
-      <c r="M252" t="n">
+      <c r="L252" t="n">
+        <v>52.06</v>
+      </c>
+      <c r="M252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N252" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9253,18 +10413,27 @@
         <v>29499.2049</v>
       </c>
       <c r="G253" t="n">
+        <v>53.51600000000004</v>
+      </c>
+      <c r="H253" t="n">
         <v>52.95016666666665</v>
       </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
       <c r="I253" t="n">
         <v>0</v>
       </c>
-      <c r="J253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>0</v>
+      </c>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
-      <c r="M253" t="n">
+      <c r="L253" t="n">
+        <v>52.06</v>
+      </c>
+      <c r="M253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N253" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9288,18 +10457,27 @@
         <v>50340.5124</v>
       </c>
       <c r="G254" t="n">
+        <v>53.51133333333337</v>
+      </c>
+      <c r="H254" t="n">
         <v>52.96866666666665</v>
       </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
       <c r="I254" t="n">
         <v>0</v>
       </c>
-      <c r="J254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>0</v>
+      </c>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
-      <c r="M254" t="n">
+      <c r="L254" t="n">
+        <v>52.06</v>
+      </c>
+      <c r="M254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N254" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9323,18 +10501,27 @@
         <v>1229.8544</v>
       </c>
       <c r="G255" t="n">
+        <v>53.51733333333337</v>
+      </c>
+      <c r="H255" t="n">
         <v>52.98833333333332</v>
       </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
       <c r="I255" t="n">
         <v>0</v>
       </c>
-      <c r="J255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>0</v>
+      </c>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
-      <c r="M255" t="n">
+      <c r="L255" t="n">
+        <v>52.06</v>
+      </c>
+      <c r="M255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N255" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9358,18 +10545,27 @@
         <v>100.1456</v>
       </c>
       <c r="G256" t="n">
+        <v>53.52133333333337</v>
+      </c>
+      <c r="H256" t="n">
         <v>53.00766666666666</v>
       </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
       <c r="I256" t="n">
         <v>0</v>
       </c>
-      <c r="J256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>0</v>
+      </c>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
-      <c r="M256" t="n">
+      <c r="L256" t="n">
+        <v>52.06</v>
+      </c>
+      <c r="M256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N256" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9393,18 +10589,27 @@
         <v>900</v>
       </c>
       <c r="G257" t="n">
+        <v>53.52400000000004</v>
+      </c>
+      <c r="H257" t="n">
         <v>53.027</v>
       </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
       <c r="I257" t="n">
         <v>0</v>
       </c>
-      <c r="J257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>0</v>
+      </c>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
-      <c r="M257" t="n">
+      <c r="L257" t="n">
+        <v>52.06</v>
+      </c>
+      <c r="M257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N257" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9428,18 +10633,27 @@
         <v>3989.156</v>
       </c>
       <c r="G258" t="n">
+        <v>53.53600000000004</v>
+      </c>
+      <c r="H258" t="n">
         <v>53.04783333333333</v>
       </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
       <c r="I258" t="n">
         <v>0</v>
       </c>
-      <c r="J258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>0</v>
+      </c>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
-      <c r="M258" t="n">
+      <c r="L258" t="n">
+        <v>52.06</v>
+      </c>
+      <c r="M258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N258" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9463,18 +10677,27 @@
         <v>499.8544</v>
       </c>
       <c r="G259" t="n">
+        <v>53.54266666666671</v>
+      </c>
+      <c r="H259" t="n">
         <v>53.06583333333333</v>
       </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
       <c r="I259" t="n">
         <v>0</v>
       </c>
-      <c r="J259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>0</v>
+      </c>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
-      <c r="M259" t="n">
+      <c r="L259" t="n">
+        <v>52.06</v>
+      </c>
+      <c r="M259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N259" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9498,18 +10721,27 @@
         <v>1745</v>
       </c>
       <c r="G260" t="n">
+        <v>53.54333333333338</v>
+      </c>
+      <c r="H260" t="n">
         <v>53.08016666666666</v>
       </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
       <c r="I260" t="n">
         <v>0</v>
       </c>
-      <c r="J260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>0</v>
+      </c>
       <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
-      <c r="M260" t="n">
+      <c r="L260" t="n">
+        <v>52.06</v>
+      </c>
+      <c r="M260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N260" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9533,18 +10765,27 @@
         <v>700</v>
       </c>
       <c r="G261" t="n">
+        <v>53.54333333333338</v>
+      </c>
+      <c r="H261" t="n">
         <v>53.09616666666666</v>
       </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
       <c r="I261" t="n">
         <v>0</v>
       </c>
-      <c r="J261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>0</v>
+      </c>
       <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
-      <c r="M261" t="n">
+      <c r="L261" t="n">
+        <v>52.06</v>
+      </c>
+      <c r="M261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N261" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9568,18 +10809,27 @@
         <v>130</v>
       </c>
       <c r="G262" t="n">
+        <v>53.55133333333337</v>
+      </c>
+      <c r="H262" t="n">
         <v>53.11099999999999</v>
       </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
       <c r="I262" t="n">
         <v>0</v>
       </c>
-      <c r="J262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>0</v>
+      </c>
       <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
-      <c r="M262" t="n">
+      <c r="L262" t="n">
+        <v>52.06</v>
+      </c>
+      <c r="M262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N262" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9603,18 +10853,27 @@
         <v>23615.1903</v>
       </c>
       <c r="G263" t="n">
+        <v>53.55266666666671</v>
+      </c>
+      <c r="H263" t="n">
         <v>53.12183333333333</v>
       </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
       <c r="I263" t="n">
         <v>0</v>
       </c>
-      <c r="J263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>0</v>
+      </c>
       <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
-      <c r="M263" t="n">
+      <c r="L263" t="n">
+        <v>52.06</v>
+      </c>
+      <c r="M263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N263" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9638,18 +10897,27 @@
         <v>30962.4578</v>
       </c>
       <c r="G264" t="n">
+        <v>53.56266666666671</v>
+      </c>
+      <c r="H264" t="n">
         <v>53.135</v>
       </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
       <c r="I264" t="n">
         <v>0</v>
       </c>
-      <c r="J264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>0</v>
+      </c>
       <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
-      <c r="M264" t="n">
+      <c r="L264" t="n">
+        <v>52.06</v>
+      </c>
+      <c r="M264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N264" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9673,18 +10941,27 @@
         <v>520.5812</v>
       </c>
       <c r="G265" t="n">
+        <v>53.56533333333337</v>
+      </c>
+      <c r="H265" t="n">
         <v>53.15183333333334</v>
       </c>
-      <c r="H265" t="n">
-        <v>0</v>
-      </c>
       <c r="I265" t="n">
         <v>0</v>
       </c>
-      <c r="J265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>0</v>
+      </c>
       <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr"/>
-      <c r="M265" t="n">
+      <c r="L265" t="n">
+        <v>52.06</v>
+      </c>
+      <c r="M265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N265" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9708,18 +10985,27 @@
         <v>30472.9809</v>
       </c>
       <c r="G266" t="n">
+        <v>53.55733333333337</v>
+      </c>
+      <c r="H266" t="n">
         <v>53.17050000000001</v>
       </c>
-      <c r="H266" t="n">
-        <v>0</v>
-      </c>
       <c r="I266" t="n">
         <v>0</v>
       </c>
-      <c r="J266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>0</v>
+      </c>
       <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr"/>
-      <c r="M266" t="n">
+      <c r="L266" t="n">
+        <v>52.06</v>
+      </c>
+      <c r="M266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N266" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9743,18 +11029,27 @@
         <v>6889.8658</v>
       </c>
       <c r="G267" t="n">
+        <v>53.55400000000004</v>
+      </c>
+      <c r="H267" t="n">
         <v>53.19483333333334</v>
       </c>
-      <c r="H267" t="n">
-        <v>0</v>
-      </c>
       <c r="I267" t="n">
         <v>0</v>
       </c>
-      <c r="J267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>0</v>
+      </c>
       <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr"/>
-      <c r="M267" t="n">
+      <c r="L267" t="n">
+        <v>52.06</v>
+      </c>
+      <c r="M267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N267" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9778,18 +11073,27 @@
         <v>101167.3269</v>
       </c>
       <c r="G268" t="n">
+        <v>53.55466666666671</v>
+      </c>
+      <c r="H268" t="n">
         <v>53.21633333333333</v>
       </c>
-      <c r="H268" t="n">
-        <v>0</v>
-      </c>
       <c r="I268" t="n">
         <v>0</v>
       </c>
-      <c r="J268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>0</v>
+      </c>
       <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr"/>
-      <c r="M268" t="n">
+      <c r="L268" t="n">
+        <v>52.06</v>
+      </c>
+      <c r="M268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N268" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9813,18 +11117,27 @@
         <v>15272.2146</v>
       </c>
       <c r="G269" t="n">
+        <v>53.57733333333338</v>
+      </c>
+      <c r="H269" t="n">
         <v>53.23933333333333</v>
       </c>
-      <c r="H269" t="n">
-        <v>0</v>
-      </c>
       <c r="I269" t="n">
         <v>0</v>
       </c>
-      <c r="J269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>0</v>
+      </c>
       <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr"/>
-      <c r="M269" t="n">
+      <c r="L269" t="n">
+        <v>52.06</v>
+      </c>
+      <c r="M269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N269" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9848,18 +11161,27 @@
         <v>14100.0863</v>
       </c>
       <c r="G270" t="n">
+        <v>53.58666666666671</v>
+      </c>
+      <c r="H270" t="n">
         <v>53.26433333333333</v>
       </c>
-      <c r="H270" t="n">
-        <v>0</v>
-      </c>
       <c r="I270" t="n">
         <v>0</v>
       </c>
-      <c r="J270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>0</v>
+      </c>
       <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr"/>
-      <c r="M270" t="n">
+      <c r="L270" t="n">
+        <v>52.06</v>
+      </c>
+      <c r="M270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N270" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9883,18 +11205,27 @@
         <v>134.5</v>
       </c>
       <c r="G271" t="n">
+        <v>53.59600000000004</v>
+      </c>
+      <c r="H271" t="n">
         <v>53.291</v>
       </c>
-      <c r="H271" t="n">
-        <v>0</v>
-      </c>
       <c r="I271" t="n">
         <v>0</v>
       </c>
-      <c r="J271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>0</v>
+      </c>
       <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr"/>
-      <c r="M271" t="n">
+      <c r="L271" t="n">
+        <v>52.06</v>
+      </c>
+      <c r="M271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N271" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9918,18 +11249,27 @@
         <v>1527.5</v>
       </c>
       <c r="G272" t="n">
+        <v>53.60533333333338</v>
+      </c>
+      <c r="H272" t="n">
         <v>53.31383333333333</v>
       </c>
-      <c r="H272" t="n">
-        <v>0</v>
-      </c>
       <c r="I272" t="n">
         <v>0</v>
       </c>
-      <c r="J272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>0</v>
+      </c>
       <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr"/>
-      <c r="M272" t="n">
+      <c r="L272" t="n">
+        <v>52.06</v>
+      </c>
+      <c r="M272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N272" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9953,18 +11293,27 @@
         <v>6345.137</v>
       </c>
       <c r="G273" t="n">
+        <v>53.63266666666672</v>
+      </c>
+      <c r="H273" t="n">
         <v>53.34183333333333</v>
       </c>
-      <c r="H273" t="n">
-        <v>0</v>
-      </c>
       <c r="I273" t="n">
         <v>0</v>
       </c>
-      <c r="J273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>0</v>
+      </c>
       <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr"/>
-      <c r="M273" t="n">
+      <c r="L273" t="n">
+        <v>52.06</v>
+      </c>
+      <c r="M273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N273" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9988,18 +11337,27 @@
         <v>38426.3906</v>
       </c>
       <c r="G274" t="n">
+        <v>53.66266666666671</v>
+      </c>
+      <c r="H274" t="n">
         <v>53.36816666666666</v>
       </c>
-      <c r="H274" t="n">
-        <v>0</v>
-      </c>
       <c r="I274" t="n">
         <v>0</v>
       </c>
-      <c r="J274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>0</v>
+      </c>
       <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr"/>
-      <c r="M274" t="n">
+      <c r="L274" t="n">
+        <v>52.06</v>
+      </c>
+      <c r="M274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N274" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10023,18 +11381,27 @@
         <v>28646.2257</v>
       </c>
       <c r="G275" t="n">
+        <v>53.69066666666671</v>
+      </c>
+      <c r="H275" t="n">
         <v>53.39566666666666</v>
       </c>
-      <c r="H275" t="n">
-        <v>0</v>
-      </c>
       <c r="I275" t="n">
         <v>0</v>
       </c>
-      <c r="J275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>0</v>
+      </c>
       <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr"/>
-      <c r="M275" t="n">
+      <c r="L275" t="n">
+        <v>52.06</v>
+      </c>
+      <c r="M275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N275" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10058,18 +11425,27 @@
         <v>14280.5682</v>
       </c>
       <c r="G276" t="n">
+        <v>53.72466666666671</v>
+      </c>
+      <c r="H276" t="n">
         <v>53.41816666666666</v>
       </c>
-      <c r="H276" t="n">
-        <v>0</v>
-      </c>
       <c r="I276" t="n">
         <v>0</v>
       </c>
-      <c r="J276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>0</v>
+      </c>
       <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr"/>
-      <c r="M276" t="n">
+      <c r="L276" t="n">
+        <v>52.06</v>
+      </c>
+      <c r="M276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N276" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10093,18 +11469,27 @@
         <v>956.5649</v>
       </c>
       <c r="G277" t="n">
+        <v>53.75333333333337</v>
+      </c>
+      <c r="H277" t="n">
         <v>53.43633333333333</v>
       </c>
-      <c r="H277" t="n">
-        <v>0</v>
-      </c>
       <c r="I277" t="n">
         <v>0</v>
       </c>
-      <c r="J277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>0</v>
+      </c>
       <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr"/>
-      <c r="M277" t="n">
+      <c r="L277" t="n">
+        <v>52.06</v>
+      </c>
+      <c r="M277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N277" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10128,18 +11513,27 @@
         <v>45831.6166</v>
       </c>
       <c r="G278" t="n">
+        <v>53.79400000000003</v>
+      </c>
+      <c r="H278" t="n">
         <v>53.45983333333333</v>
       </c>
-      <c r="H278" t="n">
-        <v>0</v>
-      </c>
       <c r="I278" t="n">
         <v>0</v>
       </c>
-      <c r="J278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>0</v>
+      </c>
       <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr"/>
-      <c r="M278" t="n">
+      <c r="L278" t="n">
+        <v>52.06</v>
+      </c>
+      <c r="M278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N278" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10163,18 +11557,27 @@
         <v>1704.7625</v>
       </c>
       <c r="G279" t="n">
+        <v>53.82533333333337</v>
+      </c>
+      <c r="H279" t="n">
         <v>53.4815</v>
       </c>
-      <c r="H279" t="n">
-        <v>0</v>
-      </c>
       <c r="I279" t="n">
         <v>0</v>
       </c>
-      <c r="J279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>0</v>
+      </c>
       <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr"/>
-      <c r="M279" t="n">
+      <c r="L279" t="n">
+        <v>52.06</v>
+      </c>
+      <c r="M279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N279" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10198,18 +11601,27 @@
         <v>39866.72441712</v>
       </c>
       <c r="G280" t="n">
+        <v>53.86000000000003</v>
+      </c>
+      <c r="H280" t="n">
         <v>53.50416666666667</v>
       </c>
-      <c r="H280" t="n">
-        <v>0</v>
-      </c>
       <c r="I280" t="n">
         <v>0</v>
       </c>
-      <c r="J280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>0</v>
+      </c>
       <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr"/>
-      <c r="M280" t="n">
+      <c r="L280" t="n">
+        <v>52.06</v>
+      </c>
+      <c r="M280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N280" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10233,18 +11645,27 @@
         <v>10946.2295</v>
       </c>
       <c r="G281" t="n">
+        <v>53.90200000000004</v>
+      </c>
+      <c r="H281" t="n">
         <v>53.52316666666666</v>
       </c>
-      <c r="H281" t="n">
-        <v>0</v>
-      </c>
       <c r="I281" t="n">
         <v>0</v>
       </c>
-      <c r="J281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>0</v>
+      </c>
       <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr"/>
-      <c r="M281" t="n">
+      <c r="L281" t="n">
+        <v>52.06</v>
+      </c>
+      <c r="M281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N281" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10268,18 +11689,27 @@
         <v>9121.9555</v>
       </c>
       <c r="G282" t="n">
+        <v>53.9246666666667</v>
+      </c>
+      <c r="H282" t="n">
         <v>53.54416666666666</v>
       </c>
-      <c r="H282" t="n">
-        <v>0</v>
-      </c>
       <c r="I282" t="n">
         <v>0</v>
       </c>
-      <c r="J282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>0</v>
+      </c>
       <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr"/>
-      <c r="M282" t="n">
+      <c r="L282" t="n">
+        <v>52.06</v>
+      </c>
+      <c r="M282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N282" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10303,18 +11733,27 @@
         <v>18986.625</v>
       </c>
       <c r="G283" t="n">
+        <v>53.95600000000004</v>
+      </c>
+      <c r="H283" t="n">
         <v>53.56533333333333</v>
       </c>
-      <c r="H283" t="n">
-        <v>0</v>
-      </c>
       <c r="I283" t="n">
         <v>0</v>
       </c>
-      <c r="J283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>0</v>
+      </c>
       <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr"/>
-      <c r="M283" t="n">
+      <c r="L283" t="n">
+        <v>52.06</v>
+      </c>
+      <c r="M283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N283" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10338,18 +11777,27 @@
         <v>35004.7482</v>
       </c>
       <c r="G284" t="n">
+        <v>53.9766666666667</v>
+      </c>
+      <c r="H284" t="n">
         <v>53.58483333333333</v>
       </c>
-      <c r="H284" t="n">
-        <v>0</v>
-      </c>
       <c r="I284" t="n">
         <v>0</v>
       </c>
-      <c r="J284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>0</v>
+      </c>
       <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr"/>
-      <c r="M284" t="n">
+      <c r="L284" t="n">
+        <v>52.06</v>
+      </c>
+      <c r="M284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N284" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10373,18 +11821,27 @@
         <v>2432.725</v>
       </c>
       <c r="G285" t="n">
+        <v>54.00400000000003</v>
+      </c>
+      <c r="H285" t="n">
         <v>53.60216666666666</v>
       </c>
-      <c r="H285" t="n">
-        <v>0</v>
-      </c>
       <c r="I285" t="n">
         <v>0</v>
       </c>
-      <c r="J285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>0</v>
+      </c>
       <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr"/>
-      <c r="M285" t="n">
+      <c r="L285" t="n">
+        <v>52.06</v>
+      </c>
+      <c r="M285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N285" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10408,19 +11865,28 @@
         <v>20817.5724</v>
       </c>
       <c r="G286" t="n">
+        <v>54.0246666666667</v>
+      </c>
+      <c r="H286" t="n">
         <v>53.61783333333333</v>
       </c>
-      <c r="H286" t="n">
-        <v>0</v>
-      </c>
       <c r="I286" t="n">
         <v>0</v>
       </c>
-      <c r="J286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>1</v>
+      </c>
       <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr"/>
-      <c r="M286" t="n">
-        <v>1</v>
+      <c r="L286" t="n">
+        <v>52.06</v>
+      </c>
+      <c r="M286" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N286" t="n">
+        <v>1.033033038801383</v>
       </c>
     </row>
     <row r="287">
@@ -10443,18 +11909,21 @@
         <v>44879.1296</v>
       </c>
       <c r="G287" t="n">
+        <v>54.04733333333336</v>
+      </c>
+      <c r="H287" t="n">
         <v>53.63566666666667</v>
       </c>
-      <c r="H287" t="n">
-        <v>0</v>
-      </c>
       <c r="I287" t="n">
         <v>0</v>
       </c>
-      <c r="J287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>1</v>
+      </c>
       <c r="K287" t="inlineStr"/>
       <c r="L287" t="inlineStr"/>
-      <c r="M287" t="n">
+      <c r="M287" t="inlineStr"/>
+      <c r="N287" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10478,18 +11947,21 @@
         <v>6249.999</v>
       </c>
       <c r="G288" t="n">
+        <v>54.05133333333336</v>
+      </c>
+      <c r="H288" t="n">
         <v>53.65466666666666</v>
       </c>
-      <c r="H288" t="n">
-        <v>0</v>
-      </c>
       <c r="I288" t="n">
         <v>0</v>
       </c>
-      <c r="J288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>1</v>
+      </c>
       <c r="K288" t="inlineStr"/>
       <c r="L288" t="inlineStr"/>
-      <c r="M288" t="n">
+      <c r="M288" t="inlineStr"/>
+      <c r="N288" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10513,18 +11985,21 @@
         <v>13806.9383</v>
       </c>
       <c r="G289" t="n">
+        <v>54.05133333333336</v>
+      </c>
+      <c r="H289" t="n">
         <v>53.66533333333333</v>
       </c>
-      <c r="H289" t="n">
-        <v>0</v>
-      </c>
       <c r="I289" t="n">
         <v>0</v>
       </c>
-      <c r="J289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>1</v>
+      </c>
       <c r="K289" t="inlineStr"/>
       <c r="L289" t="inlineStr"/>
-      <c r="M289" t="n">
+      <c r="M289" t="inlineStr"/>
+      <c r="N289" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10548,18 +12023,21 @@
         <v>8696.3549</v>
       </c>
       <c r="G290" t="n">
+        <v>54.05933333333336</v>
+      </c>
+      <c r="H290" t="n">
         <v>53.67433333333333</v>
       </c>
-      <c r="H290" t="n">
-        <v>0</v>
-      </c>
       <c r="I290" t="n">
         <v>0</v>
       </c>
-      <c r="J290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>1</v>
+      </c>
       <c r="K290" t="inlineStr"/>
       <c r="L290" t="inlineStr"/>
-      <c r="M290" t="n">
+      <c r="M290" t="inlineStr"/>
+      <c r="N290" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10583,18 +12061,21 @@
         <v>112304.8003</v>
       </c>
       <c r="G291" t="n">
+        <v>54.05933333333336</v>
+      </c>
+      <c r="H291" t="n">
         <v>53.68266666666666</v>
       </c>
-      <c r="H291" t="n">
-        <v>0</v>
-      </c>
       <c r="I291" t="n">
         <v>0</v>
       </c>
-      <c r="J291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>1</v>
+      </c>
       <c r="K291" t="inlineStr"/>
       <c r="L291" t="inlineStr"/>
-      <c r="M291" t="n">
+      <c r="M291" t="inlineStr"/>
+      <c r="N291" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10618,18 +12099,21 @@
         <v>16022.3867</v>
       </c>
       <c r="G292" t="n">
+        <v>54.06400000000004</v>
+      </c>
+      <c r="H292" t="n">
         <v>53.69083333333332</v>
       </c>
-      <c r="H292" t="n">
-        <v>0</v>
-      </c>
       <c r="I292" t="n">
         <v>0</v>
       </c>
-      <c r="J292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>1</v>
+      </c>
       <c r="K292" t="inlineStr"/>
       <c r="L292" t="inlineStr"/>
-      <c r="M292" t="n">
+      <c r="M292" t="inlineStr"/>
+      <c r="N292" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10653,18 +12137,21 @@
         <v>10034.1825</v>
       </c>
       <c r="G293" t="n">
+        <v>54.06133333333337</v>
+      </c>
+      <c r="H293" t="n">
         <v>53.70299999999999</v>
       </c>
-      <c r="H293" t="n">
-        <v>0</v>
-      </c>
       <c r="I293" t="n">
         <v>0</v>
       </c>
-      <c r="J293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>1</v>
+      </c>
       <c r="K293" t="inlineStr"/>
       <c r="L293" t="inlineStr"/>
-      <c r="M293" t="n">
+      <c r="M293" t="inlineStr"/>
+      <c r="N293" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10688,18 +12175,21 @@
         <v>10882.2337</v>
       </c>
       <c r="G294" t="n">
+        <v>54.0586666666667</v>
+      </c>
+      <c r="H294" t="n">
         <v>53.71566666666666</v>
       </c>
-      <c r="H294" t="n">
-        <v>0</v>
-      </c>
       <c r="I294" t="n">
         <v>0</v>
       </c>
-      <c r="J294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>1</v>
+      </c>
       <c r="K294" t="inlineStr"/>
       <c r="L294" t="inlineStr"/>
-      <c r="M294" t="n">
+      <c r="M294" t="inlineStr"/>
+      <c r="N294" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10723,18 +12213,21 @@
         <v>8882.765799999999</v>
       </c>
       <c r="G295" t="n">
+        <v>54.04133333333337</v>
+      </c>
+      <c r="H295" t="n">
         <v>53.72749999999999</v>
       </c>
-      <c r="H295" t="n">
-        <v>0</v>
-      </c>
       <c r="I295" t="n">
         <v>0</v>
       </c>
-      <c r="J295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>1</v>
+      </c>
       <c r="K295" t="inlineStr"/>
       <c r="L295" t="inlineStr"/>
-      <c r="M295" t="n">
+      <c r="M295" t="inlineStr"/>
+      <c r="N295" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10758,18 +12251,21 @@
         <v>21225.5488</v>
       </c>
       <c r="G296" t="n">
+        <v>54.02600000000004</v>
+      </c>
+      <c r="H296" t="n">
         <v>53.73933333333333</v>
       </c>
-      <c r="H296" t="n">
-        <v>0</v>
-      </c>
       <c r="I296" t="n">
         <v>0</v>
       </c>
-      <c r="J296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>1</v>
+      </c>
       <c r="K296" t="inlineStr"/>
       <c r="L296" t="inlineStr"/>
-      <c r="M296" t="n">
+      <c r="M296" t="inlineStr"/>
+      <c r="N296" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10793,18 +12289,21 @@
         <v>117026.8823</v>
       </c>
       <c r="G297" t="n">
+        <v>54.00266666666671</v>
+      </c>
+      <c r="H297" t="n">
         <v>53.745</v>
       </c>
-      <c r="H297" t="n">
-        <v>0</v>
-      </c>
       <c r="I297" t="n">
         <v>0</v>
       </c>
-      <c r="J297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>1</v>
+      </c>
       <c r="K297" t="inlineStr"/>
       <c r="L297" t="inlineStr"/>
-      <c r="M297" t="n">
+      <c r="M297" t="inlineStr"/>
+      <c r="N297" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10828,18 +12327,21 @@
         <v>38521.6418</v>
       </c>
       <c r="G298" t="n">
+        <v>53.9946666666667</v>
+      </c>
+      <c r="H298" t="n">
         <v>53.75533333333333</v>
       </c>
-      <c r="H298" t="n">
-        <v>0</v>
-      </c>
       <c r="I298" t="n">
         <v>0</v>
       </c>
-      <c r="J298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>1</v>
+      </c>
       <c r="K298" t="inlineStr"/>
       <c r="L298" t="inlineStr"/>
-      <c r="M298" t="n">
+      <c r="M298" t="inlineStr"/>
+      <c r="N298" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10863,18 +12365,21 @@
         <v>1884.159</v>
       </c>
       <c r="G299" t="n">
+        <v>53.98200000000004</v>
+      </c>
+      <c r="H299" t="n">
         <v>53.76183333333333</v>
       </c>
-      <c r="H299" t="n">
-        <v>0</v>
-      </c>
       <c r="I299" t="n">
         <v>0</v>
       </c>
-      <c r="J299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>1</v>
+      </c>
       <c r="K299" t="inlineStr"/>
       <c r="L299" t="inlineStr"/>
-      <c r="M299" t="n">
+      <c r="M299" t="inlineStr"/>
+      <c r="N299" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10898,18 +12403,21 @@
         <v>20000</v>
       </c>
       <c r="G300" t="n">
+        <v>53.97133333333338</v>
+      </c>
+      <c r="H300" t="n">
         <v>53.76983333333332</v>
       </c>
-      <c r="H300" t="n">
-        <v>0</v>
-      </c>
       <c r="I300" t="n">
         <v>0</v>
       </c>
-      <c r="J300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>1</v>
+      </c>
       <c r="K300" t="inlineStr"/>
       <c r="L300" t="inlineStr"/>
-      <c r="M300" t="n">
+      <c r="M300" t="inlineStr"/>
+      <c r="N300" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10933,18 +12441,21 @@
         <v>50000</v>
       </c>
       <c r="G301" t="n">
+        <v>53.97600000000004</v>
+      </c>
+      <c r="H301" t="n">
         <v>53.77949999999999</v>
       </c>
-      <c r="H301" t="n">
-        <v>0</v>
-      </c>
       <c r="I301" t="n">
         <v>0</v>
       </c>
-      <c r="J301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>1</v>
+      </c>
       <c r="K301" t="inlineStr"/>
       <c r="L301" t="inlineStr"/>
-      <c r="M301" t="n">
+      <c r="M301" t="inlineStr"/>
+      <c r="N301" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10968,18 +12479,21 @@
         <v>4122.0192</v>
       </c>
       <c r="G302" t="n">
+        <v>53.97400000000004</v>
+      </c>
+      <c r="H302" t="n">
         <v>53.78766666666665</v>
       </c>
-      <c r="H302" t="n">
-        <v>0</v>
-      </c>
       <c r="I302" t="n">
         <v>0</v>
       </c>
-      <c r="J302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>1</v>
+      </c>
       <c r="K302" t="inlineStr"/>
       <c r="L302" t="inlineStr"/>
-      <c r="M302" t="n">
+      <c r="M302" t="inlineStr"/>
+      <c r="N302" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11003,18 +12517,21 @@
         <v>1392</v>
       </c>
       <c r="G303" t="n">
+        <v>53.9666666666667</v>
+      </c>
+      <c r="H303" t="n">
         <v>53.79666666666666</v>
       </c>
-      <c r="H303" t="n">
-        <v>0</v>
-      </c>
       <c r="I303" t="n">
         <v>0</v>
       </c>
-      <c r="J303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>1</v>
+      </c>
       <c r="K303" t="inlineStr"/>
       <c r="L303" t="inlineStr"/>
-      <c r="M303" t="n">
+      <c r="M303" t="inlineStr"/>
+      <c r="N303" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11038,18 +12555,21 @@
         <v>3009.65</v>
       </c>
       <c r="G304" t="n">
+        <v>53.9666666666667</v>
+      </c>
+      <c r="H304" t="n">
         <v>53.80583333333333</v>
       </c>
-      <c r="H304" t="n">
-        <v>0</v>
-      </c>
       <c r="I304" t="n">
         <v>0</v>
       </c>
-      <c r="J304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>1</v>
+      </c>
       <c r="K304" t="inlineStr"/>
       <c r="L304" t="inlineStr"/>
-      <c r="M304" t="n">
+      <c r="M304" t="inlineStr"/>
+      <c r="N304" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11073,18 +12593,21 @@
         <v>1100</v>
       </c>
       <c r="G305" t="n">
+        <v>53.9726666666667</v>
+      </c>
+      <c r="H305" t="n">
         <v>53.8165</v>
       </c>
-      <c r="H305" t="n">
-        <v>0</v>
-      </c>
       <c r="I305" t="n">
         <v>0</v>
       </c>
-      <c r="J305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>1</v>
+      </c>
       <c r="K305" t="inlineStr"/>
       <c r="L305" t="inlineStr"/>
-      <c r="M305" t="n">
+      <c r="M305" t="inlineStr"/>
+      <c r="N305" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11108,18 +12631,21 @@
         <v>1916</v>
       </c>
       <c r="G306" t="n">
+        <v>53.97533333333337</v>
+      </c>
+      <c r="H306" t="n">
         <v>53.82566666666667</v>
       </c>
-      <c r="H306" t="n">
-        <v>0</v>
-      </c>
       <c r="I306" t="n">
         <v>0</v>
       </c>
-      <c r="J306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>1</v>
+      </c>
       <c r="K306" t="inlineStr"/>
       <c r="L306" t="inlineStr"/>
-      <c r="M306" t="n">
+      <c r="M306" t="inlineStr"/>
+      <c r="N306" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11143,18 +12669,401 @@
         <v>4645.3886</v>
       </c>
       <c r="G307" t="n">
+        <v>53.9786666666667</v>
+      </c>
+      <c r="H307" t="n">
         <v>53.83683333333334</v>
       </c>
-      <c r="H307" t="n">
-        <v>0</v>
-      </c>
       <c r="I307" t="n">
         <v>0</v>
       </c>
-      <c r="J307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>1</v>
+      </c>
       <c r="K307" t="inlineStr"/>
       <c r="L307" t="inlineStr"/>
-      <c r="M307" t="n">
+      <c r="M307" t="inlineStr"/>
+      <c r="N307" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="1" t="n">
+        <v>306</v>
+      </c>
+      <c r="B308" t="n">
+        <v>54.04</v>
+      </c>
+      <c r="C308" t="n">
+        <v>54.04</v>
+      </c>
+      <c r="D308" t="n">
+        <v>54.04</v>
+      </c>
+      <c r="E308" t="n">
+        <v>54.04</v>
+      </c>
+      <c r="F308" t="n">
+        <v>6906.0527</v>
+      </c>
+      <c r="G308" t="n">
+        <v>53.98400000000003</v>
+      </c>
+      <c r="H308" t="n">
+        <v>53.84800000000001</v>
+      </c>
+      <c r="I308" t="n">
+        <v>0</v>
+      </c>
+      <c r="J308" t="n">
+        <v>1</v>
+      </c>
+      <c r="K308" t="inlineStr"/>
+      <c r="L308" t="inlineStr"/>
+      <c r="M308" t="inlineStr"/>
+      <c r="N308" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="1" t="n">
+        <v>307</v>
+      </c>
+      <c r="B309" t="n">
+        <v>54.04</v>
+      </c>
+      <c r="C309" t="n">
+        <v>54.04</v>
+      </c>
+      <c r="D309" t="n">
+        <v>54.04</v>
+      </c>
+      <c r="E309" t="n">
+        <v>54.04</v>
+      </c>
+      <c r="F309" t="n">
+        <v>84.9742</v>
+      </c>
+      <c r="G309" t="n">
+        <v>53.98933333333336</v>
+      </c>
+      <c r="H309" t="n">
+        <v>53.85900000000001</v>
+      </c>
+      <c r="I309" t="n">
+        <v>0</v>
+      </c>
+      <c r="J309" t="n">
+        <v>1</v>
+      </c>
+      <c r="K309" t="inlineStr"/>
+      <c r="L309" t="inlineStr"/>
+      <c r="M309" t="inlineStr"/>
+      <c r="N309" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="1" t="n">
+        <v>308</v>
+      </c>
+      <c r="B310" t="n">
+        <v>54.09</v>
+      </c>
+      <c r="C310" t="n">
+        <v>54.09</v>
+      </c>
+      <c r="D310" t="n">
+        <v>54.09</v>
+      </c>
+      <c r="E310" t="n">
+        <v>54.09</v>
+      </c>
+      <c r="F310" t="n">
+        <v>696</v>
+      </c>
+      <c r="G310" t="n">
+        <v>54.00133333333336</v>
+      </c>
+      <c r="H310" t="n">
+        <v>53.867</v>
+      </c>
+      <c r="I310" t="n">
+        <v>0</v>
+      </c>
+      <c r="J310" t="n">
+        <v>1</v>
+      </c>
+      <c r="K310" t="inlineStr"/>
+      <c r="L310" t="inlineStr"/>
+      <c r="M310" t="inlineStr"/>
+      <c r="N310" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="n">
+        <v>309</v>
+      </c>
+      <c r="B311" t="n">
+        <v>54.13</v>
+      </c>
+      <c r="C311" t="n">
+        <v>54.14</v>
+      </c>
+      <c r="D311" t="n">
+        <v>54.14</v>
+      </c>
+      <c r="E311" t="n">
+        <v>54.13</v>
+      </c>
+      <c r="F311" t="n">
+        <v>3335.6434</v>
+      </c>
+      <c r="G311" t="n">
+        <v>54.01666666666669</v>
+      </c>
+      <c r="H311" t="n">
+        <v>53.8755</v>
+      </c>
+      <c r="I311" t="n">
+        <v>0</v>
+      </c>
+      <c r="J311" t="n">
+        <v>1</v>
+      </c>
+      <c r="K311" t="inlineStr"/>
+      <c r="L311" t="inlineStr"/>
+      <c r="M311" t="inlineStr"/>
+      <c r="N311" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="n">
+        <v>310</v>
+      </c>
+      <c r="B312" t="n">
+        <v>54.14</v>
+      </c>
+      <c r="C312" t="n">
+        <v>54.19</v>
+      </c>
+      <c r="D312" t="n">
+        <v>54.22</v>
+      </c>
+      <c r="E312" t="n">
+        <v>54.14</v>
+      </c>
+      <c r="F312" t="n">
+        <v>4402.562</v>
+      </c>
+      <c r="G312" t="n">
+        <v>54.04733333333336</v>
+      </c>
+      <c r="H312" t="n">
+        <v>53.88216666666667</v>
+      </c>
+      <c r="I312" t="n">
+        <v>0</v>
+      </c>
+      <c r="J312" t="n">
+        <v>1</v>
+      </c>
+      <c r="K312" t="inlineStr"/>
+      <c r="L312" t="inlineStr"/>
+      <c r="M312" t="inlineStr"/>
+      <c r="N312" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="n">
+        <v>311</v>
+      </c>
+      <c r="B313" t="n">
+        <v>54.19</v>
+      </c>
+      <c r="C313" t="n">
+        <v>54.16</v>
+      </c>
+      <c r="D313" t="n">
+        <v>54.24</v>
+      </c>
+      <c r="E313" t="n">
+        <v>54.16</v>
+      </c>
+      <c r="F313" t="n">
+        <v>8134.9998</v>
+      </c>
+      <c r="G313" t="n">
+        <v>54.06133333333336</v>
+      </c>
+      <c r="H313" t="n">
+        <v>53.89166666666667</v>
+      </c>
+      <c r="I313" t="n">
+        <v>0</v>
+      </c>
+      <c r="J313" t="n">
+        <v>1</v>
+      </c>
+      <c r="K313" t="inlineStr"/>
+      <c r="L313" t="inlineStr"/>
+      <c r="M313" t="inlineStr"/>
+      <c r="N313" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="n">
+        <v>312</v>
+      </c>
+      <c r="B314" t="n">
+        <v>54.07</v>
+      </c>
+      <c r="C314" t="n">
+        <v>54.06</v>
+      </c>
+      <c r="D314" t="n">
+        <v>54.07</v>
+      </c>
+      <c r="E314" t="n">
+        <v>54.06</v>
+      </c>
+      <c r="F314" t="n">
+        <v>649.776</v>
+      </c>
+      <c r="G314" t="n">
+        <v>54.07533333333336</v>
+      </c>
+      <c r="H314" t="n">
+        <v>53.90283333333333</v>
+      </c>
+      <c r="I314" t="n">
+        <v>0</v>
+      </c>
+      <c r="J314" t="n">
+        <v>1</v>
+      </c>
+      <c r="K314" t="inlineStr"/>
+      <c r="L314" t="inlineStr"/>
+      <c r="M314" t="inlineStr"/>
+      <c r="N314" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="n">
+        <v>313</v>
+      </c>
+      <c r="B315" t="n">
+        <v>54.06</v>
+      </c>
+      <c r="C315" t="n">
+        <v>54.06</v>
+      </c>
+      <c r="D315" t="n">
+        <v>54.06</v>
+      </c>
+      <c r="E315" t="n">
+        <v>54.06</v>
+      </c>
+      <c r="F315" t="n">
+        <v>4975.3671</v>
+      </c>
+      <c r="G315" t="n">
+        <v>54.0806666666667</v>
+      </c>
+      <c r="H315" t="n">
+        <v>53.91066666666666</v>
+      </c>
+      <c r="I315" t="n">
+        <v>0</v>
+      </c>
+      <c r="J315" t="n">
+        <v>1</v>
+      </c>
+      <c r="K315" t="inlineStr"/>
+      <c r="L315" t="inlineStr"/>
+      <c r="M315" t="inlineStr"/>
+      <c r="N315" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="n">
+        <v>314</v>
+      </c>
+      <c r="B316" t="n">
+        <v>53.9</v>
+      </c>
+      <c r="C316" t="n">
+        <v>53.89</v>
+      </c>
+      <c r="D316" t="n">
+        <v>53.9</v>
+      </c>
+      <c r="E316" t="n">
+        <v>53.89</v>
+      </c>
+      <c r="F316" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G316" t="n">
+        <v>54.06600000000003</v>
+      </c>
+      <c r="H316" t="n">
+        <v>53.91566666666666</v>
+      </c>
+      <c r="I316" t="n">
+        <v>0</v>
+      </c>
+      <c r="J316" t="n">
+        <v>1</v>
+      </c>
+      <c r="K316" t="inlineStr"/>
+      <c r="L316" t="inlineStr"/>
+      <c r="M316" t="inlineStr"/>
+      <c r="N316" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="1" t="n">
+        <v>315</v>
+      </c>
+      <c r="B317" t="n">
+        <v>53.89</v>
+      </c>
+      <c r="C317" t="n">
+        <v>53.88</v>
+      </c>
+      <c r="D317" t="n">
+        <v>53.89</v>
+      </c>
+      <c r="E317" t="n">
+        <v>53.88</v>
+      </c>
+      <c r="F317" t="n">
+        <v>4981.2863</v>
+      </c>
+      <c r="G317" t="n">
+        <v>54.05533333333337</v>
+      </c>
+      <c r="H317" t="n">
+        <v>53.92049999999999</v>
+      </c>
+      <c r="I317" t="n">
+        <v>0</v>
+      </c>
+      <c r="J317" t="n">
+        <v>1</v>
+      </c>
+      <c r="K317" t="inlineStr"/>
+      <c r="L317" t="inlineStr"/>
+      <c r="M317" t="inlineStr"/>
+      <c r="N317" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-11 BackTest XLM.xlsx
+++ b/BackTest/2020-01-11 BackTest XLM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N375"/>
+  <dimension ref="A1:M375"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>-53643.89290000002</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,18 +484,15 @@
         <v>-53762.18320000002</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -528,18 +517,15 @@
         <v>-54677.18320000002</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,18 +550,15 @@
         <v>-54677.18320000002</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,18 +583,15 @@
         <v>-52242.99780000002</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -636,18 +616,15 @@
         <v>-51638.36570000002</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,18 +649,15 @@
         <v>-51638.36570000002</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -708,18 +682,15 @@
         <v>-50909.36580000001</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -744,18 +715,15 @@
         <v>-50181.36580000001</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -780,18 +748,15 @@
         <v>-50891.36580000001</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -816,18 +781,15 @@
         <v>-51586.36580000001</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -852,18 +814,15 @@
         <v>-47910.44795402001</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -888,18 +847,15 @@
         <v>-48270.84395402001</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -924,18 +880,15 @@
         <v>-48986.84395402001</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -960,18 +913,15 @@
         <v>-48071.23095402001</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -996,18 +946,15 @@
         <v>-48528.32875402002</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1032,18 +979,15 @@
         <v>-48139.31585402002</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1068,18 +1012,15 @@
         <v>-57039.31585402002</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>1</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>1</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1176,18 +1111,15 @@
         <v>-57119.98645402001</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1212,18 +1144,15 @@
         <v>-73074.53095402001</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1248,18 +1177,15 @@
         <v>-73914.33065402001</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1320,18 +1243,15 @@
         <v>-32881.78055402001</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>1</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>1</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>1</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>1</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>1</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>1</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>1</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>1</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>1</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>1</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>1</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>1</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>1</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>1</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>1</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>1</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2184,18 +2035,15 @@
         <v>-118075.10167513</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2220,18 +2068,15 @@
         <v>-118075.10167513</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2256,18 +2101,15 @@
         <v>-178949.13167513</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2292,18 +2134,15 @@
         <v>-178346.53937513</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2328,18 +2167,15 @@
         <v>-177487.53937513</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2235,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2268,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2301,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2334,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2367,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2400,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,16 +2433,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2466,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,16 +2499,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2532,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>1</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2565,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>1</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2798,16 +2598,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>1</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2834,16 +2631,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>1</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2870,16 +2664,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>1</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2906,16 +2697,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>1</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2942,16 +2730,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>1</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2976,18 +2761,15 @@
         <v>-351186.7850751301</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3012,18 +2794,15 @@
         <v>-350262.7850751301</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3048,18 +2827,15 @@
         <v>-360262.7850751301</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3084,18 +2860,15 @@
         <v>-379132.30407513</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3120,18 +2893,15 @@
         <v>-378613.1991751301</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3156,18 +2926,15 @@
         <v>-377689.1991751301</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3194,16 +2961,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3230,16 +2994,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3264,18 +3025,15 @@
         <v>-378089.0709751301</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3302,16 +3060,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3338,16 +3093,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>1</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3374,16 +3126,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3410,16 +3159,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3446,16 +3192,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3482,16 +3225,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3518,16 +3258,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3554,16 +3291,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3588,18 +3322,15 @@
         <v>-402875.9856075901</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3624,18 +3355,15 @@
         <v>-409403.8140075901</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3660,18 +3388,15 @@
         <v>-409403.8140075901</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3696,18 +3421,15 @@
         <v>-409403.8140075901</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3734,16 +3456,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3768,18 +3487,15 @@
         <v>-428264.7383075901</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3806,16 +3522,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3842,16 +3555,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3878,16 +3588,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3912,18 +3619,15 @@
         <v>-457692.6452075901</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3950,16 +3654,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3986,16 +3687,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4022,16 +3720,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4056,18 +3751,15 @@
         <v>-458463.2999075901</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4092,18 +3784,15 @@
         <v>-458463.2999075901</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4128,18 +3817,15 @@
         <v>-458434.4234075901</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4164,18 +3850,15 @@
         <v>-458031.1331075901</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4200,18 +3883,15 @@
         <v>-458031.1331075901</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4236,18 +3916,15 @@
         <v>-919254.7014075901</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4272,18 +3949,15 @@
         <v>-953507.7121075901</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4310,16 +3984,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4346,16 +4017,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4382,16 +4050,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4418,16 +4083,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4454,16 +4116,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4490,16 +4149,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4526,16 +4182,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4562,16 +4215,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4598,16 +4248,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4634,16 +4281,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4670,16 +4314,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4706,16 +4347,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4742,16 +4380,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4778,16 +4413,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4814,16 +4446,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4850,16 +4479,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4886,16 +4512,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4922,16 +4545,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4958,16 +4578,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4994,16 +4611,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5030,16 +4644,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5066,16 +4677,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5102,16 +4710,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5138,16 +4743,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5174,16 +4776,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5210,16 +4809,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5246,16 +4842,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5282,16 +4875,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5318,16 +4908,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5354,16 +4941,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5390,16 +4974,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5426,16 +5007,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5462,16 +5040,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5498,16 +5073,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5534,16 +5106,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5570,16 +5139,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5606,16 +5172,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5642,16 +5205,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5678,16 +5238,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5714,16 +5271,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5750,16 +5304,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5786,16 +5337,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5822,16 +5370,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5858,16 +5403,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5894,16 +5436,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5930,16 +5469,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5966,16 +5502,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6002,16 +5535,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6038,16 +5568,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6074,16 +5601,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6110,16 +5634,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6146,16 +5667,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6182,16 +5700,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6218,16 +5733,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6254,16 +5766,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6290,16 +5799,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6326,16 +5832,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6362,16 +5865,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6398,16 +5898,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6434,16 +5931,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6470,16 +5964,13 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6506,16 +5997,13 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6542,16 +6030,13 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6578,16 +6063,13 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6614,16 +6096,13 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6650,16 +6129,13 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6686,16 +6162,13 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6722,16 +6195,13 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6758,16 +6228,13 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6794,16 +6261,13 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6830,16 +6294,13 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6866,16 +6327,13 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6902,16 +6360,13 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6938,16 +6393,13 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6974,16 +6426,13 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7010,16 +6459,13 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7046,16 +6492,13 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7082,16 +6525,13 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7118,16 +6558,13 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7154,16 +6591,13 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7190,16 +6624,13 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7226,16 +6657,13 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7262,16 +6690,13 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7298,16 +6723,13 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7334,16 +6756,13 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7370,16 +6789,13 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7406,16 +6822,13 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7442,16 +6855,13 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7478,16 +6888,13 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7514,16 +6921,13 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7550,16 +6954,13 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7586,16 +6987,13 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7622,16 +7020,13 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7658,16 +7053,13 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7694,16 +7086,13 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7730,16 +7119,13 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7766,16 +7152,13 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7802,16 +7185,13 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7838,16 +7218,13 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7874,16 +7251,13 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7910,16 +7284,13 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7946,16 +7317,13 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7982,16 +7350,13 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8018,16 +7383,13 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8054,16 +7416,13 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8090,16 +7449,13 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8126,16 +7482,13 @@
       <c r="H215" t="n">
         <v>0</v>
       </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8162,16 +7515,13 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8198,16 +7548,13 @@
       <c r="H217" t="n">
         <v>0</v>
       </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8234,16 +7581,13 @@
       <c r="H218" t="n">
         <v>0</v>
       </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8270,16 +7614,13 @@
       <c r="H219" t="n">
         <v>0</v>
       </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8306,16 +7647,13 @@
       <c r="H220" t="n">
         <v>0</v>
       </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8342,16 +7680,13 @@
       <c r="H221" t="n">
         <v>0</v>
       </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8378,16 +7713,13 @@
       <c r="H222" t="n">
         <v>0</v>
       </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8414,16 +7746,13 @@
       <c r="H223" t="n">
         <v>0</v>
       </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8450,16 +7779,13 @@
       <c r="H224" t="n">
         <v>0</v>
       </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8486,16 +7812,13 @@
       <c r="H225" t="n">
         <v>0</v>
       </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8522,16 +7845,13 @@
       <c r="H226" t="n">
         <v>0</v>
       </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8558,16 +7878,13 @@
       <c r="H227" t="n">
         <v>0</v>
       </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8594,16 +7911,13 @@
       <c r="H228" t="n">
         <v>0</v>
       </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8630,16 +7944,13 @@
       <c r="H229" t="n">
         <v>0</v>
       </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8666,16 +7977,13 @@
       <c r="H230" t="n">
         <v>0</v>
       </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8702,16 +8010,13 @@
       <c r="H231" t="n">
         <v>0</v>
       </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8738,16 +8043,13 @@
       <c r="H232" t="n">
         <v>0</v>
       </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8774,16 +8076,13 @@
       <c r="H233" t="n">
         <v>0</v>
       </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8810,16 +8109,13 @@
       <c r="H234" t="n">
         <v>0</v>
       </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8846,16 +8142,13 @@
       <c r="H235" t="n">
         <v>0</v>
       </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8882,16 +8175,13 @@
       <c r="H236" t="n">
         <v>0</v>
       </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8918,16 +8208,13 @@
       <c r="H237" t="n">
         <v>0</v>
       </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8954,16 +8241,13 @@
       <c r="H238" t="n">
         <v>0</v>
       </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8990,16 +8274,13 @@
       <c r="H239" t="n">
         <v>0</v>
       </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9024,22 +8305,15 @@
         <v>-1294159.29838195</v>
       </c>
       <c r="H240" t="n">
-        <v>1</v>
-      </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
-      <c r="J240" t="n">
-        <v>52.13</v>
-      </c>
-      <c r="K240" t="n">
-        <v>52.13</v>
-      </c>
-      <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I240" t="inlineStr"/>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9064,26 +8338,21 @@
         <v>-1310812.23888195</v>
       </c>
       <c r="H241" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I241" t="n">
-        <v>0</v>
-      </c>
-      <c r="J241" t="n">
         <v>52.11</v>
       </c>
-      <c r="K241" t="n">
-        <v>52.13</v>
-      </c>
-      <c r="L241" t="inlineStr">
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9108,26 +8377,21 @@
         <v>-1307340.90618195</v>
       </c>
       <c r="H242" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I242" t="n">
-        <v>0</v>
-      </c>
-      <c r="J242" t="n">
         <v>52.07</v>
       </c>
-      <c r="K242" t="n">
-        <v>52.13</v>
-      </c>
-      <c r="L242" t="inlineStr">
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9152,26 +8416,21 @@
         <v>-1333810.80618195</v>
       </c>
       <c r="H243" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I243" t="n">
-        <v>0</v>
-      </c>
-      <c r="J243" t="n">
         <v>52.11</v>
       </c>
-      <c r="K243" t="n">
-        <v>52.13</v>
-      </c>
-      <c r="L243" t="inlineStr">
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9196,26 +8455,21 @@
         <v>-1315565.26458195</v>
       </c>
       <c r="H244" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I244" t="n">
-        <v>0</v>
-      </c>
-      <c r="J244" t="n">
         <v>52</v>
       </c>
-      <c r="K244" t="n">
-        <v>52.13</v>
-      </c>
-      <c r="L244" t="inlineStr">
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9240,26 +8494,21 @@
         <v>-1327071.85858195</v>
       </c>
       <c r="H245" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I245" t="n">
-        <v>0</v>
-      </c>
-      <c r="J245" t="n">
         <v>52.18</v>
       </c>
-      <c r="K245" t="n">
-        <v>52.13</v>
-      </c>
-      <c r="L245" t="inlineStr">
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9284,26 +8533,21 @@
         <v>-1327071.85858195</v>
       </c>
       <c r="H246" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I246" t="n">
-        <v>0</v>
-      </c>
-      <c r="J246" t="n">
         <v>52</v>
       </c>
-      <c r="K246" t="n">
-        <v>52.13</v>
-      </c>
-      <c r="L246" t="inlineStr">
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9328,26 +8572,21 @@
         <v>-1326976.07308195</v>
       </c>
       <c r="H247" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I247" t="n">
-        <v>0</v>
-      </c>
-      <c r="J247" t="n">
         <v>52</v>
       </c>
-      <c r="K247" t="n">
-        <v>52.13</v>
-      </c>
-      <c r="L247" t="inlineStr">
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -9372,26 +8611,21 @@
         <v>-1333411.80788195</v>
       </c>
       <c r="H248" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I248" t="n">
-        <v>0</v>
-      </c>
-      <c r="J248" t="n">
         <v>52.2</v>
       </c>
-      <c r="K248" t="n">
-        <v>52.13</v>
-      </c>
-      <c r="L248" t="inlineStr">
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -9416,26 +8650,21 @@
         <v>-1323396.83208195</v>
       </c>
       <c r="H249" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I249" t="n">
-        <v>0</v>
-      </c>
-      <c r="J249" t="n">
         <v>52.06</v>
       </c>
-      <c r="K249" t="n">
-        <v>52.13</v>
-      </c>
-      <c r="L249" t="inlineStr">
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-      <c r="N249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -9460,26 +8689,21 @@
         <v>-1322407.13208195</v>
       </c>
       <c r="H250" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I250" t="n">
-        <v>0</v>
-      </c>
-      <c r="J250" t="n">
         <v>52.22</v>
       </c>
-      <c r="K250" t="n">
-        <v>52.13</v>
-      </c>
-      <c r="L250" t="inlineStr">
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -9504,26 +8728,21 @@
         <v>-1294223.37688195</v>
       </c>
       <c r="H251" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I251" t="n">
-        <v>0</v>
-      </c>
-      <c r="J251" t="n">
         <v>52.3</v>
       </c>
-      <c r="K251" t="n">
-        <v>52.13</v>
-      </c>
-      <c r="L251" t="inlineStr">
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-      <c r="N251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -9548,26 +8767,21 @@
         <v>-1344285.83638195</v>
       </c>
       <c r="H252" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I252" t="n">
-        <v>0</v>
-      </c>
-      <c r="J252" t="n">
         <v>52.31</v>
       </c>
-      <c r="K252" t="n">
-        <v>52.13</v>
-      </c>
-      <c r="L252" t="inlineStr">
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-      <c r="N252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -9592,26 +8806,21 @@
         <v>-1300870.42698195</v>
       </c>
       <c r="H253" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I253" t="n">
-        <v>0</v>
-      </c>
-      <c r="J253" t="n">
         <v>52.28</v>
       </c>
-      <c r="K253" t="n">
-        <v>52.13</v>
-      </c>
-      <c r="L253" t="inlineStr">
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M253" t="n">
-        <v>1</v>
-      </c>
-      <c r="N253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -9636,26 +8845,19 @@
         <v>-1279949.68558195</v>
       </c>
       <c r="H254" t="n">
-        <v>1</v>
-      </c>
-      <c r="I254" t="n">
-        <v>0</v>
-      </c>
-      <c r="J254" t="n">
-        <v>52.41</v>
-      </c>
-      <c r="K254" t="n">
-        <v>52.13</v>
-      </c>
-      <c r="L254" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I254" t="inlineStr"/>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M254" t="n">
-        <v>1</v>
-      </c>
-      <c r="N254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -9682,22 +8884,17 @@
       <c r="H255" t="n">
         <v>0</v>
       </c>
-      <c r="I255" t="n">
-        <v>0</v>
-      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="n">
-        <v>52.13</v>
-      </c>
-      <c r="L255" t="inlineStr">
+      <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M255" t="n">
-        <v>1</v>
-      </c>
-      <c r="N255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -9724,22 +8921,17 @@
       <c r="H256" t="n">
         <v>0</v>
       </c>
-      <c r="I256" t="n">
-        <v>0</v>
-      </c>
+      <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="n">
-        <v>52.13</v>
-      </c>
-      <c r="L256" t="inlineStr">
+      <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M256" t="n">
-        <v>1</v>
-      </c>
-      <c r="N256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -9764,24 +8956,21 @@
         <v>-1280547.042281951</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="n">
-        <v>0</v>
+        <v>52.42</v>
       </c>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="n">
-        <v>52.13</v>
-      </c>
-      <c r="L257" t="inlineStr">
+      <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M257" t="n">
-        <v>1</v>
-      </c>
-      <c r="N257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -9808,22 +8997,17 @@
       <c r="H258" t="n">
         <v>0</v>
       </c>
-      <c r="I258" t="n">
-        <v>0</v>
-      </c>
+      <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="n">
-        <v>52.13</v>
-      </c>
-      <c r="L258" t="inlineStr">
+      <c r="K258" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M258" t="n">
-        <v>1</v>
-      </c>
-      <c r="N258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -9850,22 +9034,17 @@
       <c r="H259" t="n">
         <v>0</v>
       </c>
-      <c r="I259" t="n">
-        <v>0</v>
-      </c>
+      <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="n">
-        <v>52.13</v>
-      </c>
-      <c r="L259" t="inlineStr">
+      <c r="K259" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M259" t="n">
-        <v>1</v>
-      </c>
-      <c r="N259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -9892,22 +9071,17 @@
       <c r="H260" t="n">
         <v>0</v>
       </c>
-      <c r="I260" t="n">
-        <v>0</v>
-      </c>
+      <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="n">
-        <v>52.13</v>
-      </c>
-      <c r="L260" t="inlineStr">
+      <c r="K260" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M260" t="n">
-        <v>1</v>
-      </c>
-      <c r="N260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -9934,22 +9108,17 @@
       <c r="H261" t="n">
         <v>0</v>
       </c>
-      <c r="I261" t="n">
-        <v>0</v>
-      </c>
+      <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="n">
-        <v>52.13</v>
-      </c>
-      <c r="L261" t="inlineStr">
+      <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M261" t="n">
-        <v>1</v>
-      </c>
-      <c r="N261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -9976,22 +9145,17 @@
       <c r="H262" t="n">
         <v>0</v>
       </c>
-      <c r="I262" t="n">
-        <v>0</v>
-      </c>
+      <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="n">
-        <v>52.13</v>
-      </c>
-      <c r="L262" t="inlineStr">
+      <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M262" t="n">
-        <v>1</v>
-      </c>
-      <c r="N262" t="inlineStr"/>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -10018,22 +9182,17 @@
       <c r="H263" t="n">
         <v>0</v>
       </c>
-      <c r="I263" t="n">
-        <v>0</v>
-      </c>
+      <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="n">
-        <v>52.13</v>
-      </c>
-      <c r="L263" t="inlineStr">
+      <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M263" t="n">
-        <v>1</v>
-      </c>
-      <c r="N263" t="inlineStr"/>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -10060,22 +9219,17 @@
       <c r="H264" t="n">
         <v>0</v>
       </c>
-      <c r="I264" t="n">
-        <v>0</v>
-      </c>
+      <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="n">
-        <v>52.13</v>
-      </c>
-      <c r="L264" t="inlineStr">
+      <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M264" t="n">
-        <v>1</v>
-      </c>
-      <c r="N264" t="inlineStr"/>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -10102,22 +9256,17 @@
       <c r="H265" t="n">
         <v>0</v>
       </c>
-      <c r="I265" t="n">
-        <v>0</v>
-      </c>
+      <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="n">
-        <v>52.13</v>
-      </c>
-      <c r="L265" t="inlineStr">
+      <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M265" t="n">
-        <v>1</v>
-      </c>
-      <c r="N265" t="inlineStr"/>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -10144,22 +9293,17 @@
       <c r="H266" t="n">
         <v>0</v>
       </c>
-      <c r="I266" t="n">
-        <v>0</v>
-      </c>
+      <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="n">
-        <v>52.13</v>
-      </c>
-      <c r="L266" t="inlineStr">
+      <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M266" t="n">
-        <v>1</v>
-      </c>
-      <c r="N266" t="inlineStr"/>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -10184,26 +9328,19 @@
         <v>-1281851.155781951</v>
       </c>
       <c r="H267" t="n">
-        <v>1</v>
-      </c>
-      <c r="I267" t="n">
-        <v>0</v>
-      </c>
-      <c r="J267" t="n">
-        <v>52.31</v>
-      </c>
-      <c r="K267" t="n">
-        <v>52.13</v>
-      </c>
-      <c r="L267" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I267" t="inlineStr"/>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M267" t="n">
-        <v>1</v>
-      </c>
-      <c r="N267" t="inlineStr"/>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -10228,26 +9365,19 @@
         <v>-1317868.885981951</v>
       </c>
       <c r="H268" t="n">
-        <v>1</v>
-      </c>
-      <c r="I268" t="n">
-        <v>0</v>
-      </c>
-      <c r="J268" t="n">
-        <v>52.35</v>
-      </c>
-      <c r="K268" t="n">
-        <v>52.13</v>
-      </c>
-      <c r="L268" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I268" t="inlineStr"/>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M268" t="n">
-        <v>1</v>
-      </c>
-      <c r="N268" t="inlineStr"/>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -10272,26 +9402,19 @@
         <v>-1321917.869581951</v>
       </c>
       <c r="H269" t="n">
-        <v>1</v>
-      </c>
-      <c r="I269" t="n">
-        <v>0</v>
-      </c>
-      <c r="J269" t="n">
-        <v>52.23</v>
-      </c>
-      <c r="K269" t="n">
-        <v>52.13</v>
-      </c>
-      <c r="L269" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I269" t="inlineStr"/>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M269" t="n">
-        <v>1</v>
-      </c>
-      <c r="N269" t="inlineStr"/>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -10316,26 +9439,19 @@
         <v>-1236191.677281951</v>
       </c>
       <c r="H270" t="n">
-        <v>1</v>
-      </c>
-      <c r="I270" t="n">
-        <v>0</v>
-      </c>
-      <c r="J270" t="n">
-        <v>52.13</v>
-      </c>
-      <c r="K270" t="n">
-        <v>52.13</v>
-      </c>
-      <c r="L270" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I270" t="inlineStr"/>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M270" t="n">
-        <v>1</v>
-      </c>
-      <c r="N270" t="inlineStr"/>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -10360,26 +9476,19 @@
         <v>-1230608.838881951</v>
       </c>
       <c r="H271" t="n">
-        <v>1</v>
-      </c>
-      <c r="I271" t="n">
-        <v>0</v>
-      </c>
-      <c r="J271" t="n">
-        <v>52.36</v>
-      </c>
-      <c r="K271" t="n">
-        <v>52.13</v>
-      </c>
-      <c r="L271" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I271" t="inlineStr"/>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M271" t="n">
-        <v>1</v>
-      </c>
-      <c r="N271" t="inlineStr"/>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -10404,26 +9513,19 @@
         <v>-1229685.374381951</v>
       </c>
       <c r="H272" t="n">
-        <v>1</v>
-      </c>
-      <c r="I272" t="n">
-        <v>0</v>
-      </c>
-      <c r="J272" t="n">
-        <v>52.4</v>
-      </c>
-      <c r="K272" t="n">
-        <v>52.13</v>
-      </c>
-      <c r="L272" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I272" t="inlineStr"/>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M272" t="n">
-        <v>1</v>
-      </c>
-      <c r="N272" t="inlineStr"/>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -10448,26 +9550,19 @@
         <v>-1229885.374381951</v>
       </c>
       <c r="H273" t="n">
-        <v>1</v>
-      </c>
-      <c r="I273" t="n">
-        <v>0</v>
-      </c>
-      <c r="J273" t="n">
-        <v>52.46</v>
-      </c>
-      <c r="K273" t="n">
-        <v>52.13</v>
-      </c>
-      <c r="L273" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I273" t="inlineStr"/>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M273" t="n">
-        <v>1</v>
-      </c>
-      <c r="N273" t="inlineStr"/>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -10492,26 +9587,19 @@
         <v>-1224186.552385531</v>
       </c>
       <c r="H274" t="n">
-        <v>1</v>
-      </c>
-      <c r="I274" t="n">
-        <v>0</v>
-      </c>
-      <c r="J274" t="n">
-        <v>52.27</v>
-      </c>
-      <c r="K274" t="n">
-        <v>52.13</v>
-      </c>
-      <c r="L274" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I274" t="inlineStr"/>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M274" t="n">
-        <v>1</v>
-      </c>
-      <c r="N274" t="inlineStr"/>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -10538,22 +9626,17 @@
       <c r="H275" t="n">
         <v>0</v>
       </c>
-      <c r="I275" t="n">
-        <v>0</v>
-      </c>
+      <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="n">
-        <v>52.13</v>
-      </c>
-      <c r="L275" t="inlineStr">
+      <c r="K275" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M275" t="n">
-        <v>1</v>
-      </c>
-      <c r="N275" t="inlineStr"/>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -10580,22 +9663,17 @@
       <c r="H276" t="n">
         <v>0</v>
       </c>
-      <c r="I276" t="n">
-        <v>0</v>
-      </c>
+      <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="n">
-        <v>52.13</v>
-      </c>
-      <c r="L276" t="inlineStr">
+      <c r="K276" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M276" t="n">
-        <v>1</v>
-      </c>
-      <c r="N276" t="inlineStr"/>
+      <c r="L276" t="n">
+        <v>1</v>
+      </c>
+      <c r="M276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -10622,22 +9700,17 @@
       <c r="H277" t="n">
         <v>0</v>
       </c>
-      <c r="I277" t="n">
-        <v>0</v>
-      </c>
+      <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="n">
-        <v>52.13</v>
-      </c>
-      <c r="L277" t="inlineStr">
+      <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M277" t="n">
-        <v>1</v>
-      </c>
-      <c r="N277" t="inlineStr"/>
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -10664,22 +9737,17 @@
       <c r="H278" t="n">
         <v>0</v>
       </c>
-      <c r="I278" t="n">
-        <v>0</v>
-      </c>
+      <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="n">
-        <v>52.13</v>
-      </c>
-      <c r="L278" t="inlineStr">
+      <c r="K278" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M278" t="n">
-        <v>1</v>
-      </c>
-      <c r="N278" t="inlineStr"/>
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -10706,22 +9774,17 @@
       <c r="H279" t="n">
         <v>0</v>
       </c>
-      <c r="I279" t="n">
-        <v>0</v>
-      </c>
+      <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="n">
-        <v>52.13</v>
-      </c>
-      <c r="L279" t="inlineStr">
+      <c r="K279" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M279" t="n">
-        <v>1</v>
-      </c>
-      <c r="N279" t="inlineStr"/>
+      <c r="L279" t="n">
+        <v>1</v>
+      </c>
+      <c r="M279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -10748,22 +9811,17 @@
       <c r="H280" t="n">
         <v>0</v>
       </c>
-      <c r="I280" t="n">
-        <v>0</v>
-      </c>
+      <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="n">
-        <v>52.13</v>
-      </c>
-      <c r="L280" t="inlineStr">
+      <c r="K280" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M280" t="n">
-        <v>1</v>
-      </c>
-      <c r="N280" t="inlineStr"/>
+      <c r="L280" t="n">
+        <v>1</v>
+      </c>
+      <c r="M280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -10790,22 +9848,17 @@
       <c r="H281" t="n">
         <v>0</v>
       </c>
-      <c r="I281" t="n">
-        <v>0</v>
-      </c>
+      <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="n">
-        <v>52.13</v>
-      </c>
-      <c r="L281" t="inlineStr">
+      <c r="K281" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M281" t="n">
-        <v>1</v>
-      </c>
-      <c r="N281" t="inlineStr"/>
+      <c r="L281" t="n">
+        <v>1</v>
+      </c>
+      <c r="M281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -10832,22 +9885,17 @@
       <c r="H282" t="n">
         <v>0</v>
       </c>
-      <c r="I282" t="n">
-        <v>0</v>
-      </c>
+      <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="n">
-        <v>52.13</v>
-      </c>
-      <c r="L282" t="inlineStr">
+      <c r="K282" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M282" t="n">
-        <v>1</v>
-      </c>
-      <c r="N282" t="inlineStr"/>
+      <c r="L282" t="n">
+        <v>1</v>
+      </c>
+      <c r="M282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -10874,22 +9922,17 @@
       <c r="H283" t="n">
         <v>0</v>
       </c>
-      <c r="I283" t="n">
-        <v>0</v>
-      </c>
+      <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="n">
-        <v>52.13</v>
-      </c>
-      <c r="L283" t="inlineStr">
+      <c r="K283" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M283" t="n">
-        <v>1</v>
-      </c>
-      <c r="N283" t="inlineStr"/>
+      <c r="L283" t="n">
+        <v>1</v>
+      </c>
+      <c r="M283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -10916,22 +9959,17 @@
       <c r="H284" t="n">
         <v>0</v>
       </c>
-      <c r="I284" t="n">
-        <v>0</v>
-      </c>
+      <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="n">
-        <v>52.13</v>
-      </c>
-      <c r="L284" t="inlineStr">
+      <c r="K284" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M284" t="n">
-        <v>1</v>
-      </c>
-      <c r="N284" t="inlineStr"/>
+      <c r="L284" t="n">
+        <v>1</v>
+      </c>
+      <c r="M284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -10958,22 +9996,17 @@
       <c r="H285" t="n">
         <v>0</v>
       </c>
-      <c r="I285" t="n">
-        <v>0</v>
-      </c>
+      <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="n">
-        <v>52.13</v>
-      </c>
-      <c r="L285" t="inlineStr">
+      <c r="K285" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M285" t="n">
-        <v>1</v>
-      </c>
-      <c r="N285" t="inlineStr"/>
+      <c r="L285" t="n">
+        <v>1</v>
+      </c>
+      <c r="M285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -11000,22 +10033,17 @@
       <c r="H286" t="n">
         <v>0</v>
       </c>
-      <c r="I286" t="n">
-        <v>0</v>
-      </c>
+      <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="n">
-        <v>52.13</v>
-      </c>
-      <c r="L286" t="inlineStr">
+      <c r="K286" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M286" t="n">
-        <v>1</v>
-      </c>
-      <c r="N286" t="inlineStr"/>
+      <c r="L286" t="n">
+        <v>1</v>
+      </c>
+      <c r="M286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -11042,22 +10070,17 @@
       <c r="H287" t="n">
         <v>0</v>
       </c>
-      <c r="I287" t="n">
-        <v>0</v>
-      </c>
+      <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="n">
-        <v>52.13</v>
-      </c>
-      <c r="L287" t="inlineStr">
+      <c r="K287" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M287" t="n">
-        <v>1</v>
-      </c>
-      <c r="N287" t="inlineStr"/>
+      <c r="L287" t="n">
+        <v>1</v>
+      </c>
+      <c r="M287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -11084,22 +10107,17 @@
       <c r="H288" t="n">
         <v>0</v>
       </c>
-      <c r="I288" t="n">
-        <v>0</v>
-      </c>
+      <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="n">
-        <v>52.13</v>
-      </c>
-      <c r="L288" t="inlineStr">
+      <c r="K288" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M288" t="n">
-        <v>1</v>
-      </c>
-      <c r="N288" t="inlineStr"/>
+      <c r="L288" t="n">
+        <v>1</v>
+      </c>
+      <c r="M288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -11126,22 +10144,17 @@
       <c r="H289" t="n">
         <v>0</v>
       </c>
-      <c r="I289" t="n">
-        <v>0</v>
-      </c>
+      <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="n">
-        <v>52.13</v>
-      </c>
-      <c r="L289" t="inlineStr">
+      <c r="K289" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M289" t="n">
-        <v>1</v>
-      </c>
-      <c r="N289" t="inlineStr"/>
+      <c r="L289" t="n">
+        <v>1</v>
+      </c>
+      <c r="M289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -11168,22 +10181,17 @@
       <c r="H290" t="n">
         <v>0</v>
       </c>
-      <c r="I290" t="n">
-        <v>0</v>
-      </c>
+      <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="n">
-        <v>52.13</v>
-      </c>
-      <c r="L290" t="inlineStr">
+      <c r="K290" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M290" t="n">
-        <v>1</v>
-      </c>
-      <c r="N290" t="inlineStr"/>
+      <c r="L290" t="n">
+        <v>1</v>
+      </c>
+      <c r="M290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -11210,22 +10218,17 @@
       <c r="H291" t="n">
         <v>0</v>
       </c>
-      <c r="I291" t="n">
-        <v>0</v>
-      </c>
+      <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="n">
-        <v>52.13</v>
-      </c>
-      <c r="L291" t="inlineStr">
+      <c r="K291" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M291" t="n">
-        <v>1</v>
-      </c>
-      <c r="N291" t="inlineStr"/>
+      <c r="L291" t="n">
+        <v>1</v>
+      </c>
+      <c r="M291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -11252,22 +10255,17 @@
       <c r="H292" t="n">
         <v>0</v>
       </c>
-      <c r="I292" t="n">
-        <v>0</v>
-      </c>
+      <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="n">
-        <v>52.13</v>
-      </c>
-      <c r="L292" t="inlineStr">
+      <c r="K292" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M292" t="n">
-        <v>1</v>
-      </c>
-      <c r="N292" t="inlineStr"/>
+      <c r="L292" t="n">
+        <v>1</v>
+      </c>
+      <c r="M292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -11294,22 +10292,17 @@
       <c r="H293" t="n">
         <v>0</v>
       </c>
-      <c r="I293" t="n">
-        <v>0</v>
-      </c>
+      <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="n">
-        <v>52.13</v>
-      </c>
-      <c r="L293" t="inlineStr">
+      <c r="K293" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M293" t="n">
-        <v>1</v>
-      </c>
-      <c r="N293" t="inlineStr"/>
+      <c r="L293" t="n">
+        <v>1</v>
+      </c>
+      <c r="M293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -11336,22 +10329,17 @@
       <c r="H294" t="n">
         <v>0</v>
       </c>
-      <c r="I294" t="n">
-        <v>0</v>
-      </c>
+      <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="n">
-        <v>52.13</v>
-      </c>
-      <c r="L294" t="inlineStr">
+      <c r="K294" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M294" t="n">
-        <v>1</v>
-      </c>
-      <c r="N294" t="inlineStr"/>
+      <c r="L294" t="n">
+        <v>1</v>
+      </c>
+      <c r="M294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -11378,22 +10366,17 @@
       <c r="H295" t="n">
         <v>0</v>
       </c>
-      <c r="I295" t="n">
-        <v>0</v>
-      </c>
+      <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="n">
-        <v>52.13</v>
-      </c>
-      <c r="L295" t="inlineStr">
+      <c r="K295" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M295" t="n">
-        <v>1</v>
-      </c>
-      <c r="N295" t="inlineStr"/>
+      <c r="L295" t="n">
+        <v>1</v>
+      </c>
+      <c r="M295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -11420,22 +10403,17 @@
       <c r="H296" t="n">
         <v>0</v>
       </c>
-      <c r="I296" t="n">
-        <v>0</v>
-      </c>
+      <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="n">
-        <v>52.13</v>
-      </c>
-      <c r="L296" t="inlineStr">
+      <c r="K296" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M296" t="n">
-        <v>1</v>
-      </c>
-      <c r="N296" t="inlineStr"/>
+      <c r="L296" t="n">
+        <v>1</v>
+      </c>
+      <c r="M296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -11462,22 +10440,17 @@
       <c r="H297" t="n">
         <v>0</v>
       </c>
-      <c r="I297" t="n">
-        <v>0</v>
-      </c>
+      <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="n">
-        <v>52.13</v>
-      </c>
-      <c r="L297" t="inlineStr">
+      <c r="K297" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M297" t="n">
-        <v>1</v>
-      </c>
-      <c r="N297" t="inlineStr"/>
+      <c r="L297" t="n">
+        <v>1</v>
+      </c>
+      <c r="M297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -11504,22 +10477,17 @@
       <c r="H298" t="n">
         <v>0</v>
       </c>
-      <c r="I298" t="n">
-        <v>0</v>
-      </c>
+      <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="n">
-        <v>52.13</v>
-      </c>
-      <c r="L298" t="inlineStr">
+      <c r="K298" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M298" t="n">
-        <v>1</v>
-      </c>
-      <c r="N298" t="inlineStr"/>
+      <c r="L298" t="n">
+        <v>1</v>
+      </c>
+      <c r="M298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -11546,22 +10514,17 @@
       <c r="H299" t="n">
         <v>0</v>
       </c>
-      <c r="I299" t="n">
-        <v>0</v>
-      </c>
+      <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="n">
-        <v>52.13</v>
-      </c>
-      <c r="L299" t="inlineStr">
+      <c r="K299" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M299" t="n">
-        <v>1</v>
-      </c>
-      <c r="N299" t="inlineStr"/>
+      <c r="L299" t="n">
+        <v>1</v>
+      </c>
+      <c r="M299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -11588,22 +10551,17 @@
       <c r="H300" t="n">
         <v>0</v>
       </c>
-      <c r="I300" t="n">
-        <v>0</v>
-      </c>
+      <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="n">
-        <v>52.13</v>
-      </c>
-      <c r="L300" t="inlineStr">
+      <c r="K300" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M300" t="n">
-        <v>1</v>
-      </c>
-      <c r="N300" t="inlineStr"/>
+      <c r="L300" t="n">
+        <v>1</v>
+      </c>
+      <c r="M300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -11630,22 +10588,17 @@
       <c r="H301" t="n">
         <v>0</v>
       </c>
-      <c r="I301" t="n">
-        <v>0</v>
-      </c>
+      <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="n">
-        <v>52.13</v>
-      </c>
-      <c r="L301" t="inlineStr">
+      <c r="K301" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M301" t="n">
-        <v>1</v>
-      </c>
-      <c r="N301" t="inlineStr"/>
+      <c r="L301" t="n">
+        <v>1</v>
+      </c>
+      <c r="M301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -11672,22 +10625,17 @@
       <c r="H302" t="n">
         <v>0</v>
       </c>
-      <c r="I302" t="n">
-        <v>0</v>
-      </c>
+      <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="n">
-        <v>52.13</v>
-      </c>
-      <c r="L302" t="inlineStr">
+      <c r="K302" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M302" t="n">
-        <v>1</v>
-      </c>
-      <c r="N302" t="inlineStr"/>
+      <c r="L302" t="n">
+        <v>1</v>
+      </c>
+      <c r="M302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -11714,22 +10662,17 @@
       <c r="H303" t="n">
         <v>0</v>
       </c>
-      <c r="I303" t="n">
-        <v>0</v>
-      </c>
+      <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="n">
-        <v>52.13</v>
-      </c>
-      <c r="L303" t="inlineStr">
+      <c r="K303" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M303" t="n">
-        <v>1</v>
-      </c>
-      <c r="N303" t="inlineStr"/>
+      <c r="L303" t="n">
+        <v>1</v>
+      </c>
+      <c r="M303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -11756,22 +10699,17 @@
       <c r="H304" t="n">
         <v>0</v>
       </c>
-      <c r="I304" t="n">
-        <v>0</v>
-      </c>
+      <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="n">
-        <v>52.13</v>
-      </c>
-      <c r="L304" t="inlineStr">
+      <c r="K304" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M304" t="n">
-        <v>1</v>
-      </c>
-      <c r="N304" t="inlineStr"/>
+      <c r="L304" t="n">
+        <v>1</v>
+      </c>
+      <c r="M304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -11798,22 +10736,17 @@
       <c r="H305" t="n">
         <v>0</v>
       </c>
-      <c r="I305" t="n">
-        <v>0</v>
-      </c>
+      <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="n">
-        <v>52.13</v>
-      </c>
-      <c r="L305" t="inlineStr">
+      <c r="K305" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M305" t="n">
-        <v>1</v>
-      </c>
-      <c r="N305" t="inlineStr"/>
+      <c r="L305" t="n">
+        <v>1</v>
+      </c>
+      <c r="M305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -11840,22 +10773,17 @@
       <c r="H306" t="n">
         <v>0</v>
       </c>
-      <c r="I306" t="n">
-        <v>0</v>
-      </c>
+      <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="n">
-        <v>52.13</v>
-      </c>
-      <c r="L306" t="inlineStr">
+      <c r="K306" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M306" t="n">
-        <v>1</v>
-      </c>
-      <c r="N306" t="inlineStr"/>
+      <c r="L306" t="n">
+        <v>1</v>
+      </c>
+      <c r="M306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -11882,22 +10810,17 @@
       <c r="H307" t="n">
         <v>0</v>
       </c>
-      <c r="I307" t="n">
-        <v>0</v>
-      </c>
+      <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="n">
-        <v>52.13</v>
-      </c>
-      <c r="L307" t="inlineStr">
+      <c r="K307" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M307" t="n">
-        <v>1</v>
-      </c>
-      <c r="N307" t="inlineStr"/>
+      <c r="L307" t="n">
+        <v>1</v>
+      </c>
+      <c r="M307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -11924,22 +10847,17 @@
       <c r="H308" t="n">
         <v>0</v>
       </c>
-      <c r="I308" t="n">
-        <v>0</v>
-      </c>
+      <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="n">
-        <v>52.13</v>
-      </c>
-      <c r="L308" t="inlineStr">
+      <c r="K308" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M308" t="n">
-        <v>1</v>
-      </c>
-      <c r="N308" t="inlineStr"/>
+      <c r="L308" t="n">
+        <v>1</v>
+      </c>
+      <c r="M308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -11966,22 +10884,17 @@
       <c r="H309" t="n">
         <v>0</v>
       </c>
-      <c r="I309" t="n">
-        <v>0</v>
-      </c>
+      <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="n">
-        <v>52.13</v>
-      </c>
-      <c r="L309" t="inlineStr">
+      <c r="K309" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M309" t="n">
-        <v>1</v>
-      </c>
-      <c r="N309" t="inlineStr"/>
+      <c r="L309" t="n">
+        <v>1</v>
+      </c>
+      <c r="M309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -12008,22 +10921,17 @@
       <c r="H310" t="n">
         <v>0</v>
       </c>
-      <c r="I310" t="n">
-        <v>0</v>
-      </c>
+      <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="n">
-        <v>52.13</v>
-      </c>
-      <c r="L310" t="inlineStr">
+      <c r="K310" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M310" t="n">
-        <v>1</v>
-      </c>
-      <c r="N310" t="inlineStr"/>
+      <c r="L310" t="n">
+        <v>1</v>
+      </c>
+      <c r="M310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -12050,22 +10958,17 @@
       <c r="H311" t="n">
         <v>0</v>
       </c>
-      <c r="I311" t="n">
-        <v>0</v>
-      </c>
+      <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="n">
-        <v>52.13</v>
-      </c>
-      <c r="L311" t="inlineStr">
+      <c r="K311" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M311" t="n">
-        <v>1</v>
-      </c>
-      <c r="N311" t="inlineStr"/>
+      <c r="L311" t="n">
+        <v>1</v>
+      </c>
+      <c r="M311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -12092,22 +10995,17 @@
       <c r="H312" t="n">
         <v>0</v>
       </c>
-      <c r="I312" t="n">
-        <v>0</v>
-      </c>
+      <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="n">
-        <v>52.13</v>
-      </c>
-      <c r="L312" t="inlineStr">
+      <c r="K312" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M312" t="n">
-        <v>1</v>
-      </c>
-      <c r="N312" t="inlineStr"/>
+      <c r="L312" t="n">
+        <v>1</v>
+      </c>
+      <c r="M312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -12134,22 +11032,17 @@
       <c r="H313" t="n">
         <v>0</v>
       </c>
-      <c r="I313" t="n">
-        <v>0</v>
-      </c>
+      <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="n">
-        <v>52.13</v>
-      </c>
-      <c r="L313" t="inlineStr">
+      <c r="K313" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M313" t="n">
-        <v>1</v>
-      </c>
-      <c r="N313" t="inlineStr"/>
+      <c r="L313" t="n">
+        <v>1</v>
+      </c>
+      <c r="M313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -12176,22 +11069,17 @@
       <c r="H314" t="n">
         <v>0</v>
       </c>
-      <c r="I314" t="n">
-        <v>0</v>
-      </c>
+      <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="n">
-        <v>52.13</v>
-      </c>
-      <c r="L314" t="inlineStr">
+      <c r="K314" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M314" t="n">
-        <v>1</v>
-      </c>
-      <c r="N314" t="inlineStr"/>
+      <c r="L314" t="n">
+        <v>1</v>
+      </c>
+      <c r="M314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -12218,22 +11106,17 @@
       <c r="H315" t="n">
         <v>0</v>
       </c>
-      <c r="I315" t="n">
-        <v>0</v>
-      </c>
+      <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="n">
-        <v>52.13</v>
-      </c>
-      <c r="L315" t="inlineStr">
+      <c r="K315" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M315" t="n">
-        <v>1</v>
-      </c>
-      <c r="N315" t="inlineStr"/>
+      <c r="L315" t="n">
+        <v>1</v>
+      </c>
+      <c r="M315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -12260,22 +11143,17 @@
       <c r="H316" t="n">
         <v>0</v>
       </c>
-      <c r="I316" t="n">
-        <v>0</v>
-      </c>
+      <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="n">
-        <v>52.13</v>
-      </c>
-      <c r="L316" t="inlineStr">
+      <c r="K316" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M316" t="n">
-        <v>1</v>
-      </c>
-      <c r="N316" t="inlineStr"/>
+      <c r="L316" t="n">
+        <v>1</v>
+      </c>
+      <c r="M316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -12302,22 +11180,17 @@
       <c r="H317" t="n">
         <v>0</v>
       </c>
-      <c r="I317" t="n">
-        <v>0</v>
-      </c>
+      <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="n">
-        <v>52.13</v>
-      </c>
-      <c r="L317" t="inlineStr">
+      <c r="K317" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M317" t="n">
-        <v>1</v>
-      </c>
-      <c r="N317" t="inlineStr"/>
+      <c r="L317" t="n">
+        <v>1</v>
+      </c>
+      <c r="M317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -12344,22 +11217,17 @@
       <c r="H318" t="n">
         <v>0</v>
       </c>
-      <c r="I318" t="n">
-        <v>0</v>
-      </c>
+      <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="n">
-        <v>52.13</v>
-      </c>
-      <c r="L318" t="inlineStr">
+      <c r="K318" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M318" t="n">
-        <v>1</v>
-      </c>
-      <c r="N318" t="inlineStr"/>
+      <c r="L318" t="n">
+        <v>1</v>
+      </c>
+      <c r="M318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -12386,22 +11254,17 @@
       <c r="H319" t="n">
         <v>0</v>
       </c>
-      <c r="I319" t="n">
-        <v>0</v>
-      </c>
+      <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="n">
-        <v>52.13</v>
-      </c>
-      <c r="L319" t="inlineStr">
+      <c r="K319" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M319" t="n">
-        <v>1</v>
-      </c>
-      <c r="N319" t="inlineStr"/>
+      <c r="L319" t="n">
+        <v>1</v>
+      </c>
+      <c r="M319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -12428,22 +11291,17 @@
       <c r="H320" t="n">
         <v>0</v>
       </c>
-      <c r="I320" t="n">
-        <v>0</v>
-      </c>
+      <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="n">
-        <v>52.13</v>
-      </c>
-      <c r="L320" t="inlineStr">
+      <c r="K320" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M320" t="n">
-        <v>1</v>
-      </c>
-      <c r="N320" t="inlineStr"/>
+      <c r="L320" t="n">
+        <v>1</v>
+      </c>
+      <c r="M320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
@@ -12470,22 +11328,17 @@
       <c r="H321" t="n">
         <v>0</v>
       </c>
-      <c r="I321" t="n">
-        <v>0</v>
-      </c>
+      <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="n">
-        <v>52.13</v>
-      </c>
-      <c r="L321" t="inlineStr">
+      <c r="K321" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M321" t="n">
-        <v>1</v>
-      </c>
-      <c r="N321" t="inlineStr"/>
+      <c r="L321" t="n">
+        <v>1</v>
+      </c>
+      <c r="M321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
@@ -12512,22 +11365,17 @@
       <c r="H322" t="n">
         <v>0</v>
       </c>
-      <c r="I322" t="n">
-        <v>0</v>
-      </c>
+      <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="n">
-        <v>52.13</v>
-      </c>
-      <c r="L322" t="inlineStr">
+      <c r="K322" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M322" t="n">
-        <v>1</v>
-      </c>
-      <c r="N322" t="inlineStr"/>
+      <c r="L322" t="n">
+        <v>1</v>
+      </c>
+      <c r="M322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
@@ -12554,22 +11402,17 @@
       <c r="H323" t="n">
         <v>0</v>
       </c>
-      <c r="I323" t="n">
-        <v>0</v>
-      </c>
+      <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="n">
-        <v>52.13</v>
-      </c>
-      <c r="L323" t="inlineStr">
+      <c r="K323" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M323" t="n">
-        <v>1</v>
-      </c>
-      <c r="N323" t="inlineStr"/>
+      <c r="L323" t="n">
+        <v>1</v>
+      </c>
+      <c r="M323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
@@ -12596,22 +11439,17 @@
       <c r="H324" t="n">
         <v>0</v>
       </c>
-      <c r="I324" t="n">
-        <v>0</v>
-      </c>
+      <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="n">
-        <v>52.13</v>
-      </c>
-      <c r="L324" t="inlineStr">
+      <c r="K324" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M324" t="n">
-        <v>1</v>
-      </c>
-      <c r="N324" t="inlineStr"/>
+      <c r="L324" t="n">
+        <v>1</v>
+      </c>
+      <c r="M324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
@@ -12638,22 +11476,17 @@
       <c r="H325" t="n">
         <v>0</v>
       </c>
-      <c r="I325" t="n">
-        <v>0</v>
-      </c>
+      <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="n">
-        <v>52.13</v>
-      </c>
-      <c r="L325" t="inlineStr">
+      <c r="K325" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M325" t="n">
-        <v>1</v>
-      </c>
-      <c r="N325" t="inlineStr"/>
+      <c r="L325" t="n">
+        <v>1</v>
+      </c>
+      <c r="M325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
@@ -12680,22 +11513,17 @@
       <c r="H326" t="n">
         <v>0</v>
       </c>
-      <c r="I326" t="n">
-        <v>0</v>
-      </c>
+      <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="n">
-        <v>52.13</v>
-      </c>
-      <c r="L326" t="inlineStr">
+      <c r="K326" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M326" t="n">
-        <v>1</v>
-      </c>
-      <c r="N326" t="inlineStr"/>
+      <c r="L326" t="n">
+        <v>1</v>
+      </c>
+      <c r="M326" t="inlineStr"/>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
@@ -12722,22 +11550,17 @@
       <c r="H327" t="n">
         <v>0</v>
       </c>
-      <c r="I327" t="n">
-        <v>0</v>
-      </c>
+      <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="n">
-        <v>52.13</v>
-      </c>
-      <c r="L327" t="inlineStr">
+      <c r="K327" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M327" t="n">
-        <v>1</v>
-      </c>
-      <c r="N327" t="inlineStr"/>
+      <c r="L327" t="n">
+        <v>1</v>
+      </c>
+      <c r="M327" t="inlineStr"/>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
@@ -12764,22 +11587,17 @@
       <c r="H328" t="n">
         <v>0</v>
       </c>
-      <c r="I328" t="n">
-        <v>0</v>
-      </c>
+      <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="n">
-        <v>52.13</v>
-      </c>
-      <c r="L328" t="inlineStr">
+      <c r="K328" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M328" t="n">
-        <v>1</v>
-      </c>
-      <c r="N328" t="inlineStr"/>
+      <c r="L328" t="n">
+        <v>1</v>
+      </c>
+      <c r="M328" t="inlineStr"/>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
@@ -12806,22 +11624,17 @@
       <c r="H329" t="n">
         <v>0</v>
       </c>
-      <c r="I329" t="n">
-        <v>0</v>
-      </c>
+      <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="n">
-        <v>52.13</v>
-      </c>
-      <c r="L329" t="inlineStr">
+      <c r="K329" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M329" t="n">
-        <v>1</v>
-      </c>
-      <c r="N329" t="inlineStr"/>
+      <c r="L329" t="n">
+        <v>1</v>
+      </c>
+      <c r="M329" t="inlineStr"/>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
@@ -12848,22 +11661,17 @@
       <c r="H330" t="n">
         <v>0</v>
       </c>
-      <c r="I330" t="n">
-        <v>0</v>
-      </c>
+      <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="n">
-        <v>52.13</v>
-      </c>
-      <c r="L330" t="inlineStr">
+      <c r="K330" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M330" t="n">
-        <v>1</v>
-      </c>
-      <c r="N330" t="inlineStr"/>
+      <c r="L330" t="n">
+        <v>1</v>
+      </c>
+      <c r="M330" t="inlineStr"/>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
@@ -12890,22 +11698,17 @@
       <c r="H331" t="n">
         <v>0</v>
       </c>
-      <c r="I331" t="n">
-        <v>0</v>
-      </c>
+      <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="n">
-        <v>52.13</v>
-      </c>
-      <c r="L331" t="inlineStr">
+      <c r="K331" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M331" t="n">
-        <v>1</v>
-      </c>
-      <c r="N331" t="inlineStr"/>
+      <c r="L331" t="n">
+        <v>1</v>
+      </c>
+      <c r="M331" t="inlineStr"/>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
@@ -12932,22 +11735,17 @@
       <c r="H332" t="n">
         <v>0</v>
       </c>
-      <c r="I332" t="n">
-        <v>0</v>
-      </c>
+      <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="n">
-        <v>52.13</v>
-      </c>
-      <c r="L332" t="inlineStr">
+      <c r="K332" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M332" t="n">
-        <v>1</v>
-      </c>
-      <c r="N332" t="inlineStr"/>
+      <c r="L332" t="n">
+        <v>1</v>
+      </c>
+      <c r="M332" t="inlineStr"/>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
@@ -12974,22 +11772,17 @@
       <c r="H333" t="n">
         <v>0</v>
       </c>
-      <c r="I333" t="n">
-        <v>0</v>
-      </c>
+      <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="n">
-        <v>52.13</v>
-      </c>
-      <c r="L333" t="inlineStr">
+      <c r="K333" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M333" t="n">
-        <v>1</v>
-      </c>
-      <c r="N333" t="inlineStr"/>
+      <c r="L333" t="n">
+        <v>1</v>
+      </c>
+      <c r="M333" t="inlineStr"/>
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
@@ -13016,22 +11809,17 @@
       <c r="H334" t="n">
         <v>0</v>
       </c>
-      <c r="I334" t="n">
-        <v>0</v>
-      </c>
+      <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="n">
-        <v>52.13</v>
-      </c>
-      <c r="L334" t="inlineStr">
+      <c r="K334" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M334" t="n">
-        <v>1</v>
-      </c>
-      <c r="N334" t="inlineStr"/>
+      <c r="L334" t="n">
+        <v>1</v>
+      </c>
+      <c r="M334" t="inlineStr"/>
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
@@ -13058,22 +11846,17 @@
       <c r="H335" t="n">
         <v>0</v>
       </c>
-      <c r="I335" t="n">
-        <v>0</v>
-      </c>
+      <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="n">
-        <v>52.13</v>
-      </c>
-      <c r="L335" t="inlineStr">
+      <c r="K335" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M335" t="n">
-        <v>1</v>
-      </c>
-      <c r="N335" t="inlineStr"/>
+      <c r="L335" t="n">
+        <v>1</v>
+      </c>
+      <c r="M335" t="inlineStr"/>
     </row>
     <row r="336">
       <c r="A336" s="1" t="n">
@@ -13100,22 +11883,17 @@
       <c r="H336" t="n">
         <v>0</v>
       </c>
-      <c r="I336" t="n">
-        <v>0</v>
-      </c>
+      <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="n">
-        <v>52.13</v>
-      </c>
-      <c r="L336" t="inlineStr">
+      <c r="K336" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M336" t="n">
-        <v>1</v>
-      </c>
-      <c r="N336" t="inlineStr"/>
+      <c r="L336" t="n">
+        <v>1</v>
+      </c>
+      <c r="M336" t="inlineStr"/>
     </row>
     <row r="337">
       <c r="A337" s="1" t="n">
@@ -13142,22 +11920,17 @@
       <c r="H337" t="n">
         <v>0</v>
       </c>
-      <c r="I337" t="n">
-        <v>0</v>
-      </c>
+      <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="n">
-        <v>52.13</v>
-      </c>
-      <c r="L337" t="inlineStr">
+      <c r="K337" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M337" t="n">
-        <v>1</v>
-      </c>
-      <c r="N337" t="inlineStr"/>
+      <c r="L337" t="n">
+        <v>1</v>
+      </c>
+      <c r="M337" t="inlineStr"/>
     </row>
     <row r="338">
       <c r="A338" s="1" t="n">
@@ -13184,22 +11957,17 @@
       <c r="H338" t="n">
         <v>0</v>
       </c>
-      <c r="I338" t="n">
-        <v>0</v>
-      </c>
+      <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="n">
-        <v>52.13</v>
-      </c>
-      <c r="L338" t="inlineStr">
+      <c r="K338" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M338" t="n">
-        <v>1</v>
-      </c>
-      <c r="N338" t="inlineStr"/>
+      <c r="L338" t="n">
+        <v>1</v>
+      </c>
+      <c r="M338" t="inlineStr"/>
     </row>
     <row r="339">
       <c r="A339" s="1" t="n">
@@ -13226,22 +11994,17 @@
       <c r="H339" t="n">
         <v>0</v>
       </c>
-      <c r="I339" t="n">
-        <v>0</v>
-      </c>
+      <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="n">
-        <v>52.13</v>
-      </c>
-      <c r="L339" t="inlineStr">
+      <c r="K339" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M339" t="n">
-        <v>1</v>
-      </c>
-      <c r="N339" t="inlineStr"/>
+      <c r="L339" t="n">
+        <v>1</v>
+      </c>
+      <c r="M339" t="inlineStr"/>
     </row>
     <row r="340">
       <c r="A340" s="1" t="n">
@@ -13268,22 +12031,17 @@
       <c r="H340" t="n">
         <v>0</v>
       </c>
-      <c r="I340" t="n">
-        <v>0</v>
-      </c>
+      <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="n">
-        <v>52.13</v>
-      </c>
-      <c r="L340" t="inlineStr">
+      <c r="K340" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M340" t="n">
-        <v>1</v>
-      </c>
-      <c r="N340" t="inlineStr"/>
+      <c r="L340" t="n">
+        <v>1</v>
+      </c>
+      <c r="M340" t="inlineStr"/>
     </row>
     <row r="341">
       <c r="A341" s="1" t="n">
@@ -13310,22 +12068,17 @@
       <c r="H341" t="n">
         <v>0</v>
       </c>
-      <c r="I341" t="n">
-        <v>0</v>
-      </c>
+      <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="n">
-        <v>52.13</v>
-      </c>
-      <c r="L341" t="inlineStr">
+      <c r="K341" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M341" t="n">
-        <v>1</v>
-      </c>
-      <c r="N341" t="inlineStr"/>
+      <c r="L341" t="n">
+        <v>1</v>
+      </c>
+      <c r="M341" t="inlineStr"/>
     </row>
     <row r="342">
       <c r="A342" s="1" t="n">
@@ -13352,22 +12105,17 @@
       <c r="H342" t="n">
         <v>0</v>
       </c>
-      <c r="I342" t="n">
-        <v>0</v>
-      </c>
+      <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="n">
-        <v>52.13</v>
-      </c>
-      <c r="L342" t="inlineStr">
+      <c r="K342" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M342" t="n">
-        <v>1</v>
-      </c>
-      <c r="N342" t="inlineStr"/>
+      <c r="L342" t="n">
+        <v>1</v>
+      </c>
+      <c r="M342" t="inlineStr"/>
     </row>
     <row r="343">
       <c r="A343" s="1" t="n">
@@ -13394,22 +12142,17 @@
       <c r="H343" t="n">
         <v>0</v>
       </c>
-      <c r="I343" t="n">
-        <v>0</v>
-      </c>
+      <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="n">
-        <v>52.13</v>
-      </c>
-      <c r="L343" t="inlineStr">
+      <c r="K343" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M343" t="n">
-        <v>1</v>
-      </c>
-      <c r="N343" t="inlineStr"/>
+      <c r="L343" t="n">
+        <v>1</v>
+      </c>
+      <c r="M343" t="inlineStr"/>
     </row>
     <row r="344">
       <c r="A344" s="1" t="n">
@@ -13436,22 +12179,17 @@
       <c r="H344" t="n">
         <v>0</v>
       </c>
-      <c r="I344" t="n">
-        <v>0</v>
-      </c>
+      <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="n">
-        <v>52.13</v>
-      </c>
-      <c r="L344" t="inlineStr">
+      <c r="K344" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M344" t="n">
-        <v>1</v>
-      </c>
-      <c r="N344" t="inlineStr"/>
+      <c r="L344" t="n">
+        <v>1</v>
+      </c>
+      <c r="M344" t="inlineStr"/>
     </row>
     <row r="345">
       <c r="A345" s="1" t="n">
@@ -13478,22 +12216,17 @@
       <c r="H345" t="n">
         <v>0</v>
       </c>
-      <c r="I345" t="n">
-        <v>0</v>
-      </c>
+      <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="n">
-        <v>52.13</v>
-      </c>
-      <c r="L345" t="inlineStr">
+      <c r="K345" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M345" t="n">
-        <v>1</v>
-      </c>
-      <c r="N345" t="inlineStr"/>
+      <c r="L345" t="n">
+        <v>1</v>
+      </c>
+      <c r="M345" t="inlineStr"/>
     </row>
     <row r="346">
       <c r="A346" s="1" t="n">
@@ -13520,22 +12253,17 @@
       <c r="H346" t="n">
         <v>0</v>
       </c>
-      <c r="I346" t="n">
-        <v>0</v>
-      </c>
+      <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="n">
-        <v>52.13</v>
-      </c>
-      <c r="L346" t="inlineStr">
+      <c r="K346" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M346" t="n">
-        <v>1</v>
-      </c>
-      <c r="N346" t="inlineStr"/>
+      <c r="L346" t="n">
+        <v>1</v>
+      </c>
+      <c r="M346" t="inlineStr"/>
     </row>
     <row r="347">
       <c r="A347" s="1" t="n">
@@ -13562,22 +12290,17 @@
       <c r="H347" t="n">
         <v>0</v>
       </c>
-      <c r="I347" t="n">
-        <v>0</v>
-      </c>
+      <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="n">
-        <v>52.13</v>
-      </c>
-      <c r="L347" t="inlineStr">
+      <c r="K347" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M347" t="n">
-        <v>1</v>
-      </c>
-      <c r="N347" t="inlineStr"/>
+      <c r="L347" t="n">
+        <v>1</v>
+      </c>
+      <c r="M347" t="inlineStr"/>
     </row>
     <row r="348">
       <c r="A348" s="1" t="n">
@@ -13604,22 +12327,17 @@
       <c r="H348" t="n">
         <v>0</v>
       </c>
-      <c r="I348" t="n">
-        <v>0</v>
-      </c>
+      <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="n">
-        <v>52.13</v>
-      </c>
-      <c r="L348" t="inlineStr">
+      <c r="K348" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M348" t="n">
-        <v>1</v>
-      </c>
-      <c r="N348" t="inlineStr"/>
+      <c r="L348" t="n">
+        <v>1</v>
+      </c>
+      <c r="M348" t="inlineStr"/>
     </row>
     <row r="349">
       <c r="A349" s="1" t="n">
@@ -13646,22 +12364,17 @@
       <c r="H349" t="n">
         <v>0</v>
       </c>
-      <c r="I349" t="n">
-        <v>0</v>
-      </c>
+      <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="n">
-        <v>52.13</v>
-      </c>
-      <c r="L349" t="inlineStr">
+      <c r="K349" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M349" t="n">
-        <v>1</v>
-      </c>
-      <c r="N349" t="inlineStr"/>
+      <c r="L349" t="n">
+        <v>1</v>
+      </c>
+      <c r="M349" t="inlineStr"/>
     </row>
     <row r="350">
       <c r="A350" s="1" t="n">
@@ -13688,22 +12401,17 @@
       <c r="H350" t="n">
         <v>0</v>
       </c>
-      <c r="I350" t="n">
-        <v>0</v>
-      </c>
+      <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="n">
-        <v>52.13</v>
-      </c>
-      <c r="L350" t="inlineStr">
+      <c r="K350" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M350" t="n">
-        <v>1</v>
-      </c>
-      <c r="N350" t="inlineStr"/>
+      <c r="L350" t="n">
+        <v>1</v>
+      </c>
+      <c r="M350" t="inlineStr"/>
     </row>
     <row r="351">
       <c r="A351" s="1" t="n">
@@ -13730,22 +12438,17 @@
       <c r="H351" t="n">
         <v>0</v>
       </c>
-      <c r="I351" t="n">
-        <v>0</v>
-      </c>
+      <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="n">
-        <v>52.13</v>
-      </c>
-      <c r="L351" t="inlineStr">
+      <c r="K351" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M351" t="n">
-        <v>1</v>
-      </c>
-      <c r="N351" t="inlineStr"/>
+      <c r="L351" t="n">
+        <v>1</v>
+      </c>
+      <c r="M351" t="inlineStr"/>
     </row>
     <row r="352">
       <c r="A352" s="1" t="n">
@@ -13772,22 +12475,17 @@
       <c r="H352" t="n">
         <v>0</v>
       </c>
-      <c r="I352" t="n">
-        <v>0</v>
-      </c>
+      <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="n">
-        <v>52.13</v>
-      </c>
-      <c r="L352" t="inlineStr">
+      <c r="K352" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M352" t="n">
-        <v>1</v>
-      </c>
-      <c r="N352" t="inlineStr"/>
+      <c r="L352" t="n">
+        <v>1</v>
+      </c>
+      <c r="M352" t="inlineStr"/>
     </row>
     <row r="353">
       <c r="A353" s="1" t="n">
@@ -13814,22 +12512,17 @@
       <c r="H353" t="n">
         <v>0</v>
       </c>
-      <c r="I353" t="n">
-        <v>0</v>
-      </c>
+      <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="n">
-        <v>52.13</v>
-      </c>
-      <c r="L353" t="inlineStr">
+      <c r="K353" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M353" t="n">
-        <v>1</v>
-      </c>
-      <c r="N353" t="inlineStr"/>
+      <c r="L353" t="n">
+        <v>1</v>
+      </c>
+      <c r="M353" t="inlineStr"/>
     </row>
     <row r="354">
       <c r="A354" s="1" t="n">
@@ -13856,22 +12549,17 @@
       <c r="H354" t="n">
         <v>0</v>
       </c>
-      <c r="I354" t="n">
-        <v>0</v>
-      </c>
+      <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="n">
-        <v>52.13</v>
-      </c>
-      <c r="L354" t="inlineStr">
+      <c r="K354" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M354" t="n">
-        <v>1</v>
-      </c>
-      <c r="N354" t="inlineStr"/>
+      <c r="L354" t="n">
+        <v>1</v>
+      </c>
+      <c r="M354" t="inlineStr"/>
     </row>
     <row r="355">
       <c r="A355" s="1" t="n">
@@ -13898,22 +12586,17 @@
       <c r="H355" t="n">
         <v>0</v>
       </c>
-      <c r="I355" t="n">
-        <v>0</v>
-      </c>
+      <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="n">
-        <v>52.13</v>
-      </c>
-      <c r="L355" t="inlineStr">
+      <c r="K355" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M355" t="n">
-        <v>1</v>
-      </c>
-      <c r="N355" t="inlineStr"/>
+      <c r="L355" t="n">
+        <v>1</v>
+      </c>
+      <c r="M355" t="inlineStr"/>
     </row>
     <row r="356">
       <c r="A356" s="1" t="n">
@@ -13940,22 +12623,17 @@
       <c r="H356" t="n">
         <v>0</v>
       </c>
-      <c r="I356" t="n">
-        <v>0</v>
-      </c>
+      <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="n">
-        <v>52.13</v>
-      </c>
-      <c r="L356" t="inlineStr">
+      <c r="K356" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M356" t="n">
-        <v>1</v>
-      </c>
-      <c r="N356" t="inlineStr"/>
+      <c r="L356" t="n">
+        <v>1</v>
+      </c>
+      <c r="M356" t="inlineStr"/>
     </row>
     <row r="357">
       <c r="A357" s="1" t="n">
@@ -13982,22 +12660,17 @@
       <c r="H357" t="n">
         <v>0</v>
       </c>
-      <c r="I357" t="n">
-        <v>0</v>
-      </c>
+      <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="n">
-        <v>52.13</v>
-      </c>
-      <c r="L357" t="inlineStr">
+      <c r="K357" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M357" t="n">
-        <v>1</v>
-      </c>
-      <c r="N357" t="inlineStr"/>
+      <c r="L357" t="n">
+        <v>1</v>
+      </c>
+      <c r="M357" t="inlineStr"/>
     </row>
     <row r="358">
       <c r="A358" s="1" t="n">
@@ -14024,22 +12697,17 @@
       <c r="H358" t="n">
         <v>0</v>
       </c>
-      <c r="I358" t="n">
-        <v>0</v>
-      </c>
+      <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="n">
-        <v>52.13</v>
-      </c>
-      <c r="L358" t="inlineStr">
+      <c r="K358" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M358" t="n">
-        <v>1</v>
-      </c>
-      <c r="N358" t="inlineStr"/>
+      <c r="L358" t="n">
+        <v>1</v>
+      </c>
+      <c r="M358" t="inlineStr"/>
     </row>
     <row r="359">
       <c r="A359" s="1" t="n">
@@ -14066,22 +12734,17 @@
       <c r="H359" t="n">
         <v>0</v>
       </c>
-      <c r="I359" t="n">
-        <v>0</v>
-      </c>
+      <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="n">
-        <v>52.13</v>
-      </c>
-      <c r="L359" t="inlineStr">
+      <c r="K359" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M359" t="n">
-        <v>1</v>
-      </c>
-      <c r="N359" t="inlineStr"/>
+      <c r="L359" t="n">
+        <v>1</v>
+      </c>
+      <c r="M359" t="inlineStr"/>
     </row>
     <row r="360">
       <c r="A360" s="1" t="n">
@@ -14108,22 +12771,17 @@
       <c r="H360" t="n">
         <v>0</v>
       </c>
-      <c r="I360" t="n">
-        <v>0</v>
-      </c>
+      <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="n">
-        <v>52.13</v>
-      </c>
-      <c r="L360" t="inlineStr">
+      <c r="K360" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M360" t="n">
-        <v>1</v>
-      </c>
-      <c r="N360" t="inlineStr"/>
+      <c r="L360" t="n">
+        <v>1</v>
+      </c>
+      <c r="M360" t="inlineStr"/>
     </row>
     <row r="361">
       <c r="A361" s="1" t="n">
@@ -14150,22 +12808,17 @@
       <c r="H361" t="n">
         <v>0</v>
       </c>
-      <c r="I361" t="n">
-        <v>0</v>
-      </c>
+      <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="n">
-        <v>52.13</v>
-      </c>
-      <c r="L361" t="inlineStr">
+      <c r="K361" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M361" t="n">
-        <v>1</v>
-      </c>
-      <c r="N361" t="inlineStr"/>
+      <c r="L361" t="n">
+        <v>1</v>
+      </c>
+      <c r="M361" t="inlineStr"/>
     </row>
     <row r="362">
       <c r="A362" s="1" t="n">
@@ -14192,22 +12845,17 @@
       <c r="H362" t="n">
         <v>0</v>
       </c>
-      <c r="I362" t="n">
-        <v>0</v>
-      </c>
+      <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="n">
-        <v>52.13</v>
-      </c>
-      <c r="L362" t="inlineStr">
+      <c r="K362" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M362" t="n">
-        <v>1</v>
-      </c>
-      <c r="N362" t="inlineStr"/>
+      <c r="L362" t="n">
+        <v>1</v>
+      </c>
+      <c r="M362" t="inlineStr"/>
     </row>
     <row r="363">
       <c r="A363" s="1" t="n">
@@ -14234,22 +12882,17 @@
       <c r="H363" t="n">
         <v>0</v>
       </c>
-      <c r="I363" t="n">
-        <v>0</v>
-      </c>
+      <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="n">
-        <v>52.13</v>
-      </c>
-      <c r="L363" t="inlineStr">
+      <c r="K363" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M363" t="n">
-        <v>1</v>
-      </c>
-      <c r="N363" t="inlineStr"/>
+      <c r="L363" t="n">
+        <v>1</v>
+      </c>
+      <c r="M363" t="inlineStr"/>
     </row>
     <row r="364">
       <c r="A364" s="1" t="n">
@@ -14276,22 +12919,17 @@
       <c r="H364" t="n">
         <v>0</v>
       </c>
-      <c r="I364" t="n">
-        <v>0</v>
-      </c>
+      <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="n">
-        <v>52.13</v>
-      </c>
-      <c r="L364" t="inlineStr">
+      <c r="K364" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M364" t="n">
-        <v>1</v>
-      </c>
-      <c r="N364" t="inlineStr"/>
+      <c r="L364" t="n">
+        <v>1</v>
+      </c>
+      <c r="M364" t="inlineStr"/>
     </row>
     <row r="365">
       <c r="A365" s="1" t="n">
@@ -14318,22 +12956,17 @@
       <c r="H365" t="n">
         <v>0</v>
       </c>
-      <c r="I365" t="n">
-        <v>0</v>
-      </c>
+      <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="n">
-        <v>52.13</v>
-      </c>
-      <c r="L365" t="inlineStr">
+      <c r="K365" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M365" t="n">
-        <v>1</v>
-      </c>
-      <c r="N365" t="inlineStr"/>
+      <c r="L365" t="n">
+        <v>1</v>
+      </c>
+      <c r="M365" t="inlineStr"/>
     </row>
     <row r="366">
       <c r="A366" s="1" t="n">
@@ -14360,22 +12993,17 @@
       <c r="H366" t="n">
         <v>0</v>
       </c>
-      <c r="I366" t="n">
-        <v>0</v>
-      </c>
+      <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="n">
-        <v>52.13</v>
-      </c>
-      <c r="L366" t="inlineStr">
+      <c r="K366" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M366" t="n">
-        <v>1</v>
-      </c>
-      <c r="N366" t="inlineStr"/>
+      <c r="L366" t="n">
+        <v>1</v>
+      </c>
+      <c r="M366" t="inlineStr"/>
     </row>
     <row r="367">
       <c r="A367" s="1" t="n">
@@ -14402,22 +13030,17 @@
       <c r="H367" t="n">
         <v>0</v>
       </c>
-      <c r="I367" t="n">
-        <v>0</v>
-      </c>
+      <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="n">
-        <v>52.13</v>
-      </c>
-      <c r="L367" t="inlineStr">
+      <c r="K367" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M367" t="n">
-        <v>1</v>
-      </c>
-      <c r="N367" t="inlineStr"/>
+      <c r="L367" t="n">
+        <v>1</v>
+      </c>
+      <c r="M367" t="inlineStr"/>
     </row>
     <row r="368">
       <c r="A368" s="1" t="n">
@@ -14444,22 +13067,17 @@
       <c r="H368" t="n">
         <v>0</v>
       </c>
-      <c r="I368" t="n">
-        <v>0</v>
-      </c>
+      <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="n">
-        <v>52.13</v>
-      </c>
-      <c r="L368" t="inlineStr">
+      <c r="K368" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M368" t="n">
-        <v>1</v>
-      </c>
-      <c r="N368" t="inlineStr"/>
+      <c r="L368" t="n">
+        <v>1</v>
+      </c>
+      <c r="M368" t="inlineStr"/>
     </row>
     <row r="369">
       <c r="A369" s="1" t="n">
@@ -14486,22 +13104,17 @@
       <c r="H369" t="n">
         <v>0</v>
       </c>
-      <c r="I369" t="n">
-        <v>0</v>
-      </c>
+      <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="n">
-        <v>52.13</v>
-      </c>
-      <c r="L369" t="inlineStr">
+      <c r="K369" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M369" t="n">
-        <v>1</v>
-      </c>
-      <c r="N369" t="inlineStr"/>
+      <c r="L369" t="n">
+        <v>1</v>
+      </c>
+      <c r="M369" t="inlineStr"/>
     </row>
     <row r="370">
       <c r="A370" s="1" t="n">
@@ -14528,22 +13141,17 @@
       <c r="H370" t="n">
         <v>0</v>
       </c>
-      <c r="I370" t="n">
-        <v>0</v>
-      </c>
+      <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="n">
-        <v>52.13</v>
-      </c>
-      <c r="L370" t="inlineStr">
+      <c r="K370" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M370" t="n">
-        <v>1</v>
-      </c>
-      <c r="N370" t="inlineStr"/>
+      <c r="L370" t="n">
+        <v>1</v>
+      </c>
+      <c r="M370" t="inlineStr"/>
     </row>
     <row r="371">
       <c r="A371" s="1" t="n">
@@ -14570,22 +13178,17 @@
       <c r="H371" t="n">
         <v>0</v>
       </c>
-      <c r="I371" t="n">
-        <v>0</v>
-      </c>
+      <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="n">
-        <v>52.13</v>
-      </c>
-      <c r="L371" t="inlineStr">
+      <c r="K371" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M371" t="n">
-        <v>1</v>
-      </c>
-      <c r="N371" t="inlineStr"/>
+      <c r="L371" t="n">
+        <v>1</v>
+      </c>
+      <c r="M371" t="inlineStr"/>
     </row>
     <row r="372">
       <c r="A372" s="1" t="n">
@@ -14612,22 +13215,17 @@
       <c r="H372" t="n">
         <v>0</v>
       </c>
-      <c r="I372" t="n">
-        <v>0</v>
-      </c>
+      <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="n">
-        <v>52.13</v>
-      </c>
-      <c r="L372" t="inlineStr">
+      <c r="K372" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M372" t="n">
-        <v>1</v>
-      </c>
-      <c r="N372" t="inlineStr"/>
+      <c r="L372" t="n">
+        <v>1</v>
+      </c>
+      <c r="M372" t="inlineStr"/>
     </row>
     <row r="373">
       <c r="A373" s="1" t="n">
@@ -14654,22 +13252,17 @@
       <c r="H373" t="n">
         <v>0</v>
       </c>
-      <c r="I373" t="n">
-        <v>0</v>
-      </c>
+      <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="n">
-        <v>52.13</v>
-      </c>
-      <c r="L373" t="inlineStr">
+      <c r="K373" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M373" t="n">
-        <v>1</v>
-      </c>
-      <c r="N373" t="inlineStr"/>
+      <c r="L373" t="n">
+        <v>1</v>
+      </c>
+      <c r="M373" t="inlineStr"/>
     </row>
     <row r="374">
       <c r="A374" s="1" t="n">
@@ -14696,22 +13289,17 @@
       <c r="H374" t="n">
         <v>0</v>
       </c>
-      <c r="I374" t="n">
-        <v>0</v>
-      </c>
+      <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="n">
-        <v>52.13</v>
-      </c>
-      <c r="L374" t="inlineStr">
+      <c r="K374" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M374" t="n">
-        <v>1</v>
-      </c>
-      <c r="N374" t="inlineStr"/>
+      <c r="L374" t="n">
+        <v>1</v>
+      </c>
+      <c r="M374" t="inlineStr"/>
     </row>
     <row r="375">
       <c r="A375" s="1" t="n">
@@ -14738,24 +13326,19 @@
       <c r="H375" t="n">
         <v>0</v>
       </c>
-      <c r="I375" t="n">
-        <v>0</v>
-      </c>
+      <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="n">
-        <v>52.13</v>
-      </c>
-      <c r="L375" t="inlineStr">
+      <c r="K375" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M375" t="n">
-        <v>1</v>
-      </c>
-      <c r="N375" t="inlineStr"/>
+      <c r="L375" t="n">
+        <v>1</v>
+      </c>
+      <c r="M375" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-11 BackTest XLM.xlsx
+++ b/BackTest/2020-01-11 BackTest XLM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-53643.89290000002</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-53762.18320000002</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-54677.18320000002</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-54677.18320000002</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-52242.99780000002</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-51638.36570000002</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-51638.36570000002</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-50909.36580000001</v>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-50181.36580000001</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-50891.36580000001</v>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-51586.36580000001</v>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-47910.44795402001</v>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-48270.84395402001</v>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-48986.84395402001</v>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-48071.23095402001</v>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-48528.32875402002</v>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-48139.31585402002</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-57039.31585402002</v>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-57039.31585402002</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-56557.98645402001</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-57119.98645402001</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-73074.53095402001</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-73914.33065402001</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-32881.78055402001</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-32881.78055402001</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-118075.10167513</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-118075.10167513</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-178949.13167513</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-178346.53937513</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-177487.53937513</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-177487.53937513</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-178581.95307513</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-353204.65977513</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-343204.65977513</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-342557.65977513</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-337880.41567513</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-351186.7850751301</v>
       </c>
       <c r="H72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-350262.7850751301</v>
       </c>
       <c r="H73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-360262.7850751301</v>
       </c>
       <c r="H74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-379132.30407513</v>
       </c>
       <c r="H75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-378613.1991751301</v>
       </c>
       <c r="H76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-377689.1991751301</v>
       </c>
       <c r="H77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-388765.5731751301</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-387116.00297513</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-378089.0709751301</v>
       </c>
       <c r="H80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-378089.0709751301</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-378079.0709751301</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-384062.9123075901</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-384866.6426075901</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-384866.6426075901</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-389866.6426075901</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-402472.8146075901</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-402875.9856075901</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-409403.8140075901</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-409403.8140075901</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-409403.8140075901</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-428264.7383075901</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-428264.7383075901</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-438264.7383075901</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-452765.5939075901</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-457692.6452075901</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-457692.6452075901</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-458463.2999075901</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-458463.2999075901</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-458434.4234075901</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-458031.1331075901</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-458031.1331075901</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-919254.7014075901</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-953507.7121075901</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -8239,11 +8239,17 @@
         <v>-1273064.07538195</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I238" t="n">
+        <v>52.3</v>
+      </c>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8272,11 +8278,17 @@
         <v>-1292818.35848195</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I239" t="n">
+        <v>52.2</v>
+      </c>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8305,11 +8317,17 @@
         <v>-1294159.29838195</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I240" t="n">
+        <v>52.13</v>
+      </c>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8338,7 +8356,7 @@
         <v>-1310812.23888195</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I241" t="n">
         <v>52.11</v>
@@ -8346,7 +8364,7 @@
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L241" t="n">
@@ -8377,7 +8395,7 @@
         <v>-1307340.90618195</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I242" t="n">
         <v>52.07</v>
@@ -8416,7 +8434,7 @@
         <v>-1333810.80618195</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I243" t="n">
         <v>52.11</v>
@@ -8455,7 +8473,7 @@
         <v>-1315565.26458195</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I244" t="n">
         <v>52</v>
@@ -8494,7 +8512,7 @@
         <v>-1327071.85858195</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I245" t="n">
         <v>52.18</v>
@@ -8533,7 +8551,7 @@
         <v>-1327071.85858195</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I246" t="n">
         <v>52</v>
@@ -8572,7 +8590,7 @@
         <v>-1326976.07308195</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I247" t="n">
         <v>52</v>
@@ -8611,7 +8629,7 @@
         <v>-1333411.80788195</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I248" t="n">
         <v>52.2</v>
@@ -8650,7 +8668,7 @@
         <v>-1323396.83208195</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I249" t="n">
         <v>52.06</v>
@@ -8689,7 +8707,7 @@
         <v>-1322407.13208195</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I250" t="n">
         <v>52.22</v>
@@ -8728,7 +8746,7 @@
         <v>-1294223.37688195</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I251" t="n">
         <v>52.3</v>
@@ -8767,7 +8785,7 @@
         <v>-1344285.83638195</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I252" t="n">
         <v>52.31</v>
@@ -8806,7 +8824,7 @@
         <v>-1300870.42698195</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I253" t="n">
         <v>52.28</v>
@@ -8845,9 +8863,11 @@
         <v>-1279949.68558195</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I254" t="n">
+        <v>52.41</v>
+      </c>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr">
         <is>
@@ -8882,9 +8902,11 @@
         <v>-1279949.68558195</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I255" t="n">
+        <v>52.43</v>
+      </c>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr">
         <is>
@@ -8919,9 +8941,11 @@
         <v>-1286199.684581951</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I256" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I256" t="n">
+        <v>52.43</v>
+      </c>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr">
         <is>
@@ -8956,7 +8980,7 @@
         <v>-1280547.042281951</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I257" t="n">
         <v>52.42</v>
@@ -8995,9 +9019,11 @@
         <v>-1280527.042281951</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
-      </c>
-      <c r="I258" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I258" t="n">
+        <v>52.51</v>
+      </c>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr">
         <is>
@@ -9032,9 +9058,11 @@
         <v>-1281276.042281951</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I259" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I259" t="n">
+        <v>52.64</v>
+      </c>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr">
         <is>
@@ -9328,9 +9356,11 @@
         <v>-1281851.155781951</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I267" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I267" t="n">
+        <v>52.31</v>
+      </c>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr">
         <is>
@@ -9365,9 +9395,11 @@
         <v>-1317868.885981951</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
-      </c>
-      <c r="I268" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I268" t="n">
+        <v>52.35</v>
+      </c>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr">
         <is>
@@ -9402,9 +9434,11 @@
         <v>-1321917.869581951</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I269" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I269" t="n">
+        <v>52.23</v>
+      </c>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr">
         <is>
@@ -9439,9 +9473,11 @@
         <v>-1236191.677281951</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I270" t="n">
+        <v>52.13</v>
+      </c>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr">
         <is>
@@ -9476,9 +9512,11 @@
         <v>-1230608.838881951</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I271" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I271" t="n">
+        <v>52.36</v>
+      </c>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr">
         <is>
@@ -9513,9 +9551,11 @@
         <v>-1229685.374381951</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I272" t="n">
+        <v>52.4</v>
+      </c>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr">
         <is>
@@ -9550,9 +9590,11 @@
         <v>-1229885.374381951</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I273" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I273" t="n">
+        <v>52.46</v>
+      </c>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr">
         <is>
@@ -9587,9 +9629,11 @@
         <v>-1224186.552385531</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I274" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I274" t="n">
+        <v>52.27</v>
+      </c>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr">
         <is>
@@ -9624,9 +9668,11 @@
         <v>-1150718.404685531</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
-      </c>
-      <c r="I275" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I275" t="n">
+        <v>52.65</v>
+      </c>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr">
         <is>
@@ -13339,6 +13385,6 @@
       <c r="M375" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-11 BackTest XLM.xlsx
+++ b/BackTest/2020-01-11 BackTest XLM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -781,7 +781,7 @@
         <v>-51586.36580000001</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-47910.44795402001</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-48270.84395402001</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-48986.84395402001</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-48071.23095402001</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-48528.32875402002</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-48139.31585402002</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-57039.31585402002</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-57039.31585402002</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-56557.98645402001</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-57119.98645402001</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-73074.53095402001</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-73914.33065402001</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-32881.78055402001</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-32881.78055402001</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-118075.10167513</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-118075.10167513</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-178949.13167513</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-178346.53937513</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-177487.53937513</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-177487.53937513</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-178581.95307513</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-353204.65977513</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-343204.65977513</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-342557.65977513</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-337880.41567513</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-351186.7850751301</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-350262.7850751301</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-360262.7850751301</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-379132.30407513</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-378613.1991751301</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-377689.1991751301</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-388765.5731751301</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-387116.00297513</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-378089.0709751301</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-378089.0709751301</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-378079.0709751301</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-384062.9123075901</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-384866.6426075901</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-384866.6426075901</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-389866.6426075901</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-402472.8146075901</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-428264.7383075901</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-428264.7383075901</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-438264.7383075901</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-452765.5939075901</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-457692.6452075901</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-457692.6452075901</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-458463.2999075901</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -8239,134 +8239,122 @@
         <v>-1273064.07538195</v>
       </c>
       <c r="H238" t="n">
-        <v>1</v>
-      </c>
-      <c r="I238" t="n">
-        <v>52.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr">
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="n">
+        <v>52.21</v>
+      </c>
+      <c r="C239" t="n">
+        <v>52.13</v>
+      </c>
+      <c r="D239" t="n">
+        <v>52.24</v>
+      </c>
+      <c r="E239" t="n">
+        <v>52.11</v>
+      </c>
+      <c r="F239" t="n">
+        <v>19754.2831</v>
+      </c>
+      <c r="G239" t="n">
+        <v>-1292818.35848195</v>
+      </c>
+      <c r="H239" t="n">
+        <v>0</v>
+      </c>
+      <c r="I239" t="inlineStr"/>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="n">
+        <v>52.11</v>
+      </c>
+      <c r="C240" t="n">
+        <v>52.11</v>
+      </c>
+      <c r="D240" t="n">
+        <v>52.11</v>
+      </c>
+      <c r="E240" t="n">
+        <v>52.11</v>
+      </c>
+      <c r="F240" t="n">
+        <v>1340.9399</v>
+      </c>
+      <c r="G240" t="n">
+        <v>-1294159.29838195</v>
+      </c>
+      <c r="H240" t="n">
+        <v>1</v>
+      </c>
+      <c r="I240" t="n">
+        <v>52.13</v>
+      </c>
+      <c r="J240" t="n">
+        <v>52.13</v>
+      </c>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="n">
+        <v>52.14</v>
+      </c>
+      <c r="C241" t="n">
+        <v>52.07</v>
+      </c>
+      <c r="D241" t="n">
+        <v>52.14</v>
+      </c>
+      <c r="E241" t="n">
+        <v>52.07</v>
+      </c>
+      <c r="F241" t="n">
+        <v>16652.9405</v>
+      </c>
+      <c r="G241" t="n">
+        <v>-1310812.23888195</v>
+      </c>
+      <c r="H241" t="n">
+        <v>1</v>
+      </c>
+      <c r="I241" t="n">
+        <v>52.11</v>
+      </c>
+      <c r="J241" t="n">
+        <v>52.13</v>
+      </c>
+      <c r="K241" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
-    </row>
-    <row r="239">
-      <c r="A239" s="1" t="n">
-        <v>237</v>
-      </c>
-      <c r="B239" t="n">
-        <v>52.21</v>
-      </c>
-      <c r="C239" t="n">
-        <v>52.13</v>
-      </c>
-      <c r="D239" t="n">
-        <v>52.24</v>
-      </c>
-      <c r="E239" t="n">
-        <v>52.11</v>
-      </c>
-      <c r="F239" t="n">
-        <v>19754.2831</v>
-      </c>
-      <c r="G239" t="n">
-        <v>-1292818.35848195</v>
-      </c>
-      <c r="H239" t="n">
-        <v>1</v>
-      </c>
-      <c r="I239" t="n">
-        <v>52.2</v>
-      </c>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
-    </row>
-    <row r="240">
-      <c r="A240" s="1" t="n">
-        <v>238</v>
-      </c>
-      <c r="B240" t="n">
-        <v>52.11</v>
-      </c>
-      <c r="C240" t="n">
-        <v>52.11</v>
-      </c>
-      <c r="D240" t="n">
-        <v>52.11</v>
-      </c>
-      <c r="E240" t="n">
-        <v>52.11</v>
-      </c>
-      <c r="F240" t="n">
-        <v>1340.9399</v>
-      </c>
-      <c r="G240" t="n">
-        <v>-1294159.29838195</v>
-      </c>
-      <c r="H240" t="n">
-        <v>1</v>
-      </c>
-      <c r="I240" t="n">
-        <v>52.13</v>
-      </c>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
-    </row>
-    <row r="241">
-      <c r="A241" s="1" t="n">
-        <v>239</v>
-      </c>
-      <c r="B241" t="n">
-        <v>52.14</v>
-      </c>
-      <c r="C241" t="n">
-        <v>52.07</v>
-      </c>
-      <c r="D241" t="n">
-        <v>52.14</v>
-      </c>
-      <c r="E241" t="n">
-        <v>52.07</v>
-      </c>
-      <c r="F241" t="n">
-        <v>16652.9405</v>
-      </c>
-      <c r="G241" t="n">
-        <v>-1310812.23888195</v>
-      </c>
-      <c r="H241" t="n">
-        <v>1</v>
-      </c>
-      <c r="I241" t="n">
-        <v>52.11</v>
-      </c>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8400,7 +8388,9 @@
       <c r="I242" t="n">
         <v>52.07</v>
       </c>
-      <c r="J242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>52.13</v>
+      </c>
       <c r="K242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8439,7 +8429,9 @@
       <c r="I243" t="n">
         <v>52.11</v>
       </c>
-      <c r="J243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>52.13</v>
+      </c>
       <c r="K243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8478,7 +8470,9 @@
       <c r="I244" t="n">
         <v>52</v>
       </c>
-      <c r="J244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>52.13</v>
+      </c>
       <c r="K244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8517,7 +8511,9 @@
       <c r="I245" t="n">
         <v>52.18</v>
       </c>
-      <c r="J245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>52.13</v>
+      </c>
       <c r="K245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8556,7 +8552,9 @@
       <c r="I246" t="n">
         <v>52</v>
       </c>
-      <c r="J246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>52.13</v>
+      </c>
       <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8595,7 +8593,9 @@
       <c r="I247" t="n">
         <v>52</v>
       </c>
-      <c r="J247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>52.13</v>
+      </c>
       <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8634,7 +8634,9 @@
       <c r="I248" t="n">
         <v>52.2</v>
       </c>
-      <c r="J248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>52.13</v>
+      </c>
       <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8673,7 +8675,9 @@
       <c r="I249" t="n">
         <v>52.06</v>
       </c>
-      <c r="J249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>52.13</v>
+      </c>
       <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8712,7 +8716,9 @@
       <c r="I250" t="n">
         <v>52.22</v>
       </c>
-      <c r="J250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>52.13</v>
+      </c>
       <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8746,12 +8752,12 @@
         <v>-1294223.37688195</v>
       </c>
       <c r="H251" t="n">
-        <v>1</v>
-      </c>
-      <c r="I251" t="n">
-        <v>52.3</v>
-      </c>
-      <c r="J251" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>52.13</v>
+      </c>
       <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8785,12 +8791,12 @@
         <v>-1344285.83638195</v>
       </c>
       <c r="H252" t="n">
-        <v>1</v>
-      </c>
-      <c r="I252" t="n">
-        <v>52.31</v>
-      </c>
-      <c r="J252" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>52.13</v>
+      </c>
       <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8824,12 +8830,12 @@
         <v>-1300870.42698195</v>
       </c>
       <c r="H253" t="n">
-        <v>1</v>
-      </c>
-      <c r="I253" t="n">
-        <v>52.28</v>
-      </c>
-      <c r="J253" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>52.13</v>
+      </c>
       <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8863,12 +8869,12 @@
         <v>-1279949.68558195</v>
       </c>
       <c r="H254" t="n">
-        <v>1</v>
-      </c>
-      <c r="I254" t="n">
-        <v>52.41</v>
-      </c>
-      <c r="J254" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>52.13</v>
+      </c>
       <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8902,12 +8908,12 @@
         <v>-1279949.68558195</v>
       </c>
       <c r="H255" t="n">
-        <v>1</v>
-      </c>
-      <c r="I255" t="n">
-        <v>52.43</v>
-      </c>
-      <c r="J255" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>52.13</v>
+      </c>
       <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8941,12 +8947,12 @@
         <v>-1286199.684581951</v>
       </c>
       <c r="H256" t="n">
-        <v>1</v>
-      </c>
-      <c r="I256" t="n">
-        <v>52.43</v>
-      </c>
-      <c r="J256" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>52.13</v>
+      </c>
       <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8980,12 +8986,12 @@
         <v>-1280547.042281951</v>
       </c>
       <c r="H257" t="n">
-        <v>1</v>
-      </c>
-      <c r="I257" t="n">
-        <v>52.42</v>
-      </c>
-      <c r="J257" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>52.13</v>
+      </c>
       <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9019,12 +9025,12 @@
         <v>-1280527.042281951</v>
       </c>
       <c r="H258" t="n">
-        <v>1</v>
-      </c>
-      <c r="I258" t="n">
-        <v>52.51</v>
-      </c>
-      <c r="J258" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>52.13</v>
+      </c>
       <c r="K258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9058,12 +9064,12 @@
         <v>-1281276.042281951</v>
       </c>
       <c r="H259" t="n">
-        <v>1</v>
-      </c>
-      <c r="I259" t="n">
-        <v>52.64</v>
-      </c>
-      <c r="J259" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>52.13</v>
+      </c>
       <c r="K259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9100,7 +9106,9 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>52.13</v>
+      </c>
       <c r="K260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9137,7 +9145,9 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>52.13</v>
+      </c>
       <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9174,7 +9184,9 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>52.13</v>
+      </c>
       <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9211,7 +9223,9 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>52.13</v>
+      </c>
       <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9248,7 +9262,9 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>52.13</v>
+      </c>
       <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9285,7 +9301,9 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>52.13</v>
+      </c>
       <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9322,7 +9340,9 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>52.13</v>
+      </c>
       <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9356,12 +9376,12 @@
         <v>-1281851.155781951</v>
       </c>
       <c r="H267" t="n">
-        <v>1</v>
-      </c>
-      <c r="I267" t="n">
-        <v>52.31</v>
-      </c>
-      <c r="J267" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>52.13</v>
+      </c>
       <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9395,12 +9415,12 @@
         <v>-1317868.885981951</v>
       </c>
       <c r="H268" t="n">
-        <v>1</v>
-      </c>
-      <c r="I268" t="n">
-        <v>52.35</v>
-      </c>
-      <c r="J268" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>52.13</v>
+      </c>
       <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9434,12 +9454,12 @@
         <v>-1321917.869581951</v>
       </c>
       <c r="H269" t="n">
-        <v>1</v>
-      </c>
-      <c r="I269" t="n">
-        <v>52.23</v>
-      </c>
-      <c r="J269" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>52.13</v>
+      </c>
       <c r="K269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9473,12 +9493,12 @@
         <v>-1236191.677281951</v>
       </c>
       <c r="H270" t="n">
-        <v>1</v>
-      </c>
-      <c r="I270" t="n">
+        <v>0</v>
+      </c>
+      <c r="I270" t="inlineStr"/>
+      <c r="J270" t="n">
         <v>52.13</v>
       </c>
-      <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9512,12 +9532,12 @@
         <v>-1230608.838881951</v>
       </c>
       <c r="H271" t="n">
-        <v>1</v>
-      </c>
-      <c r="I271" t="n">
-        <v>52.36</v>
-      </c>
-      <c r="J271" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>52.13</v>
+      </c>
       <c r="K271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9551,12 +9571,12 @@
         <v>-1229685.374381951</v>
       </c>
       <c r="H272" t="n">
-        <v>1</v>
-      </c>
-      <c r="I272" t="n">
-        <v>52.4</v>
-      </c>
-      <c r="J272" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>52.13</v>
+      </c>
       <c r="K272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9590,12 +9610,12 @@
         <v>-1229885.374381951</v>
       </c>
       <c r="H273" t="n">
-        <v>1</v>
-      </c>
-      <c r="I273" t="n">
-        <v>52.46</v>
-      </c>
-      <c r="J273" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>52.13</v>
+      </c>
       <c r="K273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9629,12 +9649,12 @@
         <v>-1224186.552385531</v>
       </c>
       <c r="H274" t="n">
-        <v>1</v>
-      </c>
-      <c r="I274" t="n">
-        <v>52.27</v>
-      </c>
-      <c r="J274" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>52.13</v>
+      </c>
       <c r="K274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9668,12 +9688,12 @@
         <v>-1150718.404685531</v>
       </c>
       <c r="H275" t="n">
-        <v>1</v>
-      </c>
-      <c r="I275" t="n">
-        <v>52.65</v>
-      </c>
-      <c r="J275" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>52.13</v>
+      </c>
       <c r="K275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9710,7 +9730,9 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>52.13</v>
+      </c>
       <c r="K276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9747,7 +9769,9 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>52.13</v>
+      </c>
       <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9784,7 +9808,9 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>52.13</v>
+      </c>
       <c r="K278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9821,7 +9847,9 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>52.13</v>
+      </c>
       <c r="K279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9858,7 +9886,9 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>52.13</v>
+      </c>
       <c r="K280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9895,7 +9925,9 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>52.13</v>
+      </c>
       <c r="K281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9932,7 +9964,9 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>52.13</v>
+      </c>
       <c r="K282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9969,7 +10003,9 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>52.13</v>
+      </c>
       <c r="K283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10006,7 +10042,9 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>52.13</v>
+      </c>
       <c r="K284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10040,17 +10078,19 @@
         <v>-1169328.286385531</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>52.13</v>
+      </c>
       <c r="K285" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L285" t="n">
-        <v>1</v>
+        <v>1.011689046614234</v>
       </c>
       <c r="M285" t="inlineStr"/>
     </row>
@@ -10077,15 +10117,11 @@
         <v>-1169328.286385531</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10118,11 +10154,7 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10151,15 +10183,11 @@
         <v>-1118396.183885531</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10188,15 +10216,11 @@
         <v>-1118396.183885531</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10225,15 +10249,11 @@
         <v>-1118396.183885531</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10262,15 +10282,11 @@
         <v>-1163396.183885531</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10299,15 +10315,11 @@
         <v>-1207710.466085531</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10336,15 +10348,11 @@
         <v>-1207710.466085531</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10373,15 +10381,11 @@
         <v>-1207710.466085531</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10410,15 +10414,11 @@
         <v>-1172184.859585531</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10447,15 +10447,11 @@
         <v>-1176879.610485531</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10484,15 +10480,11 @@
         <v>-1160118.579885531</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10521,15 +10513,11 @@
         <v>-1158886.232685531</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10558,15 +10546,11 @@
         <v>-1147721.287785531</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10595,15 +10579,11 @@
         <v>-1140342.410985531</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10636,11 +10616,7 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10673,11 +10649,7 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10710,11 +10682,7 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10747,11 +10715,7 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10784,11 +10748,7 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10821,11 +10781,7 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10854,15 +10810,11 @@
         <v>-1191207.690285531</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10891,15 +10843,11 @@
         <v>-943190.4013855311</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10928,15 +10876,11 @@
         <v>-933190.4013855311</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -10969,11 +10913,7 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11006,11 +10946,7 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11039,15 +10975,11 @@
         <v>-985649.014423941</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11080,11 +11012,7 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11117,11 +11045,7 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11154,11 +11078,7 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11191,11 +11111,7 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11228,11 +11144,7 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11265,11 +11177,7 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11302,11 +11210,7 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11339,11 +11243,7 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11376,11 +11276,7 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11413,11 +11309,7 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11446,15 +11338,11 @@
         <v>-975507.0097239411</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11487,11 +11375,7 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11524,11 +11408,7 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11561,11 +11441,7 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11598,11 +11474,7 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11635,11 +11507,7 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11672,11 +11540,7 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11709,11 +11573,7 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11746,11 +11606,7 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11783,11 +11639,7 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11820,11 +11672,7 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11857,11 +11705,7 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11894,11 +11738,7 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11931,11 +11771,7 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11968,11 +11804,7 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12005,11 +11837,7 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12042,11 +11870,7 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12079,11 +11903,7 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12116,11 +11936,7 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12153,11 +11969,7 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12190,11 +12002,7 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12227,11 +12035,7 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12264,11 +12068,7 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12301,11 +12101,7 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12338,11 +12134,7 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12375,11 +12167,7 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12412,11 +12200,7 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12449,11 +12233,7 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12486,11 +12266,7 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12523,11 +12299,7 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12560,11 +12332,7 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12597,11 +12365,7 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12634,11 +12398,7 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12671,11 +12431,7 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12708,11 +12464,7 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12745,11 +12497,7 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12782,11 +12530,7 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12819,11 +12563,7 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12856,11 +12596,7 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12893,11 +12629,7 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12930,11 +12662,7 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12967,11 +12695,7 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13004,11 +12728,7 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13041,11 +12761,7 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13078,11 +12794,7 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13115,11 +12827,7 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13152,11 +12860,7 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13189,11 +12893,7 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13226,11 +12926,7 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13263,11 +12959,7 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13300,11 +12992,7 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13337,11 +13025,7 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13374,17 +13058,13 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
       <c r="M375" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-11 BackTest XLM.xlsx
+++ b/BackTest/2020-01-11 BackTest XLM.xlsx
@@ -451,7 +451,7 @@
         <v>-53643.89290000002</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-53762.18320000002</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-54677.18320000002</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-54677.18320000002</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-52242.99780000002</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-51638.36570000002</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-51638.36570000002</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-50909.36580000001</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-50181.36580000001</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-50891.36580000001</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-51586.36580000001</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-47910.44795402001</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-48270.84395402001</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-48986.84395402001</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-48528.32875402002</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-48139.31585402002</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-57039.31585402002</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-57039.31585402002</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-56557.98645402001</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-57119.98645402001</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-73074.53095402001</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-73914.33065402001</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-32881.78055402001</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-32881.78055402001</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-49389.85075402001</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-49389.85075402001</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-73411.69585402001</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-63310.24635402001</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-88438.91815402001</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-73217.40525402001</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-76735.86245402001</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-77619.86245402001</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-78264.85345402001</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-77922.39405402</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-83762.93465402001</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-83762.93465402001</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -8305,14 +8305,10 @@
         <v>-1294159.29838195</v>
       </c>
       <c r="H240" t="n">
-        <v>1</v>
-      </c>
-      <c r="I240" t="n">
-        <v>52.13</v>
-      </c>
-      <c r="J240" t="n">
-        <v>52.13</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I240" t="inlineStr"/>
+      <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
@@ -8342,19 +8338,11 @@
         <v>-1310812.23888195</v>
       </c>
       <c r="H241" t="n">
-        <v>1</v>
-      </c>
-      <c r="I241" t="n">
-        <v>52.11</v>
-      </c>
-      <c r="J241" t="n">
-        <v>52.13</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I241" t="inlineStr"/>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8383,19 +8371,11 @@
         <v>-1307340.90618195</v>
       </c>
       <c r="H242" t="n">
-        <v>1</v>
-      </c>
-      <c r="I242" t="n">
-        <v>52.07</v>
-      </c>
-      <c r="J242" t="n">
-        <v>52.13</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I242" t="inlineStr"/>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8429,12 +8409,10 @@
       <c r="I243" t="n">
         <v>52.11</v>
       </c>
-      <c r="J243" t="n">
-        <v>52.13</v>
-      </c>
+      <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L243" t="n">
@@ -8470,9 +8448,7 @@
       <c r="I244" t="n">
         <v>52</v>
       </c>
-      <c r="J244" t="n">
-        <v>52.13</v>
-      </c>
+      <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8511,9 +8487,7 @@
       <c r="I245" t="n">
         <v>52.18</v>
       </c>
-      <c r="J245" t="n">
-        <v>52.13</v>
-      </c>
+      <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8552,9 +8526,7 @@
       <c r="I246" t="n">
         <v>52</v>
       </c>
-      <c r="J246" t="n">
-        <v>52.13</v>
-      </c>
+      <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8593,9 +8565,7 @@
       <c r="I247" t="n">
         <v>52</v>
       </c>
-      <c r="J247" t="n">
-        <v>52.13</v>
-      </c>
+      <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8634,9 +8604,7 @@
       <c r="I248" t="n">
         <v>52.2</v>
       </c>
-      <c r="J248" t="n">
-        <v>52.13</v>
-      </c>
+      <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8675,9 +8643,7 @@
       <c r="I249" t="n">
         <v>52.06</v>
       </c>
-      <c r="J249" t="n">
-        <v>52.13</v>
-      </c>
+      <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8716,9 +8682,7 @@
       <c r="I250" t="n">
         <v>52.22</v>
       </c>
-      <c r="J250" t="n">
-        <v>52.13</v>
-      </c>
+      <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8752,12 +8716,12 @@
         <v>-1294223.37688195</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>52.13</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I251" t="n">
+        <v>52.3</v>
+      </c>
+      <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8791,12 +8755,12 @@
         <v>-1344285.83638195</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>52.13</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I252" t="n">
+        <v>52.31</v>
+      </c>
+      <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8830,12 +8794,12 @@
         <v>-1300870.42698195</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>52.13</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I253" t="n">
+        <v>52.28</v>
+      </c>
+      <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8869,12 +8833,12 @@
         <v>-1279949.68558195</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>52.13</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I254" t="n">
+        <v>52.41</v>
+      </c>
+      <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8908,12 +8872,12 @@
         <v>-1279949.68558195</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>52.13</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I255" t="n">
+        <v>52.43</v>
+      </c>
+      <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8947,12 +8911,12 @@
         <v>-1286199.684581951</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>52.13</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I256" t="n">
+        <v>52.43</v>
+      </c>
+      <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8986,12 +8950,12 @@
         <v>-1280547.042281951</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>52.13</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I257" t="n">
+        <v>52.42</v>
+      </c>
+      <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9028,9 +8992,7 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>52.13</v>
-      </c>
+      <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9067,9 +9029,7 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>52.13</v>
-      </c>
+      <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9106,9 +9066,7 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>52.13</v>
-      </c>
+      <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9145,9 +9103,7 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>52.13</v>
-      </c>
+      <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9184,9 +9140,7 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>52.13</v>
-      </c>
+      <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9223,9 +9177,7 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>52.13</v>
-      </c>
+      <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9262,9 +9214,7 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>52.13</v>
-      </c>
+      <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9301,9 +9251,7 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>52.13</v>
-      </c>
+      <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9337,12 +9285,12 @@
         <v>-1296088.917481951</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>52.13</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I266" t="n">
+        <v>52.28</v>
+      </c>
+      <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9376,12 +9324,12 @@
         <v>-1281851.155781951</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>52.13</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I267" t="n">
+        <v>52.31</v>
+      </c>
+      <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9415,12 +9363,12 @@
         <v>-1317868.885981951</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
-      </c>
-      <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>52.13</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I268" t="n">
+        <v>52.35</v>
+      </c>
+      <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9454,12 +9402,12 @@
         <v>-1321917.869581951</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>52.13</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I269" t="n">
+        <v>52.23</v>
+      </c>
+      <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9493,12 +9441,12 @@
         <v>-1236191.677281951</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
+        <v>1</v>
+      </c>
+      <c r="I270" t="n">
         <v>52.13</v>
       </c>
+      <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9532,12 +9480,12 @@
         <v>-1230608.838881951</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>52.13</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I271" t="n">
+        <v>52.36</v>
+      </c>
+      <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9571,12 +9519,12 @@
         <v>-1229685.374381951</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>52.13</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I272" t="n">
+        <v>52.4</v>
+      </c>
+      <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9610,12 +9558,12 @@
         <v>-1229885.374381951</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>52.13</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I273" t="n">
+        <v>52.46</v>
+      </c>
+      <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9649,12 +9597,12 @@
         <v>-1224186.552385531</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>52.13</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I274" t="n">
+        <v>52.27</v>
+      </c>
+      <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9688,12 +9636,12 @@
         <v>-1150718.404685531</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
-      </c>
-      <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>52.13</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I275" t="n">
+        <v>52.65</v>
+      </c>
+      <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9730,9 +9678,7 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>52.13</v>
-      </c>
+      <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9769,9 +9715,7 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>52.13</v>
-      </c>
+      <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9808,9 +9752,7 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>52.13</v>
-      </c>
+      <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9847,9 +9789,7 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>52.13</v>
-      </c>
+      <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9886,9 +9826,7 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>52.13</v>
-      </c>
+      <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9925,9 +9863,7 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>52.13</v>
-      </c>
+      <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9964,9 +9900,7 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>52.13</v>
-      </c>
+      <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10003,9 +9937,7 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>52.13</v>
-      </c>
+      <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10042,9 +9974,7 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>52.13</v>
-      </c>
+      <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10078,19 +10008,17 @@
         <v>-1169328.286385531</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>52.13</v>
-      </c>
+      <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L285" t="n">
-        <v>1.011689046614234</v>
+        <v>1</v>
       </c>
       <c r="M285" t="inlineStr"/>
     </row>
@@ -10117,11 +10045,15 @@
         <v>-1169328.286385531</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10154,7 +10086,11 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10183,11 +10119,15 @@
         <v>-1118396.183885531</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10216,11 +10156,15 @@
         <v>-1118396.183885531</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10249,11 +10193,15 @@
         <v>-1118396.183885531</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10282,11 +10230,15 @@
         <v>-1163396.183885531</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10315,11 +10267,15 @@
         <v>-1207710.466085531</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10348,11 +10304,15 @@
         <v>-1207710.466085531</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10381,11 +10341,15 @@
         <v>-1207710.466085531</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10414,11 +10378,15 @@
         <v>-1172184.859585531</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10447,11 +10415,15 @@
         <v>-1176879.610485531</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10480,11 +10452,15 @@
         <v>-1160118.579885531</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10513,11 +10489,15 @@
         <v>-1158886.232685531</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10546,11 +10526,15 @@
         <v>-1147721.287785531</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10579,11 +10563,15 @@
         <v>-1140342.410985531</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10616,7 +10604,11 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10649,7 +10641,11 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10682,7 +10678,11 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10715,7 +10715,11 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10748,7 +10752,11 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10781,7 +10789,11 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10810,11 +10822,15 @@
         <v>-1191207.690285531</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10843,11 +10859,15 @@
         <v>-943190.4013855311</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10876,11 +10896,15 @@
         <v>-933190.4013855311</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -10913,7 +10937,11 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -10946,7 +10974,11 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -10975,11 +11007,15 @@
         <v>-985649.014423941</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11012,7 +11048,11 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11045,7 +11085,11 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11078,7 +11122,11 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11111,7 +11159,11 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11144,7 +11196,11 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11177,7 +11233,11 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11210,7 +11270,11 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11243,7 +11307,11 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11276,7 +11344,11 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11309,7 +11381,11 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11338,11 +11414,15 @@
         <v>-975507.0097239411</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11375,7 +11455,11 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11408,7 +11492,11 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11441,7 +11529,11 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11474,7 +11566,11 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11507,7 +11603,11 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11540,7 +11640,11 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11573,7 +11677,11 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11606,7 +11714,11 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11639,7 +11751,11 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11672,7 +11788,11 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11705,7 +11825,11 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11738,7 +11862,11 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11771,7 +11899,11 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11804,7 +11936,11 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11837,7 +11973,11 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -11870,7 +12010,11 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -11903,7 +12047,11 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -11936,7 +12084,11 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -11969,7 +12121,11 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12002,7 +12158,11 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12035,7 +12195,11 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12068,7 +12232,11 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12101,7 +12269,11 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12134,7 +12306,11 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12167,7 +12343,11 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12200,7 +12380,11 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12233,7 +12417,11 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12266,7 +12454,11 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12299,7 +12491,11 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12332,7 +12528,11 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12365,7 +12565,11 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12398,7 +12602,11 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12431,7 +12639,11 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12464,7 +12676,11 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12497,7 +12713,11 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12530,7 +12750,11 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12563,7 +12787,11 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12596,7 +12824,11 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12629,7 +12861,11 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12662,7 +12898,11 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12695,7 +12935,11 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12728,7 +12972,11 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12761,7 +13009,11 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -12794,7 +13046,11 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -12827,7 +13083,11 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -12860,7 +13120,11 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -12893,7 +13157,11 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -12926,7 +13194,11 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -12959,7 +13231,11 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -12992,7 +13268,11 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13025,7 +13305,11 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13058,7 +13342,11 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
